--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624FC80A-D180-4FCB-A505-0C06F06136BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234B2A6-D75C-4063-8E0D-E49D1258A837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -601,6 +601,9 @@
                 <c:pt idx="57">
                   <c:v>4783.7261316789618</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>4882.1093881264187</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -783,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>92.505815153193723</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>92.505815153193538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,6 +998,9 @@
                 <c:pt idx="57">
                   <c:v>5650.5072479935234</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>5713.7965717220568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1174,6 +1183,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>130.4488579008981</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>107.40972278820882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,6 +1395,9 @@
                 <c:pt idx="57">
                   <c:v>7275.2182246068051</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>7334.1074774778554</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1565,6 +1580,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>98.973869740565902</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87.575305879762524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,6 +1792,9 @@
                 <c:pt idx="57">
                   <c:v>3560.0400934971549</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>3582.047095391591</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1956,6 +1977,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43.484205595117238</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.273867765223621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2167,6 +2191,9 @@
                 <c:pt idx="57">
                   <c:v>5495.8134039854431</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>5543.4662645844164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2349,6 +2376,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>61.049608201327104</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55.205389448622554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,6 +2588,9 @@
                 <c:pt idx="57">
                   <c:v>2444.1293200126015</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>2452.6798981519264</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2740,6 +2773,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>29.071965673704018</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25.59829330460343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,6 +2985,9 @@
                 <c:pt idx="57">
                   <c:v>3262.5513324718472</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>3291.2528717012315</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3131,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45.282083398354644</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39.898275407195889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,6 +3823,9 @@
                 <c:pt idx="57">
                   <c:v>711.68147845758051</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>720.62541086189481</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3963,6 +4008,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>15.843537401928188</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.543669069390216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,6 +4220,9 @@
                 <c:pt idx="57">
                   <c:v>642.68259311384838</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>655.20386219683155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4354,6 +4405,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>15.389778000175761</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.524672136260529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4563,6 +4617,9 @@
                 <c:pt idx="57">
                   <c:v>1329.9988042487298</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>1342.3755285809507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4745,6 +4802,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>14.891994115865691</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.153383147652539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4954,6 +5014,9 @@
                 <c:pt idx="57">
                   <c:v>267.95562491836523</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>273.86491246409344</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5136,6 +5199,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>6.561346861118909</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.6428542755427431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,6 +5411,9 @@
                 <c:pt idx="57">
                   <c:v>761.09710371757501</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>771.21209771264023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5527,6 +5596,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>10.744371399202624</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.204905052799131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5736,6 +5808,9 @@
                 <c:pt idx="57">
                   <c:v>207.88593101233235</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>212.42842564884862</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5918,6 +5993,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>4.9165824301117143</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8097002033701584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6127,6 +6205,9 @@
                 <c:pt idx="57">
                   <c:v>439.74917264388466</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>445.245212070788</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6309,6 +6390,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>6.5886454631226119</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.245349306727439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7799,13 +7883,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -8176,7 +8260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9433,7 +9517,7 @@
         <v>86498</v>
       </c>
       <c r="D36" s="14">
-        <f t="shared" ref="D36:D67" si="6">C36/$P$4</f>
+        <f t="shared" ref="D36:D66" si="6">C36/$P$4</f>
         <v>1427.6168719167817</v>
       </c>
       <c r="E36" s="11">
@@ -9448,7 +9532,7 @@
         <v>9134</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" ref="H36:H67" si="7">G36/$P$4</f>
+        <f t="shared" ref="H36:H66" si="7">G36/$P$4</f>
         <v>150.75322560160797</v>
       </c>
       <c r="I36" s="11">
@@ -10607,8 +10691,36 @@
       <c r="B67" s="3">
         <v>64</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="G67" s="15"/>
+      <c r="C67" s="15">
+        <v>199414</v>
+      </c>
+      <c r="D67" s="14">
+        <f t="shared" ref="D67" si="16">C67/$P$4</f>
+        <v>3291.2528717012315</v>
+      </c>
+      <c r="E67" s="11">
+        <f t="shared" ref="E67" si="17">D67-D66</f>
+        <v>28.701539229384252</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" ref="F67" si="18">SUM(E63:E67)/5</f>
+        <v>39.898275407195889</v>
+      </c>
+      <c r="G67" s="15">
+        <v>26977</v>
+      </c>
+      <c r="H67" s="13">
+        <f t="shared" ref="H67" si="19">G67/$P$4</f>
+        <v>445.245212070788</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" ref="I67" si="20">H67-H66</f>
+        <v>5.4960394269033372</v>
+      </c>
+      <c r="J67" s="11">
+        <f t="shared" ref="J67" si="21">SUM(I63:I67)/5</f>
+        <v>6.245349306727439</v>
+      </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2">
@@ -10832,9 +10944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AZ67" sqref="AZ67"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11360,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I66" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I67" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -16887,7 +16999,7 @@
         <v>2696</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" ref="D36:D67" si="37">C36/$BR$4</f>
+        <f t="shared" ref="D36:D66" si="37">C36/$BR$4</f>
         <v>1722.3458401450962</v>
       </c>
       <c r="E36" s="11">
@@ -16902,7 +17014,7 @@
         <v>331</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" ref="H36:H67" si="38">G36/$BR$4</f>
+        <f t="shared" ref="H36:H66" si="38">G36/$BR$4</f>
         <v>211.46011613057374</v>
       </c>
       <c r="I36" s="11">
@@ -16917,7 +17029,7 @@
         <v>7092</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" ref="M36:M67" si="39">L36/$BR$5</f>
+        <f t="shared" ref="M36:M66" si="39">L36/$BR$5</f>
         <v>1614.5607333912194</v>
       </c>
       <c r="N36" s="11">
@@ -16932,7 +17044,7 @@
         <v>569</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" ref="Q36:Q67" si="40">P36/$BR$5</f>
+        <f t="shared" ref="Q36:Q66" si="40">P36/$BR$5</f>
         <v>129.53822014940832</v>
       </c>
       <c r="R36" s="11">
@@ -16947,7 +17059,7 @@
         <v>37298</v>
       </c>
       <c r="V36" s="10">
-        <f t="shared" ref="V36:V67" si="41">U36/$BR$6</f>
+        <f t="shared" ref="V36:V66" si="41">U36/$BR$6</f>
         <v>3722.7989043804223</v>
       </c>
       <c r="W36" s="11">
@@ -16962,7 +17074,7 @@
         <v>5402</v>
       </c>
       <c r="Z36" s="10">
-        <f t="shared" ref="Z36:Z67" si="42">Y36/$BR$6</f>
+        <f t="shared" ref="Z36:Z66" si="42">Y36/$BR$6</f>
         <v>539.18600679562019</v>
       </c>
       <c r="AA36" s="11">
@@ -16977,7 +17089,7 @@
         <v>7497</v>
       </c>
       <c r="AE36" s="10">
-        <f t="shared" ref="AE36:AE67" si="43">AD36/$BR$7</f>
+        <f t="shared" ref="AE36:AE66" si="43">AD36/$BR$7</f>
         <v>1527.6527148387711</v>
       </c>
       <c r="AF36" s="11">
@@ -16992,7 +17104,7 @@
         <v>313</v>
       </c>
       <c r="AI36" s="10">
-        <f t="shared" ref="AI36:AI67" si="44">AH36/$BR$7</f>
+        <f t="shared" ref="AI36:AI66" si="44">AH36/$BR$7</f>
         <v>63.779551786652711</v>
       </c>
       <c r="AJ36" s="11">
@@ -17007,7 +17119,7 @@
         <v>11588</v>
       </c>
       <c r="AN36" s="10">
-        <f t="shared" ref="AN36:AN67" si="45">AM36/$BR$8</f>
+        <f t="shared" ref="AN36:AN66" si="45">AM36/$BR$8</f>
         <v>2604.7233425514646</v>
       </c>
       <c r="AO36" s="11">
@@ -17022,7 +17134,7 @@
         <v>1267</v>
       </c>
       <c r="AR36" s="10">
-        <f t="shared" ref="AR36:AR67" si="46">AQ36/$BR$8</f>
+        <f t="shared" ref="AR36:AR66" si="46">AQ36/$BR$8</f>
         <v>284.79327537217</v>
       </c>
       <c r="AS36" s="11">
@@ -17037,7 +17149,7 @@
         <v>3450</v>
       </c>
       <c r="AW36" s="10">
-        <f t="shared" ref="AW36:AW67" si="47">AV36/$BR$9</f>
+        <f t="shared" ref="AW36:AW66" si="47">AV36/$BR$9</f>
         <v>921.85920564594676</v>
       </c>
       <c r="AX36" s="11">
@@ -17052,7 +17164,7 @@
         <v>177</v>
       </c>
       <c r="BA36" s="10">
-        <f t="shared" ref="BA36:BA67" si="48">AZ36/$BR$9</f>
+        <f t="shared" ref="BA36:BA66" si="48">AZ36/$BR$9</f>
         <v>47.295385333139876</v>
       </c>
       <c r="BB36" s="11">
@@ -22711,18 +22823,186 @@
       <c r="B67" s="3">
         <v>64</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="G67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="U67" s="15"/>
-      <c r="Y67" s="15"/>
-      <c r="AD67" s="15"/>
-      <c r="AH67" s="15"/>
-      <c r="AM67" s="15"/>
-      <c r="AQ67" s="15"/>
-      <c r="AV67" s="15"/>
-      <c r="AZ67" s="15"/>
+      <c r="C67" s="15">
+        <v>7642</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" ref="D67" si="95">C67/$BR$4</f>
+        <v>4882.1093881264187</v>
+      </c>
+      <c r="E67" s="11">
+        <f t="shared" ref="E67" si="96">D67-D66</f>
+        <v>98.383256447456915</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" ref="F67" si="97">SUM(E63:E67)/5</f>
+        <v>92.505815153193538</v>
+      </c>
+      <c r="G67" s="16">
+        <v>1128</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" ref="H67" si="98">G67/$BR$4</f>
+        <v>720.62541086189481</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" si="14"/>
+        <v>8.943932404314296</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" ref="J67" si="99">SUM(I63:I67)/5</f>
+        <v>13.543669069390216</v>
+      </c>
+      <c r="L67" s="16">
+        <v>25098</v>
+      </c>
+      <c r="M67" s="10">
+        <f t="shared" ref="M67" si="100">L67/$BR$5</f>
+        <v>5713.7965717220568</v>
+      </c>
+      <c r="N67" s="11">
+        <f t="shared" ref="N67" si="101">M67-M66</f>
+        <v>63.289323728533418</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" ref="O67" si="102">SUM(N63:N67)/5</f>
+        <v>107.40972278820882</v>
+      </c>
+      <c r="P67" s="16">
+        <v>2878</v>
+      </c>
+      <c r="Q67" s="10">
+        <f t="shared" ref="Q67" si="103">P67/$BR$5</f>
+        <v>655.20386219683155</v>
+      </c>
+      <c r="R67" s="11">
+        <f t="shared" ref="R67" si="104">Q67-Q66</f>
+        <v>12.521269082983167</v>
+      </c>
+      <c r="S67" s="11">
+        <f t="shared" ref="S67" si="105">SUM(R63:R67)/5</f>
+        <v>14.524672136260529</v>
+      </c>
+      <c r="U67" s="15">
+        <v>73479</v>
+      </c>
+      <c r="V67" s="10">
+        <f t="shared" ref="V67" si="106">U67/$BR$6</f>
+        <v>7334.1074774778554</v>
+      </c>
+      <c r="W67" s="11">
+        <f t="shared" ref="W67" si="107">V67-V66</f>
+        <v>58.889252871050303</v>
+      </c>
+      <c r="X67" s="4">
+        <f t="shared" ref="X67" si="108">SUM(W63:W67)/5</f>
+        <v>87.575305879762524</v>
+      </c>
+      <c r="Y67" s="15">
+        <v>13449</v>
+      </c>
+      <c r="Z67" s="10">
+        <f t="shared" ref="Z67" si="109">Y67/$BR$6</f>
+        <v>1342.3755285809507</v>
+      </c>
+      <c r="AA67" s="11">
+        <f t="shared" ref="AA67" si="110">Z67-Z66</f>
+        <v>12.376724332220874</v>
+      </c>
+      <c r="AB67" s="11">
+        <f t="shared" ref="AB67" si="111">SUM(AA63:AA67)/5</f>
+        <v>14.153383147652539</v>
+      </c>
+      <c r="AD67" s="15">
+        <v>17579</v>
+      </c>
+      <c r="AE67" s="10">
+        <f t="shared" ref="AE67" si="112">AD67/$BR$7</f>
+        <v>3582.047095391591</v>
+      </c>
+      <c r="AF67" s="11">
+        <f t="shared" ref="AF67" si="113">AE67-AE66</f>
+        <v>22.007001894436144</v>
+      </c>
+      <c r="AG67" s="4">
+        <f t="shared" ref="AG67" si="114">SUM(AF63:AF67)/5</f>
+        <v>34.273867765223621</v>
+      </c>
+      <c r="AH67" s="15">
+        <v>1344</v>
+      </c>
+      <c r="AI67" s="10">
+        <f t="shared" ref="AI67" si="115">AH67/$BR$7</f>
+        <v>273.86491246409344</v>
+      </c>
+      <c r="AJ67" s="11">
+        <f t="shared" ref="AJ67" si="116">AI67-AI66</f>
+        <v>5.9092875457282048</v>
+      </c>
+      <c r="AK67" s="11">
+        <f t="shared" ref="AK67" si="117">SUM(AJ63:AJ67)/5</f>
+        <v>6.6428542755427431</v>
+      </c>
+      <c r="AM67" s="15">
+        <v>24662</v>
+      </c>
+      <c r="AN67" s="10">
+        <f t="shared" ref="AN67" si="118">AM67/$BR$8</f>
+        <v>5543.4662645844164</v>
+      </c>
+      <c r="AO67" s="11">
+        <f t="shared" ref="AO67" si="119">AN67-AN66</f>
+        <v>47.652860598973348</v>
+      </c>
+      <c r="AP67" s="4">
+        <f t="shared" ref="AP67" si="120">SUM(AO63:AO67)/5</f>
+        <v>55.205389448622554</v>
+      </c>
+      <c r="AQ67" s="15">
+        <v>3431</v>
+      </c>
+      <c r="AR67" s="10">
+        <f t="shared" ref="AR67" si="121">AQ67/$BR$8</f>
+        <v>771.21209771264023</v>
+      </c>
+      <c r="AS67" s="11">
+        <f t="shared" ref="AS67" si="122">AR67-AR66</f>
+        <v>10.11499399506522</v>
+      </c>
+      <c r="AT67" s="11">
+        <f t="shared" ref="AT67" si="123">SUM(AS63:AS67)/5</f>
+        <v>10.204905052799131</v>
+      </c>
+      <c r="AV67" s="15">
+        <v>9179</v>
+      </c>
+      <c r="AW67" s="10">
+        <f t="shared" ref="AW67" si="124">AV67/$BR$9</f>
+        <v>2452.6798981519264</v>
+      </c>
+      <c r="AX67" s="11">
+        <f t="shared" ref="AX67" si="125">AW67-AW66</f>
+        <v>8.5505781393248981</v>
+      </c>
+      <c r="AY67" s="4">
+        <f t="shared" ref="AY67" si="126">SUM(AX63:AX67)/5</f>
+        <v>25.59829330460343</v>
+      </c>
+      <c r="AZ67" s="15">
+        <v>795</v>
+      </c>
+      <c r="BA67" s="10">
+        <f t="shared" ref="BA67" si="127">AZ67/$BR$9</f>
+        <v>212.42842564884862</v>
+      </c>
+      <c r="BB67" s="11">
+        <f t="shared" ref="BB67" si="128">BA67-BA66</f>
+        <v>4.5424946365162668</v>
+      </c>
+      <c r="BC67" s="11">
+        <f t="shared" ref="BC67" si="129">SUM(BB63:BB67)/5</f>
+        <v>4.8097002033701584</v>
+      </c>
     </row>
     <row r="68" spans="1:55">
       <c r="A68" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234B2A6-D75C-4063-8E0D-E49D1258A837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A86E81-B381-4983-BDCA-C193413EB9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -604,6 +604,9 @@
                 <c:pt idx="58">
                   <c:v>4882.1093881264187</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>4965.1601890236225</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -789,6 +792,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>92.505815153193538</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>92.378044690274692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,6 +1007,9 @@
                 <c:pt idx="58">
                   <c:v>5713.7965717220568</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>5793.9326938531494</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1186,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>107.40972278820882</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>105.17866029705911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,6 +1410,9 @@
                 <c:pt idx="58">
                   <c:v>7334.1074774778554</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>7420.8443600964029</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1583,6 +1598,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>87.575305879762524</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>83.502964325289753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,6 +1813,9 @@
                 <c:pt idx="58">
                   <c:v>3582.047095391591</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>3608.3332365432784</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1980,6 +2001,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>34.273867765223621</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33.70331586425673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,6 +2218,9 @@
                 <c:pt idx="58">
                   <c:v>5543.4662645844164</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>5600.1102309567823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2379,6 +2406,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>55.205389448622554</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>53.542034880545359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,6 +2621,9 @@
                 <c:pt idx="58">
                   <c:v>2452.6798981519264</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>2466.574587628329</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2776,6 +2809,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>25.59829330460343</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24.101942130221595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,6 +3024,9 @@
                 <c:pt idx="58">
                   <c:v>3291.2528717012315</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>3325.7640381926876</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3173,6 +3212,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>39.898275407195889</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>38.066262264894704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,6 +3868,9 @@
                 <c:pt idx="58">
                   <c:v>720.62541086189481</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>728.93049095161518</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4011,6 +4056,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>13.543669069390216</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.010423514364902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,6 +4271,9 @@
                 <c:pt idx="58">
                   <c:v>655.20386219683155</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>668.40810959343207</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4408,6 +4459,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>14.524672136260529</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.932757597792238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4620,6 +4674,9 @@
                 <c:pt idx="58">
                   <c:v>1342.3755285809507</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>1354.951877499175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4805,6 +4862,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>14.153383147652539</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.676161211226145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5017,6 +5077,9 @@
                 <c:pt idx="58">
                   <c:v>273.86491246409344</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>286.90609877190741</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5202,6 +5265,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>6.6428542755427431</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.2322488568075762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5414,6 +5480,9 @@
                 <c:pt idx="58">
                   <c:v>771.21209771264023</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>780.42798113036633</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5599,6 +5668,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>10.204905052799131</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1259723599921934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5811,6 +5883,9 @@
                 <c:pt idx="58">
                   <c:v>212.42842564884862</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>216.70371471851098</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5996,6 +6071,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>4.8097002033701584</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7028179766285971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6208,6 +6286,9 @@
                 <c:pt idx="58">
                   <c:v>445.245212070788</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>451.54997801996848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6393,6 +6474,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>6.245349306727439</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9746734911081827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8260,7 +8344,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10729,8 +10813,36 @@
       <c r="B68" s="3">
         <v>65</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="G68" s="15"/>
+      <c r="C68" s="15">
+        <v>201505</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" ref="D68" si="22">C68/$P$4</f>
+        <v>3325.7640381926876</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" ref="E68" si="23">D68-D67</f>
+        <v>34.511166491456152</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" ref="F68" si="24">SUM(E64:E68)/5</f>
+        <v>38.066262264894704</v>
+      </c>
+      <c r="G68" s="15">
+        <v>27359</v>
+      </c>
+      <c r="H68" s="13">
+        <f t="shared" ref="H68" si="25">G68/$P$4</f>
+        <v>451.54997801996848</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" ref="I68" si="26">H68-H67</f>
+        <v>6.3047659491804779</v>
+      </c>
+      <c r="J68" s="11">
+        <f t="shared" ref="J68" si="27">SUM(I64:I68)/5</f>
+        <v>5.9746734911081827</v>
+      </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2">
@@ -10946,7 +11058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="BB76" sqref="BB76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11472,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I67" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I68" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -22932,75 +23044,75 @@
         <v>1344</v>
       </c>
       <c r="AI67" s="10">
-        <f t="shared" ref="AI67" si="115">AH67/$BR$7</f>
+        <f>AH67/$BR$7</f>
         <v>273.86491246409344</v>
       </c>
       <c r="AJ67" s="11">
-        <f t="shared" ref="AJ67" si="116">AI67-AI66</f>
+        <f>AI67-AI66</f>
         <v>5.9092875457282048</v>
       </c>
       <c r="AK67" s="11">
-        <f t="shared" ref="AK67" si="117">SUM(AJ63:AJ67)/5</f>
+        <f>SUM(AJ63:AJ67)/5</f>
         <v>6.6428542755427431</v>
       </c>
       <c r="AM67" s="15">
         <v>24662</v>
       </c>
       <c r="AN67" s="10">
-        <f t="shared" ref="AN67" si="118">AM67/$BR$8</f>
+        <f t="shared" ref="AN67" si="115">AM67/$BR$8</f>
         <v>5543.4662645844164</v>
       </c>
       <c r="AO67" s="11">
-        <f t="shared" ref="AO67" si="119">AN67-AN66</f>
+        <f t="shared" ref="AO67" si="116">AN67-AN66</f>
         <v>47.652860598973348</v>
       </c>
       <c r="AP67" s="4">
-        <f t="shared" ref="AP67" si="120">SUM(AO63:AO67)/5</f>
+        <f t="shared" ref="AP67" si="117">SUM(AO63:AO67)/5</f>
         <v>55.205389448622554</v>
       </c>
       <c r="AQ67" s="15">
         <v>3431</v>
       </c>
       <c r="AR67" s="10">
-        <f t="shared" ref="AR67" si="121">AQ67/$BR$8</f>
+        <f t="shared" ref="AR67" si="118">AQ67/$BR$8</f>
         <v>771.21209771264023</v>
       </c>
       <c r="AS67" s="11">
-        <f t="shared" ref="AS67" si="122">AR67-AR66</f>
+        <f t="shared" ref="AS67" si="119">AR67-AR66</f>
         <v>10.11499399506522</v>
       </c>
       <c r="AT67" s="11">
-        <f t="shared" ref="AT67" si="123">SUM(AS63:AS67)/5</f>
+        <f t="shared" ref="AT67" si="120">SUM(AS63:AS67)/5</f>
         <v>10.204905052799131</v>
       </c>
       <c r="AV67" s="15">
         <v>9179</v>
       </c>
       <c r="AW67" s="10">
-        <f t="shared" ref="AW67" si="124">AV67/$BR$9</f>
+        <f t="shared" ref="AW67" si="121">AV67/$BR$9</f>
         <v>2452.6798981519264</v>
       </c>
       <c r="AX67" s="11">
-        <f t="shared" ref="AX67" si="125">AW67-AW66</f>
+        <f t="shared" ref="AX67" si="122">AW67-AW66</f>
         <v>8.5505781393248981</v>
       </c>
       <c r="AY67" s="4">
-        <f t="shared" ref="AY67" si="126">SUM(AX63:AX67)/5</f>
+        <f t="shared" ref="AY67" si="123">SUM(AX63:AX67)/5</f>
         <v>25.59829330460343</v>
       </c>
       <c r="AZ67" s="15">
         <v>795</v>
       </c>
       <c r="BA67" s="10">
-        <f t="shared" ref="BA67" si="127">AZ67/$BR$9</f>
+        <f t="shared" ref="BA67" si="124">AZ67/$BR$9</f>
         <v>212.42842564884862</v>
       </c>
       <c r="BB67" s="11">
-        <f t="shared" ref="BB67" si="128">BA67-BA66</f>
+        <f t="shared" ref="BB67" si="125">BA67-BA66</f>
         <v>4.5424946365162668</v>
       </c>
       <c r="BC67" s="11">
-        <f t="shared" ref="BC67" si="129">SUM(BB63:BB67)/5</f>
+        <f t="shared" ref="BC67" si="126">SUM(BB63:BB67)/5</f>
         <v>4.8097002033701584</v>
       </c>
     </row>
@@ -23011,18 +23123,186 @@
       <c r="B68" s="3">
         <v>65</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="G68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="U68" s="15"/>
-      <c r="Y68" s="15"/>
-      <c r="AD68" s="15"/>
-      <c r="AH68" s="15"/>
-      <c r="AM68" s="15"/>
-      <c r="AQ68" s="15"/>
-      <c r="AV68" s="15"/>
-      <c r="AZ68" s="15"/>
+      <c r="C68" s="15">
+        <v>7772</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" ref="D68" si="127">C68/$BR$4</f>
+        <v>4965.1601890236225</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" ref="E68" si="128">D68-D67</f>
+        <v>83.050800897203771</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" ref="F68" si="129">SUM(E64:E68)/5</f>
+        <v>92.378044690274692</v>
+      </c>
+      <c r="G68" s="16">
+        <v>1141</v>
+      </c>
+      <c r="H68" s="10">
+        <f t="shared" ref="H68" si="130">G68/$BR$4</f>
+        <v>728.93049095161518</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="14"/>
+        <v>8.3050800897203771</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" ref="J68" si="131">SUM(I64:I68)/5</f>
+        <v>12.010423514364902</v>
+      </c>
+      <c r="L68" s="16">
+        <v>25450</v>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" ref="M68" si="132">L68/$BR$5</f>
+        <v>5793.9326938531494</v>
+      </c>
+      <c r="N68" s="11">
+        <f t="shared" ref="N68" si="133">M68-M67</f>
+        <v>80.136122131092634</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" ref="O68" si="134">SUM(N64:N68)/5</f>
+        <v>105.17866029705911</v>
+      </c>
+      <c r="P68" s="16">
+        <v>2936</v>
+      </c>
+      <c r="Q68" s="10">
+        <f t="shared" ref="Q68" si="135">P68/$BR$5</f>
+        <v>668.40810959343207</v>
+      </c>
+      <c r="R68" s="11">
+        <f t="shared" ref="R68" si="136">Q68-Q67</f>
+        <v>13.204247396600522</v>
+      </c>
+      <c r="S68" s="11">
+        <f t="shared" ref="S68" si="137">SUM(R64:R68)/5</f>
+        <v>13.932757597792238</v>
+      </c>
+      <c r="U68" s="15">
+        <v>74348</v>
+      </c>
+      <c r="V68" s="10">
+        <f t="shared" ref="V68" si="138">U68/$BR$6</f>
+        <v>7420.8443600964029</v>
+      </c>
+      <c r="W68" s="11">
+        <f t="shared" ref="W68" si="139">V68-V67</f>
+        <v>86.736882618547497</v>
+      </c>
+      <c r="X68" s="4">
+        <f t="shared" ref="X68" si="140">SUM(W64:W68)/5</f>
+        <v>83.502964325289753</v>
+      </c>
+      <c r="Y68" s="15">
+        <v>13575</v>
+      </c>
+      <c r="Z68" s="10">
+        <f t="shared" ref="Z68" si="141">Y68/$BR$6</f>
+        <v>1354.951877499175</v>
+      </c>
+      <c r="AA68" s="11">
+        <f t="shared" ref="AA68" si="142">Z68-Z67</f>
+        <v>12.576348918224312</v>
+      </c>
+      <c r="AB68" s="11">
+        <f t="shared" ref="AB68" si="143">SUM(AA64:AA68)/5</f>
+        <v>12.676161211226145</v>
+      </c>
+      <c r="AD68" s="15">
+        <v>17708</v>
+      </c>
+      <c r="AE68" s="10">
+        <f t="shared" ref="AE68" si="144">AD68/$BR$7</f>
+        <v>3608.3332365432784</v>
+      </c>
+      <c r="AF68" s="11">
+        <f t="shared" ref="AF68" si="145">AE68-AE67</f>
+        <v>26.286141151687389</v>
+      </c>
+      <c r="AG68" s="4">
+        <f t="shared" ref="AG68" si="146">SUM(AF64:AF68)/5</f>
+        <v>33.70331586425673</v>
+      </c>
+      <c r="AH68" s="15">
+        <v>1408</v>
+      </c>
+      <c r="AI68" s="10">
+        <f>AH68/$BR$7</f>
+        <v>286.90609877190741</v>
+      </c>
+      <c r="AJ68" s="11">
+        <f>AI68-AI67</f>
+        <v>13.041186307813973</v>
+      </c>
+      <c r="AK68" s="11">
+        <f>SUM(AJ64:AJ68)/5</f>
+        <v>8.2322488568075762</v>
+      </c>
+      <c r="AM68" s="15">
+        <v>24914</v>
+      </c>
+      <c r="AN68" s="10">
+        <f t="shared" ref="AN68" si="147">AM68/$BR$8</f>
+        <v>5600.1102309567823</v>
+      </c>
+      <c r="AO68" s="11">
+        <f t="shared" ref="AO68" si="148">AN68-AN67</f>
+        <v>56.643966372365867</v>
+      </c>
+      <c r="AP68" s="4">
+        <f t="shared" ref="AP68" si="149">SUM(AO64:AO68)/5</f>
+        <v>53.542034880545359</v>
+      </c>
+      <c r="AQ68" s="15">
+        <v>3472</v>
+      </c>
+      <c r="AR68" s="10">
+        <f t="shared" ref="AR68" si="150">AQ68/$BR$8</f>
+        <v>780.42798113036633</v>
+      </c>
+      <c r="AS68" s="11">
+        <f t="shared" ref="AS68" si="151">AR68-AR67</f>
+        <v>9.2158834177261042</v>
+      </c>
+      <c r="AT68" s="11">
+        <f t="shared" ref="AT68" si="152">SUM(AS64:AS68)/5</f>
+        <v>9.1259723599921934</v>
+      </c>
+      <c r="AV68" s="15">
+        <v>9231</v>
+      </c>
+      <c r="AW68" s="10">
+        <f t="shared" ref="AW68" si="153">AV68/$BR$9</f>
+        <v>2466.574587628329</v>
+      </c>
+      <c r="AX68" s="11">
+        <f t="shared" ref="AX68" si="154">AW68-AW67</f>
+        <v>13.894689476402618</v>
+      </c>
+      <c r="AY68" s="4">
+        <f t="shared" ref="AY68" si="155">SUM(AX64:AX68)/5</f>
+        <v>24.101942130221595</v>
+      </c>
+      <c r="AZ68" s="15">
+        <v>811</v>
+      </c>
+      <c r="BA68" s="10">
+        <f t="shared" ref="BA68" si="156">AZ68/$BR$9</f>
+        <v>216.70371471851098</v>
+      </c>
+      <c r="BB68" s="11">
+        <f t="shared" ref="BB68" si="157">BA68-BA67</f>
+        <v>4.2752890696623638</v>
+      </c>
+      <c r="BC68" s="11">
+        <f t="shared" ref="BC68" si="158">SUM(BB64:BB68)/5</f>
+        <v>4.7028179766285971</v>
+      </c>
     </row>
     <row r="69" spans="1:55">
       <c r="A69" s="2">
@@ -23274,7 +23554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A86E81-B381-4983-BDCA-C193413EB9C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDBF318-D927-4A4D-A3A0-B89A9E5FA165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -607,6 +607,9 @@
                 <c:pt idx="59">
                   <c:v>4965.1601890236225</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>5039.9059098311063</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -795,6 +798,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>92.378044690274692</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>91.483651449843279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,6 +1016,9 @@
                 <c:pt idx="59">
                   <c:v>5793.9326938531494</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>5887.5007228187151</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1198,6 +1207,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>105.17866029705911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>92.839518764373864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,6 +1425,9 @@
                 <c:pt idx="59">
                   <c:v>7420.8443600964029</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>7499.2968223958023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1601,6 +1616,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>83.502964325289753</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>77.414414452181148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,6 +1834,9 @@
                 <c:pt idx="59">
                   <c:v>3608.3332365432784</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>3632.1741552622511</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2004,6 +2025,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>33.70331586425673</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24.289209498303535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,6 +2245,9 @@
                 <c:pt idx="59">
                   <c:v>5600.1102309567823</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>5659.2267514168298</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2409,6 +2436,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>53.542034880545359</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>54.261323342416652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,6 +2654,9 @@
                 <c:pt idx="59">
                   <c:v>2466.574587628329</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>2482.8741272064167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2812,6 +2845,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>24.101942130221595</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22.178062048873471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,6 +3063,9 @@
                 <c:pt idx="59">
                   <c:v>3325.7640381926876</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>3360.1926815696261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3215,6 +3254,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>38.066262264894704</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34.97989778191895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3871,6 +3913,9 @@
                 <c:pt idx="59">
                   <c:v>728.93049095161518</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>735.95786641214795</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4059,6 +4104,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>12.010423514364902</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7105551818269529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4274,6 +4322,9 @@
                 <c:pt idx="59">
                   <c:v>668.40810959343207</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>683.66129193088443</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4462,6 +4513,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>13.932757597792238</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.841693822643288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4677,6 +4731,9 @@
                 <c:pt idx="59">
                   <c:v>1354.951877499175</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>1365.3323559713604</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4865,6 +4922,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>12.676161211226145</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.438488778004103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5080,6 +5140,9 @@
                 <c:pt idx="59">
                   <c:v>286.90609877190741</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>292.81538631763561</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5268,6 +5331,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>8.2322488568075762</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.8654654919003066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5483,6 +5549,9 @@
                 <c:pt idx="59">
                   <c:v>780.42798113036633</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>789.41908690375772</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5671,6 +5740,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>9.1259723599921934</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.3957055331939276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5886,6 +5958,9 @@
                 <c:pt idx="59">
                   <c:v>216.70371471851098</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>220.97900378817334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6074,6 +6149,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>4.7028179766285971</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.5424946365162615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6289,6 +6367,9 @@
                 <c:pt idx="59">
                   <c:v>451.54997801996848</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>456.88097121783574</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6477,6 +6558,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>5.9746734911081827</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.6544838067780798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8344,7 +8428,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10851,8 +10935,36 @@
       <c r="B69" s="3">
         <v>66</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="G69" s="15"/>
+      <c r="C69" s="15">
+        <v>203591</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" ref="D69" si="28">C69/$P$4</f>
+        <v>3360.1926815696261</v>
+      </c>
+      <c r="E69" s="11">
+        <f t="shared" ref="E69" si="29">D69-D68</f>
+        <v>34.428643376938453</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" ref="F69" si="30">SUM(E65:E69)/5</f>
+        <v>34.97989778191895</v>
+      </c>
+      <c r="G69" s="15">
+        <v>27682</v>
+      </c>
+      <c r="H69" s="13">
+        <f t="shared" ref="H69" si="31">G69/$P$4</f>
+        <v>456.88097121783574</v>
+      </c>
+      <c r="I69" s="11">
+        <f t="shared" ref="I69" si="32">H69-H68</f>
+        <v>5.330993197867258</v>
+      </c>
+      <c r="J69" s="11">
+        <f t="shared" ref="J69" si="33">SUM(I65:I69)/5</f>
+        <v>5.6544838067780798</v>
+      </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2">
@@ -11056,9 +11168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BB76" sqref="BB76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11584,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I68" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I69" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -23311,18 +23423,186 @@
       <c r="B69" s="3">
         <v>66</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="G69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="U69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="AD69" s="15"/>
-      <c r="AH69" s="15"/>
-      <c r="AM69" s="15"/>
-      <c r="AQ69" s="15"/>
-      <c r="AV69" s="15"/>
-      <c r="AZ69" s="15"/>
+      <c r="C69" s="15">
+        <v>7889</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" ref="D69" si="159">C69/$BR$4</f>
+        <v>5039.9059098311063</v>
+      </c>
+      <c r="E69" s="11">
+        <f t="shared" ref="E69" si="160">D69-D68</f>
+        <v>74.745720807483849</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" ref="F69" si="161">SUM(E65:E69)/5</f>
+        <v>91.483651449843279</v>
+      </c>
+      <c r="G69" s="16">
+        <v>1152</v>
+      </c>
+      <c r="H69" s="10">
+        <f t="shared" ref="H69" si="162">G69/$BR$4</f>
+        <v>735.95786641214795</v>
+      </c>
+      <c r="I69" s="11">
+        <f t="shared" si="14"/>
+        <v>7.0273754605327667</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" ref="J69" si="163">SUM(I65:I69)/5</f>
+        <v>9.7105551818269529</v>
+      </c>
+      <c r="L69" s="16">
+        <v>25861</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" ref="M69" si="164">L69/$BR$5</f>
+        <v>5887.5007228187151</v>
+      </c>
+      <c r="N69" s="11">
+        <f t="shared" ref="N69" si="165">M69-M68</f>
+        <v>93.568028965565645</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" ref="O69" si="166">SUM(N65:N69)/5</f>
+        <v>92.839518764373864</v>
+      </c>
+      <c r="P69" s="16">
+        <v>3003</v>
+      </c>
+      <c r="Q69" s="10">
+        <f t="shared" ref="Q69" si="167">P69/$BR$5</f>
+        <v>683.66129193088443</v>
+      </c>
+      <c r="R69" s="11">
+        <f t="shared" ref="R69" si="168">Q69-Q68</f>
+        <v>15.253182337452358</v>
+      </c>
+      <c r="S69" s="11">
+        <f t="shared" ref="S69" si="169">SUM(R65:R69)/5</f>
+        <v>13.841693822643288</v>
+      </c>
+      <c r="U69" s="15">
+        <v>75134</v>
+      </c>
+      <c r="V69" s="10">
+        <f t="shared" ref="V69" si="170">U69/$BR$6</f>
+        <v>7499.2968223958023</v>
+      </c>
+      <c r="W69" s="11">
+        <f t="shared" ref="W69" si="171">V69-V68</f>
+        <v>78.452462299399485</v>
+      </c>
+      <c r="X69" s="4">
+        <f t="shared" ref="X69" si="172">SUM(W65:W69)/5</f>
+        <v>77.414414452181148</v>
+      </c>
+      <c r="Y69" s="15">
+        <v>13679</v>
+      </c>
+      <c r="Z69" s="10">
+        <f t="shared" ref="Z69" si="173">Y69/$BR$6</f>
+        <v>1365.3323559713604</v>
+      </c>
+      <c r="AA69" s="11">
+        <f t="shared" ref="AA69" si="174">Z69-Z68</f>
+        <v>10.380478472185359</v>
+      </c>
+      <c r="AB69" s="11">
+        <f t="shared" ref="AB69" si="175">SUM(AA65:AA69)/5</f>
+        <v>11.438488778004103</v>
+      </c>
+      <c r="AD69" s="15">
+        <v>17825</v>
+      </c>
+      <c r="AE69" s="10">
+        <f t="shared" ref="AE69" si="176">AD69/$BR$7</f>
+        <v>3632.1741552622511</v>
+      </c>
+      <c r="AF69" s="11">
+        <f t="shared" ref="AF69" si="177">AE69-AE68</f>
+        <v>23.840918718972716</v>
+      </c>
+      <c r="AG69" s="4">
+        <f t="shared" ref="AG69" si="178">SUM(AF65:AF69)/5</f>
+        <v>24.289209498303535</v>
+      </c>
+      <c r="AH69" s="15">
+        <v>1437</v>
+      </c>
+      <c r="AI69" s="10">
+        <f>AH69/$BR$7</f>
+        <v>292.81538631763561</v>
+      </c>
+      <c r="AJ69" s="11">
+        <f>AI69-AI68</f>
+        <v>5.9092875457282048</v>
+      </c>
+      <c r="AK69" s="11">
+        <f>SUM(AJ65:AJ69)/5</f>
+        <v>7.8654654919003066</v>
+      </c>
+      <c r="AM69" s="15">
+        <v>25177</v>
+      </c>
+      <c r="AN69" s="10">
+        <f t="shared" ref="AN69" si="179">AM69/$BR$8</f>
+        <v>5659.2267514168298</v>
+      </c>
+      <c r="AO69" s="11">
+        <f t="shared" ref="AO69" si="180">AN69-AN68</f>
+        <v>59.116520460047468</v>
+      </c>
+      <c r="AP69" s="4">
+        <f t="shared" ref="AP69" si="181">SUM(AO65:AO69)/5</f>
+        <v>54.261323342416652</v>
+      </c>
+      <c r="AQ69" s="15">
+        <v>3512</v>
+      </c>
+      <c r="AR69" s="10">
+        <f t="shared" ref="AR69" si="182">AQ69/$BR$8</f>
+        <v>789.41908690375772</v>
+      </c>
+      <c r="AS69" s="11">
+        <f t="shared" ref="AS69" si="183">AR69-AR68</f>
+        <v>8.9911057733913822</v>
+      </c>
+      <c r="AT69" s="11">
+        <f t="shared" ref="AT69" si="184">SUM(AS65:AS69)/5</f>
+        <v>9.3957055331939276</v>
+      </c>
+      <c r="AV69" s="15">
+        <v>9292</v>
+      </c>
+      <c r="AW69" s="10">
+        <f t="shared" ref="AW69" si="185">AV69/$BR$9</f>
+        <v>2482.8741272064167</v>
+      </c>
+      <c r="AX69" s="11">
+        <f t="shared" ref="AX69" si="186">AW69-AW68</f>
+        <v>16.299539578087661</v>
+      </c>
+      <c r="AY69" s="4">
+        <f t="shared" ref="AY69" si="187">SUM(AX65:AX69)/5</f>
+        <v>22.178062048873471</v>
+      </c>
+      <c r="AZ69" s="15">
+        <v>827</v>
+      </c>
+      <c r="BA69" s="10">
+        <f t="shared" ref="BA69" si="188">AZ69/$BR$9</f>
+        <v>220.97900378817334</v>
+      </c>
+      <c r="BB69" s="11">
+        <f t="shared" ref="BB69" si="189">BA69-BA68</f>
+        <v>4.2752890696623638</v>
+      </c>
+      <c r="BC69" s="11">
+        <f t="shared" ref="BC69" si="190">SUM(BB65:BB69)/5</f>
+        <v>4.5424946365162615</v>
+      </c>
     </row>
     <row r="70" spans="1:55">
       <c r="A70" s="2">
@@ -23554,7 +23834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDBF318-D927-4A4D-A3A0-B89A9E5FA165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B843B-C042-43D6-91BC-A7FB82C09820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -610,6 +610,9 @@
                 <c:pt idx="60">
                   <c:v>5039.9059098311063</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>5106.3465505488703</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -801,6 +804,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>91.483651449843279</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88.417160339792829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,6 +1025,9 @@
                 <c:pt idx="60">
                   <c:v>5887.5007228187151</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>5984.9389622281114</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1210,6 +1219,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>92.839518764373864</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>84.82590655126441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,6 +1440,9 @@
                 <c:pt idx="60">
                   <c:v>7499.2968223958023</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>7558.9845736108673</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1619,6 +1634,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>77.414414452181148</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80.568482911037421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,6 +1855,9 @@
                 <c:pt idx="60">
                   <c:v>3632.1741552622511</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>3659.6829076302961</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2028,6 +2049,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>24.289209498303535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.188859403581773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,6 +2272,9 @@
                 <c:pt idx="60">
                   <c:v>5659.2267514168298</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>5717.4441612995388</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2439,6 +2466,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>54.261323342416652</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>55.160433919755818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,6 +2687,9 @@
                 <c:pt idx="60">
                   <c:v>2482.8741272064167</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>2498.9064612176508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2848,6 +2881,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>22.178062048873471</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.009655205952733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,6 +3102,9 @@
                 <c:pt idx="60">
                   <c:v>3360.1926815696261</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>3391.0893356451911</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3257,6 +3296,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>34.97989778191895</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.378949360268415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,6 +3958,9 @@
                 <c:pt idx="60">
                   <c:v>735.95786641214795</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>745.54065113105605</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4107,6 +4152,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>9.7105551818269529</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.4550142559893864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,6 +4373,9 @@
                 <c:pt idx="60">
                   <c:v>683.66129193088443</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>698.00383651684695</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4516,6 +4567,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>13.841693822643288</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.614034384770843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,6 +4788,9 @@
                 <c:pt idx="60">
                   <c:v>1365.3323559713604</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>1374.614899220526</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4925,6 +4982,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>11.438488778004103</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.041116675979174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5143,6 +5203,9 @@
                 <c:pt idx="60">
                   <c:v>292.81538631763561</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>297.29829411094664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5334,6 +5397,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>7.8654654919003066</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.9688839332380894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5552,6 +5618,9 @@
                 <c:pt idx="60">
                   <c:v>789.41908690375772</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>798.18541503281415</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5743,6 +5812,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>9.3957055331939276</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1709278888591363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5961,6 +6033,9 @@
                 <c:pt idx="60">
                   <c:v>220.97900378817334</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>224.9870872909818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6152,6 +6227,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>4.5424946365162615</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.382171296403925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6370,6 +6448,9 @@
                 <c:pt idx="60">
                   <c:v>456.88097121783574</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>461.58478874536564</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6561,6 +6642,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>5.6544838067780798</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.2253636112841146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8428,7 +8512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10973,8 +11057,36 @@
       <c r="B70" s="3">
         <v>67</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="C70" s="15">
+        <v>205463</v>
+      </c>
+      <c r="D70" s="14">
+        <f t="shared" ref="D70" si="34">C70/$P$4</f>
+        <v>3391.0893356451911</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" ref="E70" si="35">D70-D69</f>
+        <v>30.896654075565039</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" ref="F70" si="36">SUM(E66:E70)/5</f>
+        <v>33.378949360268415</v>
+      </c>
+      <c r="G70" s="15">
+        <v>27967</v>
+      </c>
+      <c r="H70" s="13">
+        <f t="shared" ref="H70" si="37">G70/$P$4</f>
+        <v>461.58478874536564</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" ref="I70" si="38">H70-H69</f>
+        <v>4.7038175275299068</v>
+      </c>
+      <c r="J70" s="11">
+        <f t="shared" ref="J70" si="39">SUM(I66:I70)/5</f>
+        <v>5.2253636112841146</v>
+      </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2">
@@ -11168,9 +11280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="AV71" sqref="AV71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11696,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I69" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I70" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -23611,18 +23723,186 @@
       <c r="B70" s="3">
         <v>67</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="G70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="U70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="AD70" s="15"/>
-      <c r="AH70" s="15"/>
-      <c r="AM70" s="15"/>
-      <c r="AQ70" s="15"/>
-      <c r="AV70" s="15"/>
-      <c r="AZ70" s="15"/>
+      <c r="C70" s="15">
+        <v>7993</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" ref="D70" si="191">C70/$BR$4</f>
+        <v>5106.3465505488703</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" ref="E70" si="192">D70-D69</f>
+        <v>66.440640717763927</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" ref="F70" si="193">SUM(E66:E70)/5</f>
+        <v>88.417160339792829</v>
+      </c>
+      <c r="G70" s="16">
+        <v>1167</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" ref="H70" si="194">G70/$BR$4</f>
+        <v>745.54065113105605</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" si="14"/>
+        <v>9.5827847189081012</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" ref="J70" si="195">SUM(I66:I70)/5</f>
+        <v>9.4550142559893864</v>
+      </c>
+      <c r="L70" s="16">
+        <v>26289</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" ref="M70" si="196">L70/$BR$5</f>
+        <v>5984.9389622281114</v>
+      </c>
+      <c r="N70" s="11">
+        <f t="shared" ref="N70" si="197">M70-M69</f>
+        <v>97.438239409396374</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" ref="O70" si="198">SUM(N66:N70)/5</f>
+        <v>84.82590655126441</v>
+      </c>
+      <c r="P70" s="16">
+        <v>3066</v>
+      </c>
+      <c r="Q70" s="10">
+        <f t="shared" ref="Q70" si="199">P70/$BR$5</f>
+        <v>698.00383651684695</v>
+      </c>
+      <c r="R70" s="11">
+        <f t="shared" ref="R70" si="200">Q70-Q69</f>
+        <v>14.342544585962514</v>
+      </c>
+      <c r="S70" s="11">
+        <f t="shared" ref="S70" si="201">SUM(R66:R70)/5</f>
+        <v>13.614034384770843</v>
+      </c>
+      <c r="U70" s="15">
+        <v>75732</v>
+      </c>
+      <c r="V70" s="10">
+        <f t="shared" ref="V70" si="202">U70/$BR$6</f>
+        <v>7558.9845736108673</v>
+      </c>
+      <c r="W70" s="11">
+        <f t="shared" ref="W70" si="203">V70-V69</f>
+        <v>59.687751215064964</v>
+      </c>
+      <c r="X70" s="4">
+        <f t="shared" ref="X70" si="204">SUM(W66:W70)/5</f>
+        <v>80.568482911037421</v>
+      </c>
+      <c r="Y70" s="15">
+        <v>13772</v>
+      </c>
+      <c r="Z70" s="10">
+        <f t="shared" ref="Z70" si="205">Y70/$BR$6</f>
+        <v>1374.614899220526</v>
+      </c>
+      <c r="AA70" s="11">
+        <f t="shared" ref="AA70" si="206">Z70-Z69</f>
+        <v>9.2825432491656557</v>
+      </c>
+      <c r="AB70" s="11">
+        <f t="shared" ref="AB70" si="207">SUM(AA66:AA70)/5</f>
+        <v>10.041116675979174</v>
+      </c>
+      <c r="AD70" s="15">
+        <v>17960</v>
+      </c>
+      <c r="AE70" s="10">
+        <f t="shared" ref="AE70" si="208">AD70/$BR$7</f>
+        <v>3659.6829076302961</v>
+      </c>
+      <c r="AF70" s="11">
+        <f t="shared" ref="AF70" si="209">AE70-AE69</f>
+        <v>27.508752368044952</v>
+      </c>
+      <c r="AG70" s="4">
+        <f t="shared" ref="AG70" si="210">SUM(AF66:AF70)/5</f>
+        <v>23.188859403581773</v>
+      </c>
+      <c r="AH70" s="15">
+        <v>1459</v>
+      </c>
+      <c r="AI70" s="10">
+        <f>AH70/$BR$7</f>
+        <v>297.29829411094664</v>
+      </c>
+      <c r="AJ70" s="11">
+        <f>AI70-AI69</f>
+        <v>4.4829077933110284</v>
+      </c>
+      <c r="AK70" s="11">
+        <f>SUM(AJ66:AJ70)/5</f>
+        <v>6.9688839332380894</v>
+      </c>
+      <c r="AM70" s="15">
+        <v>25436</v>
+      </c>
+      <c r="AN70" s="10">
+        <f t="shared" ref="AN70" si="211">AM70/$BR$8</f>
+        <v>5717.4441612995388</v>
+      </c>
+      <c r="AO70" s="11">
+        <f t="shared" ref="AO70" si="212">AN70-AN69</f>
+        <v>58.217409882709035</v>
+      </c>
+      <c r="AP70" s="4">
+        <f t="shared" ref="AP70" si="213">SUM(AO66:AO70)/5</f>
+        <v>55.160433919755818</v>
+      </c>
+      <c r="AQ70" s="15">
+        <v>3551</v>
+      </c>
+      <c r="AR70" s="10">
+        <f t="shared" ref="AR70" si="214">AQ70/$BR$8</f>
+        <v>798.18541503281415</v>
+      </c>
+      <c r="AS70" s="11">
+        <f t="shared" ref="AS70" si="215">AR70-AR69</f>
+        <v>8.7663281290564328</v>
+      </c>
+      <c r="AT70" s="11">
+        <f t="shared" ref="AT70" si="216">SUM(AS66:AS70)/5</f>
+        <v>9.1709278888591363</v>
+      </c>
+      <c r="AV70" s="15">
+        <v>9352</v>
+      </c>
+      <c r="AW70" s="10">
+        <f t="shared" ref="AW70" si="217">AV70/$BR$9</f>
+        <v>2498.9064612176508</v>
+      </c>
+      <c r="AX70" s="11">
+        <f t="shared" ref="AX70" si="218">AW70-AW69</f>
+        <v>16.03233401123407</v>
+      </c>
+      <c r="AY70" s="4">
+        <f t="shared" ref="AY70" si="219">SUM(AX66:AX70)/5</f>
+        <v>18.009655205952733</v>
+      </c>
+      <c r="AZ70" s="15">
+        <v>842</v>
+      </c>
+      <c r="BA70" s="10">
+        <f t="shared" ref="BA70" si="220">AZ70/$BR$9</f>
+        <v>224.9870872909818</v>
+      </c>
+      <c r="BB70" s="11">
+        <f t="shared" ref="BB70" si="221">BA70-BA69</f>
+        <v>4.0080835028084607</v>
+      </c>
+      <c r="BC70" s="11">
+        <f t="shared" ref="BC70" si="222">SUM(BB66:BB70)/5</f>
+        <v>4.382171296403925</v>
+      </c>
     </row>
     <row r="71" spans="1:55">
       <c r="A71" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B843B-C042-43D6-91BC-A7FB82C09820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD3A4A6-1BF9-4F12-A8E6-289045CE28A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -613,6 +613,9 @@
                 <c:pt idx="61">
                   <c:v>5106.3465505488703</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>5191.3139083898559</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -807,6 +810,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>88.417160339792829</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.517555342178824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,6 +1034,9 @@
                 <c:pt idx="61">
                   <c:v>5984.9389622281114</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>6074.8644401877191</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1222,6 +1231,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>84.82590655126441</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.871438438839135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,6 +1455,9 @@
                 <c:pt idx="61">
                   <c:v>7558.9845736108673</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>7632.5462335531802</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1637,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>80.568482911037421</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71.465601789275027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,6 +1876,9 @@
                 <c:pt idx="61">
                   <c:v>3659.6829076302961</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>3687.80296560652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2052,6 +2073,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>23.188859403581773</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.552574421873032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,6 +2299,9 @@
                 <c:pt idx="61">
                   <c:v>5717.4441612995388</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>5764.1979113211737</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2469,6 +2496,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>55.160433919755818</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>53.676901467146124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,6 +2720,9 @@
                 <c:pt idx="61">
                   <c:v>2498.9064612176508</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>2523.7565789350629</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2884,6 +2917,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>18.009655205952733</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.925451784492271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,6 +3141,9 @@
                 <c:pt idx="61">
                   <c:v>3391.0893356451911</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>3423.5209196507922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3299,6 +3338,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>33.378949360268415</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.19391743578899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3961,6 +4003,9 @@
                 <c:pt idx="61">
                   <c:v>745.54065113105605</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>756.40114047915199</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4155,6 +4200,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>9.4550142559893864</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.943932404314296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4376,6 +4424,9 @@
                 <c:pt idx="61">
                   <c:v>698.00383651684695</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>705.06127909089207</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4570,6 +4621,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>13.614034384770843</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.475737195408737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4791,6 +4845,9 @@
                 <c:pt idx="61">
                   <c:v>1374.614899220526</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>1383.3983810046827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4985,6 +5042,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>10.041116675979174</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.679915351190584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5206,6 +5266,9 @@
                 <c:pt idx="61">
                   <c:v>297.29829411094664</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>301.3736648321385</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5400,6 +5463,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>6.9688839332380894</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.683607982754654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,6 +5687,9 @@
                 <c:pt idx="61">
                   <c:v>798.18541503281415</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>804.47918907418807</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5815,6 +5884,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>9.1709278888591363</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.6764170713226125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6036,6 +6108,9 @@
                 <c:pt idx="61">
                   <c:v>224.9870872909818</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>228.19355409322856</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6230,6 +6305,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>4.382171296403925</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0615246161792413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,6 +6529,9 @@
                 <c:pt idx="61">
                   <c:v>461.58478874536564</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>466.02453230643772</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6645,6 +6726,9 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>5.2253636112841146</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.2550719325106119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8510,9 +8594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2619D-6D80-438C-B4B6-FF2AE18F2819}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11095,8 +11179,36 @@
       <c r="B71" s="3">
         <v>68</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="G71" s="15"/>
+      <c r="C71" s="15">
+        <v>207428</v>
+      </c>
+      <c r="D71" s="14">
+        <f t="shared" ref="D71" si="40">C71/$P$4</f>
+        <v>3423.5209196507922</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" ref="E71" si="41">D71-D70</f>
+        <v>32.431584005601053</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" ref="F71" si="42">SUM(E67:E71)/5</f>
+        <v>32.19391743578899</v>
+      </c>
+      <c r="G71" s="15">
+        <v>28236</v>
+      </c>
+      <c r="H71" s="13">
+        <f t="shared" ref="H71" si="43">G71/$P$4</f>
+        <v>466.02453230643772</v>
+      </c>
+      <c r="I71" s="11">
+        <f t="shared" ref="I71" si="44">H71-H70</f>
+        <v>4.4397435610720777</v>
+      </c>
+      <c r="J71" s="11">
+        <f t="shared" ref="J71" si="45">SUM(I67:I71)/5</f>
+        <v>5.2550719325106119</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2">
@@ -11280,8 +11392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="AV71" sqref="AV71"/>
     </sheetView>
   </sheetViews>
@@ -11808,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I70" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I71" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -23911,18 +24023,186 @@
       <c r="B71" s="3">
         <v>68</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="G71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="U71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="AD71" s="15"/>
-      <c r="AH71" s="15"/>
-      <c r="AM71" s="15"/>
-      <c r="AQ71" s="15"/>
-      <c r="AV71" s="15"/>
-      <c r="AZ71" s="15"/>
+      <c r="C71" s="15">
+        <v>8126</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" ref="D71" si="223">C71/$BR$4</f>
+        <v>5191.3139083898559</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" ref="E71" si="224">D71-D70</f>
+        <v>84.967357840985642</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" ref="F71" si="225">SUM(E67:E71)/5</f>
+        <v>81.517555342178824</v>
+      </c>
+      <c r="G71" s="16">
+        <v>1184</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" ref="H71" si="226">G71/$BR$4</f>
+        <v>756.40114047915199</v>
+      </c>
+      <c r="I71" s="11">
+        <f t="shared" si="14"/>
+        <v>10.860489348095939</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" ref="J71" si="227">SUM(I67:I71)/5</f>
+        <v>8.943932404314296</v>
+      </c>
+      <c r="L71" s="16">
+        <v>26684</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" ref="M71" si="228">L71/$BR$5</f>
+        <v>6074.8644401877191</v>
+      </c>
+      <c r="N71" s="11">
+        <f t="shared" ref="N71" si="229">M71-M70</f>
+        <v>89.925477959607633</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" ref="O71" si="230">SUM(N67:N71)/5</f>
+        <v>84.871438438839135</v>
+      </c>
+      <c r="P71" s="16">
+        <v>3097</v>
+      </c>
+      <c r="Q71" s="10">
+        <f t="shared" ref="Q71" si="231">P71/$BR$5</f>
+        <v>705.06127909089207</v>
+      </c>
+      <c r="R71" s="11">
+        <f t="shared" ref="R71" si="232">Q71-Q70</f>
+        <v>7.0574425740451261</v>
+      </c>
+      <c r="S71" s="11">
+        <f t="shared" ref="S71" si="233">SUM(R67:R71)/5</f>
+        <v>12.475737195408737</v>
+      </c>
+      <c r="U71" s="15">
+        <v>76469</v>
+      </c>
+      <c r="V71" s="10">
+        <f t="shared" ref="V71" si="234">U71/$BR$6</f>
+        <v>7632.5462335531802</v>
+      </c>
+      <c r="W71" s="11">
+        <f t="shared" ref="W71" si="235">V71-V70</f>
+        <v>73.561659942312872</v>
+      </c>
+      <c r="X71" s="4">
+        <f t="shared" ref="X71" si="236">SUM(W67:W71)/5</f>
+        <v>71.465601789275027</v>
+      </c>
+      <c r="Y71" s="15">
+        <v>13860</v>
+      </c>
+      <c r="Z71" s="10">
+        <f t="shared" ref="Z71" si="237">Y71/$BR$6</f>
+        <v>1383.3983810046827</v>
+      </c>
+      <c r="AA71" s="11">
+        <f t="shared" ref="AA71" si="238">Z71-Z70</f>
+        <v>8.7834817841567201</v>
+      </c>
+      <c r="AB71" s="11">
+        <f t="shared" ref="AB71" si="239">SUM(AA67:AA71)/5</f>
+        <v>10.679915351190584</v>
+      </c>
+      <c r="AD71" s="15">
+        <v>18098</v>
+      </c>
+      <c r="AE71" s="10">
+        <f t="shared" ref="AE71" si="240">AD71/$BR$7</f>
+        <v>3687.80296560652</v>
+      </c>
+      <c r="AF71" s="11">
+        <f t="shared" ref="AF71" si="241">AE71-AE70</f>
+        <v>28.120057976223961</v>
+      </c>
+      <c r="AG71" s="4">
+        <f t="shared" ref="AG71" si="242">SUM(AF67:AF71)/5</f>
+        <v>25.552574421873032</v>
+      </c>
+      <c r="AH71" s="15">
+        <v>1479</v>
+      </c>
+      <c r="AI71" s="10">
+        <f>AH71/$BR$7</f>
+        <v>301.3736648321385</v>
+      </c>
+      <c r="AJ71" s="11">
+        <f>AI71-AI70</f>
+        <v>4.0753707211918595</v>
+      </c>
+      <c r="AK71" s="11">
+        <f>SUM(AJ67:AJ71)/5</f>
+        <v>6.683607982754654</v>
+      </c>
+      <c r="AM71" s="15">
+        <v>25644</v>
+      </c>
+      <c r="AN71" s="10">
+        <f t="shared" ref="AN71" si="243">AM71/$BR$8</f>
+        <v>5764.1979113211737</v>
+      </c>
+      <c r="AO71" s="11">
+        <f t="shared" ref="AO71" si="244">AN71-AN70</f>
+        <v>46.753750021634914</v>
+      </c>
+      <c r="AP71" s="4">
+        <f t="shared" ref="AP71" si="245">SUM(AO67:AO71)/5</f>
+        <v>53.676901467146124</v>
+      </c>
+      <c r="AQ71" s="15">
+        <v>3579</v>
+      </c>
+      <c r="AR71" s="10">
+        <f t="shared" ref="AR71" si="246">AQ71/$BR$8</f>
+        <v>804.47918907418807</v>
+      </c>
+      <c r="AS71" s="11">
+        <f t="shared" ref="AS71" si="247">AR71-AR70</f>
+        <v>6.293774041373922</v>
+      </c>
+      <c r="AT71" s="11">
+        <f t="shared" ref="AT71" si="248">SUM(AS67:AS71)/5</f>
+        <v>8.6764170713226125</v>
+      </c>
+      <c r="AV71" s="15">
+        <v>9445</v>
+      </c>
+      <c r="AW71" s="10">
+        <f t="shared" ref="AW71" si="249">AV71/$BR$9</f>
+        <v>2523.7565789350629</v>
+      </c>
+      <c r="AX71" s="11">
+        <f t="shared" ref="AX71" si="250">AW71-AW70</f>
+        <v>24.850117717412104</v>
+      </c>
+      <c r="AY71" s="4">
+        <f t="shared" ref="AY71" si="251">SUM(AX67:AX71)/5</f>
+        <v>15.925451784492271</v>
+      </c>
+      <c r="AZ71" s="15">
+        <v>854</v>
+      </c>
+      <c r="BA71" s="10">
+        <f t="shared" ref="BA71" si="252">AZ71/$BR$9</f>
+        <v>228.19355409322856</v>
+      </c>
+      <c r="BB71" s="11">
+        <f t="shared" ref="BB71" si="253">BA71-BA70</f>
+        <v>3.2064668022467515</v>
+      </c>
+      <c r="BC71" s="11">
+        <f t="shared" ref="BC71" si="254">SUM(BB67:BB71)/5</f>
+        <v>4.0615246161792413</v>
+      </c>
     </row>
     <row r="72" spans="1:55">
       <c r="A72" s="2">
@@ -24114,7 +24394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD3A4A6-1BF9-4F12-A8E6-289045CE28A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8071E-4C3C-4F14-88E2-91FEA91A312E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -616,6 +616,9 @@
                 <c:pt idx="62">
                   <c:v>5191.3139083898559</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>5310.1404389043173</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -813,6 +816,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>81.517555342178824</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85.606210155579717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,6 +1043,9 @@
                 <c:pt idx="62">
                   <c:v>6074.8644401877191</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>6187.5558619345675</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1234,6 +1243,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>84.871438438839135</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>94.751858042502136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,6 +1470,9 @@
                 <c:pt idx="62">
                   <c:v>7632.5462335531802</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>7685.7461857231292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1465,7 +1480,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$X$9:$X$74</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>8.8433691599577831</c:v>
@@ -1655,6 +1670,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>71.465601789275027</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70.327741649054772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,6 +1897,9 @@
                 <c:pt idx="62">
                   <c:v>3687.80296560652</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>3713.4778011500289</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1886,7 +1907,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AG$9:$AG$74</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>6.4390857394831471</c:v>
@@ -2076,6 +2097,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>25.552574421873032</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26.28614115168757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,6 +2326,9 @@
                 <c:pt idx="62">
                   <c:v>5764.1979113211737</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>5810.5021060541385</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2499,6 +2526,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>53.676901467146124</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.407168293944416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2723,6 +2753,12 @@
                 <c:pt idx="62">
                   <c:v>2523.7565789350629</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>2545.1330242833747</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.80161670056169287</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2920,6 +2956,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>15.925451784492271</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.490625226289648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,6 +3183,9 @@
                 <c:pt idx="62">
                   <c:v>3423.5209196507922</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>3454.8797031676581</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3341,6 +3383,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>32.19391743578899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.725366293285333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,6 +4051,9 @@
                 <c:pt idx="62">
                   <c:v>756.40114047915199</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>763.42851593968464</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4013,7 +4061,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$J$9:$J$74</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4203,6 +4251,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>8.943932404314296</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.5606210155579667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4427,6 +4478,9 @@
                 <c:pt idx="62">
                   <c:v>705.06127909089207</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>711.66340278919233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4624,6 +4678,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>12.475737195408737</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.291908118472156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,6 +4905,9 @@
                 <c:pt idx="62">
                   <c:v>1383.3983810046827</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>1416.2366254022686</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5045,6 +5105,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>10.679915351190584</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.772219364263583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,6 +5332,9 @@
                 <c:pt idx="62">
                   <c:v>301.3736648321385</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>306.06034116150914</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5466,6 +5532,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>6.683607982754654</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.4390857394831418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5690,6 +5759,9 @@
                 <c:pt idx="62">
                   <c:v>804.47918907418807</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>812.3464066259055</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5887,6 +5959,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>8.6764170713226125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.2268617826530548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,6 +6186,9 @@
                 <c:pt idx="62">
                   <c:v>228.19355409322856</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>230.59840419491366</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6308,6 +6386,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>4.0615246161792413</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.633995709213008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6532,6 +6613,9 @@
                 <c:pt idx="62">
                   <c:v>466.02453230643772</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>473.84772356275062</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6729,6 +6813,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>5.2550719325106119</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.7205022983925229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6978,7 +7065,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8594,9 +8681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2619D-6D80-438C-B4B6-FF2AE18F2819}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11217,8 +11304,36 @@
       <c r="B72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="G72" s="15"/>
+      <c r="C72" s="15">
+        <v>209328</v>
+      </c>
+      <c r="D72" s="14">
+        <f t="shared" ref="D72" si="46">C72/$P$4</f>
+        <v>3454.8797031676581</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" ref="E72" si="47">D72-D71</f>
+        <v>31.358783516865969</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" ref="F72" si="48">SUM(E68:E72)/5</f>
+        <v>32.725366293285333</v>
+      </c>
+      <c r="G72" s="15">
+        <v>28710</v>
+      </c>
+      <c r="H72" s="13">
+        <f t="shared" ref="H72" si="49">G72/$P$4</f>
+        <v>473.84772356275062</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" ref="I72" si="50">H72-H71</f>
+        <v>7.8231912563128958</v>
+      </c>
+      <c r="J72" s="11">
+        <f t="shared" ref="J72" si="51">SUM(I68:I72)/5</f>
+        <v>5.7205022983925229</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2">
@@ -11392,9 +11507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AV71" sqref="AV71"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AV73" sqref="AV73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11920,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I71" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I72" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -12377,7 +12492,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="11">
         <f>SUM(I5:I9)/5</f>
         <v>0</v>
       </c>
@@ -12422,7 +12537,7 @@
         <f t="shared" si="17"/>
         <v>8.3842326121495887</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="11">
         <f>SUM(W5:W9)/5</f>
         <v>8.8433691599577831</v>
       </c>
@@ -12452,7 +12567,7 @@
         <f t="shared" si="19"/>
         <v>8.1507414423837297</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="11">
         <f>SUM(AF5:AF9)/5</f>
         <v>6.4390857394831471</v>
       </c>
@@ -12575,7 +12690,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="11">
         <f t="shared" ref="J10:J64" si="26">SUM(I6:I10)/5</f>
         <v>0</v>
       </c>
@@ -12620,7 +12735,7 @@
         <f t="shared" si="17"/>
         <v>36.830736117657139</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="11">
         <f t="shared" ref="X10:X64" si="29">SUM(W6:W10)/5</f>
         <v>14.852069198664992</v>
       </c>
@@ -12650,7 +12765,7 @@
         <f t="shared" si="19"/>
         <v>14.67133459629072</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="11">
         <f t="shared" ref="AG10:AG64" si="31">SUM(AF6:AF10)/5</f>
         <v>8.9658155866221048</v>
       </c>
@@ -12763,7 +12878,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="11">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -12808,7 +12923,7 @@
         <f t="shared" si="17"/>
         <v>26.949319110480829</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="11">
         <f t="shared" si="29"/>
         <v>19.882608765954746</v>
       </c>
@@ -12838,7 +12953,7 @@
         <f t="shared" si="19"/>
         <v>2.0376853605959369</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AG11" s="11">
         <f t="shared" si="31"/>
         <v>8.2322488568075709</v>
       </c>
@@ -12957,7 +13072,7 @@
         <f t="shared" si="14"/>
         <v>0.63885231459387837</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="11">
         <f t="shared" si="26"/>
         <v>0.12777046291877567</v>
       </c>
@@ -13002,7 +13117,7 @@
         <f t="shared" si="17"/>
         <v>26.550069938473698</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="11">
         <f t="shared" si="29"/>
         <v>22.298066256597842</v>
       </c>
@@ -13032,7 +13147,7 @@
         <f t="shared" si="19"/>
         <v>6.9281302260261697</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AG12" s="11">
         <f t="shared" si="31"/>
         <v>7.987726613536057</v>
       </c>
@@ -13145,7 +13260,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="11">
         <f t="shared" si="26"/>
         <v>0.12777046291877567</v>
       </c>
@@ -13190,7 +13305,7 @@
         <f t="shared" si="17"/>
         <v>29.943687900534258</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="11">
         <f t="shared" si="29"/>
         <v>25.731609135859106</v>
       </c>
@@ -13220,7 +13335,7 @@
         <f t="shared" si="19"/>
         <v>10.799732411158452</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="11">
         <f t="shared" si="31"/>
         <v>8.5175248072910019</v>
       </c>
@@ -13333,7 +13448,7 @@
         <f t="shared" si="14"/>
         <v>1.277704629187757</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="11">
         <f t="shared" si="26"/>
         <v>0.38331138875632709</v>
       </c>
@@ -13378,7 +13493,7 @@
         <f t="shared" si="17"/>
         <v>43.019098283767562</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="11">
         <f t="shared" si="29"/>
         <v>32.658582270182691</v>
       </c>
@@ -13408,7 +13523,7 @@
         <f t="shared" si="19"/>
         <v>9.5771211948008812</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AG14" s="11">
         <f t="shared" si="31"/>
         <v>8.8028007577744312</v>
       </c>
@@ -13521,7 +13636,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="11">
         <f t="shared" si="26"/>
         <v>0.38331138875632709</v>
       </c>
@@ -13566,7 +13681,7 @@
         <f t="shared" si="17"/>
         <v>36.03223777364289</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="11">
         <f t="shared" si="29"/>
         <v>32.498882601379847</v>
       </c>
@@ -13596,7 +13711,7 @@
         <f t="shared" si="19"/>
         <v>16.505251420827065</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AG15" s="11">
         <f t="shared" si="31"/>
         <v>9.1695841226817016</v>
       </c>
@@ -13709,7 +13824,7 @@
         <f t="shared" si="14"/>
         <v>0.63885231459387826</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="11">
         <f t="shared" si="26"/>
         <v>0.51108185167510278</v>
       </c>
@@ -13754,7 +13869,7 @@
         <f t="shared" si="17"/>
         <v>80.64833274543895</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="11">
         <f t="shared" si="29"/>
         <v>43.238685328371467</v>
       </c>
@@ -13784,7 +13899,7 @@
         <f t="shared" si="19"/>
         <v>11.207269483277628</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AG16" s="11">
         <f t="shared" si="31"/>
         <v>11.00350094721804</v>
       </c>
@@ -13897,7 +14012,7 @@
         <f t="shared" si="14"/>
         <v>1.277704629187757</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="11">
         <f t="shared" si="26"/>
         <v>0.63885231459387837</v>
       </c>
@@ -13942,7 +14057,7 @@
         <f t="shared" si="17"/>
         <v>76.755653318369468</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="11">
         <f t="shared" si="29"/>
         <v>53.279802004350628</v>
       </c>
@@ -13972,7 +14087,7 @@
         <f t="shared" si="19"/>
         <v>25.878604079568348</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AG17" s="11">
         <f t="shared" si="31"/>
         <v>14.793595717926474</v>
       </c>
@@ -14085,7 +14200,7 @@
         <f t="shared" si="14"/>
         <v>0.63885231459387848</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="11">
         <f t="shared" si="26"/>
         <v>0.76662277751265406</v>
       </c>
@@ -14130,7 +14245,7 @@
         <f t="shared" si="17"/>
         <v>127.75973504227943</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="11">
         <f t="shared" si="29"/>
         <v>72.843011432699655</v>
       </c>
@@ -14160,7 +14275,7 @@
         <f t="shared" si="19"/>
         <v>15.078871668409903</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AG18" s="11">
         <f t="shared" si="31"/>
         <v>15.649423569376765</v>
       </c>
@@ -14273,7 +14388,7 @@
         <f t="shared" si="14"/>
         <v>0.63885231459387803</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="11">
         <f t="shared" si="26"/>
         <v>0.63885231459387837</v>
       </c>
@@ -14318,7 +14433,7 @@
         <f t="shared" si="17"/>
         <v>32.139558346573494</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="11">
         <f t="shared" si="29"/>
         <v>70.667103445260835</v>
       </c>
@@ -14348,7 +14463,7 @@
         <f t="shared" si="19"/>
         <v>22.822076038674453</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AG19" s="11">
         <f t="shared" si="31"/>
         <v>18.29841453815148</v>
       </c>
@@ -14461,7 +14576,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="11">
         <f t="shared" si="26"/>
         <v>0.63885231459387837</v>
       </c>
@@ -14506,7 +14621,7 @@
         <f t="shared" si="17"/>
         <v>148.62050427965164</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="11">
         <f t="shared" si="29"/>
         <v>93.184756746462597</v>
       </c>
@@ -14536,7 +14651,7 @@
         <f t="shared" si="19"/>
         <v>34.029345521952081</v>
       </c>
-      <c r="AG20" s="4">
+      <c r="AG20" s="11">
         <f t="shared" si="31"/>
         <v>21.803233358376481</v>
       </c>
@@ -14649,7 +14764,7 @@
         <f t="shared" si="14"/>
         <v>1.916556943781635</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="11">
         <f t="shared" si="26"/>
         <v>0.89439324043142965</v>
       </c>
@@ -14694,7 +14809,7 @@
         <f t="shared" si="17"/>
         <v>144.22876338757339</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="11">
         <f t="shared" si="29"/>
         <v>105.90084287488949</v>
       </c>
@@ -14724,7 +14839,7 @@
         <f t="shared" si="19"/>
         <v>73.560441517513198</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AG21" s="11">
         <f t="shared" si="31"/>
         <v>34.273867765223599</v>
       </c>
@@ -14837,7 +14952,7 @@
         <f t="shared" si="14"/>
         <v>3.83311388756327</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="11">
         <f t="shared" si="26"/>
         <v>1.4054750921065324</v>
       </c>
@@ -14882,7 +14997,7 @@
         <f t="shared" si="17"/>
         <v>109.29446083695007</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="11">
         <f t="shared" si="29"/>
         <v>112.4086043786056</v>
       </c>
@@ -14912,7 +15027,7 @@
         <f t="shared" si="19"/>
         <v>42.995161108574166</v>
       </c>
-      <c r="AG22" s="4">
+      <c r="AG22" s="11">
         <f t="shared" si="31"/>
         <v>37.697179171024757</v>
       </c>
@@ -15025,7 +15140,7 @@
         <f t="shared" si="14"/>
         <v>6.3885231459387839</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="11">
         <f t="shared" si="26"/>
         <v>2.5554092583755135</v>
       </c>
@@ -15070,7 +15185,7 @@
         <f t="shared" si="17"/>
         <v>186.14992644832114</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23" s="11">
         <f t="shared" si="29"/>
         <v>124.08664265981395</v>
       </c>
@@ -15100,7 +15215,7 @@
         <f t="shared" si="19"/>
         <v>69.688839332380951</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AG23" s="11">
         <f t="shared" si="31"/>
         <v>48.619172703818968</v>
       </c>
@@ -15213,7 +15328,7 @@
         <f t="shared" si="14"/>
         <v>3.8331138875632718</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="11">
         <f t="shared" si="26"/>
         <v>3.1942615729693919</v>
       </c>
@@ -15258,7 +15373,7 @@
         <f t="shared" si="17"/>
         <v>158.40210899382623</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="11">
         <f t="shared" si="29"/>
         <v>149.33915278926449</v>
       </c>
@@ -15288,7 +15403,7 @@
         <f t="shared" si="19"/>
         <v>47.88560597400442</v>
       </c>
-      <c r="AG24" s="4">
+      <c r="AG24" s="11">
         <f t="shared" si="31"/>
         <v>53.631878690884967</v>
       </c>
@@ -15401,7 +15516,7 @@
         <f t="shared" si="14"/>
         <v>10.860489348095932</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="11">
         <f t="shared" si="26"/>
         <v>5.3663594425885783</v>
       </c>
@@ -15446,7 +15561,7 @@
         <f t="shared" si="17"/>
         <v>137.4415274634523</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25" s="11">
         <f t="shared" si="29"/>
         <v>147.10335742602462</v>
       </c>
@@ -15476,7 +15591,7 @@
         <f t="shared" si="19"/>
         <v>61.334329353937562</v>
       </c>
-      <c r="AG25" s="4">
+      <c r="AG25" s="11">
         <f t="shared" si="31"/>
         <v>59.092875457282062</v>
       </c>
@@ -15589,7 +15704,7 @@
         <f t="shared" si="14"/>
         <v>6.3885231459387839</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="11">
         <f t="shared" si="26"/>
         <v>6.2607526830200086</v>
       </c>
@@ -15634,7 +15749,7 @@
         <f t="shared" si="17"/>
         <v>156.80511230579782</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="11">
         <f t="shared" si="29"/>
         <v>149.61862720966951</v>
       </c>
@@ -15664,7 +15779,7 @@
         <f t="shared" si="19"/>
         <v>47.070531829766082</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AG26" s="11">
         <f t="shared" si="31"/>
         <v>53.794893519732639</v>
       </c>
@@ -15777,7 +15892,7 @@
         <f t="shared" si="14"/>
         <v>8.3050800897204198</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="11">
         <f t="shared" si="26"/>
         <v>7.1551459234514381</v>
       </c>
@@ -15822,7 +15937,7 @@
         <f t="shared" si="17"/>
         <v>149.01975345165874</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X27" s="11">
         <f t="shared" si="29"/>
         <v>157.56368573261125</v>
       </c>
@@ -15852,7 +15967,7 @@
         <f t="shared" si="19"/>
         <v>103.92195339039256</v>
       </c>
-      <c r="AG27" s="4">
+      <c r="AG27" s="11">
         <f t="shared" si="31"/>
         <v>65.980251976096312</v>
       </c>
@@ -15965,7 +16080,7 @@
         <f t="shared" si="14"/>
         <v>11.499341662689808</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="11">
         <f t="shared" si="26"/>
         <v>8.1773096268016428</v>
       </c>
@@ -16010,7 +16125,7 @@
         <f t="shared" si="17"/>
         <v>216.69248810686622</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28" s="11">
         <f t="shared" si="29"/>
         <v>163.67219806432027</v>
       </c>
@@ -16040,7 +16155,7 @@
         <f t="shared" si="19"/>
         <v>55.017504736090245</v>
       </c>
-      <c r="AG28" s="4">
+      <c r="AG28" s="11">
         <f t="shared" si="31"/>
         <v>63.045985056838177</v>
       </c>
@@ -16153,7 +16268,7 @@
         <f t="shared" si="14"/>
         <v>17.887864808628599</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="11">
         <f t="shared" si="26"/>
         <v>10.988259811014709</v>
       </c>
@@ -16198,7 +16313,7 @@
         <f t="shared" si="17"/>
         <v>237.55325734423832</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X29" s="11">
         <f t="shared" si="29"/>
         <v>179.50242773440269</v>
       </c>
@@ -16228,7 +16343,7 @@
         <f t="shared" si="19"/>
         <v>111.4613892245975</v>
       </c>
-      <c r="AG29" s="4">
+      <c r="AG29" s="11">
         <f t="shared" si="31"/>
         <v>75.761141706956792</v>
       </c>
@@ -16341,7 +16456,7 @@
         <f t="shared" si="14"/>
         <v>21.082126381597988</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="11">
         <f t="shared" si="26"/>
         <v>13.032587217715122</v>
       </c>
@@ -16386,7 +16501,7 @@
         <f t="shared" si="17"/>
         <v>324.48976454878948</v>
       </c>
-      <c r="X30" s="4">
+      <c r="X30" s="11">
         <f t="shared" si="29"/>
         <v>216.91207515147011</v>
       </c>
@@ -16416,7 +16531,7 @@
         <f t="shared" si="19"/>
         <v>119.40836213092177</v>
       </c>
-      <c r="AG30" s="4">
+      <c r="AG30" s="11">
         <f t="shared" si="31"/>
         <v>87.375948262353631</v>
       </c>
@@ -16529,7 +16644,7 @@
         <f t="shared" si="14"/>
         <v>12.138193977283692</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="11">
         <f t="shared" si="26"/>
         <v>14.182521383984101</v>
       </c>
@@ -16574,7 +16689,7 @@
         <f t="shared" si="17"/>
         <v>168.78258746601159</v>
       </c>
-      <c r="X31" s="4">
+      <c r="X31" s="11">
         <f t="shared" si="29"/>
         <v>219.30757018351287</v>
       </c>
@@ -16604,7 +16719,7 @@
         <f t="shared" si="19"/>
         <v>102.90311071009455</v>
       </c>
-      <c r="AG31" s="4">
+      <c r="AG31" s="11">
         <f t="shared" si="31"/>
         <v>98.542464038419325</v>
       </c>
@@ -16717,7 +16832,7 @@
         <f t="shared" si="14"/>
         <v>26.192944898349012</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="11">
         <f t="shared" si="26"/>
         <v>17.76009434570982</v>
       </c>
@@ -16762,7 +16877,7 @@
         <f t="shared" si="17"/>
         <v>155.20811561776918</v>
       </c>
-      <c r="X32" s="4">
+      <c r="X32" s="11">
         <f t="shared" si="29"/>
         <v>220.54524261673495</v>
       </c>
@@ -16792,7 +16907,7 @@
         <f t="shared" si="19"/>
         <v>78.043349310824169</v>
       </c>
-      <c r="AG32" s="4">
+      <c r="AG32" s="11">
         <f t="shared" si="31"/>
         <v>93.366743222505647</v>
       </c>
@@ -16905,7 +17020,7 @@
         <f t="shared" si="14"/>
         <v>12.138193977283692</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="11">
         <f t="shared" si="26"/>
         <v>17.887864808628599</v>
       </c>
@@ -16950,7 +17065,7 @@
         <f t="shared" si="17"/>
         <v>193.83547300945838</v>
       </c>
-      <c r="X33" s="4">
+      <c r="X33" s="11">
         <f t="shared" si="29"/>
         <v>215.9738395972534</v>
       </c>
@@ -16980,7 +17095,7 @@
         <f t="shared" si="19"/>
         <v>90.269461474400032</v>
       </c>
-      <c r="AG33" s="4">
+      <c r="AG33" s="11">
         <f t="shared" si="31"/>
         <v>100.4171345701676</v>
       </c>
@@ -17093,7 +17208,7 @@
         <f t="shared" si="14"/>
         <v>14.693603235659197</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="11">
         <f t="shared" si="26"/>
         <v>17.249012494034716</v>
       </c>
@@ -17138,7 +17253,7 @@
         <f t="shared" si="17"/>
         <v>163.9915974019259</v>
       </c>
-      <c r="X34" s="4">
+      <c r="X34" s="11">
         <f t="shared" si="29"/>
         <v>201.26150760879091</v>
       </c>
@@ -17168,7 +17283,7 @@
         <f t="shared" si="19"/>
         <v>100.66165681343909</v>
       </c>
-      <c r="AG34" s="4">
+      <c r="AG34" s="11">
         <f t="shared" si="31"/>
         <v>98.25718808793593</v>
       </c>
@@ -17281,7 +17396,7 @@
         <f t="shared" si="14"/>
         <v>16.61016017944084</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="11">
         <f t="shared" si="26"/>
         <v>16.354619253603286</v>
       </c>
@@ -17326,7 +17441,7 @@
         <f t="shared" si="17"/>
         <v>253.82266110352884</v>
       </c>
-      <c r="X35" s="4">
+      <c r="X35" s="11">
         <f t="shared" si="29"/>
         <v>187.12808691973879</v>
       </c>
@@ -17356,7 +17471,7 @@
         <f t="shared" si="19"/>
         <v>100.45788827737942</v>
       </c>
-      <c r="AG35" s="4">
+      <c r="AG35" s="11">
         <f t="shared" si="31"/>
         <v>94.467093317227452</v>
       </c>
@@ -17469,7 +17584,7 @@
         <f t="shared" si="14"/>
         <v>32.581468044287789</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="11">
         <f t="shared" si="26"/>
         <v>20.443274067004104</v>
       </c>
@@ -17514,7 +17629,7 @@
         <f t="shared" si="17"/>
         <v>240.4478138412901</v>
       </c>
-      <c r="X36" s="4">
+      <c r="X36" s="11">
         <f t="shared" si="29"/>
         <v>201.46113219479449</v>
       </c>
@@ -17544,7 +17659,7 @@
         <f t="shared" si="19"/>
         <v>114.51791726549141</v>
       </c>
-      <c r="AG36" s="4">
+      <c r="AG36" s="11">
         <f t="shared" si="31"/>
         <v>96.790054628306819</v>
       </c>
@@ -17657,7 +17772,7 @@
         <f t="shared" si="14"/>
         <v>17.24901249403473</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="11">
         <f t="shared" si="26"/>
         <v>18.654487586141251</v>
       </c>
@@ -17702,7 +17817,7 @@
         <f t="shared" si="17"/>
         <v>211.30262428476999</v>
       </c>
-      <c r="X37" s="4">
+      <c r="X37" s="11">
         <f t="shared" si="29"/>
         <v>212.68003392819463</v>
       </c>
@@ -17732,7 +17847,7 @@
         <f t="shared" si="19"/>
         <v>88.231776113804017</v>
       </c>
-      <c r="AG37" s="4">
+      <c r="AG37" s="11">
         <f t="shared" si="31"/>
         <v>98.827739988902792</v>
       </c>
@@ -17845,7 +17960,7 @@
         <f t="shared" si="14"/>
         <v>12.138193977283692</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="11">
         <f t="shared" si="26"/>
         <v>18.654487586141251</v>
       </c>
@@ -17890,7 +18005,7 @@
         <f t="shared" si="17"/>
         <v>158.90117045883517</v>
       </c>
-      <c r="X38" s="4">
+      <c r="X38" s="11">
         <f t="shared" si="29"/>
         <v>205.69317341806999</v>
       </c>
@@ -17920,7 +18035,7 @@
         <f t="shared" si="19"/>
         <v>87.212933433505896</v>
       </c>
-      <c r="AG38" s="4">
+      <c r="AG38" s="11">
         <f t="shared" si="31"/>
         <v>98.216434380723967</v>
       </c>
@@ -18033,7 +18148,7 @@
         <f t="shared" si="14"/>
         <v>12.777046291877554</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="11">
         <f t="shared" si="26"/>
         <v>18.271176197384921</v>
       </c>
@@ -18078,7 +18193,7 @@
         <f t="shared" si="17"/>
         <v>115.18338612405478</v>
       </c>
-      <c r="X39" s="4">
+      <c r="X39" s="11">
         <f t="shared" si="29"/>
         <v>195.93153116249579</v>
       </c>
@@ -18108,7 +18223,7 @@
         <f t="shared" si="19"/>
         <v>74.579284197811148</v>
       </c>
-      <c r="AG39" s="4">
+      <c r="AG39" s="11">
         <f t="shared" si="31"/>
         <v>92.999959857598384</v>
       </c>
@@ -18221,7 +18336,7 @@
         <f t="shared" si="14"/>
         <v>19.804421752410235</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="11">
         <f t="shared" si="26"/>
         <v>18.910028511978801</v>
       </c>
@@ -18266,7 +18381,7 @@
         <f t="shared" si="17"/>
         <v>104.5034707728646</v>
       </c>
-      <c r="X40" s="4">
+      <c r="X40" s="11">
         <f t="shared" si="29"/>
         <v>166.06769309636292</v>
       </c>
@@ -18296,7 +18411,7 @@
         <f t="shared" si="19"/>
         <v>87.824239041684677</v>
       </c>
-      <c r="AG40" s="4">
+      <c r="AG40" s="11">
         <f t="shared" si="31"/>
         <v>90.473230010459432</v>
       </c>
@@ -18409,7 +18524,7 @@
         <f t="shared" si="14"/>
         <v>20.443274067004097</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="11">
         <f t="shared" si="26"/>
         <v>16.482389716522061</v>
       </c>
@@ -18454,7 +18569,7 @@
         <f t="shared" si="17"/>
         <v>156.20623854778751</v>
       </c>
-      <c r="X41" s="4">
+      <c r="X41" s="11">
         <f t="shared" si="29"/>
         <v>149.21937803766241</v>
       </c>
@@ -18484,7 +18599,7 @@
         <f t="shared" si="19"/>
         <v>95.77121194800884</v>
       </c>
-      <c r="AG41" s="4">
+      <c r="AG41" s="11">
         <f t="shared" si="31"/>
         <v>86.723888946962916</v>
       </c>
@@ -18597,7 +18712,7 @@
         <f t="shared" si="14"/>
         <v>17.887864808628592</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="11">
         <f t="shared" si="26"/>
         <v>16.610160179440832</v>
       </c>
@@ -18642,7 +18757,7 @@
         <f t="shared" si="17"/>
         <v>128.9574825583004</v>
       </c>
-      <c r="X42" s="4">
+      <c r="X42" s="11">
         <f t="shared" si="29"/>
         <v>132.7503496923685</v>
       </c>
@@ -18672,7 +18787,7 @@
         <f t="shared" si="19"/>
         <v>99.031508524962192</v>
       </c>
-      <c r="AG42" s="4">
+      <c r="AG42" s="11">
         <f t="shared" si="31"/>
         <v>88.883835429194548</v>
       </c>
@@ -18785,7 +18900,7 @@
         <f t="shared" si="14"/>
         <v>19.804421752410235</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="11">
         <f t="shared" si="26"/>
         <v>18.143405734466143</v>
       </c>
@@ -18830,7 +18945,7 @@
         <f t="shared" si="17"/>
         <v>145.22688631759138</v>
       </c>
-      <c r="X43" s="4">
+      <c r="X43" s="11">
         <f t="shared" si="29"/>
         <v>130.01549286411972</v>
       </c>
@@ -18860,7 +18975,7 @@
         <f t="shared" si="19"/>
         <v>71.930293229036579</v>
       </c>
-      <c r="AG43" s="4">
+      <c r="AG43" s="11">
         <f t="shared" si="31"/>
         <v>85.827307388300682</v>
       </c>
@@ -18973,7 +19088,7 @@
         <f t="shared" si="14"/>
         <v>14.693603235659225</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="11">
         <f t="shared" si="26"/>
         <v>18.526717123222475</v>
       </c>
@@ -19018,7 +19133,7 @@
         <f t="shared" si="17"/>
         <v>159.50004421684571</v>
       </c>
-      <c r="X44" s="4">
+      <c r="X44" s="11">
         <f t="shared" si="29"/>
         <v>138.87882448267791</v>
       </c>
@@ -19048,7 +19163,7 @@
         <f t="shared" si="19"/>
         <v>73.356672981453812</v>
       </c>
-      <c r="AG44" s="4">
+      <c r="AG44" s="11">
         <f t="shared" si="31"/>
         <v>85.58278514502922</v>
       </c>
@@ -19161,7 +19276,7 @@
         <f t="shared" si="14"/>
         <v>8.943932404314296</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="11">
         <f t="shared" si="26"/>
         <v>16.354619253603289</v>
       </c>
@@ -19206,7 +19321,7 @@
         <f t="shared" si="17"/>
         <v>133.4490357433815</v>
       </c>
-      <c r="X45" s="4">
+      <c r="X45" s="11">
         <f t="shared" si="29"/>
         <v>144.6679374767813</v>
       </c>
@@ -19236,7 +19351,7 @@
         <f t="shared" si="19"/>
         <v>81.914951495956302</v>
       </c>
-      <c r="AG45" s="4">
+      <c r="AG45" s="11">
         <f t="shared" si="31"/>
         <v>84.400927635883548</v>
       </c>
@@ -19349,7 +19464,7 @@
         <f t="shared" si="14"/>
         <v>24.915240269161245</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="11">
         <f t="shared" si="26"/>
         <v>17.249012494034719</v>
       </c>
@@ -19394,7 +19509,7 @@
         <f t="shared" si="17"/>
         <v>107.69746414892143</v>
       </c>
-      <c r="X46" s="4">
+      <c r="X46" s="11">
         <f t="shared" si="29"/>
         <v>134.96618259700807</v>
       </c>
@@ -19424,7 +19539,7 @@
         <f t="shared" si="19"/>
         <v>73.764210053572697</v>
       </c>
-      <c r="AG46" s="4">
+      <c r="AG46" s="11">
         <f t="shared" si="31"/>
         <v>79.999527256996316</v>
       </c>
@@ -19537,7 +19652,7 @@
         <f t="shared" si="14"/>
         <v>15.971307864846949</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="11">
         <f t="shared" si="26"/>
         <v>16.86570110527839</v>
       </c>
@@ -19582,7 +19697,7 @@
         <f t="shared" si="17"/>
         <v>78.951523764408194</v>
       </c>
-      <c r="X47" s="4">
+      <c r="X47" s="11">
         <f t="shared" si="29"/>
         <v>124.96499083822964</v>
       </c>
@@ -19612,7 +19727,7 @@
         <f t="shared" si="19"/>
         <v>68.669996652083228</v>
       </c>
-      <c r="AG47" s="4">
+      <c r="AG47" s="11">
         <f t="shared" si="31"/>
         <v>73.927224882420518</v>
       </c>
@@ -19725,7 +19840,7 @@
         <f t="shared" si="14"/>
         <v>21.720978696191878</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="11">
         <f t="shared" si="26"/>
         <v>17.249012494034719</v>
       </c>
@@ -19770,7 +19885,7 @@
         <f t="shared" si="17"/>
         <v>108.69558707893975</v>
       </c>
-      <c r="X48" s="4">
+      <c r="X48" s="11">
         <f t="shared" si="29"/>
         <v>117.65873099049932</v>
       </c>
@@ -19800,7 +19915,7 @@
         <f t="shared" si="19"/>
         <v>98.827739988902522</v>
       </c>
-      <c r="AG48" s="4">
+      <c r="AG48" s="11">
         <f t="shared" si="31"/>
         <v>79.306714234393709</v>
       </c>
@@ -19913,7 +20028,7 @@
         <f t="shared" si="14"/>
         <v>17.887864808628592</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="11">
         <f t="shared" si="26"/>
         <v>17.887864808628592</v>
       </c>
@@ -19958,7 +20073,7 @@
         <f t="shared" si="17"/>
         <v>138.53946268647178</v>
       </c>
-      <c r="X49" s="4">
+      <c r="X49" s="11">
         <f t="shared" si="29"/>
         <v>113.46661468442453</v>
       </c>
@@ -19988,7 +20103,7 @@
         <f t="shared" si="19"/>
         <v>106.57094435916724</v>
       </c>
-      <c r="AG49" s="4">
+      <c r="AG49" s="11">
         <f t="shared" si="31"/>
         <v>85.949568509936398</v>
       </c>
@@ -20101,7 +20216,7 @@
         <f t="shared" si="14"/>
         <v>17.24901249403473</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="11">
         <f t="shared" si="26"/>
         <v>19.548880826572677</v>
       </c>
@@ -20146,7 +20261,7 @@
         <f t="shared" si="17"/>
         <v>124.36611708021883</v>
       </c>
-      <c r="X50" s="4">
+      <c r="X50" s="11">
         <f t="shared" si="29"/>
         <v>111.65003095179199</v>
       </c>
@@ -20176,7 +20291,7 @@
         <f t="shared" si="19"/>
         <v>99.439045597081531</v>
       </c>
-      <c r="AG50" s="4">
+      <c r="AG50" s="11">
         <f t="shared" si="31"/>
         <v>89.454387330161438</v>
       </c>
@@ -20289,7 +20404,7 @@
         <f t="shared" si="14"/>
         <v>15.971307864846949</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="11">
         <f t="shared" si="26"/>
         <v>17.76009434570982</v>
       </c>
@@ -20334,7 +20449,7 @@
         <f t="shared" si="17"/>
         <v>154.11018039474948</v>
       </c>
-      <c r="X51" s="4">
+      <c r="X51" s="11">
         <f t="shared" si="29"/>
         <v>120.9325742009576</v>
       </c>
@@ -20364,7 +20479,7 @@
         <f t="shared" si="19"/>
         <v>70.707682012679015</v>
       </c>
-      <c r="AG51" s="4">
+      <c r="AG51" s="11">
         <f t="shared" si="31"/>
         <v>88.843081721982713</v>
       </c>
@@ -20477,7 +20592,7 @@
         <f t="shared" si="14"/>
         <v>9.5827847189081581</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="11">
         <f t="shared" si="26"/>
         <v>16.482389716522061</v>
       </c>
@@ -20522,7 +20637,7 @@
         <f t="shared" si="17"/>
         <v>145.72594778260009</v>
       </c>
-      <c r="X52" s="4">
+      <c r="X52" s="11">
         <f t="shared" si="29"/>
         <v>134.28745900459597</v>
       </c>
@@ -20552,7 +20667,7 @@
         <f t="shared" si="19"/>
         <v>62.964477642414295</v>
       </c>
-      <c r="AG52" s="4">
+      <c r="AG52" s="11">
         <f t="shared" si="31"/>
         <v>87.701977920048918</v>
       </c>
@@ -20665,7 +20780,7 @@
         <f t="shared" si="14"/>
         <v>7.0273754605326531</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="11">
         <f t="shared" si="26"/>
         <v>13.543669069390216</v>
       </c>
@@ -20710,7 +20825,7 @@
         <f t="shared" si="17"/>
         <v>125.96311376824724</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X53" s="11">
         <f t="shared" si="29"/>
         <v>137.74096434245749</v>
       </c>
@@ -20740,7 +20855,7 @@
         <f t="shared" si="19"/>
         <v>35.455725274369343</v>
       </c>
-      <c r="AG53" s="4">
+      <c r="AG53" s="11">
         <f t="shared" si="31"/>
         <v>75.02757497714228</v>
       </c>
@@ -20853,7 +20968,7 @@
         <f t="shared" si="14"/>
         <v>21.082126381598016</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="11">
         <f t="shared" si="26"/>
         <v>14.182521383984101</v>
       </c>
@@ -20898,7 +21013,7 @@
         <f t="shared" si="17"/>
         <v>101.01004051780274</v>
       </c>
-      <c r="X54" s="4">
+      <c r="X54" s="11">
         <f t="shared" si="29"/>
         <v>130.23507990872366</v>
       </c>
@@ -20928,7 +21043,7 @@
         <f t="shared" si="19"/>
         <v>36.882105026786576</v>
       </c>
-      <c r="AG54" s="4">
+      <c r="AG54" s="11">
         <f t="shared" si="31"/>
         <v>61.08980711066615</v>
       </c>
@@ -21041,7 +21156,7 @@
         <f t="shared" si="14"/>
         <v>8.9439324043142392</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="11">
         <f t="shared" si="26"/>
         <v>12.521505366040003</v>
       </c>
@@ -21086,7 +21201,7 @@
         <f t="shared" si="17"/>
         <v>82.544766312472348</v>
       </c>
-      <c r="X55" s="4">
+      <c r="X55" s="11">
         <f t="shared" si="29"/>
         <v>121.87080975517438</v>
       </c>
@@ -21116,7 +21231,7 @@
         <f t="shared" si="19"/>
         <v>39.123558923441578</v>
       </c>
-      <c r="AG55" s="4">
+      <c r="AG55" s="11">
         <f t="shared" si="31"/>
         <v>49.026709775938158</v>
       </c>
@@ -21229,7 +21344,7 @@
         <f t="shared" si="14"/>
         <v>13.415898606471501</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="11">
         <f t="shared" si="26"/>
         <v>12.010423514364913</v>
       </c>
@@ -21274,7 +21389,7 @@
         <f t="shared" si="17"/>
         <v>93.923367714675805</v>
       </c>
-      <c r="X56" s="4">
+      <c r="X56" s="11">
         <f t="shared" si="29"/>
         <v>109.83344721915964</v>
       </c>
@@ -21304,7 +21419,7 @@
         <f t="shared" si="19"/>
         <v>74.579284197811376</v>
       </c>
-      <c r="AG56" s="4">
+      <c r="AG56" s="11">
         <f t="shared" si="31"/>
         <v>49.801030212964633</v>
       </c>
@@ -21417,7 +21532,7 @@
         <f t="shared" si="14"/>
         <v>24.276387954567326</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="11">
         <f t="shared" si="26"/>
         <v>14.949144161496747</v>
       </c>
@@ -21462,7 +21577,7 @@
         <f t="shared" si="17"/>
         <v>103.90459701485452</v>
       </c>
-      <c r="X57" s="4">
+      <c r="X57" s="11">
         <f t="shared" si="29"/>
         <v>101.46917706561052</v>
       </c>
@@ -21492,7 +21607,7 @@
         <f t="shared" si="19"/>
         <v>78.247117846883611</v>
       </c>
-      <c r="AG57" s="4">
+      <c r="AG57" s="11">
         <f t="shared" si="31"/>
         <v>52.8575582538585</v>
       </c>
@@ -21605,7 +21720,7 @@
         <f t="shared" si="14"/>
         <v>19.804421752410235</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="11">
         <f t="shared" si="26"/>
         <v>17.504553419872263</v>
       </c>
@@ -21650,7 +21765,7 @@
         <f t="shared" si="17"/>
         <v>124.36611708021883</v>
       </c>
-      <c r="X58" s="4">
+      <c r="X58" s="11">
         <f t="shared" si="29"/>
         <v>101.14977772800485</v>
       </c>
@@ -21680,7 +21795,7 @@
         <f t="shared" si="19"/>
         <v>64.798394466950867</v>
       </c>
-      <c r="AG58" s="4">
+      <c r="AG58" s="11">
         <f t="shared" si="31"/>
         <v>58.726092092374799</v>
       </c>
@@ -21793,7 +21908,7 @@
         <f t="shared" si="14"/>
         <v>19.804421752410235</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="11">
         <f t="shared" si="26"/>
         <v>17.249012494034709</v>
       </c>
@@ -21838,7 +21953,7 @@
         <f t="shared" si="17"/>
         <v>85.339510516522751</v>
       </c>
-      <c r="X59" s="4">
+      <c r="X59" s="11">
         <f t="shared" si="29"/>
         <v>98.015671727748853</v>
       </c>
@@ -21868,7 +21983,7 @@
         <f t="shared" si="19"/>
         <v>49.515754262481096</v>
       </c>
-      <c r="AG59" s="4">
+      <c r="AG59" s="11">
         <f t="shared" si="31"/>
         <v>61.252821939513709</v>
       </c>
@@ -21981,7 +22096,7 @@
         <f t="shared" si="14"/>
         <v>18.526717123222511</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="11">
         <f t="shared" si="26"/>
         <v>19.165569437816362</v>
       </c>
@@ -22026,7 +22141,7 @@
         <f t="shared" si="17"/>
         <v>73.362035356308297</v>
       </c>
-      <c r="X60" s="4">
+      <c r="X60" s="11">
         <f t="shared" si="29"/>
         <v>96.17912553651604</v>
       </c>
@@ -22056,7 +22171,7 @@
         <f t="shared" si="19"/>
         <v>39.123558923442033</v>
       </c>
-      <c r="AG60" s="4">
+      <c r="AG60" s="11">
         <f t="shared" si="31"/>
         <v>61.252821939513794</v>
       </c>
@@ -22169,7 +22284,7 @@
         <f t="shared" si="14"/>
         <v>21.082126381597959</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="11">
         <f t="shared" si="26"/>
         <v>20.698814992841655</v>
       </c>
@@ -22214,7 +22329,7 @@
         <f t="shared" si="17"/>
         <v>95.81980128171017</v>
       </c>
-      <c r="X61" s="4">
+      <c r="X61" s="11">
         <f t="shared" si="29"/>
         <v>96.55841224992291</v>
       </c>
@@ -22244,7 +22359,7 @@
         <f t="shared" si="19"/>
         <v>56.443884488507138</v>
       </c>
-      <c r="AG61" s="4">
+      <c r="AG61" s="11">
         <f t="shared" si="31"/>
         <v>57.625741997652952</v>
       </c>
@@ -22357,7 +22472,7 @@
         <f t="shared" si="14"/>
         <v>20.443274067004154</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="11">
         <f t="shared" si="26"/>
         <v>19.932192215329017</v>
       </c>
@@ -22402,7 +22517,7 @@
         <f t="shared" si="17"/>
         <v>115.88207217506715</v>
       </c>
-      <c r="X62" s="4">
+      <c r="X62" s="11">
         <f t="shared" si="29"/>
         <v>98.953907281965442</v>
       </c>
@@ -22432,7 +22547,7 @@
         <f t="shared" si="19"/>
         <v>68.058691043904219</v>
       </c>
-      <c r="AG62" s="4">
+      <c r="AG62" s="11">
         <f t="shared" si="31"/>
         <v>55.588056637057072</v>
       </c>
@@ -22545,7 +22660,7 @@
         <f t="shared" si="14"/>
         <v>15.971307864846949</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="11">
         <f t="shared" si="26"/>
         <v>19.165569437816362</v>
       </c>
@@ -22590,7 +22705,7 @@
         <f t="shared" si="17"/>
         <v>107.09859039091134</v>
       </c>
-      <c r="X63" s="4">
+      <c r="X63" s="11">
         <f t="shared" si="29"/>
         <v>95.500401944103942</v>
       </c>
@@ -22620,7 +22735,7 @@
         <f t="shared" si="19"/>
         <v>29.138900656521855</v>
       </c>
-      <c r="AG63" s="4">
+      <c r="AG63" s="11">
         <f t="shared" si="31"/>
         <v>48.456157874971268</v>
       </c>
@@ -22733,7 +22848,7 @@
         <f t="shared" si="14"/>
         <v>18.526717123222511</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="11">
         <f t="shared" si="26"/>
         <v>18.910028511978815</v>
       </c>
@@ -22778,7 +22893,7 @@
         <f t="shared" si="17"/>
         <v>108.89521166494251</v>
       </c>
-      <c r="X64" s="4">
+      <c r="X64" s="11">
         <f t="shared" si="29"/>
         <v>100.21154217378789</v>
       </c>
@@ -22808,7 +22923,7 @@
         <f t="shared" si="19"/>
         <v>70.911450548738685</v>
       </c>
-      <c r="AG64" s="4">
+      <c r="AG64" s="11">
         <f t="shared" si="31"/>
         <v>52.735297132222783</v>
       </c>
@@ -22921,7 +23036,7 @@
         <f t="shared" si="14"/>
         <v>10.860489348095939</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="11">
         <f t="shared" ref="J65" si="51">SUM(I61:I65)/5</f>
         <v>17.376782956953502</v>
       </c>
@@ -22966,7 +23081,7 @@
         <f t="shared" ref="W65" si="56">V65-V64</f>
         <v>43.9174089207836</v>
       </c>
-      <c r="X65" s="4">
+      <c r="X65" s="11">
         <f t="shared" ref="X65" si="57">SUM(W61:W65)/5</f>
         <v>94.322616886682951</v>
       </c>
@@ -22996,7 +23111,7 @@
         <f t="shared" ref="AF65" si="60">AE65-AE64</f>
         <v>33.010502841653761</v>
       </c>
-      <c r="AG65" s="4">
+      <c r="AG65" s="11">
         <f t="shared" ref="AG65" si="61">SUM(AF61:AF65)/5</f>
         <v>51.512685915865134</v>
       </c>
@@ -23109,7 +23224,7 @@
         <f t="shared" si="14"/>
         <v>13.415898606471387</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="11">
         <f t="shared" ref="J66" si="74">SUM(I62:I66)/5</f>
         <v>15.843537401928188</v>
       </c>
@@ -23154,7 +23269,7 @@
         <f t="shared" ref="W66" si="79">V66-V65</f>
         <v>119.07606555112488</v>
       </c>
-      <c r="X66" s="4">
+      <c r="X66" s="11">
         <f t="shared" ref="X66" si="80">SUM(W62:W66)/5</f>
         <v>98.973869740565902</v>
       </c>
@@ -23184,7 +23299,7 @@
         <f t="shared" ref="AF66" si="83">AE66-AE65</f>
         <v>16.301482884767665</v>
       </c>
-      <c r="AG66" s="4">
+      <c r="AG66" s="11">
         <f t="shared" ref="AG66" si="84">SUM(AF62:AF66)/5</f>
         <v>43.484205595117238</v>
       </c>
@@ -23297,7 +23412,7 @@
         <f t="shared" si="14"/>
         <v>8.943932404314296</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="11">
         <f t="shared" ref="J67" si="99">SUM(I63:I67)/5</f>
         <v>13.543669069390216</v>
       </c>
@@ -23342,7 +23457,7 @@
         <f t="shared" ref="W67" si="107">V67-V66</f>
         <v>58.889252871050303</v>
       </c>
-      <c r="X67" s="4">
+      <c r="X67" s="11">
         <f t="shared" ref="X67" si="108">SUM(W63:W67)/5</f>
         <v>87.575305879762524</v>
       </c>
@@ -23372,7 +23487,7 @@
         <f t="shared" ref="AF67" si="113">AE67-AE66</f>
         <v>22.007001894436144</v>
       </c>
-      <c r="AG67" s="4">
+      <c r="AG67" s="11">
         <f t="shared" ref="AG67" si="114">SUM(AF63:AF67)/5</f>
         <v>34.273867765223621</v>
       </c>
@@ -23485,7 +23600,7 @@
         <f t="shared" si="14"/>
         <v>8.3050800897203771</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="11">
         <f t="shared" ref="J68" si="131">SUM(I64:I68)/5</f>
         <v>12.010423514364902</v>
       </c>
@@ -23530,7 +23645,7 @@
         <f t="shared" ref="W68" si="139">V68-V67</f>
         <v>86.736882618547497</v>
       </c>
-      <c r="X68" s="4">
+      <c r="X68" s="11">
         <f t="shared" ref="X68" si="140">SUM(W64:W68)/5</f>
         <v>83.502964325289753</v>
       </c>
@@ -23560,7 +23675,7 @@
         <f t="shared" ref="AF68" si="145">AE68-AE67</f>
         <v>26.286141151687389</v>
       </c>
-      <c r="AG68" s="4">
+      <c r="AG68" s="11">
         <f t="shared" ref="AG68" si="146">SUM(AF64:AF68)/5</f>
         <v>33.70331586425673</v>
       </c>
@@ -23673,7 +23788,7 @@
         <f t="shared" si="14"/>
         <v>7.0273754605327667</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69" s="11">
         <f t="shared" ref="J69" si="163">SUM(I65:I69)/5</f>
         <v>9.7105551818269529</v>
       </c>
@@ -23718,7 +23833,7 @@
         <f t="shared" ref="W69" si="171">V69-V68</f>
         <v>78.452462299399485</v>
       </c>
-      <c r="X69" s="4">
+      <c r="X69" s="11">
         <f t="shared" ref="X69" si="172">SUM(W65:W69)/5</f>
         <v>77.414414452181148</v>
       </c>
@@ -23748,7 +23863,7 @@
         <f t="shared" ref="AF69" si="177">AE69-AE68</f>
         <v>23.840918718972716</v>
       </c>
-      <c r="AG69" s="4">
+      <c r="AG69" s="11">
         <f t="shared" ref="AG69" si="178">SUM(AF65:AF69)/5</f>
         <v>24.289209498303535</v>
       </c>
@@ -23861,7 +23976,7 @@
         <f t="shared" si="14"/>
         <v>9.5827847189081012</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70" s="11">
         <f t="shared" ref="J70" si="195">SUM(I66:I70)/5</f>
         <v>9.4550142559893864</v>
       </c>
@@ -23906,7 +24021,7 @@
         <f t="shared" ref="W70" si="203">V70-V69</f>
         <v>59.687751215064964</v>
       </c>
-      <c r="X70" s="4">
+      <c r="X70" s="11">
         <f t="shared" ref="X70" si="204">SUM(W66:W70)/5</f>
         <v>80.568482911037421</v>
       </c>
@@ -23936,7 +24051,7 @@
         <f t="shared" ref="AF70" si="209">AE70-AE69</f>
         <v>27.508752368044952</v>
       </c>
-      <c r="AG70" s="4">
+      <c r="AG70" s="11">
         <f t="shared" ref="AG70" si="210">SUM(AF66:AF70)/5</f>
         <v>23.188859403581773</v>
       </c>
@@ -24049,7 +24164,7 @@
         <f t="shared" si="14"/>
         <v>10.860489348095939</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J71" s="11">
         <f t="shared" ref="J71" si="227">SUM(I67:I71)/5</f>
         <v>8.943932404314296</v>
       </c>
@@ -24094,7 +24209,7 @@
         <f t="shared" ref="W71" si="235">V71-V70</f>
         <v>73.561659942312872</v>
       </c>
-      <c r="X71" s="4">
+      <c r="X71" s="11">
         <f t="shared" ref="X71" si="236">SUM(W67:W71)/5</f>
         <v>71.465601789275027</v>
       </c>
@@ -24124,7 +24239,7 @@
         <f t="shared" ref="AF71" si="241">AE71-AE70</f>
         <v>28.120057976223961</v>
       </c>
-      <c r="AG71" s="4">
+      <c r="AG71" s="11">
         <f t="shared" ref="AG71" si="242">SUM(AF67:AF71)/5</f>
         <v>25.552574421873032</v>
       </c>
@@ -24211,18 +24326,186 @@
       <c r="B72" s="3">
         <v>69</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="G72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="U72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="AD72" s="15"/>
-      <c r="AH72" s="15"/>
-      <c r="AM72" s="15"/>
-      <c r="AQ72" s="15"/>
-      <c r="AV72" s="15"/>
-      <c r="AZ72" s="15"/>
+      <c r="C72" s="15">
+        <v>8312</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" ref="D72" si="255">C72/$BR$4</f>
+        <v>5310.1404389043173</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" ref="E72" si="256">D72-D71</f>
+        <v>118.82653051446141</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" ref="F72" si="257">SUM(E68:E72)/5</f>
+        <v>85.606210155579717</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1195</v>
+      </c>
+      <c r="H72" s="10">
+        <f t="shared" ref="H72" si="258">G72/$BR$4</f>
+        <v>763.42851593968464</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="14"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="J72" s="11">
+        <f t="shared" ref="J72" si="259">SUM(I68:I72)/5</f>
+        <v>8.5606210155579667</v>
+      </c>
+      <c r="L72" s="16">
+        <v>27179</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" ref="M72" si="260">L72/$BR$5</f>
+        <v>6187.5558619345675</v>
+      </c>
+      <c r="N72" s="11">
+        <f t="shared" ref="N72" si="261">M72-M71</f>
+        <v>112.69142174684839</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" ref="O72" si="262">SUM(N68:N72)/5</f>
+        <v>94.751858042502136</v>
+      </c>
+      <c r="P72" s="16">
+        <v>3126</v>
+      </c>
+      <c r="Q72" s="10">
+        <f t="shared" ref="Q72" si="263">P72/$BR$5</f>
+        <v>711.66340278919233</v>
+      </c>
+      <c r="R72" s="11">
+        <f t="shared" ref="R72" si="264">Q72-Q71</f>
+        <v>6.6021236983002609</v>
+      </c>
+      <c r="S72" s="11">
+        <f t="shared" ref="S72" si="265">SUM(R68:R72)/5</f>
+        <v>11.291908118472156</v>
+      </c>
+      <c r="U72" s="15">
+        <v>77002</v>
+      </c>
+      <c r="V72" s="10">
+        <f t="shared" ref="V72" si="266">U72/$BR$6</f>
+        <v>7685.7461857231292</v>
+      </c>
+      <c r="W72" s="11">
+        <f t="shared" ref="W72" si="267">V72-V71</f>
+        <v>53.199952169949029</v>
+      </c>
+      <c r="X72" s="11">
+        <f t="shared" ref="X72" si="268">SUM(W68:W72)/5</f>
+        <v>70.327741649054772</v>
+      </c>
+      <c r="Y72" s="15">
+        <v>14189</v>
+      </c>
+      <c r="Z72" s="10">
+        <f t="shared" ref="Z72" si="269">Y72/$BR$6</f>
+        <v>1416.2366254022686</v>
+      </c>
+      <c r="AA72" s="11">
+        <f t="shared" ref="AA72" si="270">Z72-Z71</f>
+        <v>32.838244397585868</v>
+      </c>
+      <c r="AB72" s="11">
+        <f t="shared" ref="AB72" si="271">SUM(AA68:AA72)/5</f>
+        <v>14.772219364263583</v>
+      </c>
+      <c r="AD72" s="15">
+        <v>18224</v>
+      </c>
+      <c r="AE72" s="10">
+        <f t="shared" ref="AE72" si="272">AD72/$BR$7</f>
+        <v>3713.4778011500289</v>
+      </c>
+      <c r="AF72" s="11">
+        <f t="shared" ref="AF72" si="273">AE72-AE71</f>
+        <v>25.674835543508834</v>
+      </c>
+      <c r="AG72" s="11">
+        <f t="shared" ref="AG72" si="274">SUM(AF68:AF72)/5</f>
+        <v>26.28614115168757</v>
+      </c>
+      <c r="AH72" s="15">
+        <v>1502</v>
+      </c>
+      <c r="AI72" s="10">
+        <f>AH72/$BR$7</f>
+        <v>306.06034116150914</v>
+      </c>
+      <c r="AJ72" s="11">
+        <f>AI72-AI71</f>
+        <v>4.6866763293706413</v>
+      </c>
+      <c r="AK72" s="11">
+        <f>SUM(AJ68:AJ72)/5</f>
+        <v>6.4390857394831418</v>
+      </c>
+      <c r="AM72" s="15">
+        <v>25850</v>
+      </c>
+      <c r="AN72" s="10">
+        <f t="shared" ref="AN72" si="275">AM72/$BR$8</f>
+        <v>5810.5021060541385</v>
+      </c>
+      <c r="AO72" s="11">
+        <f t="shared" ref="AO72" si="276">AN72-AN71</f>
+        <v>46.304194732964788</v>
+      </c>
+      <c r="AP72" s="4">
+        <f t="shared" ref="AP72" si="277">SUM(AO68:AO72)/5</f>
+        <v>53.407168293944416</v>
+      </c>
+      <c r="AQ72" s="15">
+        <v>3614</v>
+      </c>
+      <c r="AR72" s="10">
+        <f t="shared" ref="AR72" si="278">AQ72/$BR$8</f>
+        <v>812.3464066259055</v>
+      </c>
+      <c r="AS72" s="11">
+        <f t="shared" ref="AS72" si="279">AR72-AR71</f>
+        <v>7.867217551717431</v>
+      </c>
+      <c r="AT72" s="11">
+        <f t="shared" ref="AT72" si="280">SUM(AS68:AS72)/5</f>
+        <v>8.2268617826530548</v>
+      </c>
+      <c r="AV72" s="15">
+        <v>9525</v>
+      </c>
+      <c r="AW72" s="10">
+        <f t="shared" ref="AW72:AW73" si="281">AV72/$BR$9</f>
+        <v>2545.1330242833747</v>
+      </c>
+      <c r="AX72" s="11">
+        <f t="shared" ref="AX72" si="282">AW72-AW71</f>
+        <v>21.37644534831179</v>
+      </c>
+      <c r="AY72" s="4">
+        <f t="shared" ref="AY72" si="283">SUM(AX68:AX72)/5</f>
+        <v>18.490625226289648</v>
+      </c>
+      <c r="AZ72" s="15">
+        <v>863</v>
+      </c>
+      <c r="BA72" s="10">
+        <f t="shared" ref="BA72" si="284">AZ72/$BR$9</f>
+        <v>230.59840419491366</v>
+      </c>
+      <c r="BB72" s="11">
+        <f t="shared" ref="BB72" si="285">BA72-BA71</f>
+        <v>2.4048501016850992</v>
+      </c>
+      <c r="BC72" s="11">
+        <f t="shared" ref="BC72" si="286">SUM(BB68:BB72)/5</f>
+        <v>3.633995709213008</v>
+      </c>
     </row>
     <row r="73" spans="1:55">
       <c r="A73" s="2">
@@ -24233,15 +24516,24 @@
       </c>
       <c r="C73" s="15"/>
       <c r="G73" s="16"/>
+      <c r="J73" s="11"/>
       <c r="L73" s="16"/>
       <c r="P73" s="16"/>
       <c r="U73" s="15"/>
+      <c r="X73" s="11"/>
       <c r="Y73" s="15"/>
       <c r="AD73" s="15"/>
+      <c r="AG73" s="11"/>
       <c r="AH73" s="15"/>
       <c r="AM73" s="15"/>
       <c r="AQ73" s="15"/>
-      <c r="AV73" s="15"/>
+      <c r="AV73" s="15">
+        <v>3</v>
+      </c>
+      <c r="AW73" s="10">
+        <f t="shared" si="281"/>
+        <v>0.80161670056169287</v>
+      </c>
       <c r="AZ73" s="15"/>
     </row>
     <row r="74" spans="1:55">
@@ -24253,11 +24545,14 @@
       </c>
       <c r="C74" s="15"/>
       <c r="G74" s="16"/>
+      <c r="J74" s="11"/>
       <c r="L74" s="16"/>
       <c r="P74" s="16"/>
       <c r="U74" s="15"/>
+      <c r="X74" s="11"/>
       <c r="Y74" s="15"/>
       <c r="AD74" s="15"/>
+      <c r="AG74" s="11"/>
       <c r="AH74" s="15"/>
       <c r="AM74" s="15"/>
       <c r="AQ74" s="15"/>
@@ -24271,6 +24566,9 @@
       <c r="B75" s="3">
         <v>72</v>
       </c>
+      <c r="J75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="AG75" s="11"/>
     </row>
     <row r="76" spans="1:55">
       <c r="A76" s="2">
@@ -24279,6 +24577,9 @@
       <c r="B76" s="3">
         <v>73</v>
       </c>
+      <c r="J76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="AG76" s="11"/>
     </row>
     <row r="77" spans="1:55">
       <c r="A77" s="2">
@@ -24287,6 +24588,9 @@
       <c r="B77" s="3">
         <v>74</v>
       </c>
+      <c r="J77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="AG77" s="11"/>
     </row>
     <row r="78" spans="1:55">
       <c r="A78" s="2">
@@ -24295,6 +24599,9 @@
       <c r="B78" s="3">
         <v>75</v>
       </c>
+      <c r="J78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="AG78" s="11"/>
     </row>
     <row r="79" spans="1:55">
       <c r="A79" s="2">
@@ -24303,6 +24610,9 @@
       <c r="B79" s="3">
         <v>76</v>
       </c>
+      <c r="J79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="AG79" s="11"/>
     </row>
     <row r="80" spans="1:55">
       <c r="A80" s="2">
@@ -24311,70 +24621,95 @@
       <c r="B80" s="3">
         <v>77</v>
       </c>
+      <c r="J80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="AG80" s="11"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:33">
       <c r="A81" s="2">
         <v>43962</v>
       </c>
       <c r="B81" s="3">
         <v>78</v>
       </c>
+      <c r="J81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="AG81" s="11"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:33">
       <c r="A82" s="2">
         <v>43963</v>
       </c>
       <c r="B82" s="3">
         <v>79</v>
       </c>
+      <c r="J82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="AG82" s="11"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:33">
       <c r="A83" s="2">
         <v>43964</v>
       </c>
       <c r="B83" s="3">
         <v>80</v>
       </c>
+      <c r="J83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="AG83" s="11"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:33">
       <c r="A84" s="2">
         <v>43965</v>
       </c>
       <c r="B84" s="3">
         <v>81</v>
       </c>
+      <c r="J84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="AG84" s="11"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:33">
       <c r="A85" s="2">
         <v>43966</v>
       </c>
       <c r="B85" s="3">
         <v>82</v>
       </c>
+      <c r="J85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="AG85" s="11"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:33">
       <c r="A86" s="2">
         <v>43967</v>
       </c>
       <c r="B86" s="3">
         <v>83</v>
       </c>
+      <c r="J86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="AG86" s="11"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:33">
       <c r="A87" s="2">
         <v>43968</v>
       </c>
       <c r="B87" s="3">
         <v>84</v>
       </c>
+      <c r="X87" s="11"/>
+      <c r="AG87" s="11"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:33">
       <c r="A88" s="2">
         <v>43969</v>
       </c>
       <c r="B88" s="3">
         <v>85</v>
       </c>
+      <c r="X88" s="11"/>
+      <c r="AG88" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD8071E-4C3C-4F14-88E2-91FEA91A312E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E1365-D420-46B7-AECA-18F04FAE5702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -619,6 +619,9 @@
                 <c:pt idx="63">
                   <c:v>5310.1404389043173</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>5340.1664976902293</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -819,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>85.606210155579717</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75.001261733321371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,6 +1052,9 @@
                 <c:pt idx="63">
                   <c:v>6187.5558619345675</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>6244.6983808405457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1246,6 +1255,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>94.751858042502136</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90.153137397479256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,6 +1485,9 @@
                 <c:pt idx="63">
                   <c:v>7685.7461857231292</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>7738.2474518420659</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1673,6 +1688,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>70.327741649054772</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>63.480618349132598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,6 +1918,9 @@
                 <c:pt idx="63">
                   <c:v>3713.4778011500289</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>3732.6320435396306</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2100,6 +2121,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>26.28614115168757</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24.859761399270429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,6 +2353,9 @@
                 <c:pt idx="63">
                   <c:v>5810.5021060541385</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>5847.8151950137126</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2529,6 +2556,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>53.407168293944416</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.540992811386062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,7 +2787,7 @@
                   <c:v>2545.1330242833747</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.80161670056169287</c:v>
+                  <c:v>2555.2868358238229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,6 +2989,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>18.490625226289648</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.742449639098776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,6 +3219,9 @@
                 <c:pt idx="63">
                   <c:v>3454.8797031676581</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>3477.8046243807776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3386,6 +3422,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>32.725366293285333</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.40811723761799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4054,6 +4093,9 @@
                 <c:pt idx="63">
                   <c:v>763.42851593968464</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>772.37244834399894</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4254,6 +4296,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>8.5606210155579667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.6883914784767509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,6 +4526,9 @@
                 <c:pt idx="63">
                   <c:v>711.66340278919233</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>717.58254817387535</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4681,6 +4729,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>11.291908118472156</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.8348877160886552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,6 +4959,9 @@
                 <c:pt idx="63">
                   <c:v>1416.2366254022686</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>1420.4287417083433</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5108,6 +5162,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>14.772219364263583</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.09537284183366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5335,6 +5392,9 @@
                 <c:pt idx="63">
                   <c:v>306.06034116150914</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>308.9131006663435</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5535,6 +5595,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>6.4390857394831418</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.4014003788872174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,6 +5825,9 @@
                 <c:pt idx="63">
                   <c:v>812.3464066259055</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>818.64018066727942</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5962,6 +6028,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>8.2268617826530548</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6424399073826184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6189,6 +6258,9 @@
                 <c:pt idx="63">
                   <c:v>230.59840419491366</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>233.00325429659873</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6389,6 +6461,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3.633995709213008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.259907915617549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6616,6 +6691,9 @@
                 <c:pt idx="63">
                   <c:v>473.84772356275062</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>476.71952794797943</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6816,6 +6894,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>5.7205022983925229</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0339099856021905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8683,7 +8764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11342,8 +11423,36 @@
       <c r="B73" s="3">
         <v>70</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="C73" s="15">
+        <v>210717</v>
+      </c>
+      <c r="D73" s="14">
+        <f t="shared" ref="D73" si="52">C73/$P$4</f>
+        <v>3477.8046243807776</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" ref="E73" si="53">D73-D72</f>
+        <v>22.924921213119433</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" ref="F73" si="54">SUM(E69:E73)/5</f>
+        <v>30.40811723761799</v>
+      </c>
+      <c r="G73" s="15">
+        <v>28884</v>
+      </c>
+      <c r="H73" s="13">
+        <f t="shared" ref="H73" si="55">G73/$P$4</f>
+        <v>476.71952794797943</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" ref="I73" si="56">H73-H72</f>
+        <v>2.8718043852288133</v>
+      </c>
+      <c r="J73" s="11">
+        <f t="shared" ref="J73" si="57">SUM(I69:I73)/5</f>
+        <v>5.0339099856021905</v>
+      </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2">
@@ -11507,9 +11616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AV73" sqref="AV73"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12035,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I72" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I73" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -23495,75 +23604,75 @@
         <v>1344</v>
       </c>
       <c r="AI67" s="10">
-        <f>AH67/$BR$7</f>
+        <f t="shared" ref="AI67:AI73" si="115">AH67/$BR$7</f>
         <v>273.86491246409344</v>
       </c>
       <c r="AJ67" s="11">
-        <f>AI67-AI66</f>
+        <f t="shared" ref="AJ67:AJ73" si="116">AI67-AI66</f>
         <v>5.9092875457282048</v>
       </c>
       <c r="AK67" s="11">
-        <f>SUM(AJ63:AJ67)/5</f>
+        <f t="shared" ref="AK67:AK73" si="117">SUM(AJ63:AJ67)/5</f>
         <v>6.6428542755427431</v>
       </c>
       <c r="AM67" s="15">
         <v>24662</v>
       </c>
       <c r="AN67" s="10">
-        <f t="shared" ref="AN67" si="115">AM67/$BR$8</f>
+        <f t="shared" ref="AN67" si="118">AM67/$BR$8</f>
         <v>5543.4662645844164</v>
       </c>
       <c r="AO67" s="11">
-        <f t="shared" ref="AO67" si="116">AN67-AN66</f>
+        <f t="shared" ref="AO67" si="119">AN67-AN66</f>
         <v>47.652860598973348</v>
       </c>
       <c r="AP67" s="4">
-        <f t="shared" ref="AP67" si="117">SUM(AO63:AO67)/5</f>
+        <f t="shared" ref="AP67" si="120">SUM(AO63:AO67)/5</f>
         <v>55.205389448622554</v>
       </c>
       <c r="AQ67" s="15">
         <v>3431</v>
       </c>
       <c r="AR67" s="10">
-        <f t="shared" ref="AR67" si="118">AQ67/$BR$8</f>
+        <f t="shared" ref="AR67" si="121">AQ67/$BR$8</f>
         <v>771.21209771264023</v>
       </c>
       <c r="AS67" s="11">
-        <f t="shared" ref="AS67" si="119">AR67-AR66</f>
+        <f t="shared" ref="AS67" si="122">AR67-AR66</f>
         <v>10.11499399506522</v>
       </c>
       <c r="AT67" s="11">
-        <f t="shared" ref="AT67" si="120">SUM(AS63:AS67)/5</f>
+        <f t="shared" ref="AT67" si="123">SUM(AS63:AS67)/5</f>
         <v>10.204905052799131</v>
       </c>
       <c r="AV67" s="15">
         <v>9179</v>
       </c>
       <c r="AW67" s="10">
-        <f t="shared" ref="AW67" si="121">AV67/$BR$9</f>
+        <f t="shared" ref="AW67" si="124">AV67/$BR$9</f>
         <v>2452.6798981519264</v>
       </c>
       <c r="AX67" s="11">
-        <f t="shared" ref="AX67" si="122">AW67-AW66</f>
+        <f t="shared" ref="AX67" si="125">AW67-AW66</f>
         <v>8.5505781393248981</v>
       </c>
       <c r="AY67" s="4">
-        <f t="shared" ref="AY67" si="123">SUM(AX63:AX67)/5</f>
+        <f t="shared" ref="AY67" si="126">SUM(AX63:AX67)/5</f>
         <v>25.59829330460343</v>
       </c>
       <c r="AZ67" s="15">
         <v>795</v>
       </c>
       <c r="BA67" s="10">
-        <f t="shared" ref="BA67" si="124">AZ67/$BR$9</f>
+        <f t="shared" ref="BA67" si="127">AZ67/$BR$9</f>
         <v>212.42842564884862</v>
       </c>
       <c r="BB67" s="11">
-        <f t="shared" ref="BB67" si="125">BA67-BA66</f>
+        <f t="shared" ref="BB67" si="128">BA67-BA66</f>
         <v>4.5424946365162668</v>
       </c>
       <c r="BC67" s="11">
-        <f t="shared" ref="BC67" si="126">SUM(BB63:BB67)/5</f>
+        <f t="shared" ref="BC67" si="129">SUM(BB63:BB67)/5</f>
         <v>4.8097002033701584</v>
       </c>
     </row>
@@ -23578,22 +23687,22 @@
         <v>7772</v>
       </c>
       <c r="D68" s="10">
-        <f t="shared" ref="D68" si="127">C68/$BR$4</f>
+        <f t="shared" ref="D68" si="130">C68/$BR$4</f>
         <v>4965.1601890236225</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" ref="E68" si="128">D68-D67</f>
+        <f t="shared" ref="E68" si="131">D68-D67</f>
         <v>83.050800897203771</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" ref="F68" si="129">SUM(E64:E68)/5</f>
+        <f t="shared" ref="F68" si="132">SUM(E64:E68)/5</f>
         <v>92.378044690274692</v>
       </c>
       <c r="G68" s="16">
         <v>1141</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" ref="H68" si="130">G68/$BR$4</f>
+        <f t="shared" ref="H68" si="133">G68/$BR$4</f>
         <v>728.93049095161518</v>
       </c>
       <c r="I68" s="11">
@@ -23601,157 +23710,157 @@
         <v>8.3050800897203771</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" ref="J68" si="131">SUM(I64:I68)/5</f>
+        <f t="shared" ref="J68" si="134">SUM(I64:I68)/5</f>
         <v>12.010423514364902</v>
       </c>
       <c r="L68" s="16">
         <v>25450</v>
       </c>
       <c r="M68" s="10">
-        <f t="shared" ref="M68" si="132">L68/$BR$5</f>
+        <f t="shared" ref="M68" si="135">L68/$BR$5</f>
         <v>5793.9326938531494</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" ref="N68" si="133">M68-M67</f>
+        <f t="shared" ref="N68" si="136">M68-M67</f>
         <v>80.136122131092634</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" ref="O68" si="134">SUM(N64:N68)/5</f>
+        <f t="shared" ref="O68" si="137">SUM(N64:N68)/5</f>
         <v>105.17866029705911</v>
       </c>
       <c r="P68" s="16">
         <v>2936</v>
       </c>
       <c r="Q68" s="10">
-        <f t="shared" ref="Q68" si="135">P68/$BR$5</f>
+        <f t="shared" ref="Q68" si="138">P68/$BR$5</f>
         <v>668.40810959343207</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" ref="R68" si="136">Q68-Q67</f>
+        <f t="shared" ref="R68" si="139">Q68-Q67</f>
         <v>13.204247396600522</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" ref="S68" si="137">SUM(R64:R68)/5</f>
+        <f t="shared" ref="S68" si="140">SUM(R64:R68)/5</f>
         <v>13.932757597792238</v>
       </c>
       <c r="U68" s="15">
         <v>74348</v>
       </c>
       <c r="V68" s="10">
-        <f t="shared" ref="V68" si="138">U68/$BR$6</f>
+        <f t="shared" ref="V68" si="141">U68/$BR$6</f>
         <v>7420.8443600964029</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" ref="W68" si="139">V68-V67</f>
+        <f t="shared" ref="W68" si="142">V68-V67</f>
         <v>86.736882618547497</v>
       </c>
       <c r="X68" s="11">
-        <f t="shared" ref="X68" si="140">SUM(W64:W68)/5</f>
+        <f t="shared" ref="X68" si="143">SUM(W64:W68)/5</f>
         <v>83.502964325289753</v>
       </c>
       <c r="Y68" s="15">
         <v>13575</v>
       </c>
       <c r="Z68" s="10">
-        <f t="shared" ref="Z68" si="141">Y68/$BR$6</f>
+        <f t="shared" ref="Z68" si="144">Y68/$BR$6</f>
         <v>1354.951877499175</v>
       </c>
       <c r="AA68" s="11">
-        <f t="shared" ref="AA68" si="142">Z68-Z67</f>
+        <f t="shared" ref="AA68" si="145">Z68-Z67</f>
         <v>12.576348918224312</v>
       </c>
       <c r="AB68" s="11">
-        <f t="shared" ref="AB68" si="143">SUM(AA64:AA68)/5</f>
+        <f t="shared" ref="AB68" si="146">SUM(AA64:AA68)/5</f>
         <v>12.676161211226145</v>
       </c>
       <c r="AD68" s="15">
         <v>17708</v>
       </c>
       <c r="AE68" s="10">
-        <f t="shared" ref="AE68" si="144">AD68/$BR$7</f>
+        <f t="shared" ref="AE68" si="147">AD68/$BR$7</f>
         <v>3608.3332365432784</v>
       </c>
       <c r="AF68" s="11">
-        <f t="shared" ref="AF68" si="145">AE68-AE67</f>
+        <f t="shared" ref="AF68" si="148">AE68-AE67</f>
         <v>26.286141151687389</v>
       </c>
       <c r="AG68" s="11">
-        <f t="shared" ref="AG68" si="146">SUM(AF64:AF68)/5</f>
+        <f t="shared" ref="AG68" si="149">SUM(AF64:AF68)/5</f>
         <v>33.70331586425673</v>
       </c>
       <c r="AH68" s="15">
         <v>1408</v>
       </c>
       <c r="AI68" s="10">
-        <f>AH68/$BR$7</f>
+        <f t="shared" si="115"/>
         <v>286.90609877190741</v>
       </c>
       <c r="AJ68" s="11">
-        <f>AI68-AI67</f>
+        <f t="shared" si="116"/>
         <v>13.041186307813973</v>
       </c>
       <c r="AK68" s="11">
-        <f>SUM(AJ64:AJ68)/5</f>
+        <f t="shared" si="117"/>
         <v>8.2322488568075762</v>
       </c>
       <c r="AM68" s="15">
         <v>24914</v>
       </c>
       <c r="AN68" s="10">
-        <f t="shared" ref="AN68" si="147">AM68/$BR$8</f>
+        <f t="shared" ref="AN68" si="150">AM68/$BR$8</f>
         <v>5600.1102309567823</v>
       </c>
       <c r="AO68" s="11">
-        <f t="shared" ref="AO68" si="148">AN68-AN67</f>
+        <f t="shared" ref="AO68" si="151">AN68-AN67</f>
         <v>56.643966372365867</v>
       </c>
       <c r="AP68" s="4">
-        <f t="shared" ref="AP68" si="149">SUM(AO64:AO68)/5</f>
+        <f t="shared" ref="AP68" si="152">SUM(AO64:AO68)/5</f>
         <v>53.542034880545359</v>
       </c>
       <c r="AQ68" s="15">
         <v>3472</v>
       </c>
       <c r="AR68" s="10">
-        <f t="shared" ref="AR68" si="150">AQ68/$BR$8</f>
+        <f t="shared" ref="AR68" si="153">AQ68/$BR$8</f>
         <v>780.42798113036633</v>
       </c>
       <c r="AS68" s="11">
-        <f t="shared" ref="AS68" si="151">AR68-AR67</f>
+        <f t="shared" ref="AS68" si="154">AR68-AR67</f>
         <v>9.2158834177261042</v>
       </c>
       <c r="AT68" s="11">
-        <f t="shared" ref="AT68" si="152">SUM(AS64:AS68)/5</f>
+        <f t="shared" ref="AT68" si="155">SUM(AS64:AS68)/5</f>
         <v>9.1259723599921934</v>
       </c>
       <c r="AV68" s="15">
         <v>9231</v>
       </c>
       <c r="AW68" s="10">
-        <f t="shared" ref="AW68" si="153">AV68/$BR$9</f>
+        <f t="shared" ref="AW68" si="156">AV68/$BR$9</f>
         <v>2466.574587628329</v>
       </c>
       <c r="AX68" s="11">
-        <f t="shared" ref="AX68" si="154">AW68-AW67</f>
+        <f t="shared" ref="AX68" si="157">AW68-AW67</f>
         <v>13.894689476402618</v>
       </c>
       <c r="AY68" s="4">
-        <f t="shared" ref="AY68" si="155">SUM(AX64:AX68)/5</f>
+        <f t="shared" ref="AY68" si="158">SUM(AX64:AX68)/5</f>
         <v>24.101942130221595</v>
       </c>
       <c r="AZ68" s="15">
         <v>811</v>
       </c>
       <c r="BA68" s="10">
-        <f t="shared" ref="BA68" si="156">AZ68/$BR$9</f>
+        <f t="shared" ref="BA68" si="159">AZ68/$BR$9</f>
         <v>216.70371471851098</v>
       </c>
       <c r="BB68" s="11">
-        <f t="shared" ref="BB68" si="157">BA68-BA67</f>
+        <f t="shared" ref="BB68" si="160">BA68-BA67</f>
         <v>4.2752890696623638</v>
       </c>
       <c r="BC68" s="11">
-        <f t="shared" ref="BC68" si="158">SUM(BB64:BB68)/5</f>
+        <f t="shared" ref="BC68" si="161">SUM(BB64:BB68)/5</f>
         <v>4.7028179766285971</v>
       </c>
     </row>
@@ -23766,22 +23875,22 @@
         <v>7889</v>
       </c>
       <c r="D69" s="10">
-        <f t="shared" ref="D69" si="159">C69/$BR$4</f>
+        <f t="shared" ref="D69" si="162">C69/$BR$4</f>
         <v>5039.9059098311063</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" ref="E69" si="160">D69-D68</f>
+        <f t="shared" ref="E69" si="163">D69-D68</f>
         <v>74.745720807483849</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" ref="F69" si="161">SUM(E65:E69)/5</f>
+        <f t="shared" ref="F69" si="164">SUM(E65:E69)/5</f>
         <v>91.483651449843279</v>
       </c>
       <c r="G69" s="16">
         <v>1152</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" ref="H69" si="162">G69/$BR$4</f>
+        <f t="shared" ref="H69" si="165">G69/$BR$4</f>
         <v>735.95786641214795</v>
       </c>
       <c r="I69" s="11">
@@ -23789,157 +23898,157 @@
         <v>7.0273754605327667</v>
       </c>
       <c r="J69" s="11">
-        <f t="shared" ref="J69" si="163">SUM(I65:I69)/5</f>
+        <f t="shared" ref="J69" si="166">SUM(I65:I69)/5</f>
         <v>9.7105551818269529</v>
       </c>
       <c r="L69" s="16">
         <v>25861</v>
       </c>
       <c r="M69" s="10">
-        <f t="shared" ref="M69" si="164">L69/$BR$5</f>
+        <f t="shared" ref="M69" si="167">L69/$BR$5</f>
         <v>5887.5007228187151</v>
       </c>
       <c r="N69" s="11">
-        <f t="shared" ref="N69" si="165">M69-M68</f>
+        <f t="shared" ref="N69" si="168">M69-M68</f>
         <v>93.568028965565645</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" ref="O69" si="166">SUM(N65:N69)/5</f>
+        <f t="shared" ref="O69" si="169">SUM(N65:N69)/5</f>
         <v>92.839518764373864</v>
       </c>
       <c r="P69" s="16">
         <v>3003</v>
       </c>
       <c r="Q69" s="10">
-        <f t="shared" ref="Q69" si="167">P69/$BR$5</f>
+        <f t="shared" ref="Q69" si="170">P69/$BR$5</f>
         <v>683.66129193088443</v>
       </c>
       <c r="R69" s="11">
-        <f t="shared" ref="R69" si="168">Q69-Q68</f>
+        <f t="shared" ref="R69" si="171">Q69-Q68</f>
         <v>15.253182337452358</v>
       </c>
       <c r="S69" s="11">
-        <f t="shared" ref="S69" si="169">SUM(R65:R69)/5</f>
+        <f t="shared" ref="S69" si="172">SUM(R65:R69)/5</f>
         <v>13.841693822643288</v>
       </c>
       <c r="U69" s="15">
         <v>75134</v>
       </c>
       <c r="V69" s="10">
-        <f t="shared" ref="V69" si="170">U69/$BR$6</f>
+        <f t="shared" ref="V69" si="173">U69/$BR$6</f>
         <v>7499.2968223958023</v>
       </c>
       <c r="W69" s="11">
-        <f t="shared" ref="W69" si="171">V69-V68</f>
+        <f t="shared" ref="W69" si="174">V69-V68</f>
         <v>78.452462299399485</v>
       </c>
       <c r="X69" s="11">
-        <f t="shared" ref="X69" si="172">SUM(W65:W69)/5</f>
+        <f t="shared" ref="X69" si="175">SUM(W65:W69)/5</f>
         <v>77.414414452181148</v>
       </c>
       <c r="Y69" s="15">
         <v>13679</v>
       </c>
       <c r="Z69" s="10">
-        <f t="shared" ref="Z69" si="173">Y69/$BR$6</f>
+        <f t="shared" ref="Z69" si="176">Y69/$BR$6</f>
         <v>1365.3323559713604</v>
       </c>
       <c r="AA69" s="11">
-        <f t="shared" ref="AA69" si="174">Z69-Z68</f>
+        <f t="shared" ref="AA69" si="177">Z69-Z68</f>
         <v>10.380478472185359</v>
       </c>
       <c r="AB69" s="11">
-        <f t="shared" ref="AB69" si="175">SUM(AA65:AA69)/5</f>
+        <f t="shared" ref="AB69" si="178">SUM(AA65:AA69)/5</f>
         <v>11.438488778004103</v>
       </c>
       <c r="AD69" s="15">
         <v>17825</v>
       </c>
       <c r="AE69" s="10">
-        <f t="shared" ref="AE69" si="176">AD69/$BR$7</f>
+        <f t="shared" ref="AE69" si="179">AD69/$BR$7</f>
         <v>3632.1741552622511</v>
       </c>
       <c r="AF69" s="11">
-        <f t="shared" ref="AF69" si="177">AE69-AE68</f>
+        <f t="shared" ref="AF69" si="180">AE69-AE68</f>
         <v>23.840918718972716</v>
       </c>
       <c r="AG69" s="11">
-        <f t="shared" ref="AG69" si="178">SUM(AF65:AF69)/5</f>
+        <f t="shared" ref="AG69" si="181">SUM(AF65:AF69)/5</f>
         <v>24.289209498303535</v>
       </c>
       <c r="AH69" s="15">
         <v>1437</v>
       </c>
       <c r="AI69" s="10">
-        <f>AH69/$BR$7</f>
+        <f t="shared" si="115"/>
         <v>292.81538631763561</v>
       </c>
       <c r="AJ69" s="11">
-        <f>AI69-AI68</f>
+        <f t="shared" si="116"/>
         <v>5.9092875457282048</v>
       </c>
       <c r="AK69" s="11">
-        <f>SUM(AJ65:AJ69)/5</f>
+        <f t="shared" si="117"/>
         <v>7.8654654919003066</v>
       </c>
       <c r="AM69" s="15">
         <v>25177</v>
       </c>
       <c r="AN69" s="10">
-        <f t="shared" ref="AN69" si="179">AM69/$BR$8</f>
+        <f t="shared" ref="AN69" si="182">AM69/$BR$8</f>
         <v>5659.2267514168298</v>
       </c>
       <c r="AO69" s="11">
-        <f t="shared" ref="AO69" si="180">AN69-AN68</f>
+        <f t="shared" ref="AO69" si="183">AN69-AN68</f>
         <v>59.116520460047468</v>
       </c>
       <c r="AP69" s="4">
-        <f t="shared" ref="AP69" si="181">SUM(AO65:AO69)/5</f>
+        <f t="shared" ref="AP69" si="184">SUM(AO65:AO69)/5</f>
         <v>54.261323342416652</v>
       </c>
       <c r="AQ69" s="15">
         <v>3512</v>
       </c>
       <c r="AR69" s="10">
-        <f t="shared" ref="AR69" si="182">AQ69/$BR$8</f>
+        <f t="shared" ref="AR69" si="185">AQ69/$BR$8</f>
         <v>789.41908690375772</v>
       </c>
       <c r="AS69" s="11">
-        <f t="shared" ref="AS69" si="183">AR69-AR68</f>
+        <f t="shared" ref="AS69" si="186">AR69-AR68</f>
         <v>8.9911057733913822</v>
       </c>
       <c r="AT69" s="11">
-        <f t="shared" ref="AT69" si="184">SUM(AS65:AS69)/5</f>
+        <f t="shared" ref="AT69" si="187">SUM(AS65:AS69)/5</f>
         <v>9.3957055331939276</v>
       </c>
       <c r="AV69" s="15">
         <v>9292</v>
       </c>
       <c r="AW69" s="10">
-        <f t="shared" ref="AW69" si="185">AV69/$BR$9</f>
+        <f t="shared" ref="AW69" si="188">AV69/$BR$9</f>
         <v>2482.8741272064167</v>
       </c>
       <c r="AX69" s="11">
-        <f t="shared" ref="AX69" si="186">AW69-AW68</f>
+        <f t="shared" ref="AX69" si="189">AW69-AW68</f>
         <v>16.299539578087661</v>
       </c>
       <c r="AY69" s="4">
-        <f t="shared" ref="AY69" si="187">SUM(AX65:AX69)/5</f>
+        <f t="shared" ref="AY69" si="190">SUM(AX65:AX69)/5</f>
         <v>22.178062048873471</v>
       </c>
       <c r="AZ69" s="15">
         <v>827</v>
       </c>
       <c r="BA69" s="10">
-        <f t="shared" ref="BA69" si="188">AZ69/$BR$9</f>
+        <f t="shared" ref="BA69" si="191">AZ69/$BR$9</f>
         <v>220.97900378817334</v>
       </c>
       <c r="BB69" s="11">
-        <f t="shared" ref="BB69" si="189">BA69-BA68</f>
+        <f t="shared" ref="BB69" si="192">BA69-BA68</f>
         <v>4.2752890696623638</v>
       </c>
       <c r="BC69" s="11">
-        <f t="shared" ref="BC69" si="190">SUM(BB65:BB69)/5</f>
+        <f t="shared" ref="BC69" si="193">SUM(BB65:BB69)/5</f>
         <v>4.5424946365162615</v>
       </c>
     </row>
@@ -23954,22 +24063,22 @@
         <v>7993</v>
       </c>
       <c r="D70" s="10">
-        <f t="shared" ref="D70" si="191">C70/$BR$4</f>
+        <f t="shared" ref="D70" si="194">C70/$BR$4</f>
         <v>5106.3465505488703</v>
       </c>
       <c r="E70" s="11">
-        <f t="shared" ref="E70" si="192">D70-D69</f>
+        <f t="shared" ref="E70" si="195">D70-D69</f>
         <v>66.440640717763927</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" ref="F70" si="193">SUM(E66:E70)/5</f>
+        <f t="shared" ref="F70" si="196">SUM(E66:E70)/5</f>
         <v>88.417160339792829</v>
       </c>
       <c r="G70" s="16">
         <v>1167</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" ref="H70" si="194">G70/$BR$4</f>
+        <f t="shared" ref="H70" si="197">G70/$BR$4</f>
         <v>745.54065113105605</v>
       </c>
       <c r="I70" s="11">
@@ -23977,157 +24086,157 @@
         <v>9.5827847189081012</v>
       </c>
       <c r="J70" s="11">
-        <f t="shared" ref="J70" si="195">SUM(I66:I70)/5</f>
+        <f t="shared" ref="J70" si="198">SUM(I66:I70)/5</f>
         <v>9.4550142559893864</v>
       </c>
       <c r="L70" s="16">
         <v>26289</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" ref="M70" si="196">L70/$BR$5</f>
+        <f t="shared" ref="M70" si="199">L70/$BR$5</f>
         <v>5984.9389622281114</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" ref="N70" si="197">M70-M69</f>
+        <f t="shared" ref="N70" si="200">M70-M69</f>
         <v>97.438239409396374</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" ref="O70" si="198">SUM(N66:N70)/5</f>
+        <f t="shared" ref="O70" si="201">SUM(N66:N70)/5</f>
         <v>84.82590655126441</v>
       </c>
       <c r="P70" s="16">
         <v>3066</v>
       </c>
       <c r="Q70" s="10">
-        <f t="shared" ref="Q70" si="199">P70/$BR$5</f>
+        <f t="shared" ref="Q70" si="202">P70/$BR$5</f>
         <v>698.00383651684695</v>
       </c>
       <c r="R70" s="11">
-        <f t="shared" ref="R70" si="200">Q70-Q69</f>
+        <f t="shared" ref="R70" si="203">Q70-Q69</f>
         <v>14.342544585962514</v>
       </c>
       <c r="S70" s="11">
-        <f t="shared" ref="S70" si="201">SUM(R66:R70)/5</f>
+        <f t="shared" ref="S70" si="204">SUM(R66:R70)/5</f>
         <v>13.614034384770843</v>
       </c>
       <c r="U70" s="15">
         <v>75732</v>
       </c>
       <c r="V70" s="10">
-        <f t="shared" ref="V70" si="202">U70/$BR$6</f>
+        <f t="shared" ref="V70" si="205">U70/$BR$6</f>
         <v>7558.9845736108673</v>
       </c>
       <c r="W70" s="11">
-        <f t="shared" ref="W70" si="203">V70-V69</f>
+        <f t="shared" ref="W70" si="206">V70-V69</f>
         <v>59.687751215064964</v>
       </c>
       <c r="X70" s="11">
-        <f t="shared" ref="X70" si="204">SUM(W66:W70)/5</f>
+        <f t="shared" ref="X70" si="207">SUM(W66:W70)/5</f>
         <v>80.568482911037421</v>
       </c>
       <c r="Y70" s="15">
         <v>13772</v>
       </c>
       <c r="Z70" s="10">
-        <f t="shared" ref="Z70" si="205">Y70/$BR$6</f>
+        <f t="shared" ref="Z70" si="208">Y70/$BR$6</f>
         <v>1374.614899220526</v>
       </c>
       <c r="AA70" s="11">
-        <f t="shared" ref="AA70" si="206">Z70-Z69</f>
+        <f t="shared" ref="AA70" si="209">Z70-Z69</f>
         <v>9.2825432491656557</v>
       </c>
       <c r="AB70" s="11">
-        <f t="shared" ref="AB70" si="207">SUM(AA66:AA70)/5</f>
+        <f t="shared" ref="AB70" si="210">SUM(AA66:AA70)/5</f>
         <v>10.041116675979174</v>
       </c>
       <c r="AD70" s="15">
         <v>17960</v>
       </c>
       <c r="AE70" s="10">
-        <f t="shared" ref="AE70" si="208">AD70/$BR$7</f>
+        <f t="shared" ref="AE70" si="211">AD70/$BR$7</f>
         <v>3659.6829076302961</v>
       </c>
       <c r="AF70" s="11">
-        <f t="shared" ref="AF70" si="209">AE70-AE69</f>
+        <f t="shared" ref="AF70" si="212">AE70-AE69</f>
         <v>27.508752368044952</v>
       </c>
       <c r="AG70" s="11">
-        <f t="shared" ref="AG70" si="210">SUM(AF66:AF70)/5</f>
+        <f t="shared" ref="AG70" si="213">SUM(AF66:AF70)/5</f>
         <v>23.188859403581773</v>
       </c>
       <c r="AH70" s="15">
         <v>1459</v>
       </c>
       <c r="AI70" s="10">
-        <f>AH70/$BR$7</f>
+        <f t="shared" si="115"/>
         <v>297.29829411094664</v>
       </c>
       <c r="AJ70" s="11">
-        <f>AI70-AI69</f>
+        <f t="shared" si="116"/>
         <v>4.4829077933110284</v>
       </c>
       <c r="AK70" s="11">
-        <f>SUM(AJ66:AJ70)/5</f>
+        <f t="shared" si="117"/>
         <v>6.9688839332380894</v>
       </c>
       <c r="AM70" s="15">
         <v>25436</v>
       </c>
       <c r="AN70" s="10">
-        <f t="shared" ref="AN70" si="211">AM70/$BR$8</f>
+        <f t="shared" ref="AN70" si="214">AM70/$BR$8</f>
         <v>5717.4441612995388</v>
       </c>
       <c r="AO70" s="11">
-        <f t="shared" ref="AO70" si="212">AN70-AN69</f>
+        <f t="shared" ref="AO70" si="215">AN70-AN69</f>
         <v>58.217409882709035</v>
       </c>
       <c r="AP70" s="4">
-        <f t="shared" ref="AP70" si="213">SUM(AO66:AO70)/5</f>
+        <f t="shared" ref="AP70" si="216">SUM(AO66:AO70)/5</f>
         <v>55.160433919755818</v>
       </c>
       <c r="AQ70" s="15">
         <v>3551</v>
       </c>
       <c r="AR70" s="10">
-        <f t="shared" ref="AR70" si="214">AQ70/$BR$8</f>
+        <f t="shared" ref="AR70" si="217">AQ70/$BR$8</f>
         <v>798.18541503281415</v>
       </c>
       <c r="AS70" s="11">
-        <f t="shared" ref="AS70" si="215">AR70-AR69</f>
+        <f t="shared" ref="AS70" si="218">AR70-AR69</f>
         <v>8.7663281290564328</v>
       </c>
       <c r="AT70" s="11">
-        <f t="shared" ref="AT70" si="216">SUM(AS66:AS70)/5</f>
+        <f t="shared" ref="AT70" si="219">SUM(AS66:AS70)/5</f>
         <v>9.1709278888591363</v>
       </c>
       <c r="AV70" s="15">
         <v>9352</v>
       </c>
       <c r="AW70" s="10">
-        <f t="shared" ref="AW70" si="217">AV70/$BR$9</f>
+        <f t="shared" ref="AW70" si="220">AV70/$BR$9</f>
         <v>2498.9064612176508</v>
       </c>
       <c r="AX70" s="11">
-        <f t="shared" ref="AX70" si="218">AW70-AW69</f>
+        <f t="shared" ref="AX70" si="221">AW70-AW69</f>
         <v>16.03233401123407</v>
       </c>
       <c r="AY70" s="4">
-        <f t="shared" ref="AY70" si="219">SUM(AX66:AX70)/5</f>
+        <f t="shared" ref="AY70" si="222">SUM(AX66:AX70)/5</f>
         <v>18.009655205952733</v>
       </c>
       <c r="AZ70" s="15">
         <v>842</v>
       </c>
       <c r="BA70" s="10">
-        <f t="shared" ref="BA70" si="220">AZ70/$BR$9</f>
+        <f t="shared" ref="BA70" si="223">AZ70/$BR$9</f>
         <v>224.9870872909818</v>
       </c>
       <c r="BB70" s="11">
-        <f t="shared" ref="BB70" si="221">BA70-BA69</f>
+        <f t="shared" ref="BB70" si="224">BA70-BA69</f>
         <v>4.0080835028084607</v>
       </c>
       <c r="BC70" s="11">
-        <f t="shared" ref="BC70" si="222">SUM(BB66:BB70)/5</f>
+        <f t="shared" ref="BC70" si="225">SUM(BB66:BB70)/5</f>
         <v>4.382171296403925</v>
       </c>
     </row>
@@ -24142,22 +24251,22 @@
         <v>8126</v>
       </c>
       <c r="D71" s="10">
-        <f t="shared" ref="D71" si="223">C71/$BR$4</f>
+        <f t="shared" ref="D71" si="226">C71/$BR$4</f>
         <v>5191.3139083898559</v>
       </c>
       <c r="E71" s="11">
-        <f t="shared" ref="E71" si="224">D71-D70</f>
+        <f t="shared" ref="E71" si="227">D71-D70</f>
         <v>84.967357840985642</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" ref="F71" si="225">SUM(E67:E71)/5</f>
+        <f t="shared" ref="F71" si="228">SUM(E67:E71)/5</f>
         <v>81.517555342178824</v>
       </c>
       <c r="G71" s="16">
         <v>1184</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" ref="H71" si="226">G71/$BR$4</f>
+        <f t="shared" ref="H71" si="229">G71/$BR$4</f>
         <v>756.40114047915199</v>
       </c>
       <c r="I71" s="11">
@@ -24165,157 +24274,157 @@
         <v>10.860489348095939</v>
       </c>
       <c r="J71" s="11">
-        <f t="shared" ref="J71" si="227">SUM(I67:I71)/5</f>
+        <f t="shared" ref="J71" si="230">SUM(I67:I71)/5</f>
         <v>8.943932404314296</v>
       </c>
       <c r="L71" s="16">
         <v>26684</v>
       </c>
       <c r="M71" s="10">
-        <f t="shared" ref="M71" si="228">L71/$BR$5</f>
+        <f t="shared" ref="M71" si="231">L71/$BR$5</f>
         <v>6074.8644401877191</v>
       </c>
       <c r="N71" s="11">
-        <f t="shared" ref="N71" si="229">M71-M70</f>
+        <f t="shared" ref="N71" si="232">M71-M70</f>
         <v>89.925477959607633</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" ref="O71" si="230">SUM(N67:N71)/5</f>
+        <f t="shared" ref="O71" si="233">SUM(N67:N71)/5</f>
         <v>84.871438438839135</v>
       </c>
       <c r="P71" s="16">
         <v>3097</v>
       </c>
       <c r="Q71" s="10">
-        <f t="shared" ref="Q71" si="231">P71/$BR$5</f>
+        <f t="shared" ref="Q71" si="234">P71/$BR$5</f>
         <v>705.06127909089207</v>
       </c>
       <c r="R71" s="11">
-        <f t="shared" ref="R71" si="232">Q71-Q70</f>
+        <f t="shared" ref="R71" si="235">Q71-Q70</f>
         <v>7.0574425740451261</v>
       </c>
       <c r="S71" s="11">
-        <f t="shared" ref="S71" si="233">SUM(R67:R71)/5</f>
+        <f t="shared" ref="S71" si="236">SUM(R67:R71)/5</f>
         <v>12.475737195408737</v>
       </c>
       <c r="U71" s="15">
         <v>76469</v>
       </c>
       <c r="V71" s="10">
-        <f t="shared" ref="V71" si="234">U71/$BR$6</f>
+        <f t="shared" ref="V71" si="237">U71/$BR$6</f>
         <v>7632.5462335531802</v>
       </c>
       <c r="W71" s="11">
-        <f t="shared" ref="W71" si="235">V71-V70</f>
+        <f t="shared" ref="W71" si="238">V71-V70</f>
         <v>73.561659942312872</v>
       </c>
       <c r="X71" s="11">
-        <f t="shared" ref="X71" si="236">SUM(W67:W71)/5</f>
+        <f t="shared" ref="X71" si="239">SUM(W67:W71)/5</f>
         <v>71.465601789275027</v>
       </c>
       <c r="Y71" s="15">
         <v>13860</v>
       </c>
       <c r="Z71" s="10">
-        <f t="shared" ref="Z71" si="237">Y71/$BR$6</f>
+        <f t="shared" ref="Z71" si="240">Y71/$BR$6</f>
         <v>1383.3983810046827</v>
       </c>
       <c r="AA71" s="11">
-        <f t="shared" ref="AA71" si="238">Z71-Z70</f>
+        <f t="shared" ref="AA71" si="241">Z71-Z70</f>
         <v>8.7834817841567201</v>
       </c>
       <c r="AB71" s="11">
-        <f t="shared" ref="AB71" si="239">SUM(AA67:AA71)/5</f>
+        <f t="shared" ref="AB71" si="242">SUM(AA67:AA71)/5</f>
         <v>10.679915351190584</v>
       </c>
       <c r="AD71" s="15">
         <v>18098</v>
       </c>
       <c r="AE71" s="10">
-        <f t="shared" ref="AE71" si="240">AD71/$BR$7</f>
+        <f t="shared" ref="AE71" si="243">AD71/$BR$7</f>
         <v>3687.80296560652</v>
       </c>
       <c r="AF71" s="11">
-        <f t="shared" ref="AF71" si="241">AE71-AE70</f>
+        <f t="shared" ref="AF71" si="244">AE71-AE70</f>
         <v>28.120057976223961</v>
       </c>
       <c r="AG71" s="11">
-        <f t="shared" ref="AG71" si="242">SUM(AF67:AF71)/5</f>
+        <f t="shared" ref="AG71" si="245">SUM(AF67:AF71)/5</f>
         <v>25.552574421873032</v>
       </c>
       <c r="AH71" s="15">
         <v>1479</v>
       </c>
       <c r="AI71" s="10">
-        <f>AH71/$BR$7</f>
+        <f t="shared" si="115"/>
         <v>301.3736648321385</v>
       </c>
       <c r="AJ71" s="11">
-        <f>AI71-AI70</f>
+        <f t="shared" si="116"/>
         <v>4.0753707211918595</v>
       </c>
       <c r="AK71" s="11">
-        <f>SUM(AJ67:AJ71)/5</f>
+        <f t="shared" si="117"/>
         <v>6.683607982754654</v>
       </c>
       <c r="AM71" s="15">
         <v>25644</v>
       </c>
       <c r="AN71" s="10">
-        <f t="shared" ref="AN71" si="243">AM71/$BR$8</f>
+        <f t="shared" ref="AN71" si="246">AM71/$BR$8</f>
         <v>5764.1979113211737</v>
       </c>
       <c r="AO71" s="11">
-        <f t="shared" ref="AO71" si="244">AN71-AN70</f>
+        <f t="shared" ref="AO71" si="247">AN71-AN70</f>
         <v>46.753750021634914</v>
       </c>
       <c r="AP71" s="4">
-        <f t="shared" ref="AP71" si="245">SUM(AO67:AO71)/5</f>
+        <f t="shared" ref="AP71" si="248">SUM(AO67:AO71)/5</f>
         <v>53.676901467146124</v>
       </c>
       <c r="AQ71" s="15">
         <v>3579</v>
       </c>
       <c r="AR71" s="10">
-        <f t="shared" ref="AR71" si="246">AQ71/$BR$8</f>
+        <f t="shared" ref="AR71" si="249">AQ71/$BR$8</f>
         <v>804.47918907418807</v>
       </c>
       <c r="AS71" s="11">
-        <f t="shared" ref="AS71" si="247">AR71-AR70</f>
+        <f t="shared" ref="AS71" si="250">AR71-AR70</f>
         <v>6.293774041373922</v>
       </c>
       <c r="AT71" s="11">
-        <f t="shared" ref="AT71" si="248">SUM(AS67:AS71)/5</f>
+        <f t="shared" ref="AT71" si="251">SUM(AS67:AS71)/5</f>
         <v>8.6764170713226125</v>
       </c>
       <c r="AV71" s="15">
         <v>9445</v>
       </c>
       <c r="AW71" s="10">
-        <f t="shared" ref="AW71" si="249">AV71/$BR$9</f>
+        <f t="shared" ref="AW71" si="252">AV71/$BR$9</f>
         <v>2523.7565789350629</v>
       </c>
       <c r="AX71" s="11">
-        <f t="shared" ref="AX71" si="250">AW71-AW70</f>
+        <f t="shared" ref="AX71" si="253">AW71-AW70</f>
         <v>24.850117717412104</v>
       </c>
       <c r="AY71" s="4">
-        <f t="shared" ref="AY71" si="251">SUM(AX67:AX71)/5</f>
+        <f t="shared" ref="AY71" si="254">SUM(AX67:AX71)/5</f>
         <v>15.925451784492271</v>
       </c>
       <c r="AZ71" s="15">
         <v>854</v>
       </c>
       <c r="BA71" s="10">
-        <f t="shared" ref="BA71" si="252">AZ71/$BR$9</f>
+        <f t="shared" ref="BA71" si="255">AZ71/$BR$9</f>
         <v>228.19355409322856</v>
       </c>
       <c r="BB71" s="11">
-        <f t="shared" ref="BB71" si="253">BA71-BA70</f>
+        <f t="shared" ref="BB71" si="256">BA71-BA70</f>
         <v>3.2064668022467515</v>
       </c>
       <c r="BC71" s="11">
-        <f t="shared" ref="BC71" si="254">SUM(BB67:BB71)/5</f>
+        <f t="shared" ref="BC71" si="257">SUM(BB67:BB71)/5</f>
         <v>4.0615246161792413</v>
       </c>
     </row>
@@ -24330,22 +24439,22 @@
         <v>8312</v>
       </c>
       <c r="D72" s="10">
-        <f t="shared" ref="D72" si="255">C72/$BR$4</f>
+        <f t="shared" ref="D72" si="258">C72/$BR$4</f>
         <v>5310.1404389043173</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" ref="E72" si="256">D72-D71</f>
+        <f t="shared" ref="E72" si="259">D72-D71</f>
         <v>118.82653051446141</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" ref="F72" si="257">SUM(E68:E72)/5</f>
+        <f t="shared" ref="F72" si="260">SUM(E68:E72)/5</f>
         <v>85.606210155579717</v>
       </c>
       <c r="G72" s="16">
         <v>1195</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" ref="H72" si="258">G72/$BR$4</f>
+        <f t="shared" ref="H72" si="261">G72/$BR$4</f>
         <v>763.42851593968464</v>
       </c>
       <c r="I72" s="11">
@@ -24353,157 +24462,157 @@
         <v>7.0273754605326531</v>
       </c>
       <c r="J72" s="11">
-        <f t="shared" ref="J72" si="259">SUM(I68:I72)/5</f>
+        <f t="shared" ref="J72" si="262">SUM(I68:I72)/5</f>
         <v>8.5606210155579667</v>
       </c>
       <c r="L72" s="16">
         <v>27179</v>
       </c>
       <c r="M72" s="10">
-        <f t="shared" ref="M72" si="260">L72/$BR$5</f>
+        <f t="shared" ref="M72" si="263">L72/$BR$5</f>
         <v>6187.5558619345675</v>
       </c>
       <c r="N72" s="11">
-        <f t="shared" ref="N72" si="261">M72-M71</f>
+        <f t="shared" ref="N72" si="264">M72-M71</f>
         <v>112.69142174684839</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" ref="O72" si="262">SUM(N68:N72)/5</f>
+        <f t="shared" ref="O72" si="265">SUM(N68:N72)/5</f>
         <v>94.751858042502136</v>
       </c>
       <c r="P72" s="16">
         <v>3126</v>
       </c>
       <c r="Q72" s="10">
-        <f t="shared" ref="Q72" si="263">P72/$BR$5</f>
+        <f t="shared" ref="Q72" si="266">P72/$BR$5</f>
         <v>711.66340278919233</v>
       </c>
       <c r="R72" s="11">
-        <f t="shared" ref="R72" si="264">Q72-Q71</f>
+        <f t="shared" ref="R72" si="267">Q72-Q71</f>
         <v>6.6021236983002609</v>
       </c>
       <c r="S72" s="11">
-        <f t="shared" ref="S72" si="265">SUM(R68:R72)/5</f>
+        <f t="shared" ref="S72" si="268">SUM(R68:R72)/5</f>
         <v>11.291908118472156</v>
       </c>
       <c r="U72" s="15">
         <v>77002</v>
       </c>
       <c r="V72" s="10">
-        <f t="shared" ref="V72" si="266">U72/$BR$6</f>
+        <f t="shared" ref="V72" si="269">U72/$BR$6</f>
         <v>7685.7461857231292</v>
       </c>
       <c r="W72" s="11">
-        <f t="shared" ref="W72" si="267">V72-V71</f>
+        <f t="shared" ref="W72" si="270">V72-V71</f>
         <v>53.199952169949029</v>
       </c>
       <c r="X72" s="11">
-        <f t="shared" ref="X72" si="268">SUM(W68:W72)/5</f>
+        <f t="shared" ref="X72" si="271">SUM(W68:W72)/5</f>
         <v>70.327741649054772</v>
       </c>
       <c r="Y72" s="15">
         <v>14189</v>
       </c>
       <c r="Z72" s="10">
-        <f t="shared" ref="Z72" si="269">Y72/$BR$6</f>
+        <f t="shared" ref="Z72" si="272">Y72/$BR$6</f>
         <v>1416.2366254022686</v>
       </c>
       <c r="AA72" s="11">
-        <f t="shared" ref="AA72" si="270">Z72-Z71</f>
+        <f t="shared" ref="AA72" si="273">Z72-Z71</f>
         <v>32.838244397585868</v>
       </c>
       <c r="AB72" s="11">
-        <f t="shared" ref="AB72" si="271">SUM(AA68:AA72)/5</f>
+        <f t="shared" ref="AB72" si="274">SUM(AA68:AA72)/5</f>
         <v>14.772219364263583</v>
       </c>
       <c r="AD72" s="15">
         <v>18224</v>
       </c>
       <c r="AE72" s="10">
-        <f t="shared" ref="AE72" si="272">AD72/$BR$7</f>
+        <f t="shared" ref="AE72" si="275">AD72/$BR$7</f>
         <v>3713.4778011500289</v>
       </c>
       <c r="AF72" s="11">
-        <f t="shared" ref="AF72" si="273">AE72-AE71</f>
+        <f t="shared" ref="AF72" si="276">AE72-AE71</f>
         <v>25.674835543508834</v>
       </c>
       <c r="AG72" s="11">
-        <f t="shared" ref="AG72" si="274">SUM(AF68:AF72)/5</f>
+        <f t="shared" ref="AG72" si="277">SUM(AF68:AF72)/5</f>
         <v>26.28614115168757</v>
       </c>
       <c r="AH72" s="15">
         <v>1502</v>
       </c>
       <c r="AI72" s="10">
-        <f>AH72/$BR$7</f>
+        <f t="shared" si="115"/>
         <v>306.06034116150914</v>
       </c>
       <c r="AJ72" s="11">
-        <f>AI72-AI71</f>
+        <f t="shared" si="116"/>
         <v>4.6866763293706413</v>
       </c>
       <c r="AK72" s="11">
-        <f>SUM(AJ68:AJ72)/5</f>
+        <f t="shared" si="117"/>
         <v>6.4390857394831418</v>
       </c>
       <c r="AM72" s="15">
         <v>25850</v>
       </c>
       <c r="AN72" s="10">
-        <f t="shared" ref="AN72" si="275">AM72/$BR$8</f>
+        <f t="shared" ref="AN72" si="278">AM72/$BR$8</f>
         <v>5810.5021060541385</v>
       </c>
       <c r="AO72" s="11">
-        <f t="shared" ref="AO72" si="276">AN72-AN71</f>
+        <f t="shared" ref="AO72" si="279">AN72-AN71</f>
         <v>46.304194732964788</v>
       </c>
       <c r="AP72" s="4">
-        <f t="shared" ref="AP72" si="277">SUM(AO68:AO72)/5</f>
+        <f t="shared" ref="AP72" si="280">SUM(AO68:AO72)/5</f>
         <v>53.407168293944416</v>
       </c>
       <c r="AQ72" s="15">
         <v>3614</v>
       </c>
       <c r="AR72" s="10">
-        <f t="shared" ref="AR72" si="278">AQ72/$BR$8</f>
+        <f t="shared" ref="AR72" si="281">AQ72/$BR$8</f>
         <v>812.3464066259055</v>
       </c>
       <c r="AS72" s="11">
-        <f t="shared" ref="AS72" si="279">AR72-AR71</f>
+        <f t="shared" ref="AS72" si="282">AR72-AR71</f>
         <v>7.867217551717431</v>
       </c>
       <c r="AT72" s="11">
-        <f t="shared" ref="AT72" si="280">SUM(AS68:AS72)/5</f>
+        <f t="shared" ref="AT72" si="283">SUM(AS68:AS72)/5</f>
         <v>8.2268617826530548</v>
       </c>
       <c r="AV72" s="15">
         <v>9525</v>
       </c>
       <c r="AW72" s="10">
-        <f t="shared" ref="AW72:AW73" si="281">AV72/$BR$9</f>
+        <f t="shared" ref="AW72:AW73" si="284">AV72/$BR$9</f>
         <v>2545.1330242833747</v>
       </c>
       <c r="AX72" s="11">
-        <f t="shared" ref="AX72" si="282">AW72-AW71</f>
+        <f t="shared" ref="AX72" si="285">AW72-AW71</f>
         <v>21.37644534831179</v>
       </c>
       <c r="AY72" s="4">
-        <f t="shared" ref="AY72" si="283">SUM(AX68:AX72)/5</f>
+        <f t="shared" ref="AY72" si="286">SUM(AX68:AX72)/5</f>
         <v>18.490625226289648</v>
       </c>
       <c r="AZ72" s="15">
         <v>863</v>
       </c>
       <c r="BA72" s="10">
-        <f t="shared" ref="BA72" si="284">AZ72/$BR$9</f>
+        <f t="shared" ref="BA72" si="287">AZ72/$BR$9</f>
         <v>230.59840419491366</v>
       </c>
       <c r="BB72" s="11">
-        <f t="shared" ref="BB72" si="285">BA72-BA71</f>
+        <f t="shared" ref="BB72" si="288">BA72-BA71</f>
         <v>2.4048501016850992</v>
       </c>
       <c r="BC72" s="11">
-        <f t="shared" ref="BC72" si="286">SUM(BB68:BB72)/5</f>
+        <f t="shared" ref="BC72" si="289">SUM(BB68:BB72)/5</f>
         <v>3.633995709213008</v>
       </c>
     </row>
@@ -24514,27 +24623,186 @@
       <c r="B73" s="3">
         <v>70</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="G73" s="16"/>
-      <c r="J73" s="11"/>
-      <c r="L73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="U73" s="15"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="15"/>
-      <c r="AD73" s="15"/>
-      <c r="AG73" s="11"/>
-      <c r="AH73" s="15"/>
-      <c r="AM73" s="15"/>
-      <c r="AQ73" s="15"/>
+      <c r="C73" s="15">
+        <v>8359</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" ref="D73" si="290">C73/$BR$4</f>
+        <v>5340.1664976902293</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" ref="E73" si="291">D73-D72</f>
+        <v>30.026058785912028</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" ref="F73" si="292">SUM(E69:E73)/5</f>
+        <v>75.001261733321371</v>
+      </c>
+      <c r="G73" s="16">
+        <v>1209</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" ref="H73" si="293">G73/$BR$4</f>
+        <v>772.37244834399894</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" si="14"/>
+        <v>8.943932404314296</v>
+      </c>
+      <c r="J73" s="11">
+        <f t="shared" ref="J73" si="294">SUM(I69:I73)/5</f>
+        <v>8.6883914784767509</v>
+      </c>
+      <c r="L73" s="16">
+        <v>27430</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" ref="M73" si="295">L73/$BR$5</f>
+        <v>6244.6983808405457</v>
+      </c>
+      <c r="N73" s="11">
+        <f t="shared" ref="N73" si="296">M73-M72</f>
+        <v>57.14251890597825</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" ref="O73" si="297">SUM(N69:N73)/5</f>
+        <v>90.153137397479256</v>
+      </c>
+      <c r="P73" s="16">
+        <v>3152</v>
+      </c>
+      <c r="Q73" s="10">
+        <f t="shared" ref="Q73" si="298">P73/$BR$5</f>
+        <v>717.58254817387535</v>
+      </c>
+      <c r="R73" s="11">
+        <f t="shared" ref="R73" si="299">Q73-Q72</f>
+        <v>5.91914538468302</v>
+      </c>
+      <c r="S73" s="11">
+        <f t="shared" ref="S73" si="300">SUM(R69:R73)/5</f>
+        <v>9.8348877160886552</v>
+      </c>
+      <c r="U73" s="15">
+        <v>77528</v>
+      </c>
+      <c r="V73" s="10">
+        <f t="shared" ref="V73" si="301">U73/$BR$6</f>
+        <v>7738.2474518420659</v>
+      </c>
+      <c r="W73" s="11">
+        <f t="shared" ref="W73" si="302">V73-V72</f>
+        <v>52.501266118936655</v>
+      </c>
+      <c r="X73" s="11">
+        <f t="shared" ref="X73" si="303">SUM(W69:W73)/5</f>
+        <v>63.480618349132598</v>
+      </c>
+      <c r="Y73" s="15">
+        <v>14231</v>
+      </c>
+      <c r="Z73" s="10">
+        <f t="shared" ref="Z73" si="304">Y73/$BR$6</f>
+        <v>1420.4287417083433</v>
+      </c>
+      <c r="AA73" s="11">
+        <f t="shared" ref="AA73" si="305">Z73-Z72</f>
+        <v>4.1921163060746949</v>
+      </c>
+      <c r="AB73" s="11">
+        <f t="shared" ref="AB73" si="306">SUM(AA69:AA73)/5</f>
+        <v>13.09537284183366</v>
+      </c>
+      <c r="AD73" s="15">
+        <v>18318</v>
+      </c>
+      <c r="AE73" s="10">
+        <f t="shared" ref="AE73" si="307">AD73/$BR$7</f>
+        <v>3732.6320435396306</v>
+      </c>
+      <c r="AF73" s="11">
+        <f t="shared" ref="AF73" si="308">AE73-AE72</f>
+        <v>19.154242389601677</v>
+      </c>
+      <c r="AG73" s="11">
+        <f t="shared" ref="AG73" si="309">SUM(AF69:AF73)/5</f>
+        <v>24.859761399270429</v>
+      </c>
+      <c r="AH73" s="15">
+        <v>1516</v>
+      </c>
+      <c r="AI73" s="10">
+        <f t="shared" si="115"/>
+        <v>308.9131006663435</v>
+      </c>
+      <c r="AJ73" s="11">
+        <f t="shared" si="116"/>
+        <v>2.8527595048343528</v>
+      </c>
+      <c r="AK73" s="11">
+        <f t="shared" si="117"/>
+        <v>4.4014003788872174</v>
+      </c>
+      <c r="AM73" s="15">
+        <v>26016</v>
+      </c>
+      <c r="AN73" s="10">
+        <f t="shared" ref="AN73" si="310">AM73/$BR$8</f>
+        <v>5847.8151950137126</v>
+      </c>
+      <c r="AO73" s="11">
+        <f t="shared" ref="AO73" si="311">AN73-AN72</f>
+        <v>37.313088959574088</v>
+      </c>
+      <c r="AP73" s="4">
+        <f t="shared" ref="AP73" si="312">SUM(AO69:AO73)/5</f>
+        <v>49.540992811386062</v>
+      </c>
+      <c r="AQ73" s="15">
+        <v>3642</v>
+      </c>
+      <c r="AR73" s="10">
+        <f t="shared" ref="AR73" si="313">AQ73/$BR$8</f>
+        <v>818.64018066727942</v>
+      </c>
+      <c r="AS73" s="11">
+        <f t="shared" ref="AS73" si="314">AR73-AR72</f>
+        <v>6.293774041373922</v>
+      </c>
+      <c r="AT73" s="11">
+        <f t="shared" ref="AT73" si="315">SUM(AS69:AS73)/5</f>
+        <v>7.6424399073826184</v>
+      </c>
       <c r="AV73" s="15">
-        <v>3</v>
+        <v>9563</v>
       </c>
       <c r="AW73" s="10">
-        <f t="shared" si="281"/>
-        <v>0.80161670056169287</v>
-      </c>
-      <c r="AZ73" s="15"/>
+        <f t="shared" ref="AW73" si="316">AV73/$BR$9</f>
+        <v>2555.2868358238229</v>
+      </c>
+      <c r="AX73" s="11">
+        <f t="shared" ref="AX73" si="317">AW73-AW72</f>
+        <v>10.15381154044826</v>
+      </c>
+      <c r="AY73" s="4">
+        <f t="shared" ref="AY73" si="318">SUM(AX69:AX73)/5</f>
+        <v>17.742449639098776</v>
+      </c>
+      <c r="AZ73" s="15">
+        <v>872</v>
+      </c>
+      <c r="BA73" s="10">
+        <f t="shared" ref="BA73" si="319">AZ73/$BR$9</f>
+        <v>233.00325429659873</v>
+      </c>
+      <c r="BB73" s="11">
+        <f t="shared" ref="BB73" si="320">BA73-BA72</f>
+        <v>2.4048501016850707</v>
+      </c>
+      <c r="BC73" s="11">
+        <f t="shared" ref="BC73" si="321">SUM(BB69:BB73)/5</f>
+        <v>3.259907915617549</v>
+      </c>
     </row>
     <row r="74" spans="1:55">
       <c r="A74" s="2">
@@ -24729,9 +24997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E1365-D420-46B7-AECA-18F04FAE5702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBBD13-14AC-4DDD-A52C-B2533932AE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -622,6 +622,9 @@
                 <c:pt idx="64">
                   <c:v>5340.1664976902293</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>5374.0256703637051</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -825,6 +828,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>75.001261733321371</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.823952106519755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,6 +1061,9 @@
                 <c:pt idx="64">
                   <c:v>6244.6983808405457</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>6288.408992912051</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1258,6 +1267,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>90.153137397479256</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>80.181654018667174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,6 +1500,9 @@
                 <c:pt idx="64">
                   <c:v>7738.2474518420659</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>7795.8391449040937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1691,6 +1706,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>63.480618349132598</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>59.308464501658271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,6 +1939,9 @@
                 <c:pt idx="64">
                   <c:v>3732.6320435396306</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>3743.8393130229083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2124,6 +2145,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>24.859761399270429</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.333031552131434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,6 +2380,9 @@
                 <c:pt idx="64">
                   <c:v>5847.8151950137126</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>5883.5548404629435</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2559,6 +2586,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>49.540992811386062</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44.865617809222748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2789,6 +2819,9 @@
                 <c:pt idx="64">
                   <c:v>2555.2868358238229</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>2565.4406473642712</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2992,6 +3025,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>17.742449639098776</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.513304031570897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3222,6 +3258,9 @@
                 <c:pt idx="64">
                   <c:v>3477.8046243807776</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>3497.9567689460901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3425,6 +3464,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>30.40811723761799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.552817475292795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,6 +4138,9 @@
                 <c:pt idx="64">
                   <c:v>772.37244834399894</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>780.03867611912551</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4299,6 +4344,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>8.6883914784767509</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.8161619413955119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4529,6 +4577,9 @@
                 <c:pt idx="64">
                   <c:v>717.58254817387535</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>725.32296906153772</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4732,6 +4783,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>9.8348877160886552</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.3323354261306584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4962,6 +5016,9 @@
                 <c:pt idx="64">
                   <c:v>1420.4287417083433</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>1426.7169161674556</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5165,6 +5222,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>13.09537284183366</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.276912039219042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5395,6 +5455,9 @@
                 <c:pt idx="64">
                   <c:v>308.9131006663435</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>311.35832309905857</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5598,6 +5661,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>4.4014003788872174</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.7085873562845904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5828,6 +5894,9 @@
                 <c:pt idx="64">
                   <c:v>818.64018066727942</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>824.03484413131423</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6031,6 +6100,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>7.6424399073826184</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9231514455113032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6261,6 +6333,9 @@
                 <c:pt idx="64">
                   <c:v>233.00325429659873</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>235.4081043982838</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6464,6 +6539,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>3.259907915617549</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8858201220220905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6694,6 +6772,9 @@
                 <c:pt idx="64">
                   <c:v>476.71952794797943</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>479.93792941418411</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6897,6 +6978,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>5.0339099856021905</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.6113916392696748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8762,9 +8846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2619D-6D80-438C-B4B6-FF2AE18F2819}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11461,8 +11545,36 @@
       <c r="B74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="C74" s="15">
+        <v>211938</v>
+      </c>
+      <c r="D74" s="14">
+        <f t="shared" ref="D74:D75" si="58">C74/$P$4</f>
+        <v>3497.9567689460901</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" ref="E74:E75" si="59">D74-D73</f>
+        <v>20.152144565312483</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" ref="F74:F75" si="60">SUM(E70:E74)/5</f>
+        <v>27.552817475292795</v>
+      </c>
+      <c r="G74" s="15">
+        <v>29079</v>
+      </c>
+      <c r="H74" s="13">
+        <f t="shared" ref="H74:H75" si="61">G74/$P$4</f>
+        <v>479.93792941418411</v>
+      </c>
+      <c r="I74" s="11">
+        <f t="shared" ref="I74:I75" si="62">H74-H73</f>
+        <v>3.218401466204682</v>
+      </c>
+      <c r="J74" s="11">
+        <f t="shared" ref="J74:J75" si="63">SUM(I70:I74)/5</f>
+        <v>4.6113916392696748</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2">
@@ -11472,7 +11584,31 @@
         <v>72</v>
       </c>
       <c r="C75" s="15"/>
+      <c r="D75" s="14">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="59"/>
+        <v>-3497.9567689460901</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" si="60"/>
+        <v>-678.21786712903827</v>
+      </c>
       <c r="G75" s="15"/>
+      <c r="H75" s="13">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" si="62"/>
+        <v>-479.93792941418411</v>
+      </c>
+      <c r="J75" s="11">
+        <f t="shared" si="63"/>
+        <v>-92.316957749073126</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2">
@@ -11616,9 +11752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AZ75" sqref="AZ75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12144,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" ref="I6:I73" si="14">$H6-$H5</f>
+        <f t="shared" ref="I6:I74" si="14">$H6-$H5</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -24589,7 +24725,7 @@
         <v>9525</v>
       </c>
       <c r="AW72" s="10">
-        <f t="shared" ref="AW72:AW73" si="284">AV72/$BR$9</f>
+        <f t="shared" ref="AW72" si="284">AV72/$BR$9</f>
         <v>2545.1330242833747</v>
       </c>
       <c r="AX72" s="11">
@@ -24811,21 +24947,186 @@
       <c r="B74" s="3">
         <v>71</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="G74" s="16"/>
-      <c r="J74" s="11"/>
-      <c r="L74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="U74" s="15"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="15"/>
-      <c r="AD74" s="15"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="15"/>
-      <c r="AM74" s="15"/>
-      <c r="AQ74" s="15"/>
-      <c r="AV74" s="15"/>
-      <c r="AZ74" s="15"/>
+      <c r="C74" s="15">
+        <v>8412</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" ref="D74:D75" si="322">C74/$BR$4</f>
+        <v>5374.0256703637051</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" ref="E74:E75" si="323">D74-D73</f>
+        <v>33.859172673475769</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" ref="F74:F75" si="324">SUM(E70:E74)/5</f>
+        <v>66.823952106519755</v>
+      </c>
+      <c r="G74" s="16">
+        <v>1221</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" ref="H74:H75" si="325">G74/$BR$4</f>
+        <v>780.03867611912551</v>
+      </c>
+      <c r="I74" s="11">
+        <f t="shared" si="14"/>
+        <v>7.6662277751265719</v>
+      </c>
+      <c r="J74" s="11">
+        <f t="shared" ref="J74:J75" si="326">SUM(I70:I74)/5</f>
+        <v>8.8161619413955119</v>
+      </c>
+      <c r="L74" s="16">
+        <v>27622</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" ref="M74:M75" si="327">L74/$BR$5</f>
+        <v>6288.408992912051</v>
+      </c>
+      <c r="N74" s="11">
+        <f t="shared" ref="N74:N75" si="328">M74-M73</f>
+        <v>43.710612071505238</v>
+      </c>
+      <c r="O74" s="4">
+        <f t="shared" ref="O74:O75" si="329">SUM(N70:N74)/5</f>
+        <v>80.181654018667174</v>
+      </c>
+      <c r="P74" s="16">
+        <v>3186</v>
+      </c>
+      <c r="Q74" s="10">
+        <f t="shared" ref="Q74:Q75" si="330">P74/$BR$5</f>
+        <v>725.32296906153772</v>
+      </c>
+      <c r="R74" s="11">
+        <f t="shared" ref="R74:R75" si="331">Q74-Q73</f>
+        <v>7.740420887662367</v>
+      </c>
+      <c r="S74" s="11">
+        <f t="shared" ref="S74:S75" si="332">SUM(R70:R74)/5</f>
+        <v>8.3323354261306584</v>
+      </c>
+      <c r="U74" s="15">
+        <v>78105</v>
+      </c>
+      <c r="V74" s="10">
+        <f t="shared" ref="V74:V75" si="333">U74/$BR$6</f>
+        <v>7795.8391449040937</v>
+      </c>
+      <c r="W74" s="11">
+        <f t="shared" ref="W74:W75" si="334">V74-V73</f>
+        <v>57.591693062027844</v>
+      </c>
+      <c r="X74" s="11">
+        <f t="shared" ref="X74:X75" si="335">SUM(W70:W74)/5</f>
+        <v>59.308464501658271</v>
+      </c>
+      <c r="Y74" s="15">
+        <v>14294</v>
+      </c>
+      <c r="Z74" s="10">
+        <f t="shared" ref="Z74:Z75" si="336">Y74/$BR$6</f>
+        <v>1426.7169161674556</v>
+      </c>
+      <c r="AA74" s="11">
+        <f t="shared" ref="AA74:AA75" si="337">Z74-Z73</f>
+        <v>6.2881744591122697</v>
+      </c>
+      <c r="AB74" s="11">
+        <f t="shared" ref="AB74:AB75" si="338">SUM(AA70:AA74)/5</f>
+        <v>12.276912039219042</v>
+      </c>
+      <c r="AD74" s="15">
+        <v>18373</v>
+      </c>
+      <c r="AE74" s="10">
+        <f t="shared" ref="AE74:AE75" si="339">AD74/$BR$7</f>
+        <v>3743.8393130229083</v>
+      </c>
+      <c r="AF74" s="11">
+        <f t="shared" ref="AF74:AF75" si="340">AE74-AE73</f>
+        <v>11.207269483277742</v>
+      </c>
+      <c r="AG74" s="11">
+        <f t="shared" ref="AG74:AG75" si="341">SUM(AF70:AF74)/5</f>
+        <v>22.333031552131434</v>
+      </c>
+      <c r="AH74" s="15">
+        <v>1528</v>
+      </c>
+      <c r="AI74" s="10">
+        <f t="shared" ref="AI74:AI75" si="342">AH74/$BR$7</f>
+        <v>311.35832309905857</v>
+      </c>
+      <c r="AJ74" s="11">
+        <f t="shared" ref="AJ74:AJ75" si="343">AI74-AI73</f>
+        <v>2.4452224327150702</v>
+      </c>
+      <c r="AK74" s="11">
+        <f t="shared" ref="AK74:AK75" si="344">SUM(AJ70:AJ74)/5</f>
+        <v>3.7085873562845904</v>
+      </c>
+      <c r="AM74" s="15">
+        <v>26175</v>
+      </c>
+      <c r="AN74" s="10">
+        <f t="shared" ref="AN74:AN75" si="345">AM74/$BR$8</f>
+        <v>5883.5548404629435</v>
+      </c>
+      <c r="AO74" s="11">
+        <f t="shared" ref="AO74:AO75" si="346">AN74-AN73</f>
+        <v>35.73964544923092</v>
+      </c>
+      <c r="AP74" s="4">
+        <f t="shared" ref="AP74:AP75" si="347">SUM(AO70:AO74)/5</f>
+        <v>44.865617809222748</v>
+      </c>
+      <c r="AQ74" s="15">
+        <v>3666</v>
+      </c>
+      <c r="AR74" s="10">
+        <f t="shared" ref="AR74:AR75" si="348">AQ74/$BR$8</f>
+        <v>824.03484413131423</v>
+      </c>
+      <c r="AS74" s="11">
+        <f t="shared" ref="AS74:AS75" si="349">AR74-AR73</f>
+        <v>5.3946634640348066</v>
+      </c>
+      <c r="AT74" s="11">
+        <f t="shared" ref="AT74:AT75" si="350">SUM(AS70:AS74)/5</f>
+        <v>6.9231514455113032</v>
+      </c>
+      <c r="AV74" s="15">
+        <v>9601</v>
+      </c>
+      <c r="AW74" s="10">
+        <f t="shared" ref="AW74:AW75" si="351">AV74/$BR$9</f>
+        <v>2565.4406473642712</v>
+      </c>
+      <c r="AX74" s="11">
+        <f t="shared" ref="AX74:AX75" si="352">AW74-AW73</f>
+        <v>10.15381154044826</v>
+      </c>
+      <c r="AY74" s="4">
+        <f t="shared" ref="AY74:AY75" si="353">SUM(AX70:AX74)/5</f>
+        <v>16.513304031570897</v>
+      </c>
+      <c r="AZ74" s="15">
+        <v>881</v>
+      </c>
+      <c r="BA74" s="10">
+        <f t="shared" ref="BA74:BA76" si="354">AZ74/$BR$9</f>
+        <v>235.4081043982838</v>
+      </c>
+      <c r="BB74" s="11">
+        <f t="shared" ref="BB74:BB76" si="355">BA74-BA73</f>
+        <v>2.4048501016850707</v>
+      </c>
+      <c r="BC74" s="11">
+        <f t="shared" ref="BC74:BC76" si="356">SUM(BB70:BB74)/5</f>
+        <v>2.8858201220220905</v>
+      </c>
     </row>
     <row r="75" spans="1:55">
       <c r="A75" s="2">
@@ -24834,9 +25135,162 @@
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="J75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="AG75" s="11"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="10">
+        <f t="shared" si="322"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="323"/>
+        <v>-5374.0256703637051</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="324"/>
+        <v>-1021.2693101097741</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="10">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <f t="shared" ref="I75" si="357">$H75-$H74</f>
+        <v>-780.03867611912551</v>
+      </c>
+      <c r="J75" s="11">
+        <f t="shared" si="326"/>
+        <v>-149.10813022621122</v>
+      </c>
+      <c r="L75" s="16"/>
+      <c r="M75" s="10">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="11">
+        <f t="shared" si="328"/>
+        <v>-6288.408992912051</v>
+      </c>
+      <c r="O75" s="4">
+        <f t="shared" si="329"/>
+        <v>-1196.9877924456223</v>
+      </c>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="10">
+        <f t="shared" si="330"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="11">
+        <f t="shared" si="331"/>
+        <v>-725.32296906153772</v>
+      </c>
+      <c r="S75" s="11">
+        <f t="shared" si="332"/>
+        <v>-139.60076730336939</v>
+      </c>
+      <c r="U75" s="15"/>
+      <c r="V75" s="10">
+        <f t="shared" si="333"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="11">
+        <f t="shared" si="334"/>
+        <v>-7795.8391449040937</v>
+      </c>
+      <c r="X75" s="11">
+        <f t="shared" si="335"/>
+        <v>-1511.7969147221734</v>
+      </c>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="10">
+        <f t="shared" si="336"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="11">
+        <f t="shared" si="337"/>
+        <v>-1426.7169161674556</v>
+      </c>
+      <c r="AB75" s="11">
+        <f t="shared" si="338"/>
+        <v>-274.92297984410521</v>
+      </c>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="10">
+        <f t="shared" si="339"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="11">
+        <f t="shared" si="340"/>
+        <v>-3743.8393130229083</v>
+      </c>
+      <c r="AG75" s="11">
+        <f t="shared" si="341"/>
+        <v>-731.93658152605917</v>
+      </c>
+      <c r="AH75" s="15"/>
+      <c r="AI75" s="10">
+        <f t="shared" si="342"/>
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="11">
+        <f t="shared" si="343"/>
+        <v>-311.35832309905857</v>
+      </c>
+      <c r="AK75" s="11">
+        <f t="shared" si="344"/>
+        <v>-59.459658822189326</v>
+      </c>
+      <c r="AM75" s="15"/>
+      <c r="AN75" s="10">
+        <f t="shared" si="345"/>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="11">
+        <f t="shared" si="346"/>
+        <v>-5883.5548404629435</v>
+      </c>
+      <c r="AP75" s="4">
+        <f t="shared" si="347"/>
+        <v>-1143.4888322599077</v>
+      </c>
+      <c r="AQ75" s="15"/>
+      <c r="AR75" s="10">
+        <f t="shared" si="348"/>
+        <v>0</v>
+      </c>
+      <c r="AS75" s="11">
+        <f t="shared" si="349"/>
+        <v>-824.03484413131423</v>
+      </c>
+      <c r="AT75" s="11">
+        <f t="shared" si="350"/>
+        <v>-159.63708300656282</v>
+      </c>
+      <c r="AV75" s="15"/>
+      <c r="AW75" s="10">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="AX75" s="11">
+        <f t="shared" si="352"/>
+        <v>-2565.4406473642712</v>
+      </c>
+      <c r="AY75" s="4">
+        <f t="shared" si="353"/>
+        <v>-499.78129224353017</v>
+      </c>
+      <c r="AZ75" s="15"/>
+      <c r="BA75" s="10">
+        <f t="shared" si="354"/>
+        <v>0</v>
+      </c>
+      <c r="BB75" s="11">
+        <f t="shared" si="355"/>
+        <v>-235.4081043982838</v>
+      </c>
+      <c r="BC75" s="11">
+        <f t="shared" si="356"/>
+        <v>-44.99741745819636</v>
+      </c>
     </row>
     <row r="76" spans="1:55">
       <c r="A76" s="2">
@@ -24845,9 +25299,24 @@
       <c r="B76" s="3">
         <v>73</v>
       </c>
+      <c r="C76" s="15"/>
+      <c r="G76" s="16"/>
       <c r="J76" s="11"/>
+      <c r="L76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="U76" s="15"/>
       <c r="X76" s="11"/>
+      <c r="Y76" s="15"/>
+      <c r="AD76" s="15"/>
       <c r="AG76" s="11"/>
+      <c r="AH76" s="15"/>
+      <c r="AM76" s="15"/>
+      <c r="AQ76" s="15"/>
+      <c r="AV76" s="15"/>
+      <c r="AZ76" s="15"/>
+      <c r="BA76" s="10"/>
+      <c r="BB76" s="11"/>
+      <c r="BC76" s="11"/>
     </row>
     <row r="77" spans="1:55">
       <c r="A77" s="2">
@@ -24856,9 +25325,21 @@
       <c r="B77" s="3">
         <v>74</v>
       </c>
+      <c r="C77" s="15"/>
+      <c r="G77" s="16"/>
       <c r="J77" s="11"/>
+      <c r="L77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="U77" s="15"/>
       <c r="X77" s="11"/>
+      <c r="Y77" s="15"/>
+      <c r="AD77" s="15"/>
       <c r="AG77" s="11"/>
+      <c r="AH77" s="15"/>
+      <c r="AM77" s="15"/>
+      <c r="AQ77" s="15"/>
+      <c r="AV77" s="15"/>
+      <c r="AZ77" s="15"/>
     </row>
     <row r="78" spans="1:55">
       <c r="A78" s="2">
@@ -24867,9 +25348,21 @@
       <c r="B78" s="3">
         <v>75</v>
       </c>
+      <c r="C78" s="15"/>
+      <c r="G78" s="16"/>
       <c r="J78" s="11"/>
+      <c r="L78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="U78" s="15"/>
       <c r="X78" s="11"/>
+      <c r="Y78" s="15"/>
+      <c r="AD78" s="15"/>
       <c r="AG78" s="11"/>
+      <c r="AH78" s="15"/>
+      <c r="AM78" s="15"/>
+      <c r="AQ78" s="15"/>
+      <c r="AV78" s="15"/>
+      <c r="AZ78" s="15"/>
     </row>
     <row r="79" spans="1:55">
       <c r="A79" s="2">
@@ -24878,9 +25371,21 @@
       <c r="B79" s="3">
         <v>76</v>
       </c>
+      <c r="C79" s="15"/>
+      <c r="G79" s="16"/>
       <c r="J79" s="11"/>
+      <c r="L79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="U79" s="15"/>
       <c r="X79" s="11"/>
+      <c r="Y79" s="15"/>
+      <c r="AD79" s="15"/>
       <c r="AG79" s="11"/>
+      <c r="AH79" s="15"/>
+      <c r="AM79" s="15"/>
+      <c r="AQ79" s="15"/>
+      <c r="AV79" s="15"/>
+      <c r="AZ79" s="15"/>
     </row>
     <row r="80" spans="1:55">
       <c r="A80" s="2">
@@ -24889,95 +25394,203 @@
       <c r="B80" s="3">
         <v>77</v>
       </c>
+      <c r="C80" s="15"/>
+      <c r="G80" s="16"/>
       <c r="J80" s="11"/>
+      <c r="L80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="U80" s="15"/>
       <c r="X80" s="11"/>
+      <c r="Y80" s="15"/>
+      <c r="AD80" s="15"/>
       <c r="AG80" s="11"/>
+      <c r="AH80" s="15"/>
+      <c r="AM80" s="15"/>
+      <c r="AQ80" s="15"/>
+      <c r="AV80" s="15"/>
+      <c r="AZ80" s="15"/>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:52">
       <c r="A81" s="2">
         <v>43962</v>
       </c>
       <c r="B81" s="3">
         <v>78</v>
       </c>
+      <c r="C81" s="15"/>
+      <c r="G81" s="16"/>
       <c r="J81" s="11"/>
+      <c r="L81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="U81" s="15"/>
       <c r="X81" s="11"/>
+      <c r="Y81" s="15"/>
+      <c r="AD81" s="15"/>
       <c r="AG81" s="11"/>
+      <c r="AH81" s="15"/>
+      <c r="AM81" s="15"/>
+      <c r="AQ81" s="15"/>
+      <c r="AV81" s="15"/>
+      <c r="AZ81" s="15"/>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:52">
       <c r="A82" s="2">
         <v>43963</v>
       </c>
       <c r="B82" s="3">
         <v>79</v>
       </c>
+      <c r="C82" s="15"/>
+      <c r="G82" s="16"/>
       <c r="J82" s="11"/>
+      <c r="L82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="U82" s="15"/>
       <c r="X82" s="11"/>
+      <c r="Y82" s="15"/>
+      <c r="AD82" s="15"/>
       <c r="AG82" s="11"/>
+      <c r="AH82" s="15"/>
+      <c r="AM82" s="15"/>
+      <c r="AQ82" s="15"/>
+      <c r="AV82" s="15"/>
+      <c r="AZ82" s="15"/>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:52">
       <c r="A83" s="2">
         <v>43964</v>
       </c>
       <c r="B83" s="3">
         <v>80</v>
       </c>
+      <c r="C83" s="15"/>
+      <c r="G83" s="16"/>
       <c r="J83" s="11"/>
+      <c r="L83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="U83" s="15"/>
       <c r="X83" s="11"/>
+      <c r="Y83" s="15"/>
+      <c r="AD83" s="15"/>
       <c r="AG83" s="11"/>
+      <c r="AH83" s="15"/>
+      <c r="AM83" s="15"/>
+      <c r="AQ83" s="15"/>
+      <c r="AV83" s="15"/>
+      <c r="AZ83" s="15"/>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:52">
       <c r="A84" s="2">
         <v>43965</v>
       </c>
       <c r="B84" s="3">
         <v>81</v>
       </c>
+      <c r="C84" s="15"/>
+      <c r="G84" s="16"/>
       <c r="J84" s="11"/>
+      <c r="L84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="U84" s="15"/>
       <c r="X84" s="11"/>
+      <c r="Y84" s="15"/>
+      <c r="AD84" s="15"/>
       <c r="AG84" s="11"/>
+      <c r="AH84" s="15"/>
+      <c r="AM84" s="15"/>
+      <c r="AQ84" s="15"/>
+      <c r="AV84" s="15"/>
+      <c r="AZ84" s="15"/>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:52">
       <c r="A85" s="2">
         <v>43966</v>
       </c>
       <c r="B85" s="3">
         <v>82</v>
       </c>
+      <c r="C85" s="15"/>
+      <c r="G85" s="16"/>
       <c r="J85" s="11"/>
+      <c r="L85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="U85" s="15"/>
       <c r="X85" s="11"/>
+      <c r="Y85" s="15"/>
+      <c r="AD85" s="15"/>
       <c r="AG85" s="11"/>
+      <c r="AH85" s="15"/>
+      <c r="AM85" s="15"/>
+      <c r="AQ85" s="15"/>
+      <c r="AV85" s="15"/>
+      <c r="AZ85" s="15"/>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:52">
       <c r="A86" s="2">
         <v>43967</v>
       </c>
       <c r="B86" s="3">
         <v>83</v>
       </c>
+      <c r="C86" s="15"/>
+      <c r="G86" s="16"/>
       <c r="J86" s="11"/>
+      <c r="L86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="U86" s="15"/>
       <c r="X86" s="11"/>
+      <c r="Y86" s="15"/>
+      <c r="AD86" s="15"/>
       <c r="AG86" s="11"/>
+      <c r="AH86" s="15"/>
+      <c r="AM86" s="15"/>
+      <c r="AQ86" s="15"/>
+      <c r="AV86" s="15"/>
+      <c r="AZ86" s="15"/>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:52">
       <c r="A87" s="2">
         <v>43968</v>
       </c>
       <c r="B87" s="3">
         <v>84</v>
       </c>
+      <c r="C87" s="15"/>
+      <c r="G87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="U87" s="15"/>
       <c r="X87" s="11"/>
+      <c r="Y87" s="15"/>
+      <c r="AD87" s="15"/>
       <c r="AG87" s="11"/>
+      <c r="AH87" s="15"/>
+      <c r="AM87" s="15"/>
+      <c r="AQ87" s="15"/>
+      <c r="AV87" s="15"/>
+      <c r="AZ87" s="15"/>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:52">
       <c r="A88" s="2">
         <v>43969</v>
       </c>
       <c r="B88" s="3">
         <v>85</v>
       </c>
+      <c r="C88" s="15"/>
+      <c r="G88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="U88" s="15"/>
       <c r="X88" s="11"/>
+      <c r="Y88" s="15"/>
+      <c r="AD88" s="15"/>
       <c r="AG88" s="11"/>
+      <c r="AH88" s="15"/>
+      <c r="AM88" s="15"/>
+      <c r="AQ88" s="15"/>
+      <c r="AV88" s="15"/>
+      <c r="AZ88" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -24997,7 +25610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EBBD13-14AC-4DDD-A52C-B2533932AE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E76B69-D442-4972-8DBB-37CFED60B94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -8846,9 +8846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2619D-6D80-438C-B4B6-FF2AE18F2819}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11583,31 +11583,35 @@
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="15">
+        <v>213013</v>
+      </c>
       <c r="D75" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>3515.6992385674748</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="59"/>
-        <v>-3497.9567689460901</v>
+        <v>17.742469621384771</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="60"/>
-        <v>-678.21786712903827</v>
-      </c>
-      <c r="G75" s="15"/>
+        <v>24.92198058445674</v>
+      </c>
+      <c r="G75" s="15">
+        <v>29315</v>
+      </c>
       <c r="H75" s="13">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>483.83302041943693</v>
       </c>
       <c r="I75" s="11">
         <f t="shared" si="62"/>
-        <v>-479.93792941418411</v>
+        <v>3.8950910052528229</v>
       </c>
       <c r="J75" s="11">
         <f t="shared" si="63"/>
-        <v>-92.316957749073126</v>
+        <v>4.4496463348142585</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -11752,9 +11756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AZ75" sqref="AZ75"/>
+      <selection pane="bottomLeft" activeCell="AZ76" sqref="AZ76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25116,15 +25120,15 @@
         <v>881</v>
       </c>
       <c r="BA74" s="10">
-        <f t="shared" ref="BA74:BA76" si="354">AZ74/$BR$9</f>
+        <f t="shared" ref="BA74:BA75" si="354">AZ74/$BR$9</f>
         <v>235.4081043982838</v>
       </c>
       <c r="BB74" s="11">
-        <f t="shared" ref="BB74:BB76" si="355">BA74-BA73</f>
+        <f t="shared" ref="BB74:BB75" si="355">BA74-BA73</f>
         <v>2.4048501016850707</v>
       </c>
       <c r="BC74" s="11">
-        <f t="shared" ref="BC74:BC76" si="356">SUM(BB70:BB74)/5</f>
+        <f t="shared" ref="BC74:BC75" si="356">SUM(BB70:BB74)/5</f>
         <v>2.8858201220220905</v>
       </c>
     </row>
@@ -25135,161 +25139,185 @@
       <c r="B75" s="3">
         <v>72</v>
       </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="15">
+        <v>8475</v>
+      </c>
       <c r="D75" s="10">
         <f t="shared" si="322"/>
-        <v>0</v>
+        <v>5414.2733661831189</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="323"/>
-        <v>-5374.0256703637051</v>
+        <v>40.247695819413821</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" si="324"/>
-        <v>-1021.2693101097741</v>
-      </c>
-      <c r="G75" s="16"/>
+        <v>61.585363126849735</v>
+      </c>
+      <c r="G75" s="16">
+        <v>1232</v>
+      </c>
       <c r="H75" s="10">
         <f t="shared" si="325"/>
-        <v>0</v>
+        <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
         <f t="shared" ref="I75" si="357">$H75-$H74</f>
-        <v>-780.03867611912551</v>
+        <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
         <f t="shared" si="326"/>
-        <v>-149.10813022621122</v>
-      </c>
-      <c r="L75" s="16"/>
+        <v>8.3050800897204233</v>
+      </c>
+      <c r="L75" s="16">
+        <v>27774</v>
+      </c>
       <c r="M75" s="10">
         <f t="shared" si="327"/>
-        <v>0</v>
+        <v>6323.0132274686594</v>
       </c>
       <c r="N75" s="11">
         <f t="shared" si="328"/>
-        <v>-6288.408992912051</v>
+        <v>34.60423455660839</v>
       </c>
       <c r="O75" s="4">
         <f t="shared" si="329"/>
-        <v>-1196.9877924456223</v>
-      </c>
-      <c r="P75" s="16"/>
+        <v>67.61485304810958</v>
+      </c>
+      <c r="P75" s="16">
+        <v>3216</v>
+      </c>
       <c r="Q75" s="10">
         <f t="shared" si="330"/>
-        <v>0</v>
+        <v>732.15275219771036</v>
       </c>
       <c r="R75" s="11">
         <f t="shared" si="331"/>
-        <v>-725.32296906153772</v>
+        <v>6.8297831361726367</v>
       </c>
       <c r="S75" s="11">
         <f t="shared" si="332"/>
-        <v>-139.60076730336939</v>
-      </c>
-      <c r="U75" s="15"/>
+        <v>6.829783136172682</v>
+      </c>
+      <c r="U75" s="15">
+        <v>78605</v>
+      </c>
       <c r="V75" s="10">
         <f t="shared" si="333"/>
-        <v>0</v>
+        <v>7845.7452914049836</v>
       </c>
       <c r="W75" s="11">
         <f t="shared" si="334"/>
-        <v>-7795.8391449040937</v>
+        <v>49.906146500889918</v>
       </c>
       <c r="X75" s="11">
         <f t="shared" si="335"/>
-        <v>-1511.7969147221734</v>
-      </c>
-      <c r="Y75" s="15"/>
+        <v>57.352143558823265</v>
+      </c>
+      <c r="Y75" s="15">
+        <v>14389</v>
+      </c>
       <c r="Z75" s="10">
         <f t="shared" si="336"/>
-        <v>0</v>
+        <v>1436.1990840026247</v>
       </c>
       <c r="AA75" s="11">
         <f t="shared" si="337"/>
-        <v>-1426.7169161674556</v>
+        <v>9.4821678351690935</v>
       </c>
       <c r="AB75" s="11">
         <f t="shared" si="338"/>
-        <v>-274.92297984410521</v>
-      </c>
-      <c r="AD75" s="15"/>
+        <v>12.31683695641973</v>
+      </c>
+      <c r="AD75" s="15">
+        <v>18402</v>
+      </c>
       <c r="AE75" s="10">
         <f t="shared" si="339"/>
-        <v>0</v>
+        <v>3749.7486005686364</v>
       </c>
       <c r="AF75" s="11">
         <f t="shared" si="340"/>
-        <v>-3743.8393130229083</v>
+        <v>5.909287545728148</v>
       </c>
       <c r="AG75" s="11">
         <f t="shared" si="341"/>
-        <v>-731.93658152605917</v>
-      </c>
-      <c r="AH75" s="15"/>
+        <v>18.013138587668074</v>
+      </c>
+      <c r="AH75" s="15">
+        <v>1545</v>
+      </c>
       <c r="AI75" s="10">
         <f t="shared" si="342"/>
-        <v>0</v>
+        <v>314.8223882120717</v>
       </c>
       <c r="AJ75" s="11">
         <f t="shared" si="343"/>
-        <v>-311.35832309905857</v>
+        <v>3.4640651130131346</v>
       </c>
       <c r="AK75" s="11">
         <f t="shared" si="344"/>
-        <v>-59.459658822189326</v>
-      </c>
-      <c r="AM75" s="15"/>
+        <v>3.5048188202250117</v>
+      </c>
+      <c r="AM75" s="15">
+        <v>26275</v>
+      </c>
       <c r="AN75" s="10">
         <f t="shared" si="345"/>
-        <v>0</v>
+        <v>5906.0326048964216</v>
       </c>
       <c r="AO75" s="11">
         <f t="shared" si="346"/>
-        <v>-5883.5548404629435</v>
+        <v>22.477764433478114</v>
       </c>
       <c r="AP75" s="4">
         <f t="shared" si="347"/>
-        <v>-1143.4888322599077</v>
-      </c>
-      <c r="AQ75" s="15"/>
+        <v>37.717688719376568</v>
+      </c>
+      <c r="AQ75" s="15">
+        <v>3705</v>
+      </c>
       <c r="AR75" s="10">
         <f t="shared" si="348"/>
-        <v>0</v>
+        <v>832.80117226037078</v>
       </c>
       <c r="AS75" s="11">
         <f t="shared" si="349"/>
-        <v>-824.03484413131423</v>
+        <v>8.7663281290565465</v>
       </c>
       <c r="AT75" s="11">
         <f t="shared" si="350"/>
-        <v>-159.63708300656282</v>
-      </c>
-      <c r="AV75" s="15"/>
+        <v>6.9231514455113254</v>
+      </c>
+      <c r="AV75" s="15">
+        <v>9631</v>
+      </c>
       <c r="AW75" s="10">
         <f t="shared" si="351"/>
-        <v>0</v>
+        <v>2573.456814369888</v>
       </c>
       <c r="AX75" s="11">
         <f t="shared" si="352"/>
-        <v>-2565.4406473642712</v>
+        <v>8.0161670056168077</v>
       </c>
       <c r="AY75" s="4">
         <f t="shared" si="353"/>
-        <v>-499.78129224353017</v>
-      </c>
-      <c r="AZ75" s="15"/>
+        <v>14.910070630447445</v>
+      </c>
+      <c r="AZ75" s="15">
+        <v>889</v>
+      </c>
       <c r="BA75" s="10">
         <f t="shared" si="354"/>
-        <v>0</v>
+        <v>237.54574893311499</v>
       </c>
       <c r="BB75" s="11">
         <f t="shared" si="355"/>
-        <v>-235.4081043982838</v>
+        <v>2.1376445348311961</v>
       </c>
       <c r="BC75" s="11">
         <f t="shared" si="356"/>
-        <v>-44.99741745819636</v>
+        <v>2.5117323284266377</v>
       </c>
     </row>
     <row r="76" spans="1:55">
@@ -25610,8 +25638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E76B69-D442-4972-8DBB-37CFED60B94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8237F58-C61F-4BA5-A8C3-4A52EF81C510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -8847,8 +8847,8 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11621,8 +11621,36 @@
       <c r="B76" s="3">
         <v>73</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="C76" s="15">
+        <v>214457</v>
+      </c>
+      <c r="D76" s="14">
+        <f t="shared" ref="D76:D77" si="64">C76/$P$4</f>
+        <v>3539.531914040293</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" ref="E76:E77" si="65">D76-D75</f>
+        <v>23.83267547281821</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" ref="F76:F77" si="66">SUM(E72:E76)/5</f>
+        <v>23.202198877900173</v>
+      </c>
+      <c r="G76" s="15">
+        <v>29684</v>
+      </c>
+      <c r="H76" s="13">
+        <f t="shared" ref="H76:H77" si="67">G76/$P$4</f>
+        <v>489.92322627087043</v>
+      </c>
+      <c r="I76" s="11">
+        <f t="shared" ref="I76:I77" si="68">H76-H75</f>
+        <v>6.0902058514334954</v>
+      </c>
+      <c r="J76" s="11">
+        <f t="shared" ref="J76:J77" si="69">SUM(I72:I76)/5</f>
+        <v>4.7797387928865422</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2">
@@ -11631,8 +11659,36 @@
       <c r="B77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="C77" s="15">
+        <v>215858</v>
+      </c>
+      <c r="D77" s="14">
+        <f t="shared" si="64"/>
+        <v>3562.6548907282559</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="65"/>
+        <v>23.122976687962819</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="66"/>
+        <v>21.555037512119544</v>
+      </c>
+      <c r="G77" s="15">
+        <v>29958</v>
+      </c>
+      <c r="H77" s="13">
+        <f t="shared" si="67"/>
+        <v>494.4454929464606</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" si="68"/>
+        <v>4.5222666755901741</v>
+      </c>
+      <c r="J77" s="11">
+        <f t="shared" si="69"/>
+        <v>4.1195538767419979</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2">
@@ -11756,9 +11812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AZ76" sqref="AZ76"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25162,7 +25218,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I77" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -25327,24 +25383,186 @@
       <c r="B76" s="3">
         <v>73</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="G76" s="16"/>
-      <c r="J76" s="11"/>
-      <c r="L76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="U76" s="15"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="15"/>
-      <c r="AD76" s="15"/>
-      <c r="AG76" s="11"/>
-      <c r="AH76" s="15"/>
-      <c r="AM76" s="15"/>
-      <c r="AQ76" s="15"/>
-      <c r="AV76" s="15"/>
-      <c r="AZ76" s="15"/>
-      <c r="BA76" s="10"/>
-      <c r="BB76" s="11"/>
-      <c r="BC76" s="11"/>
+      <c r="C76" s="15">
+        <v>8551</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" ref="D76:D77" si="358">C76/$BR$4</f>
+        <v>5462.8261420922545</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" ref="E76:E77" si="359">D76-D75</f>
+        <v>48.552775909135562</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" ref="F76:F77" si="360">SUM(E72:E76)/5</f>
+        <v>54.302446740479716</v>
+      </c>
+      <c r="G76" s="16">
+        <v>1243</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" ref="H76:H77" si="361">G76/$BR$4</f>
+        <v>794.09342704019082</v>
+      </c>
+      <c r="I76" s="11">
+        <f t="shared" si="357"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="J76" s="11">
+        <f t="shared" ref="J76:J77" si="362">SUM(I72:I76)/5</f>
+        <v>7.5384573122077656</v>
+      </c>
+      <c r="L76" s="16">
+        <v>27939</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" ref="M76:M77" si="363">L76/$BR$5</f>
+        <v>6360.5770347176085</v>
+      </c>
+      <c r="N76" s="11">
+        <f t="shared" ref="N76:N77" si="364">M76-M75</f>
+        <v>37.563807248949161</v>
+      </c>
+      <c r="O76" s="4">
+        <f t="shared" ref="O76:O77" si="365">SUM(N72:N76)/5</f>
+        <v>57.142518905977887</v>
+      </c>
+      <c r="P76" s="16">
+        <v>3247</v>
+      </c>
+      <c r="Q76" s="10">
+        <f t="shared" ref="Q76:Q77" si="366">P76/$BR$5</f>
+        <v>739.21019477175548</v>
+      </c>
+      <c r="R76" s="11">
+        <f t="shared" ref="R76:R77" si="367">Q76-Q75</f>
+        <v>7.0574425740451261</v>
+      </c>
+      <c r="S76" s="11">
+        <f t="shared" ref="S76:S77" si="368">SUM(R72:R76)/5</f>
+        <v>6.829783136172682</v>
+      </c>
+      <c r="U76" s="15">
+        <v>79369</v>
+      </c>
+      <c r="V76" s="10">
+        <f t="shared" ref="V76:V77" si="369">U76/$BR$6</f>
+        <v>7922.0018832583446</v>
+      </c>
+      <c r="W76" s="11">
+        <f t="shared" ref="W76:W77" si="370">V76-V75</f>
+        <v>76.256591853360987</v>
+      </c>
+      <c r="X76" s="11">
+        <f t="shared" ref="X76:X77" si="371">SUM(W72:W76)/5</f>
+        <v>57.891129941032887</v>
+      </c>
+      <c r="Y76" s="15">
+        <v>14611</v>
+      </c>
+      <c r="Z76" s="10">
+        <f t="shared" ref="Z76:Z77" si="372">Y76/$BR$6</f>
+        <v>1458.3574130490201</v>
+      </c>
+      <c r="AA76" s="11">
+        <f t="shared" ref="AA76:AA77" si="373">Z76-Z75</f>
+        <v>22.158329046395465</v>
+      </c>
+      <c r="AB76" s="11">
+        <f t="shared" ref="AB76:AB77" si="374">SUM(AA72:AA76)/5</f>
+        <v>14.991806408867479</v>
+      </c>
+      <c r="AD76" s="15">
+        <v>18479</v>
+      </c>
+      <c r="AE76" s="10">
+        <f t="shared" ref="AE76:AE77" si="375">AD76/$BR$7</f>
+        <v>3765.4387778452251</v>
+      </c>
+      <c r="AF76" s="11">
+        <f t="shared" ref="AF76:AF77" si="376">AE76-AE75</f>
+        <v>15.690177276588656</v>
+      </c>
+      <c r="AG76" s="11">
+        <f t="shared" ref="AG76:AG77" si="377">SUM(AF72:AF76)/5</f>
+        <v>15.527162447741011</v>
+      </c>
+      <c r="AH76" s="15">
+        <v>1568</v>
+      </c>
+      <c r="AI76" s="10">
+        <f t="shared" ref="AI76:AI77" si="378">AH76/$BR$7</f>
+        <v>319.50906454144234</v>
+      </c>
+      <c r="AJ76" s="11">
+        <f t="shared" ref="AJ76:AJ77" si="379">AI76-AI75</f>
+        <v>4.6866763293706413</v>
+      </c>
+      <c r="AK76" s="11">
+        <f t="shared" ref="AK76:AK77" si="380">SUM(AJ72:AJ76)/5</f>
+        <v>3.6270799418607682</v>
+      </c>
+      <c r="AM76" s="15">
+        <v>26379</v>
+      </c>
+      <c r="AN76" s="10">
+        <f t="shared" ref="AN76:AN77" si="381">AM76/$BR$8</f>
+        <v>5929.4094799072391</v>
+      </c>
+      <c r="AO76" s="11">
+        <f t="shared" ref="AO76:AO77" si="382">AN76-AN75</f>
+        <v>23.376875010817457</v>
+      </c>
+      <c r="AP76" s="4">
+        <f t="shared" ref="AP76:AP77" si="383">SUM(AO72:AO76)/5</f>
+        <v>33.042313717213077</v>
+      </c>
+      <c r="AQ76" s="15">
+        <v>3737</v>
+      </c>
+      <c r="AR76" s="10">
+        <f t="shared" ref="AR76:AR77" si="384">AQ76/$BR$8</f>
+        <v>839.99405687908381</v>
+      </c>
+      <c r="AS76" s="11">
+        <f t="shared" ref="AS76:AS77" si="385">AR76-AR75</f>
+        <v>7.1928846187130375</v>
+      </c>
+      <c r="AT76" s="11">
+        <f t="shared" ref="AT76:AT77" si="386">SUM(AS72:AS76)/5</f>
+        <v>7.1029735609791489</v>
+      </c>
+      <c r="AV76" s="15">
+        <v>9657</v>
+      </c>
+      <c r="AW76" s="10">
+        <f t="shared" ref="AW76:AW77" si="387">AV76/$BR$9</f>
+        <v>2580.4041591080895</v>
+      </c>
+      <c r="AX76" s="11">
+        <f t="shared" ref="AX76:AX77" si="388">AW76-AW75</f>
+        <v>6.9473447382015365</v>
+      </c>
+      <c r="AY76" s="4">
+        <f t="shared" ref="AY76:AY77" si="389">SUM(AX72:AX76)/5</f>
+        <v>11.32951603460533</v>
+      </c>
+      <c r="AZ76" s="15">
+        <v>899</v>
+      </c>
+      <c r="BA76" s="10">
+        <f t="shared" ref="BA76:BA77" si="390">AZ76/$BR$9</f>
+        <v>240.21780460165397</v>
+      </c>
+      <c r="BB76" s="11">
+        <f t="shared" ref="BB76:BB77" si="391">BA76-BA75</f>
+        <v>2.6720556685389738</v>
+      </c>
+      <c r="BC76" s="11">
+        <f t="shared" ref="BC76:BC77" si="392">SUM(BB72:BB76)/5</f>
+        <v>2.4048501016850823</v>
+      </c>
     </row>
     <row r="77" spans="1:55">
       <c r="A77" s="2">
@@ -25353,21 +25571,186 @@
       <c r="B77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="G77" s="16"/>
-      <c r="J77" s="11"/>
-      <c r="L77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="U77" s="15"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="15"/>
-      <c r="AD77" s="15"/>
-      <c r="AG77" s="11"/>
-      <c r="AH77" s="15"/>
-      <c r="AM77" s="15"/>
-      <c r="AQ77" s="15"/>
-      <c r="AV77" s="15"/>
-      <c r="AZ77" s="15"/>
+      <c r="C77" s="15">
+        <v>8645</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="358"/>
+        <v>5522.8782596640785</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="359"/>
+        <v>60.052117571824056</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="360"/>
+        <v>42.547564151952244</v>
+      </c>
+      <c r="G77" s="16">
+        <v>1254</v>
+      </c>
+      <c r="H77" s="10">
+        <f t="shared" si="361"/>
+        <v>801.12080250072347</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" si="357"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="J77" s="11">
+        <f t="shared" si="362"/>
+        <v>7.5384573122077656</v>
+      </c>
+      <c r="L77" s="16">
+        <v>28135</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="363"/>
+        <v>6405.1982845406037</v>
+      </c>
+      <c r="N77" s="11">
+        <f t="shared" si="364"/>
+        <v>44.621249822995196</v>
+      </c>
+      <c r="O77" s="4">
+        <f t="shared" si="365"/>
+        <v>43.528484521207247</v>
+      </c>
+      <c r="P77" s="16">
+        <v>3282</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" si="366"/>
+        <v>747.17827509729022</v>
+      </c>
+      <c r="R77" s="11">
+        <f t="shared" si="367"/>
+        <v>7.9680803255347428</v>
+      </c>
+      <c r="S77" s="11">
+        <f t="shared" si="368"/>
+        <v>7.1029744616195787</v>
+      </c>
+      <c r="U77" s="15">
+        <v>80089</v>
+      </c>
+      <c r="V77" s="10">
+        <f t="shared" si="369"/>
+        <v>7993.8667342196268</v>
+      </c>
+      <c r="W77" s="11">
+        <f t="shared" si="370"/>
+        <v>71.864850961282173</v>
+      </c>
+      <c r="X77" s="11">
+        <f t="shared" si="371"/>
+        <v>61.624109699299517</v>
+      </c>
+      <c r="Y77" s="15">
+        <v>14745</v>
+      </c>
+      <c r="Z77" s="10">
+        <f t="shared" si="372"/>
+        <v>1471.7322603112586</v>
+      </c>
+      <c r="AA77" s="11">
+        <f t="shared" si="373"/>
+        <v>13.374847262238518</v>
+      </c>
+      <c r="AB77" s="11">
+        <f t="shared" si="374"/>
+        <v>11.099126981798008</v>
+      </c>
+      <c r="AD77" s="15">
+        <v>18553</v>
+      </c>
+      <c r="AE77" s="10">
+        <f t="shared" si="375"/>
+        <v>3780.5176495136348</v>
+      </c>
+      <c r="AF77" s="11">
+        <f t="shared" si="376"/>
+        <v>15.078871668409647</v>
+      </c>
+      <c r="AG77" s="11">
+        <f t="shared" si="377"/>
+        <v>13.407969672721174</v>
+      </c>
+      <c r="AH77" s="15">
+        <v>1589</v>
+      </c>
+      <c r="AI77" s="10">
+        <f t="shared" si="378"/>
+        <v>323.78820379869381</v>
+      </c>
+      <c r="AJ77" s="11">
+        <f t="shared" si="379"/>
+        <v>4.2791392572514724</v>
+      </c>
+      <c r="AK77" s="11">
+        <f t="shared" si="380"/>
+        <v>3.5455725274369341</v>
+      </c>
+      <c r="AM77" s="15">
+        <v>26487</v>
+      </c>
+      <c r="AN77" s="10">
+        <f t="shared" si="381"/>
+        <v>5953.6854654953959</v>
+      </c>
+      <c r="AO77" s="11">
+        <f t="shared" si="382"/>
+        <v>24.2759855881568</v>
+      </c>
+      <c r="AP77" s="4">
+        <f t="shared" si="383"/>
+        <v>28.636671888251477</v>
+      </c>
+      <c r="AQ77" s="15">
+        <v>3766</v>
+      </c>
+      <c r="AR77" s="10">
+        <f t="shared" si="384"/>
+        <v>846.51260856479257</v>
+      </c>
+      <c r="AS77" s="11">
+        <f t="shared" si="385"/>
+        <v>6.5185516857087578</v>
+      </c>
+      <c r="AT77" s="11">
+        <f t="shared" si="386"/>
+        <v>6.8332403877774137</v>
+      </c>
+      <c r="AV77" s="15">
+        <v>9683</v>
+      </c>
+      <c r="AW77" s="10">
+        <f t="shared" si="387"/>
+        <v>2587.3515038462906</v>
+      </c>
+      <c r="AX77" s="11">
+        <f t="shared" si="388"/>
+        <v>6.9473447382010818</v>
+      </c>
+      <c r="AY77" s="4">
+        <f t="shared" si="389"/>
+        <v>8.4436959125831894</v>
+      </c>
+      <c r="AZ77" s="15">
+        <v>915</v>
+      </c>
+      <c r="BA77" s="10">
+        <f t="shared" si="390"/>
+        <v>244.49309367131633</v>
+      </c>
+      <c r="BB77" s="11">
+        <f t="shared" si="391"/>
+        <v>4.2752890696623638</v>
+      </c>
+      <c r="BC77" s="11">
+        <f t="shared" si="392"/>
+        <v>2.778937895280535</v>
+      </c>
     </row>
     <row r="78" spans="1:55">
       <c r="A78" s="2">
@@ -25638,7 +26021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8237F58-C61F-4BA5-A8C3-4A52EF81C510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EA20FF-7B92-4AC8-8652-424C4BE4F96D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -8848,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11697,8 +11697,36 @@
       <c r="B78" s="3">
         <v>75</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="G78" s="15"/>
+      <c r="C78" s="15">
+        <v>217185</v>
+      </c>
+      <c r="D78" s="14">
+        <f t="shared" ref="D78:D79" si="70">C78/$P$4</f>
+        <v>3584.5565253213513</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" ref="E78:E79" si="71">D78-D77</f>
+        <v>21.901634593095423</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" ref="F78:F79" si="72">SUM(E74:E78)/5</f>
+        <v>21.350380188114741</v>
+      </c>
+      <c r="G78" s="15">
+        <v>30201</v>
+      </c>
+      <c r="H78" s="13">
+        <f t="shared" ref="H78:H79" si="73">G78/$P$4</f>
+        <v>498.45611631203872</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" ref="I78:I79" si="74">H78-H77</f>
+        <v>4.0106233655781125</v>
+      </c>
+      <c r="J78" s="11">
+        <f t="shared" ref="J78:J79" si="75">SUM(I74:I78)/5</f>
+        <v>4.3473176728118572</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2">
@@ -11707,8 +11735,36 @@
       <c r="B79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="C79" s="15">
+        <v>218268</v>
+      </c>
+      <c r="D79" s="14">
+        <f t="shared" si="70"/>
+        <v>3602.4310319259653</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="71"/>
+        <v>17.874506604613998</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" si="72"/>
+        <v>20.894852595975046</v>
+      </c>
+      <c r="G79" s="15">
+        <v>30395</v>
+      </c>
+      <c r="H79" s="13">
+        <f t="shared" si="73"/>
+        <v>501.6580131553398</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" si="74"/>
+        <v>3.2018968433010855</v>
+      </c>
+      <c r="J79" s="11">
+        <f t="shared" si="75"/>
+        <v>4.3440167482311383</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2">
@@ -11812,9 +11868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25218,7 +25274,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I77" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I79" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -25759,21 +25815,186 @@
       <c r="B78" s="3">
         <v>75</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="G78" s="16"/>
-      <c r="J78" s="11"/>
-      <c r="L78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="U78" s="15"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="15"/>
-      <c r="AD78" s="15"/>
-      <c r="AG78" s="11"/>
-      <c r="AH78" s="15"/>
-      <c r="AM78" s="15"/>
-      <c r="AQ78" s="15"/>
-      <c r="AV78" s="15"/>
-      <c r="AZ78" s="15"/>
+      <c r="C78" s="15">
+        <v>8723</v>
+      </c>
+      <c r="D78" s="10">
+        <f t="shared" ref="D78:D79" si="393">C78/$BR$4</f>
+        <v>5572.7087402024008</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" ref="E78:E79" si="394">D78-D77</f>
+        <v>49.830480538322263</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" ref="F78:F79" si="395">SUM(E74:E78)/5</f>
+        <v>46.508448502434291</v>
+      </c>
+      <c r="G78" s="16">
+        <v>1265</v>
+      </c>
+      <c r="H78" s="10">
+        <f t="shared" ref="H78:H79" si="396">G78/$BR$4</f>
+        <v>808.14817796125612</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" si="357"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="J78" s="11">
+        <f t="shared" ref="J78:J79" si="397">SUM(I74:I78)/5</f>
+        <v>7.1551459234514372</v>
+      </c>
+      <c r="L78" s="16">
+        <v>28368</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" ref="M78:M79" si="398">L78/$BR$5</f>
+        <v>6458.2429335648776</v>
+      </c>
+      <c r="N78" s="11">
+        <f t="shared" ref="N78:N79" si="399">M78-M77</f>
+        <v>53.044649024273895</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" ref="O78:O79" si="400">SUM(N74:N78)/5</f>
+        <v>42.708910544866377</v>
+      </c>
+      <c r="P78" s="16">
+        <v>3305</v>
+      </c>
+      <c r="Q78" s="10">
+        <f t="shared" ref="Q78:Q79" si="401">P78/$BR$5</f>
+        <v>752.414442168356</v>
+      </c>
+      <c r="R78" s="11">
+        <f t="shared" ref="R78:R79" si="402">Q78-Q77</f>
+        <v>5.2361670710657791</v>
+      </c>
+      <c r="S78" s="11">
+        <f t="shared" ref="S78:S79" si="403">SUM(R74:R78)/5</f>
+        <v>6.9663787988961303</v>
+      </c>
+      <c r="U78" s="15">
+        <v>80723</v>
+      </c>
+      <c r="V78" s="10">
+        <f t="shared" ref="V78:V79" si="404">U78/$BR$6</f>
+        <v>8057.1477279827559</v>
+      </c>
+      <c r="W78" s="11">
+        <f t="shared" ref="W78:W79" si="405">V78-V77</f>
+        <v>63.280993763129118</v>
+      </c>
+      <c r="X78" s="11">
+        <f t="shared" ref="X78:X79" si="406">SUM(W74:W78)/5</f>
+        <v>63.780055228138011</v>
+      </c>
+      <c r="Y78" s="15">
+        <v>14839</v>
+      </c>
+      <c r="Z78" s="10">
+        <f t="shared" ref="Z78:Z79" si="407">Y78/$BR$6</f>
+        <v>1481.1146158534261</v>
+      </c>
+      <c r="AA78" s="11">
+        <f t="shared" ref="AA78:AA79" si="408">Z78-Z77</f>
+        <v>9.3823555421674882</v>
+      </c>
+      <c r="AB78" s="11">
+        <f t="shared" ref="AB78:AB79" si="409">SUM(AA74:AA78)/5</f>
+        <v>12.137174829016567</v>
+      </c>
+      <c r="AD78" s="15">
+        <v>18618</v>
+      </c>
+      <c r="AE78" s="10">
+        <f t="shared" ref="AE78:AE79" si="410">AD78/$BR$7</f>
+        <v>3793.7626043575083</v>
+      </c>
+      <c r="AF78" s="11">
+        <f t="shared" ref="AF78:AF79" si="411">AE78-AE77</f>
+        <v>13.244954843873529</v>
+      </c>
+      <c r="AG78" s="11">
+        <f t="shared" ref="AG78:AG79" si="412">SUM(AF74:AF78)/5</f>
+        <v>12.226112163575545</v>
+      </c>
+      <c r="AH78" s="15">
+        <v>1627</v>
+      </c>
+      <c r="AI78" s="10">
+        <f t="shared" ref="AI78:AI79" si="413">AH78/$BR$7</f>
+        <v>331.53140816895831</v>
+      </c>
+      <c r="AJ78" s="11">
+        <f t="shared" ref="AJ78:AJ79" si="414">AI78-AI77</f>
+        <v>7.7432043702644933</v>
+      </c>
+      <c r="AK78" s="11">
+        <f t="shared" ref="AK78:AK79" si="415">SUM(AJ74:AJ78)/5</f>
+        <v>4.5236615005229623</v>
+      </c>
+      <c r="AM78" s="15">
+        <v>26598</v>
+      </c>
+      <c r="AN78" s="10">
+        <f t="shared" ref="AN78:AN79" si="416">AM78/$BR$8</f>
+        <v>5978.6357840165565</v>
+      </c>
+      <c r="AO78" s="11">
+        <f t="shared" ref="AO78:AO79" si="417">AN78-AN77</f>
+        <v>24.950318521160625</v>
+      </c>
+      <c r="AP78" s="4">
+        <f t="shared" ref="AP78:AP79" si="418">SUM(AO74:AO78)/5</f>
+        <v>26.164117800568782</v>
+      </c>
+      <c r="AQ78" s="15">
+        <v>3797</v>
+      </c>
+      <c r="AR78" s="10">
+        <f t="shared" ref="AR78:AR79" si="419">AQ78/$BR$8</f>
+        <v>853.48071553917077</v>
+      </c>
+      <c r="AS78" s="11">
+        <f t="shared" ref="AS78:AS79" si="420">AR78-AR77</f>
+        <v>6.9681069743782018</v>
+      </c>
+      <c r="AT78" s="11">
+        <f t="shared" ref="AT78:AT79" si="421">SUM(AS74:AS78)/5</f>
+        <v>6.9681069743782702</v>
+      </c>
+      <c r="AV78" s="15">
+        <v>9721</v>
+      </c>
+      <c r="AW78" s="10">
+        <f t="shared" ref="AW78:AW79" si="422">AV78/$BR$9</f>
+        <v>2597.5053153867389</v>
+      </c>
+      <c r="AX78" s="11">
+        <f t="shared" ref="AX78:AX79" si="423">AW78-AW77</f>
+        <v>10.15381154044826</v>
+      </c>
+      <c r="AY78" s="4">
+        <f t="shared" ref="AY78:AY79" si="424">SUM(AX74:AX78)/5</f>
+        <v>8.4436959125831894</v>
+      </c>
+      <c r="AZ78" s="15">
+        <v>930</v>
+      </c>
+      <c r="BA78" s="10">
+        <f t="shared" ref="BA78:BA79" si="425">AZ78/$BR$9</f>
+        <v>248.50117717412479</v>
+      </c>
+      <c r="BB78" s="11">
+        <f t="shared" ref="BB78:BB79" si="426">BA78-BA77</f>
+        <v>4.0080835028084607</v>
+      </c>
+      <c r="BC78" s="11">
+        <f t="shared" ref="BC78:BC79" si="427">SUM(BB74:BB78)/5</f>
+        <v>3.0995845755052129</v>
+      </c>
     </row>
     <row r="79" spans="1:55">
       <c r="A79" s="2">
@@ -25782,21 +26003,186 @@
       <c r="B79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="G79" s="16"/>
-      <c r="J79" s="11"/>
-      <c r="L79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="U79" s="15"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="15"/>
-      <c r="AD79" s="15"/>
-      <c r="AG79" s="11"/>
-      <c r="AH79" s="15"/>
-      <c r="AM79" s="15"/>
-      <c r="AQ79" s="15"/>
-      <c r="AV79" s="15"/>
-      <c r="AZ79" s="15"/>
+      <c r="C79" s="15">
+        <v>8738</v>
+      </c>
+      <c r="D79" s="10">
+        <f t="shared" si="393"/>
+        <v>5582.2915249213092</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="394"/>
+        <v>9.5827847189084423</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" si="395"/>
+        <v>41.653170911520832</v>
+      </c>
+      <c r="G79" s="16">
+        <v>1276</v>
+      </c>
+      <c r="H79" s="10">
+        <f t="shared" si="396"/>
+        <v>815.17555342178878</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" si="357"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="J79" s="11">
+        <f t="shared" si="397"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="L79" s="16">
+        <v>28549</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="398"/>
+        <v>6499.4492918197866</v>
+      </c>
+      <c r="N79" s="11">
+        <f t="shared" si="399"/>
+        <v>41.206358254908992</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="400"/>
+        <v>42.208059781547128</v>
+      </c>
+      <c r="P79" s="16">
+        <v>3331</v>
+      </c>
+      <c r="Q79" s="10">
+        <f t="shared" si="401"/>
+        <v>758.33358755303891</v>
+      </c>
+      <c r="R79" s="11">
+        <f t="shared" si="402"/>
+        <v>5.9191453846829063</v>
+      </c>
+      <c r="S79" s="11">
+        <f t="shared" si="403"/>
+        <v>6.6021236983002378</v>
+      </c>
+      <c r="U79" s="15">
+        <v>81225</v>
+      </c>
+      <c r="V79" s="10">
+        <f t="shared" si="404"/>
+        <v>8107.2534990696495</v>
+      </c>
+      <c r="W79" s="11">
+        <f t="shared" si="405"/>
+        <v>50.105771086893583</v>
+      </c>
+      <c r="X79" s="11">
+        <f t="shared" si="406"/>
+        <v>62.282870833111154</v>
+      </c>
+      <c r="Y79" s="15">
+        <v>14924</v>
+      </c>
+      <c r="Z79" s="10">
+        <f t="shared" si="407"/>
+        <v>1489.5986607585776</v>
+      </c>
+      <c r="AA79" s="11">
+        <f t="shared" si="408"/>
+        <v>8.4840449051514497</v>
+      </c>
+      <c r="AB79" s="11">
+        <f t="shared" si="409"/>
+        <v>12.576348918224403</v>
+      </c>
+      <c r="AD79" s="15">
+        <v>18671</v>
+      </c>
+      <c r="AE79" s="10">
+        <f t="shared" si="410"/>
+        <v>3804.5623367686667</v>
+      </c>
+      <c r="AF79" s="11">
+        <f t="shared" si="411"/>
+        <v>10.799732411158402</v>
+      </c>
+      <c r="AG79" s="11">
+        <f t="shared" si="412"/>
+        <v>12.144604749151677</v>
+      </c>
+      <c r="AH79" s="15">
+        <v>1643</v>
+      </c>
+      <c r="AI79" s="10">
+        <f t="shared" si="413"/>
+        <v>334.79170474591183</v>
+      </c>
+      <c r="AJ79" s="11">
+        <f t="shared" si="414"/>
+        <v>3.2602965769535217</v>
+      </c>
+      <c r="AK79" s="11">
+        <f t="shared" si="415"/>
+        <v>4.6866763293706528</v>
+      </c>
+      <c r="AM79" s="15">
+        <v>26719</v>
+      </c>
+      <c r="AN79" s="10">
+        <f t="shared" si="416"/>
+        <v>6005.833878981065</v>
+      </c>
+      <c r="AO79" s="11">
+        <f t="shared" si="417"/>
+        <v>27.198094964508527</v>
+      </c>
+      <c r="AP79" s="4">
+        <f t="shared" si="418"/>
+        <v>24.455807703624306</v>
+      </c>
+      <c r="AQ79" s="15">
+        <v>3827</v>
+      </c>
+      <c r="AR79" s="10">
+        <f t="shared" si="419"/>
+        <v>860.22404486921425</v>
+      </c>
+      <c r="AS79" s="11">
+        <f t="shared" si="420"/>
+        <v>6.7433293300434798</v>
+      </c>
+      <c r="AT79" s="11">
+        <f t="shared" si="421"/>
+        <v>7.2378401475800045</v>
+      </c>
+      <c r="AV79" s="15">
+        <v>9745</v>
+      </c>
+      <c r="AW79" s="10">
+        <f t="shared" si="422"/>
+        <v>2603.9182489912323</v>
+      </c>
+      <c r="AX79" s="11">
+        <f t="shared" si="423"/>
+        <v>6.4129336044934462</v>
+      </c>
+      <c r="AY79" s="4">
+        <f t="shared" si="424"/>
+        <v>7.6955203253922262</v>
+      </c>
+      <c r="AZ79" s="15">
+        <v>937</v>
+      </c>
+      <c r="BA79" s="10">
+        <f t="shared" si="425"/>
+        <v>250.37161614210208</v>
+      </c>
+      <c r="BB79" s="11">
+        <f t="shared" si="426"/>
+        <v>1.870438967977293</v>
+      </c>
+      <c r="BC79" s="11">
+        <f t="shared" si="427"/>
+        <v>2.9927023487636575</v>
+      </c>
     </row>
     <row r="80" spans="1:55">
       <c r="A80" s="2">
@@ -26021,7 +26407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EA20FF-7B92-4AC8-8652-424C4BE4F96D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B79B3D-6CF9-4945-9A4E-75E12848C69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -11773,8 +11773,36 @@
       <c r="B80" s="3">
         <v>77</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="G80" s="15"/>
+      <c r="C80" s="15">
+        <v>219070</v>
+      </c>
+      <c r="D80" s="14">
+        <f t="shared" ref="D80" si="76">C80/$P$4</f>
+        <v>3615.6677394946632</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" ref="E80" si="77">D80-D79</f>
+        <v>13.236707568697966</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" ref="F80" si="78">SUM(E76:E80)/5</f>
+        <v>19.993700185437682</v>
+      </c>
+      <c r="G80" s="15">
+        <v>30560</v>
+      </c>
+      <c r="H80" s="13">
+        <f t="shared" ref="H80" si="79">G80/$P$4</f>
+        <v>504.38127593443608</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" ref="I80" si="80">H80-H79</f>
+        <v>2.7232627790962738</v>
+      </c>
+      <c r="J80" s="11">
+        <f t="shared" ref="J80" si="81">SUM(I76:I80)/5</f>
+        <v>4.1096511029998286</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
@@ -11868,9 +11896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25274,7 +25302,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I79" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I80" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -26191,21 +26219,186 @@
       <c r="B80" s="3">
         <v>77</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="G80" s="16"/>
-      <c r="J80" s="11"/>
-      <c r="L80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="U80" s="15"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="15"/>
-      <c r="AD80" s="15"/>
-      <c r="AG80" s="11"/>
-      <c r="AH80" s="15"/>
-      <c r="AM80" s="15"/>
-      <c r="AQ80" s="15"/>
-      <c r="AV80" s="15"/>
-      <c r="AZ80" s="15"/>
+      <c r="C80" s="15">
+        <v>8788</v>
+      </c>
+      <c r="D80" s="10">
+        <f t="shared" ref="D80" si="428">C80/$BR$4</f>
+        <v>5614.2341406510031</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" ref="E80" si="429">D80-D79</f>
+        <v>31.942615729693898</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" ref="F80" si="430">SUM(E76:E80)/5</f>
+        <v>39.992154893576846</v>
+      </c>
+      <c r="G80" s="16">
+        <v>1281</v>
+      </c>
+      <c r="H80" s="10">
+        <f t="shared" ref="H80" si="431">G80/$BR$4</f>
+        <v>818.36981499475826</v>
+      </c>
+      <c r="I80" s="11">
+        <f t="shared" si="357"/>
+        <v>3.1942615729694808</v>
+      </c>
+      <c r="J80" s="11">
+        <f t="shared" ref="J80" si="432">SUM(I76:I80)/5</f>
+        <v>6.2607526830200184</v>
+      </c>
+      <c r="L80" s="16">
+        <v>28665</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" ref="M80" si="433">L80/$BR$5</f>
+        <v>6525.8577866129872</v>
+      </c>
+      <c r="N80" s="11">
+        <f t="shared" ref="N80" si="434">M80-M79</f>
+        <v>26.408494793200589</v>
+      </c>
+      <c r="O80" s="4">
+        <f t="shared" ref="O80" si="435">SUM(N76:N80)/5</f>
+        <v>40.568911828865566</v>
+      </c>
+      <c r="P80" s="16">
+        <v>3367</v>
+      </c>
+      <c r="Q80" s="10">
+        <f t="shared" ref="Q80" si="436">P80/$BR$5</f>
+        <v>766.52932731644614</v>
+      </c>
+      <c r="R80" s="11">
+        <f t="shared" ref="R80" si="437">Q80-Q79</f>
+        <v>8.1957397634072322</v>
+      </c>
+      <c r="S80" s="11">
+        <f t="shared" ref="S80" si="438">SUM(R76:R80)/5</f>
+        <v>6.8753150237471576</v>
+      </c>
+      <c r="U80" s="15">
+        <v>81507</v>
+      </c>
+      <c r="V80" s="10">
+        <f t="shared" ref="V80" si="439">U80/$BR$6</f>
+        <v>8135.4005656961517</v>
+      </c>
+      <c r="W80" s="11">
+        <f t="shared" ref="W80" si="440">V80-V79</f>
+        <v>28.147066626502237</v>
+      </c>
+      <c r="X80" s="11">
+        <f t="shared" ref="X80" si="441">SUM(W76:W80)/5</f>
+        <v>57.931054858233622</v>
+      </c>
+      <c r="Y80" s="15">
+        <v>14986</v>
+      </c>
+      <c r="Z80" s="10">
+        <f t="shared" ref="Z80" si="442">Y80/$BR$6</f>
+        <v>1495.7870229246878</v>
+      </c>
+      <c r="AA80" s="11">
+        <f t="shared" ref="AA80" si="443">Z80-Z79</f>
+        <v>6.1883621661102097</v>
+      </c>
+      <c r="AB80" s="11">
+        <f t="shared" ref="AB80" si="444">SUM(AA76:AA80)/5</f>
+        <v>11.917587784412627</v>
+      </c>
+      <c r="AD80" s="15">
+        <v>18722</v>
+      </c>
+      <c r="AE80" s="10">
+        <f t="shared" ref="AE80" si="445">AD80/$BR$7</f>
+        <v>3814.9545321077062</v>
+      </c>
+      <c r="AF80" s="11">
+        <f t="shared" ref="AF80" si="446">AE80-AE79</f>
+        <v>10.392195339039517</v>
+      </c>
+      <c r="AG80" s="11">
+        <f t="shared" ref="AG80" si="447">SUM(AF76:AF80)/5</f>
+        <v>13.04118630781395</v>
+      </c>
+      <c r="AH80" s="15">
+        <v>1657</v>
+      </c>
+      <c r="AI80" s="10">
+        <f t="shared" ref="AI80" si="448">AH80/$BR$7</f>
+        <v>337.64446425074613</v>
+      </c>
+      <c r="AJ80" s="11">
+        <f t="shared" ref="AJ80" si="449">AI80-AI79</f>
+        <v>2.852759504834296</v>
+      </c>
+      <c r="AK80" s="11">
+        <f t="shared" ref="AK80" si="450">SUM(AJ76:AJ80)/5</f>
+        <v>4.5644152077348847</v>
+      </c>
+      <c r="AM80" s="15">
+        <v>26796</v>
+      </c>
+      <c r="AN80" s="10">
+        <f t="shared" ref="AN80" si="451">AM80/$BR$8</f>
+        <v>6023.1417575948435</v>
+      </c>
+      <c r="AO80" s="11">
+        <f t="shared" ref="AO80" si="452">AN80-AN79</f>
+        <v>17.307878613778485</v>
+      </c>
+      <c r="AP80" s="4">
+        <f t="shared" ref="AP80" si="453">SUM(AO76:AO80)/5</f>
+        <v>23.421830539684379</v>
+      </c>
+      <c r="AQ80" s="15">
+        <v>3845</v>
+      </c>
+      <c r="AR80" s="10">
+        <f t="shared" ref="AR80" si="454">AQ80/$BR$8</f>
+        <v>864.27004246724039</v>
+      </c>
+      <c r="AS80" s="11">
+        <f t="shared" ref="AS80" si="455">AR80-AR79</f>
+        <v>4.0459975980261333</v>
+      </c>
+      <c r="AT80" s="11">
+        <f t="shared" ref="AT80" si="456">SUM(AS76:AS80)/5</f>
+        <v>6.293774041373922</v>
+      </c>
+      <c r="AV80" s="15">
+        <v>9774</v>
+      </c>
+      <c r="AW80" s="10">
+        <f t="shared" ref="AW80" si="457">AV80/$BR$9</f>
+        <v>2611.6672104299955</v>
+      </c>
+      <c r="AX80" s="11">
+        <f t="shared" ref="AX80" si="458">AW80-AW79</f>
+        <v>7.7489614387632173</v>
+      </c>
+      <c r="AY80" s="4">
+        <f t="shared" ref="AY80" si="459">SUM(AX76:AX80)/5</f>
+        <v>7.6420792120215086</v>
+      </c>
+      <c r="AZ80" s="15">
+        <v>942</v>
+      </c>
+      <c r="BA80" s="10">
+        <f t="shared" ref="BA80" si="460">AZ80/$BR$9</f>
+        <v>251.70764397637157</v>
+      </c>
+      <c r="BB80" s="11">
+        <f t="shared" ref="BB80" si="461">BA80-BA79</f>
+        <v>1.3360278342694869</v>
+      </c>
+      <c r="BC80" s="11">
+        <f t="shared" ref="BC80" si="462">SUM(BB76:BB80)/5</f>
+        <v>2.8323790086513156</v>
+      </c>
     </row>
     <row r="81" spans="1:52">
       <c r="A81" s="2">
@@ -26407,7 +26600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B79B3D-6CF9-4945-9A4E-75E12848C69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4FB5F-8514-4518-80F3-DFE928C0AC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -8848,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11804,17 +11804,45 @@
         <v>4.1096511029998286</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>43962</v>
       </c>
       <c r="B81" s="3">
         <v>78</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="G81" s="15"/>
+      <c r="C81" s="15">
+        <v>219814</v>
+      </c>
+      <c r="D81" s="14">
+        <f t="shared" ref="D81" si="82">C81/$P$4</f>
+        <v>3627.9471789349518</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" ref="E81" si="83">D81-D80</f>
+        <v>12.27943944028857</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" ref="F81" si="84">SUM(E77:E81)/5</f>
+        <v>17.683052978931755</v>
+      </c>
+      <c r="G81" s="15">
+        <v>30739</v>
+      </c>
+      <c r="H81" s="13">
+        <f t="shared" ref="H81" si="85">G81/$P$4</f>
+        <v>507.33560343418293</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" ref="I81" si="86">H81-H80</f>
+        <v>2.9543274997468529</v>
+      </c>
+      <c r="J81" s="11">
+        <f t="shared" ref="J81" si="87">SUM(I77:I81)/5</f>
+        <v>3.4824754326624996</v>
+      </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>43963</v>
       </c>
@@ -11824,7 +11852,7 @@
       <c r="C82" s="15"/>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>43964</v>
       </c>
@@ -11834,7 +11862,7 @@
       <c r="C83" s="15"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>43965</v>
       </c>
@@ -11844,7 +11872,7 @@
       <c r="C84" s="15"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>43966</v>
       </c>
@@ -11854,7 +11882,7 @@
       <c r="C85" s="15"/>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>43967</v>
       </c>
@@ -11864,7 +11892,7 @@
       <c r="C86" s="15"/>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>43968</v>
       </c>
@@ -11874,7 +11902,7 @@
       <c r="C87" s="15"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>43969</v>
       </c>
@@ -11896,7 +11924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
@@ -25302,7 +25330,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I80" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I81" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -26400,30 +26428,195 @@
         <v>2.8323790086513156</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:55">
       <c r="A81" s="2">
         <v>43962</v>
       </c>
       <c r="B81" s="3">
         <v>78</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="G81" s="16"/>
-      <c r="J81" s="11"/>
-      <c r="L81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="U81" s="15"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="15"/>
-      <c r="AD81" s="15"/>
-      <c r="AG81" s="11"/>
-      <c r="AH81" s="15"/>
-      <c r="AM81" s="15"/>
-      <c r="AQ81" s="15"/>
-      <c r="AV81" s="15"/>
-      <c r="AZ81" s="15"/>
+      <c r="C81" s="15">
+        <v>8832</v>
+      </c>
+      <c r="D81" s="10">
+        <f t="shared" ref="D81" si="463">C81/$BR$4</f>
+        <v>5642.3436424931342</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" ref="E81" si="464">D81-D80</f>
+        <v>28.109501842131067</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" ref="F81" si="465">SUM(E77:E81)/5</f>
+        <v>35.903500080175945</v>
+      </c>
+      <c r="G81" s="16">
+        <v>1293</v>
+      </c>
+      <c r="H81" s="10">
+        <f t="shared" ref="H81" si="466">G81/$BR$4</f>
+        <v>826.03604276988472</v>
+      </c>
+      <c r="I81" s="11">
+        <f t="shared" si="357"/>
+        <v>7.6662277751264583</v>
+      </c>
+      <c r="J81" s="11">
+        <f t="shared" ref="J81" si="467">SUM(I77:I81)/5</f>
+        <v>6.3885231459387795</v>
+      </c>
+      <c r="L81" s="16">
+        <v>28776</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" ref="M81" si="468">L81/$BR$5</f>
+        <v>6551.127984216826</v>
+      </c>
+      <c r="N81" s="11">
+        <f t="shared" ref="N81" si="469">M81-M80</f>
+        <v>25.270197603838824</v>
+      </c>
+      <c r="O81" s="4">
+        <f t="shared" ref="O81" si="470">SUM(N77:N81)/5</f>
+        <v>38.110189899843498</v>
+      </c>
+      <c r="P81" s="16">
+        <v>3400</v>
+      </c>
+      <c r="Q81" s="10">
+        <f t="shared" ref="Q81" si="471">P81/$BR$5</f>
+        <v>774.04208876623602</v>
+      </c>
+      <c r="R81" s="11">
+        <f t="shared" ref="R81" si="472">Q81-Q80</f>
+        <v>7.5127614497898776</v>
+      </c>
+      <c r="S81" s="11">
+        <f t="shared" ref="S81" si="473">SUM(R77:R81)/5</f>
+        <v>6.9663787988961072</v>
+      </c>
+      <c r="U81" s="15">
+        <v>81871</v>
+      </c>
+      <c r="V81" s="10">
+        <f t="shared" ref="V81" si="474">U81/$BR$6</f>
+        <v>8171.7322403488006</v>
+      </c>
+      <c r="W81" s="11">
+        <f t="shared" ref="W81" si="475">V81-V80</f>
+        <v>36.331674652648871</v>
+      </c>
+      <c r="X81" s="11">
+        <f t="shared" ref="X81" si="476">SUM(W77:W81)/5</f>
+        <v>49.946071418091194</v>
+      </c>
+      <c r="Y81" s="15">
+        <v>15054</v>
+      </c>
+      <c r="Z81" s="10">
+        <f t="shared" ref="Z81" si="477">Y81/$BR$6</f>
+        <v>1502.574258848809</v>
+      </c>
+      <c r="AA81" s="11">
+        <f t="shared" ref="AA81" si="478">Z81-Z80</f>
+        <v>6.7872359241212052</v>
+      </c>
+      <c r="AB81" s="11">
+        <f t="shared" ref="AB81" si="479">SUM(AA77:AA81)/5</f>
+        <v>8.8433691599577742</v>
+      </c>
+      <c r="AD81" s="15">
+        <v>18741</v>
+      </c>
+      <c r="AE81" s="10">
+        <f t="shared" ref="AE81" si="480">AD81/$BR$7</f>
+        <v>3818.8261342928386</v>
+      </c>
+      <c r="AF81" s="11">
+        <f t="shared" ref="AF81" si="481">AE81-AE80</f>
+        <v>3.8716021851323603</v>
+      </c>
+      <c r="AG81" s="11">
+        <f t="shared" ref="AG81" si="482">SUM(AF77:AF81)/5</f>
+        <v>10.677471289522691</v>
+      </c>
+      <c r="AH81" s="15">
+        <v>1666</v>
+      </c>
+      <c r="AI81" s="10">
+        <f t="shared" ref="AI81" si="483">AH81/$BR$7</f>
+        <v>339.47838107528247</v>
+      </c>
+      <c r="AJ81" s="11">
+        <f t="shared" ref="AJ81" si="484">AI81-AI80</f>
+        <v>1.8339168245363453</v>
+      </c>
+      <c r="AK81" s="11">
+        <f t="shared" ref="AK81" si="485">SUM(AJ77:AJ81)/5</f>
+        <v>3.9938633067680258</v>
+      </c>
+      <c r="AM81" s="15">
+        <v>26876</v>
+      </c>
+      <c r="AN81" s="10">
+        <f t="shared" ref="AN81" si="486">AM81/$BR$8</f>
+        <v>6041.1239691416258</v>
+      </c>
+      <c r="AO81" s="11">
+        <f t="shared" ref="AO81" si="487">AN81-AN80</f>
+        <v>17.98221154678231</v>
+      </c>
+      <c r="AP81" s="4">
+        <f t="shared" ref="AP81" si="488">SUM(AO77:AO81)/5</f>
+        <v>22.342897846877349</v>
+      </c>
+      <c r="AQ81" s="15">
+        <v>3867</v>
+      </c>
+      <c r="AR81" s="10">
+        <f t="shared" ref="AR81" si="489">AQ81/$BR$8</f>
+        <v>869.21515064260564</v>
+      </c>
+      <c r="AS81" s="11">
+        <f t="shared" ref="AS81" si="490">AR81-AR80</f>
+        <v>4.9451081753652488</v>
+      </c>
+      <c r="AT81" s="11">
+        <f t="shared" ref="AT81" si="491">SUM(AS77:AS81)/5</f>
+        <v>5.8442187527043643</v>
+      </c>
+      <c r="AV81" s="15">
+        <v>9787</v>
+      </c>
+      <c r="AW81" s="10">
+        <f t="shared" ref="AW81" si="492">AV81/$BR$9</f>
+        <v>2615.1408827990958</v>
+      </c>
+      <c r="AX81" s="11">
+        <f t="shared" ref="AX81" si="493">AW81-AW80</f>
+        <v>3.4736723691003135</v>
+      </c>
+      <c r="AY81" s="4">
+        <f t="shared" ref="AY81" si="494">SUM(AX77:AX81)/5</f>
+        <v>6.9473447382012639</v>
+      </c>
+      <c r="AZ81" s="15">
+        <v>950</v>
+      </c>
+      <c r="BA81" s="10">
+        <f t="shared" ref="BA81" si="495">AZ81/$BR$9</f>
+        <v>253.84528851120274</v>
+      </c>
+      <c r="BB81" s="11">
+        <f t="shared" ref="BB81" si="496">BA81-BA80</f>
+        <v>2.1376445348311677</v>
+      </c>
+      <c r="BC81" s="11">
+        <f t="shared" ref="BC81" si="497">SUM(BB77:BB81)/5</f>
+        <v>2.7254967819097544</v>
+      </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:55">
       <c r="A82" s="2">
         <v>43963</v>
       </c>
@@ -26446,7 +26639,7 @@
       <c r="AV82" s="15"/>
       <c r="AZ82" s="15"/>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:55">
       <c r="A83" s="2">
         <v>43964</v>
       </c>
@@ -26469,7 +26662,7 @@
       <c r="AV83" s="15"/>
       <c r="AZ83" s="15"/>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:55">
       <c r="A84" s="2">
         <v>43965</v>
       </c>
@@ -26492,7 +26685,7 @@
       <c r="AV84" s="15"/>
       <c r="AZ84" s="15"/>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:55">
       <c r="A85" s="2">
         <v>43966</v>
       </c>
@@ -26515,7 +26708,7 @@
       <c r="AV85" s="15"/>
       <c r="AZ85" s="15"/>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:55">
       <c r="A86" s="2">
         <v>43967</v>
       </c>
@@ -26538,7 +26731,7 @@
       <c r="AV86" s="15"/>
       <c r="AZ86" s="15"/>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:55">
       <c r="A87" s="2">
         <v>43968</v>
       </c>
@@ -26560,7 +26753,7 @@
       <c r="AV87" s="15"/>
       <c r="AZ87" s="15"/>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:55">
       <c r="A88" s="2">
         <v>43969</v>
       </c>
@@ -26600,7 +26793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4FB5F-8514-4518-80F3-DFE928C0AC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B31783-C40F-4285-AF9C-C750D9A9B454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -8847,8 +8847,8 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11849,8 +11849,36 @@
       <c r="B82" s="3">
         <v>79</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="G82" s="15"/>
+      <c r="C82" s="15">
+        <v>221216</v>
+      </c>
+      <c r="D82" s="14">
+        <f t="shared" ref="D82" si="88">C82/$P$4</f>
+        <v>3651.0866602458182</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" ref="E82" si="89">D82-D81</f>
+        <v>23.139481310866358</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" ref="F82" si="90">SUM(E78:E82)/5</f>
+        <v>17.686353903512462</v>
+      </c>
+      <c r="G82" s="15">
+        <v>30911</v>
+      </c>
+      <c r="H82" s="13">
+        <f t="shared" ref="H82" si="91">G82/$P$4</f>
+        <v>510.17439857360449</v>
+      </c>
+      <c r="I82" s="11">
+        <f t="shared" ref="I82" si="92">H82-H81</f>
+        <v>2.8387951394215634</v>
+      </c>
+      <c r="J82" s="11">
+        <f t="shared" ref="J82" si="93">SUM(I78:I82)/5</f>
+        <v>3.1457811254287775</v>
+      </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2">
@@ -11926,7 +11954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="AV82" sqref="AV82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25330,7 +25358,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I81" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I82" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -26454,7 +26482,7 @@
         <v>1293</v>
       </c>
       <c r="H81" s="10">
-        <f t="shared" ref="H81" si="466">G81/$BR$4</f>
+        <f t="shared" ref="H81:H82" si="466">G81/$BR$4</f>
         <v>826.03604276988472</v>
       </c>
       <c r="I81" s="11">
@@ -26574,7 +26602,7 @@
         <v>3867</v>
       </c>
       <c r="AR81" s="10">
-        <f t="shared" ref="AR81" si="489">AQ81/$BR$8</f>
+        <f t="shared" ref="AR81:AR82" si="489">AQ81/$BR$8</f>
         <v>869.21515064260564</v>
       </c>
       <c r="AS81" s="11">
@@ -26623,21 +26651,186 @@
       <c r="B82" s="3">
         <v>79</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="G82" s="16"/>
-      <c r="J82" s="11"/>
-      <c r="L82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="U82" s="15"/>
-      <c r="X82" s="11"/>
-      <c r="Y82" s="15"/>
-      <c r="AD82" s="15"/>
-      <c r="AG82" s="11"/>
-      <c r="AH82" s="15"/>
-      <c r="AM82" s="15"/>
-      <c r="AQ82" s="15"/>
-      <c r="AV82" s="15"/>
-      <c r="AZ82" s="15"/>
+      <c r="C82" s="15">
+        <v>8863</v>
+      </c>
+      <c r="D82" s="10">
+        <f t="shared" ref="D82" si="498">C82/$BR$4</f>
+        <v>5662.1480642455444</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" ref="E82" si="499">D82-D81</f>
+        <v>19.804421752410235</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" ref="F82" si="500">SUM(E78:E82)/5</f>
+        <v>27.853960916293182</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1301</v>
+      </c>
+      <c r="H82" s="10">
+        <f t="shared" ref="H82" si="501">G82/$BR$4</f>
+        <v>831.14686128663573</v>
+      </c>
+      <c r="I82" s="11">
+        <f t="shared" si="357"/>
+        <v>5.1108185167510101</v>
+      </c>
+      <c r="J82" s="11">
+        <f t="shared" ref="J82" si="502">SUM(I78:I82)/5</f>
+        <v>6.005211757182451</v>
+      </c>
+      <c r="L82" s="16">
+        <v>28889</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" ref="M82" si="503">L82/$BR$5</f>
+        <v>6576.8535006964103</v>
+      </c>
+      <c r="N82" s="11">
+        <f t="shared" ref="N82" si="504">M82-M81</f>
+        <v>25.725516479584257</v>
+      </c>
+      <c r="O82" s="4">
+        <f t="shared" ref="O82" si="505">SUM(N78:N82)/5</f>
+        <v>34.33104323116131</v>
+      </c>
+      <c r="P82" s="16">
+        <v>3428</v>
+      </c>
+      <c r="Q82" s="10">
+        <f t="shared" ref="Q82" si="506">P82/$BR$5</f>
+        <v>780.41655302666391</v>
+      </c>
+      <c r="R82" s="11">
+        <f t="shared" ref="R82" si="507">Q82-Q81</f>
+        <v>6.3744642604278852</v>
+      </c>
+      <c r="S82" s="11">
+        <f t="shared" ref="S82" si="508">SUM(R78:R82)/5</f>
+        <v>6.6476555858747357</v>
+      </c>
+      <c r="U82" s="15">
+        <v>82904</v>
+      </c>
+      <c r="V82" s="10">
+        <f t="shared" ref="V82" si="509">U82/$BR$6</f>
+        <v>8274.8383390196395</v>
+      </c>
+      <c r="W82" s="11">
+        <f t="shared" ref="W82" si="510">V82-V81</f>
+        <v>103.10609867083895</v>
+      </c>
+      <c r="X82" s="11">
+        <f t="shared" ref="X82" si="511">SUM(W78:W82)/5</f>
+        <v>56.19432096000255</v>
+      </c>
+      <c r="Y82" s="15">
+        <v>15116</v>
+      </c>
+      <c r="Z82" s="10">
+        <f t="shared" ref="Z82" si="512">Y82/$BR$6</f>
+        <v>1508.7626210149194</v>
+      </c>
+      <c r="AA82" s="11">
+        <f t="shared" ref="AA82" si="513">Z82-Z81</f>
+        <v>6.1883621661104371</v>
+      </c>
+      <c r="AB82" s="11">
+        <f t="shared" ref="AB82" si="514">SUM(AA78:AA82)/5</f>
+        <v>7.4060721407321584</v>
+      </c>
+      <c r="AD82" s="15">
+        <v>18782</v>
+      </c>
+      <c r="AE82" s="10">
+        <f t="shared" ref="AE82" si="515">AD82/$BR$7</f>
+        <v>3827.1806442712818</v>
+      </c>
+      <c r="AF82" s="11">
+        <f t="shared" ref="AF82" si="516">AE82-AE81</f>
+        <v>8.354509978443275</v>
+      </c>
+      <c r="AG82" s="11">
+        <f t="shared" ref="AG82" si="517">SUM(AF78:AF82)/5</f>
+        <v>9.3325989515294161</v>
+      </c>
+      <c r="AH82" s="15">
+        <v>1686</v>
+      </c>
+      <c r="AI82" s="10">
+        <f t="shared" ref="AI82" si="518">AH82/$BR$7</f>
+        <v>343.55375179647433</v>
+      </c>
+      <c r="AJ82" s="11">
+        <f t="shared" ref="AJ82" si="519">AI82-AI81</f>
+        <v>4.0753707211918595</v>
+      </c>
+      <c r="AK82" s="11">
+        <f t="shared" ref="AK82" si="520">SUM(AJ78:AJ82)/5</f>
+        <v>3.953109599556103</v>
+      </c>
+      <c r="AM82" s="15">
+        <v>26929</v>
+      </c>
+      <c r="AN82" s="10">
+        <f t="shared" ref="AN82" si="521">AM82/$BR$8</f>
+        <v>6053.0371842913692</v>
+      </c>
+      <c r="AO82" s="11">
+        <f t="shared" ref="AO82" si="522">AN82-AN81</f>
+        <v>11.913215149743337</v>
+      </c>
+      <c r="AP82" s="4">
+        <f t="shared" ref="AP82" si="523">SUM(AO78:AO82)/5</f>
+        <v>19.870343759194657</v>
+      </c>
+      <c r="AQ82" s="15">
+        <v>3885</v>
+      </c>
+      <c r="AR82" s="10">
+        <f t="shared" si="489"/>
+        <v>873.26114824063166</v>
+      </c>
+      <c r="AS82" s="11">
+        <f t="shared" ref="AS82" si="524">AR82-AR81</f>
+        <v>4.0459975980260197</v>
+      </c>
+      <c r="AT82" s="11">
+        <f t="shared" ref="AT82" si="525">SUM(AS78:AS82)/5</f>
+        <v>5.3497079351678165</v>
+      </c>
+      <c r="AV82" s="15">
+        <v>9802</v>
+      </c>
+      <c r="AW82" s="10">
+        <f t="shared" ref="AW82" si="526">AV82/$BR$9</f>
+        <v>2619.1489663019047</v>
+      </c>
+      <c r="AX82" s="11">
+        <f t="shared" ref="AX82" si="527">AW82-AW81</f>
+        <v>4.0080835028088586</v>
+      </c>
+      <c r="AY82" s="4">
+        <f t="shared" ref="AY82" si="528">SUM(AX78:AX82)/5</f>
+        <v>6.3594924911228192</v>
+      </c>
+      <c r="AZ82" s="15">
+        <v>959</v>
+      </c>
+      <c r="BA82" s="10">
+        <f t="shared" ref="BA82" si="529">AZ82/$BR$9</f>
+        <v>256.25013861288784</v>
+      </c>
+      <c r="BB82" s="11">
+        <f t="shared" ref="BB82" si="530">BA82-BA81</f>
+        <v>2.4048501016850992</v>
+      </c>
+      <c r="BC82" s="11">
+        <f t="shared" ref="BC82" si="531">SUM(BB78:BB82)/5</f>
+        <v>2.3514089883143017</v>
+      </c>
     </row>
     <row r="83" spans="1:55">
       <c r="A83" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B31783-C40F-4285-AF9C-C750D9A9B454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E0914F-0A7B-4560-A34E-8E15BDD7081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -8848,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11887,8 +11887,36 @@
       <c r="B83" s="3">
         <v>80</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="G83" s="15"/>
+      <c r="C83" s="15">
+        <v>222104</v>
+      </c>
+      <c r="D83" s="14">
+        <f t="shared" ref="D83" si="94">C83/$P$4</f>
+        <v>3665.7427653842274</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" ref="E83" si="95">D83-D82</f>
+        <v>14.656105138409202</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" ref="F83" si="96">SUM(E79:E83)/5</f>
+        <v>16.237248012575218</v>
+      </c>
+      <c r="G83" s="15">
+        <v>31106</v>
+      </c>
+      <c r="H83" s="13">
+        <f t="shared" ref="H83" si="97">G83/$P$4</f>
+        <v>513.39280003980923</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" ref="I83" si="98">H83-H82</f>
+        <v>3.2184014662047389</v>
+      </c>
+      <c r="J83" s="11">
+        <f t="shared" ref="J83" si="99">SUM(I79:I83)/5</f>
+        <v>2.9873367455541029</v>
+      </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2">
@@ -11954,7 +11982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AV82" sqref="AV82"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25358,7 +25386,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I82" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I83" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -26482,7 +26510,7 @@
         <v>1293</v>
       </c>
       <c r="H81" s="10">
-        <f t="shared" ref="H81:H82" si="466">G81/$BR$4</f>
+        <f t="shared" ref="H81" si="466">G81/$BR$4</f>
         <v>826.03604276988472</v>
       </c>
       <c r="I81" s="11">
@@ -26730,7 +26758,7 @@
         <v>15116</v>
       </c>
       <c r="Z82" s="10">
-        <f t="shared" ref="Z82" si="512">Y82/$BR$6</f>
+        <f t="shared" ref="Z82:Z83" si="512">Y82/$BR$6</f>
         <v>1508.7626210149194</v>
       </c>
       <c r="AA82" s="11">
@@ -26839,21 +26867,186 @@
       <c r="B83" s="3">
         <v>80</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="G83" s="16"/>
-      <c r="J83" s="11"/>
-      <c r="L83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="U83" s="15"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="15"/>
-      <c r="AD83" s="15"/>
-      <c r="AG83" s="11"/>
-      <c r="AH83" s="15"/>
-      <c r="AM83" s="15"/>
-      <c r="AQ83" s="15"/>
-      <c r="AV83" s="15"/>
-      <c r="AZ83" s="15"/>
+      <c r="C83" s="15">
+        <v>8930</v>
+      </c>
+      <c r="D83" s="10">
+        <f t="shared" ref="D83" si="532">C83/$BR$4</f>
+        <v>5704.9511693233344</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" ref="E83" si="533">D83-D82</f>
+        <v>42.803105077789951</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" ref="F83" si="534">SUM(E79:E83)/5</f>
+        <v>26.448485824186719</v>
+      </c>
+      <c r="G83" s="16">
+        <v>1314</v>
+      </c>
+      <c r="H83" s="10">
+        <f t="shared" ref="H83" si="535">G83/$BR$4</f>
+        <v>839.45194137635622</v>
+      </c>
+      <c r="I83" s="11">
+        <f t="shared" si="357"/>
+        <v>8.3050800897204908</v>
+      </c>
+      <c r="J83" s="11">
+        <f t="shared" ref="J83" si="536">SUM(I79:I83)/5</f>
+        <v>6.2607526830200184</v>
+      </c>
+      <c r="L83" s="16">
+        <v>29058</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" ref="M83" si="537">L83/$BR$5</f>
+        <v>6615.3279456968494</v>
+      </c>
+      <c r="N83" s="11">
+        <f t="shared" ref="N83" si="538">M83-M82</f>
+        <v>38.474445000439118</v>
+      </c>
+      <c r="O83" s="4">
+        <f t="shared" ref="O83" si="539">SUM(N79:N83)/5</f>
+        <v>31.417002426394355</v>
+      </c>
+      <c r="P83" s="16">
+        <v>3460</v>
+      </c>
+      <c r="Q83" s="10">
+        <f t="shared" ref="Q83" si="540">P83/$BR$5</f>
+        <v>787.70165503858141</v>
+      </c>
+      <c r="R83" s="11">
+        <f t="shared" ref="R83" si="541">Q83-Q82</f>
+        <v>7.2851020119175018</v>
+      </c>
+      <c r="S83" s="11">
+        <f t="shared" ref="S83" si="542">SUM(R79:R83)/5</f>
+        <v>7.0574425740450808</v>
+      </c>
+      <c r="U83" s="15">
+        <v>83298</v>
+      </c>
+      <c r="V83" s="10">
+        <f t="shared" ref="V83" si="543">U83/$BR$6</f>
+        <v>8314.1643824623425</v>
+      </c>
+      <c r="W83" s="11">
+        <f t="shared" ref="W83" si="544">V83-V82</f>
+        <v>39.32604344270294</v>
+      </c>
+      <c r="X83" s="11">
+        <f t="shared" ref="X83" si="545">SUM(W79:W83)/5</f>
+        <v>51.403330895917314</v>
+      </c>
+      <c r="Y83" s="15">
+        <v>15185</v>
+      </c>
+      <c r="Z83" s="10">
+        <f t="shared" ref="Z83" si="546">Y83/$BR$6</f>
+        <v>1515.6496692320422</v>
+      </c>
+      <c r="AA83" s="11">
+        <f t="shared" ref="AA83" si="547">Z83-Z82</f>
+        <v>6.8870482171228105</v>
+      </c>
+      <c r="AB83" s="11">
+        <f t="shared" ref="AB83" si="548">SUM(AA79:AA83)/5</f>
+        <v>6.9070106757232228</v>
+      </c>
+      <c r="AD83" s="15">
+        <v>18813</v>
+      </c>
+      <c r="AE83" s="10">
+        <f t="shared" ref="AE83" si="549">AD83/$BR$7</f>
+        <v>3833.4974688891293</v>
+      </c>
+      <c r="AF83" s="11">
+        <f t="shared" ref="AF83" si="550">AE83-AE82</f>
+        <v>6.3168246178474874</v>
+      </c>
+      <c r="AG83" s="11">
+        <f t="shared" ref="AG83" si="551">SUM(AF79:AF83)/5</f>
+        <v>7.9469729063242083</v>
+      </c>
+      <c r="AH83" s="15">
+        <v>1712</v>
+      </c>
+      <c r="AI83" s="10">
+        <f t="shared" ref="AI83" si="552">AH83/$BR$7</f>
+        <v>348.85173373402375</v>
+      </c>
+      <c r="AJ83" s="11">
+        <f t="shared" ref="AJ83" si="553">AI83-AI82</f>
+        <v>5.297981937549423</v>
+      </c>
+      <c r="AK83" s="11">
+        <f t="shared" ref="AK83" si="554">SUM(AJ79:AJ83)/5</f>
+        <v>3.4640651130130893</v>
+      </c>
+      <c r="AM83" s="15">
+        <v>26979</v>
+      </c>
+      <c r="AN83" s="10">
+        <f t="shared" ref="AN83" si="555">AM83/$BR$8</f>
+        <v>6064.2760665081087</v>
+      </c>
+      <c r="AO83" s="11">
+        <f t="shared" ref="AO83" si="556">AN83-AN82</f>
+        <v>11.238882216739512</v>
+      </c>
+      <c r="AP83" s="4">
+        <f t="shared" ref="AP83" si="557">SUM(AO79:AO83)/5</f>
+        <v>17.128056498310436</v>
+      </c>
+      <c r="AQ83" s="15">
+        <v>3905</v>
+      </c>
+      <c r="AR83" s="10">
+        <f t="shared" ref="AR83" si="558">AQ83/$BR$8</f>
+        <v>877.75670112732735</v>
+      </c>
+      <c r="AS83" s="11">
+        <f t="shared" ref="AS83" si="559">AR83-AR82</f>
+        <v>4.4955528866956911</v>
+      </c>
+      <c r="AT83" s="11">
+        <f t="shared" ref="AT83" si="560">SUM(AS79:AS83)/5</f>
+        <v>4.8551971176313149</v>
+      </c>
+      <c r="AV83" s="15">
+        <v>9829</v>
+      </c>
+      <c r="AW83" s="10">
+        <f t="shared" ref="AW83" si="561">AV83/$BR$9</f>
+        <v>2626.3635166069598</v>
+      </c>
+      <c r="AX83" s="11">
+        <f t="shared" ref="AX83" si="562">AW83-AW82</f>
+        <v>7.214550305055127</v>
+      </c>
+      <c r="AY83" s="4">
+        <f t="shared" ref="AY83" si="563">SUM(AX79:AX83)/5</f>
+        <v>5.7716402440441925</v>
+      </c>
+      <c r="AZ83" s="15">
+        <v>964</v>
+      </c>
+      <c r="BA83" s="10">
+        <f t="shared" ref="BA83" si="564">AZ83/$BR$9</f>
+        <v>257.58616644715732</v>
+      </c>
+      <c r="BB83" s="11">
+        <f t="shared" ref="BB83" si="565">BA83-BA82</f>
+        <v>1.3360278342694869</v>
+      </c>
+      <c r="BC83" s="11">
+        <f t="shared" ref="BC83" si="566">SUM(BB79:BB83)/5</f>
+        <v>1.8169978546065066</v>
+      </c>
     </row>
     <row r="84" spans="1:55">
       <c r="A84" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E0914F-0A7B-4560-A34E-8E15BDD7081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9571C-74D2-4200-AD55-4BC2E7B5A580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -8848,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11925,8 +11925,36 @@
       <c r="B84" s="3">
         <v>81</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="G84" s="15"/>
+      <c r="C84" s="15">
+        <v>223096</v>
+      </c>
+      <c r="D84" s="14">
+        <f t="shared" ref="D84:D85" si="100">C84/$P$4</f>
+        <v>3682.1153513046124</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" ref="E84:E85" si="101">D84-D83</f>
+        <v>16.372585920385063</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" ref="F84:F85" si="102">SUM(E80:E84)/5</f>
+        <v>15.936863875729433</v>
+      </c>
+      <c r="G84" s="15">
+        <v>31368</v>
+      </c>
+      <c r="H84" s="13">
+        <f t="shared" ref="H84:H85" si="103">G84/$P$4</f>
+        <v>517.71701124055596</v>
+      </c>
+      <c r="I84" s="11">
+        <f t="shared" ref="I84:I85" si="104">H84-H83</f>
+        <v>4.3242112007467313</v>
+      </c>
+      <c r="J84" s="11">
+        <f t="shared" ref="J84:J85" si="105">SUM(I80:I84)/5</f>
+        <v>3.2117996170432321</v>
+      </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2">
@@ -11935,8 +11963,36 @@
       <c r="B85" s="3">
         <v>82</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="G85" s="15"/>
+      <c r="C85" s="15">
+        <v>223885</v>
+      </c>
+      <c r="D85" s="14">
+        <f t="shared" si="100"/>
+        <v>3695.1374987755635</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="101"/>
+        <v>13.02214747095104</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="102"/>
+        <v>15.893951856180047</v>
+      </c>
+      <c r="G85" s="15">
+        <v>31610</v>
+      </c>
+      <c r="H85" s="13">
+        <f t="shared" si="103"/>
+        <v>521.71112998323053</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="104"/>
+        <v>3.9941187426745728</v>
+      </c>
+      <c r="J85" s="11">
+        <f t="shared" si="105"/>
+        <v>3.4659708097588919</v>
+      </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2">
@@ -11982,7 +12038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25386,7 +25442,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I83" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I85" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -26758,7 +26814,7 @@
         <v>15116</v>
       </c>
       <c r="Z82" s="10">
-        <f t="shared" ref="Z82:Z83" si="512">Y82/$BR$6</f>
+        <f t="shared" ref="Z82" si="512">Y82/$BR$6</f>
         <v>1508.7626210149194</v>
       </c>
       <c r="AA82" s="11">
@@ -27055,21 +27111,186 @@
       <c r="B84" s="3">
         <v>81</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="G84" s="16"/>
-      <c r="J84" s="11"/>
-      <c r="L84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="U84" s="15"/>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="15"/>
-      <c r="AD84" s="15"/>
-      <c r="AG84" s="11"/>
-      <c r="AH84" s="15"/>
-      <c r="AM84" s="15"/>
-      <c r="AQ84" s="15"/>
-      <c r="AV84" s="15"/>
-      <c r="AZ84" s="15"/>
+      <c r="C84" s="15">
+        <v>8995</v>
+      </c>
+      <c r="D84" s="10">
+        <f t="shared" ref="D84:D85" si="567">C84/$BR$4</f>
+        <v>5746.4765697719358</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" ref="E84:E85" si="568">D84-D83</f>
+        <v>41.525400448601431</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" ref="F84:F85" si="569">SUM(E80:E84)/5</f>
+        <v>32.837008970125318</v>
+      </c>
+      <c r="G84" s="16">
+        <v>1329</v>
+      </c>
+      <c r="H84" s="10">
+        <f t="shared" ref="H84:H85" si="570">G84/$BR$4</f>
+        <v>849.03472609526443</v>
+      </c>
+      <c r="I84" s="11">
+        <f t="shared" si="357"/>
+        <v>9.5827847189082149</v>
+      </c>
+      <c r="J84" s="11">
+        <f t="shared" ref="J84:J85" si="571">SUM(I80:I84)/5</f>
+        <v>6.771834534695131</v>
+      </c>
+      <c r="L84" s="16">
+        <v>29209</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" ref="M84:M85" si="572">L84/$BR$5</f>
+        <v>6649.7045208155851</v>
+      </c>
+      <c r="N84" s="11">
+        <f t="shared" ref="N84:N85" si="573">M84-M83</f>
+        <v>34.376575118735673</v>
+      </c>
+      <c r="O84" s="4">
+        <f t="shared" ref="O84:O85" si="574">SUM(N80:N84)/5</f>
+        <v>30.051045799159692</v>
+      </c>
+      <c r="P84" s="16">
+        <v>3493</v>
+      </c>
+      <c r="Q84" s="10">
+        <f t="shared" ref="Q84:Q85" si="575">P84/$BR$5</f>
+        <v>795.2144164883714</v>
+      </c>
+      <c r="R84" s="11">
+        <f t="shared" ref="R84:R85" si="576">Q84-Q83</f>
+        <v>7.5127614497899913</v>
+      </c>
+      <c r="S84" s="11">
+        <f t="shared" ref="S84:S85" si="577">SUM(R80:R84)/5</f>
+        <v>7.3761657870664976</v>
+      </c>
+      <c r="U84" s="15">
+        <v>83820</v>
+      </c>
+      <c r="V84" s="10">
+        <f t="shared" ref="V84:V85" si="578">U84/$BR$6</f>
+        <v>8366.2663994092709</v>
+      </c>
+      <c r="W84" s="11">
+        <f t="shared" ref="W84:W85" si="579">V84-V83</f>
+        <v>52.102016946928416</v>
+      </c>
+      <c r="X84" s="11">
+        <f t="shared" ref="X84:X85" si="580">SUM(W80:W84)/5</f>
+        <v>51.802580067924282</v>
+      </c>
+      <c r="Y84" s="15">
+        <v>15296</v>
+      </c>
+      <c r="Z84" s="10">
+        <f t="shared" ref="Z84:Z85" si="581">Y84/$BR$6</f>
+        <v>1526.72883375524</v>
+      </c>
+      <c r="AA84" s="11">
+        <f t="shared" ref="AA84:AA85" si="582">Z84-Z83</f>
+        <v>11.079164523197733</v>
+      </c>
+      <c r="AB84" s="11">
+        <f t="shared" ref="AB84:AB85" si="583">SUM(AA80:AA84)/5</f>
+        <v>7.4260345993324792</v>
+      </c>
+      <c r="AD84" s="15">
+        <v>18845</v>
+      </c>
+      <c r="AE84" s="10">
+        <f t="shared" ref="AE84:AE85" si="584">AD84/$BR$7</f>
+        <v>3840.018062043036</v>
+      </c>
+      <c r="AF84" s="11">
+        <f t="shared" ref="AF84:AF85" si="585">AE84-AE83</f>
+        <v>6.5205931539067024</v>
+      </c>
+      <c r="AG84" s="11">
+        <f t="shared" ref="AG84:AG85" si="586">SUM(AF80:AF84)/5</f>
+        <v>7.0911450548738681</v>
+      </c>
+      <c r="AH84" s="15">
+        <v>1743</v>
+      </c>
+      <c r="AI84" s="10">
+        <f t="shared" ref="AI84:AI85" si="587">AH84/$BR$7</f>
+        <v>355.16855835187118</v>
+      </c>
+      <c r="AJ84" s="11">
+        <f t="shared" ref="AJ84:AJ85" si="588">AI84-AI83</f>
+        <v>6.3168246178474305</v>
+      </c>
+      <c r="AK84" s="11">
+        <f t="shared" ref="AK84:AK85" si="589">SUM(AJ80:AJ84)/5</f>
+        <v>4.075370721191871</v>
+      </c>
+      <c r="AM84" s="15">
+        <v>27056</v>
+      </c>
+      <c r="AN84" s="10">
+        <f t="shared" ref="AN84:AN85" si="590">AM84/$BR$8</f>
+        <v>6081.5839451218872</v>
+      </c>
+      <c r="AO84" s="11">
+        <f t="shared" ref="AO84:AO85" si="591">AN84-AN83</f>
+        <v>17.307878613778485</v>
+      </c>
+      <c r="AP84" s="4">
+        <f t="shared" ref="AP84:AP85" si="592">SUM(AO80:AO84)/5</f>
+        <v>15.150013228164426</v>
+      </c>
+      <c r="AQ84" s="15">
+        <v>3930</v>
+      </c>
+      <c r="AR84" s="10">
+        <f t="shared" ref="AR84:AR85" si="593">AQ84/$BR$8</f>
+        <v>883.37614223569688</v>
+      </c>
+      <c r="AS84" s="11">
+        <f t="shared" ref="AS84:AS85" si="594">AR84-AR83</f>
+        <v>5.6194411083695286</v>
+      </c>
+      <c r="AT84" s="11">
+        <f t="shared" ref="AT84:AT85" si="595">SUM(AS80:AS84)/5</f>
+        <v>4.6304194732965245</v>
+      </c>
+      <c r="AV84" s="15">
+        <v>9859</v>
+      </c>
+      <c r="AW84" s="10">
+        <f t="shared" ref="AW84:AW85" si="596">AV84/$BR$9</f>
+        <v>2634.3796836125766</v>
+      </c>
+      <c r="AX84" s="11">
+        <f t="shared" ref="AX84:AX85" si="597">AW84-AW83</f>
+        <v>8.0161670056168077</v>
+      </c>
+      <c r="AY84" s="4">
+        <f t="shared" ref="AY84:AY85" si="598">SUM(AX80:AX84)/5</f>
+        <v>6.0922869242688646</v>
+      </c>
+      <c r="AZ84" s="15">
+        <v>973</v>
+      </c>
+      <c r="BA84" s="10">
+        <f t="shared" ref="BA84:BA85" si="599">AZ84/$BR$9</f>
+        <v>259.99101654884237</v>
+      </c>
+      <c r="BB84" s="11">
+        <f t="shared" ref="BB84:BB85" si="600">BA84-BA83</f>
+        <v>2.4048501016850423</v>
+      </c>
+      <c r="BC84" s="11">
+        <f t="shared" ref="BC84:BC85" si="601">SUM(BB80:BB84)/5</f>
+        <v>1.9238800813480565</v>
+      </c>
     </row>
     <row r="85" spans="1:55">
       <c r="A85" s="2">
@@ -27078,21 +27299,186 @@
       <c r="B85" s="3">
         <v>82</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="G85" s="16"/>
-      <c r="J85" s="11"/>
-      <c r="L85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="U85" s="15"/>
-      <c r="X85" s="11"/>
-      <c r="Y85" s="15"/>
-      <c r="AD85" s="15"/>
-      <c r="AG85" s="11"/>
-      <c r="AH85" s="15"/>
-      <c r="AM85" s="15"/>
-      <c r="AQ85" s="15"/>
-      <c r="AV85" s="15"/>
-      <c r="AZ85" s="15"/>
+      <c r="C85" s="15">
+        <v>9060</v>
+      </c>
+      <c r="D85" s="10">
+        <f t="shared" si="567"/>
+        <v>5788.0019702205382</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="568"/>
+        <v>41.52540044860234</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" si="569"/>
+        <v>34.753565913907003</v>
+      </c>
+      <c r="G85" s="16">
+        <v>1336</v>
+      </c>
+      <c r="H85" s="10">
+        <f t="shared" si="570"/>
+        <v>853.50669229742152</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021570912</v>
+      </c>
+      <c r="J85" s="11">
+        <f t="shared" si="571"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="L85" s="16">
+        <v>29346</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="572"/>
+        <v>6680.8938638041072</v>
+      </c>
+      <c r="N85" s="11">
+        <f t="shared" si="573"/>
+        <v>31.189342988522185</v>
+      </c>
+      <c r="O85" s="4">
+        <f t="shared" si="574"/>
+        <v>31.007215438224012</v>
+      </c>
+      <c r="P85" s="16">
+        <v>3557</v>
+      </c>
+      <c r="Q85" s="10">
+        <f t="shared" si="575"/>
+        <v>809.7846205122064</v>
+      </c>
+      <c r="R85" s="11">
+        <f t="shared" si="576"/>
+        <v>14.570204023835004</v>
+      </c>
+      <c r="S85" s="11">
+        <f t="shared" si="577"/>
+        <v>8.6510586391520512</v>
+      </c>
+      <c r="U85" s="15">
+        <v>84119</v>
+      </c>
+      <c r="V85" s="10">
+        <f t="shared" si="578"/>
+        <v>8396.1102750168029</v>
+      </c>
+      <c r="W85" s="11">
+        <f t="shared" si="579"/>
+        <v>29.843875607532027</v>
+      </c>
+      <c r="X85" s="11">
+        <f t="shared" si="580"/>
+        <v>52.141941864130239</v>
+      </c>
+      <c r="Y85" s="15">
+        <v>15411</v>
+      </c>
+      <c r="Z85" s="10">
+        <f t="shared" si="581"/>
+        <v>1538.2072474504448</v>
+      </c>
+      <c r="AA85" s="11">
+        <f t="shared" si="582"/>
+        <v>11.478413695204836</v>
+      </c>
+      <c r="AB85" s="11">
+        <f t="shared" si="583"/>
+        <v>8.4840449051514035</v>
+      </c>
+      <c r="AD85" s="15">
+        <v>18889</v>
+      </c>
+      <c r="AE85" s="10">
+        <f t="shared" si="584"/>
+        <v>3848.9838776296583</v>
+      </c>
+      <c r="AF85" s="11">
+        <f t="shared" si="585"/>
+        <v>8.9658155866222842</v>
+      </c>
+      <c r="AG85" s="11">
+        <f t="shared" si="586"/>
+        <v>6.805869104390422</v>
+      </c>
+      <c r="AH85" s="15">
+        <v>1762</v>
+      </c>
+      <c r="AI85" s="10">
+        <f t="shared" si="587"/>
+        <v>359.04016053700343</v>
+      </c>
+      <c r="AJ85" s="11">
+        <f t="shared" si="588"/>
+        <v>3.8716021851322466</v>
+      </c>
+      <c r="AK85" s="11">
+        <f t="shared" si="589"/>
+        <v>4.2791392572514608</v>
+      </c>
+      <c r="AM85" s="15">
+        <v>27110</v>
+      </c>
+      <c r="AN85" s="10">
+        <f t="shared" si="590"/>
+        <v>6093.7219379159651</v>
+      </c>
+      <c r="AO85" s="11">
+        <f t="shared" si="591"/>
+        <v>12.137992794077945</v>
+      </c>
+      <c r="AP85" s="4">
+        <f t="shared" si="592"/>
+        <v>14.116036064224318</v>
+      </c>
+      <c r="AQ85" s="15">
+        <v>3943</v>
+      </c>
+      <c r="AR85" s="10">
+        <f t="shared" si="593"/>
+        <v>886.29825161204906</v>
+      </c>
+      <c r="AS85" s="11">
+        <f t="shared" si="594"/>
+        <v>2.9221093763521822</v>
+      </c>
+      <c r="AT85" s="11">
+        <f t="shared" si="595"/>
+        <v>4.4056418289617341</v>
+      </c>
+      <c r="AV85" s="15">
+        <v>9883</v>
+      </c>
+      <c r="AW85" s="10">
+        <f t="shared" si="596"/>
+        <v>2640.7926172170701</v>
+      </c>
+      <c r="AX85" s="11">
+        <f t="shared" si="597"/>
+        <v>6.4129336044934462</v>
+      </c>
+      <c r="AY85" s="4">
+        <f t="shared" si="598"/>
+        <v>5.825081357414911</v>
+      </c>
+      <c r="AZ85" s="15">
+        <v>976</v>
+      </c>
+      <c r="BA85" s="10">
+        <f t="shared" si="599"/>
+        <v>260.7926332494041</v>
+      </c>
+      <c r="BB85" s="11">
+        <f t="shared" si="600"/>
+        <v>0.80161670056173762</v>
+      </c>
+      <c r="BC85" s="11">
+        <f t="shared" si="601"/>
+        <v>1.8169978546065066</v>
+      </c>
     </row>
     <row r="86" spans="1:55">
       <c r="A86" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9571C-74D2-4200-AD55-4BC2E7B5A580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C045D23-3D0F-415B-BF7D-A42B26981321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -8848,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84:G85"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12001,8 +12001,36 @@
       <c r="B86" s="3">
         <v>83</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="G86" s="15"/>
+      <c r="C86" s="15">
+        <v>224760</v>
+      </c>
+      <c r="D86" s="14">
+        <f t="shared" ref="D86" si="106">C86/$P$4</f>
+        <v>3709.5790438162253</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" ref="E86" si="107">D86-D85</f>
+        <v>14.441545040661822</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" ref="F86" si="108">SUM(E82:E86)/5</f>
+        <v>16.326372976254696</v>
+      </c>
+      <c r="G86" s="15">
+        <v>31763</v>
+      </c>
+      <c r="H86" s="13">
+        <f t="shared" ref="H86" si="109">G86/$P$4</f>
+        <v>524.23633728748337</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" ref="I86" si="110">H86-H85</f>
+        <v>2.5252073042528309</v>
+      </c>
+      <c r="J86" s="11">
+        <f t="shared" ref="J86" si="111">SUM(I82:I86)/5</f>
+        <v>3.3801467706600876</v>
+      </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2">
@@ -12034,11 +12062,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
-  <dimension ref="A1:BR88"/>
+  <dimension ref="A1:BR103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25442,7 +25470,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I85" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I86" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -27250,7 +27278,7 @@
         <v>3930</v>
       </c>
       <c r="AR84" s="10">
-        <f t="shared" ref="AR84:AR85" si="593">AQ84/$BR$8</f>
+        <f t="shared" ref="AR84:AR86" si="593">AQ84/$BR$8</f>
         <v>883.37614223569688</v>
       </c>
       <c r="AS84" s="11">
@@ -27487,21 +27515,186 @@
       <c r="B86" s="3">
         <v>83</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="G86" s="16"/>
-      <c r="J86" s="11"/>
-      <c r="L86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="U86" s="15"/>
-      <c r="X86" s="11"/>
-      <c r="Y86" s="15"/>
-      <c r="AD86" s="15"/>
-      <c r="AG86" s="11"/>
-      <c r="AH86" s="15"/>
-      <c r="AM86" s="15"/>
-      <c r="AQ86" s="15"/>
-      <c r="AV86" s="15"/>
-      <c r="AZ86" s="15"/>
+      <c r="C86" s="15">
+        <v>9111</v>
+      </c>
+      <c r="D86" s="10">
+        <f t="shared" ref="D86" si="602">C86/$BR$4</f>
+        <v>5820.5834382648263</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" ref="E86" si="603">D86-D85</f>
+        <v>32.581468044288158</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" ref="F86" si="604">SUM(E82:E86)/5</f>
+        <v>35.647959154338423</v>
+      </c>
+      <c r="G86" s="16">
+        <v>1346</v>
+      </c>
+      <c r="H86" s="10">
+        <f t="shared" ref="H86" si="605">G86/$BR$4</f>
+        <v>859.89521544336026</v>
+      </c>
+      <c r="I86" s="11">
+        <f t="shared" si="357"/>
+        <v>6.3885231459387342</v>
+      </c>
+      <c r="J86" s="11">
+        <f t="shared" ref="J86" si="606">SUM(I82:I86)/5</f>
+        <v>6.7718345346951079</v>
+      </c>
+      <c r="L86" s="16">
+        <v>29483</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" ref="M86" si="607">L86/$BR$5</f>
+        <v>6712.0832067926285</v>
+      </c>
+      <c r="N86" s="11">
+        <f t="shared" ref="N86" si="608">M86-M85</f>
+        <v>31.189342988521275</v>
+      </c>
+      <c r="O86" s="4">
+        <f t="shared" ref="O86" si="609">SUM(N82:N86)/5</f>
+        <v>32.191044515160499</v>
+      </c>
+      <c r="P86" s="16">
+        <v>3594</v>
+      </c>
+      <c r="Q86" s="10">
+        <f t="shared" ref="Q86" si="610">P86/$BR$5</f>
+        <v>818.20801971348601</v>
+      </c>
+      <c r="R86" s="11">
+        <f t="shared" ref="R86" si="611">Q86-Q85</f>
+        <v>8.423399201279608</v>
+      </c>
+      <c r="S86" s="11">
+        <f t="shared" ref="S86" si="612">SUM(R82:R86)/5</f>
+        <v>8.8331861894499983</v>
+      </c>
+      <c r="U86" s="15">
+        <v>84518</v>
+      </c>
+      <c r="V86" s="10">
+        <f t="shared" ref="V86" si="613">U86/$BR$6</f>
+        <v>8435.9353799245146</v>
+      </c>
+      <c r="W86" s="11">
+        <f t="shared" ref="W86" si="614">V86-V85</f>
+        <v>39.825104907711648</v>
+      </c>
+      <c r="X86" s="11">
+        <f t="shared" ref="X86" si="615">SUM(W82:W86)/5</f>
+        <v>52.840627915142797</v>
+      </c>
+      <c r="Y86" s="15">
+        <v>15450</v>
+      </c>
+      <c r="Z86" s="10">
+        <f t="shared" ref="Z86" si="616">Y86/$BR$6</f>
+        <v>1542.0999268775142</v>
+      </c>
+      <c r="AA86" s="11">
+        <f t="shared" ref="AA86" si="617">Z86-Z85</f>
+        <v>3.8926794270694245</v>
+      </c>
+      <c r="AB86" s="11">
+        <f t="shared" ref="AB86" si="618">SUM(AA82:AA86)/5</f>
+        <v>7.9051336057410477</v>
+      </c>
+      <c r="AD86" s="15">
+        <v>18928</v>
+      </c>
+      <c r="AE86" s="10">
+        <f t="shared" ref="AE86" si="619">AD86/$BR$7</f>
+        <v>3856.9308505359822</v>
+      </c>
+      <c r="AF86" s="11">
+        <f t="shared" ref="AF86" si="620">AE86-AE85</f>
+        <v>7.9469729063239356</v>
+      </c>
+      <c r="AG86" s="11">
+        <f t="shared" ref="AG86" si="621">SUM(AF82:AF86)/5</f>
+        <v>7.6209432486287367</v>
+      </c>
+      <c r="AH86" s="15">
+        <v>1783</v>
+      </c>
+      <c r="AI86" s="10">
+        <f t="shared" ref="AI86" si="622">AH86/$BR$7</f>
+        <v>363.3192997942549</v>
+      </c>
+      <c r="AJ86" s="11">
+        <f t="shared" ref="AJ86" si="623">AI86-AI85</f>
+        <v>4.2791392572514724</v>
+      </c>
+      <c r="AK86" s="11">
+        <f t="shared" ref="AK86" si="624">SUM(AJ82:AJ86)/5</f>
+        <v>4.7681837437944861</v>
+      </c>
+      <c r="AM86" s="15">
+        <v>27182</v>
+      </c>
+      <c r="AN86" s="10">
+        <f t="shared" ref="AN86" si="625">AM86/$BR$8</f>
+        <v>6109.9059283080696</v>
+      </c>
+      <c r="AO86" s="11">
+        <f t="shared" ref="AO86" si="626">AN86-AN85</f>
+        <v>16.183990392104533</v>
+      </c>
+      <c r="AP86" s="4">
+        <f t="shared" ref="AP86" si="627">SUM(AO82:AO86)/5</f>
+        <v>13.756391833288763</v>
+      </c>
+      <c r="AQ86" s="15">
+        <v>3960</v>
+      </c>
+      <c r="AR86" s="10">
+        <f t="shared" ref="AR86" si="628">AQ86/$BR$8</f>
+        <v>890.11947156574047</v>
+      </c>
+      <c r="AS86" s="11">
+        <f t="shared" ref="AS86" si="629">AR86-AR85</f>
+        <v>3.8212199536914113</v>
+      </c>
+      <c r="AT86" s="11">
+        <f t="shared" ref="AT86" si="630">SUM(AS82:AS86)/5</f>
+        <v>4.1808641846269667</v>
+      </c>
+      <c r="AV86" s="15">
+        <v>9913</v>
+      </c>
+      <c r="AW86" s="10">
+        <f t="shared" ref="AW86" si="631">AV86/$BR$9</f>
+        <v>2648.8087842226873</v>
+      </c>
+      <c r="AX86" s="11">
+        <f t="shared" ref="AX86" si="632">AW86-AW85</f>
+        <v>8.0161670056172625</v>
+      </c>
+      <c r="AY86" s="4">
+        <f t="shared" ref="AY86" si="633">SUM(AX82:AX86)/5</f>
+        <v>6.7335802847183004</v>
+      </c>
+      <c r="AZ86" s="15">
+        <v>979</v>
+      </c>
+      <c r="BA86" s="10">
+        <f t="shared" ref="BA86" si="634">AZ86/$BR$9</f>
+        <v>261.59424994996579</v>
+      </c>
+      <c r="BB86" s="11">
+        <f t="shared" ref="BB86" si="635">BA86-BA85</f>
+        <v>0.80161670056168077</v>
+      </c>
+      <c r="BC86" s="11">
+        <f t="shared" ref="BC86" si="636">SUM(BB82:BB86)/5</f>
+        <v>1.5497922877526094</v>
+      </c>
     </row>
     <row r="87" spans="1:55">
       <c r="A87" s="2">
@@ -27546,6 +27739,306 @@
       <c r="AQ88" s="15"/>
       <c r="AV88" s="15"/>
       <c r="AZ88" s="15"/>
+    </row>
+    <row r="89" spans="1:55">
+      <c r="A89" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B89" s="3">
+        <v>86</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AM89" s="15"/>
+      <c r="AQ89" s="15"/>
+      <c r="AV89" s="15"/>
+      <c r="AZ89" s="15"/>
+    </row>
+    <row r="90" spans="1:55">
+      <c r="A90" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B90" s="3">
+        <v>87</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AM90" s="15"/>
+      <c r="AQ90" s="15"/>
+      <c r="AV90" s="15"/>
+      <c r="AZ90" s="15"/>
+    </row>
+    <row r="91" spans="1:55">
+      <c r="A91" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B91" s="3">
+        <v>88</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AM91" s="15"/>
+      <c r="AQ91" s="15"/>
+      <c r="AV91" s="15"/>
+      <c r="AZ91" s="15"/>
+    </row>
+    <row r="92" spans="1:55">
+      <c r="A92" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B92" s="3">
+        <v>89</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AM92" s="15"/>
+      <c r="AQ92" s="15"/>
+      <c r="AV92" s="15"/>
+      <c r="AZ92" s="15"/>
+    </row>
+    <row r="93" spans="1:55">
+      <c r="A93" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B93" s="3">
+        <v>90</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AM93" s="15"/>
+      <c r="AQ93" s="15"/>
+      <c r="AV93" s="15"/>
+      <c r="AZ93" s="15"/>
+    </row>
+    <row r="94" spans="1:55">
+      <c r="A94" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B94" s="3">
+        <v>91</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AM94" s="15"/>
+      <c r="AQ94" s="15"/>
+      <c r="AV94" s="15"/>
+      <c r="AZ94" s="15"/>
+    </row>
+    <row r="95" spans="1:55">
+      <c r="A95" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B95" s="3">
+        <v>92</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="U95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AM95" s="15"/>
+      <c r="AQ95" s="15"/>
+      <c r="AV95" s="15"/>
+      <c r="AZ95" s="15"/>
+    </row>
+    <row r="96" spans="1:55">
+      <c r="A96" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B96" s="3">
+        <v>93</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="U96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AM96" s="15"/>
+      <c r="AQ96" s="15"/>
+      <c r="AV96" s="15"/>
+      <c r="AZ96" s="15"/>
+    </row>
+    <row r="97" spans="1:52">
+      <c r="A97" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B97" s="3">
+        <v>94</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="U97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="AD97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AM97" s="15"/>
+      <c r="AQ97" s="15"/>
+      <c r="AV97" s="15"/>
+      <c r="AZ97" s="15"/>
+    </row>
+    <row r="98" spans="1:52">
+      <c r="A98" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B98" s="3">
+        <v>95</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AM98" s="15"/>
+      <c r="AQ98" s="15"/>
+      <c r="AV98" s="15"/>
+      <c r="AZ98" s="15"/>
+    </row>
+    <row r="99" spans="1:52">
+      <c r="A99" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B99" s="3">
+        <v>96</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="U99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AM99" s="15"/>
+      <c r="AQ99" s="15"/>
+      <c r="AV99" s="15"/>
+      <c r="AZ99" s="15"/>
+    </row>
+    <row r="100" spans="1:52">
+      <c r="A100" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B100" s="3">
+        <v>97</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AM100" s="15"/>
+      <c r="AQ100" s="15"/>
+      <c r="AV100" s="15"/>
+      <c r="AZ100" s="15"/>
+    </row>
+    <row r="101" spans="1:52">
+      <c r="A101" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B101" s="3">
+        <v>98</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="U101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="AD101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AM101" s="15"/>
+      <c r="AQ101" s="15"/>
+      <c r="AV101" s="15"/>
+      <c r="AZ101" s="15"/>
+    </row>
+    <row r="102" spans="1:52">
+      <c r="A102" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B102" s="3">
+        <v>99</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="U102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="AD102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AM102" s="15"/>
+      <c r="AQ102" s="15"/>
+      <c r="AV102" s="15"/>
+      <c r="AZ102" s="15"/>
+    </row>
+    <row r="103" spans="1:52">
+      <c r="A103" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B103" s="3">
+        <v>100</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="U103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="AD103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AM103" s="15"/>
+      <c r="AQ103" s="15"/>
+      <c r="AV103" s="15"/>
+      <c r="AZ103" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C045D23-3D0F-415B-BF7D-A42B26981321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C14F2E-8C9D-42D5-AF20-38A9EB7B88EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -8847,8 +8847,8 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12039,8 +12039,36 @@
       <c r="B87" s="3">
         <v>84</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="G87" s="15"/>
+      <c r="C87" s="15">
+        <v>225435</v>
+      </c>
+      <c r="D87" s="14">
+        <f t="shared" ref="D87:D88" si="112">C87/$P$4</f>
+        <v>3720.7196642761646</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" ref="E87:E88" si="113">D87-D86</f>
+        <v>11.140620459939328</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" ref="F87:F88" si="114">SUM(E83:E87)/5</f>
+        <v>13.926600806069292</v>
+      </c>
+      <c r="G87" s="15">
+        <v>31908</v>
+      </c>
+      <c r="H87" s="13">
+        <f t="shared" ref="H87:H88" si="115">G87/$P$4</f>
+        <v>526.62950760850742</v>
+      </c>
+      <c r="I87" s="11">
+        <f t="shared" ref="I87:I88" si="116">H87-H86</f>
+        <v>2.3931703210240585</v>
+      </c>
+      <c r="J87" s="11">
+        <f t="shared" ref="J87:J88" si="117">SUM(I83:I87)/5</f>
+        <v>3.2910218069805866</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2">
@@ -12049,8 +12077,36 @@
       <c r="B88" s="3">
         <v>85</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="G88" s="15"/>
+      <c r="C88" s="15">
+        <v>225886</v>
+      </c>
+      <c r="D88" s="14">
+        <f t="shared" si="112"/>
+        <v>3728.1632492056947</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="113"/>
+        <v>7.4435849295300613</v>
+      </c>
+      <c r="F88" s="11">
+        <f t="shared" si="114"/>
+        <v>12.484096764293463</v>
+      </c>
+      <c r="G88" s="15">
+        <v>32007</v>
+      </c>
+      <c r="H88" s="13">
+        <f t="shared" si="115"/>
+        <v>528.26346527596513</v>
+      </c>
+      <c r="I88" s="11">
+        <f t="shared" si="116"/>
+        <v>1.6339576674577074</v>
+      </c>
+      <c r="J88" s="11">
+        <f t="shared" si="117"/>
+        <v>2.97413304723118</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12064,9 +12120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="AZ87" sqref="AZ87:AZ88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25470,7 +25526,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I86" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I88" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -27278,7 +27334,7 @@
         <v>3930</v>
       </c>
       <c r="AR84" s="10">
-        <f t="shared" ref="AR84:AR86" si="593">AQ84/$BR$8</f>
+        <f t="shared" ref="AR84:AR85" si="593">AQ84/$BR$8</f>
         <v>883.37614223569688</v>
       </c>
       <c r="AS84" s="11">
@@ -27703,20 +27759,186 @@
       <c r="B87" s="3">
         <v>84</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="G87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="U87" s="15"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="15"/>
-      <c r="AD87" s="15"/>
-      <c r="AG87" s="11"/>
-      <c r="AH87" s="15"/>
-      <c r="AM87" s="15"/>
-      <c r="AQ87" s="15"/>
-      <c r="AV87" s="15"/>
-      <c r="AZ87" s="15"/>
+      <c r="C87" s="15">
+        <v>9159</v>
+      </c>
+      <c r="D87" s="10">
+        <f t="shared" ref="D87:D88" si="637">C87/$BR$4</f>
+        <v>5851.2483493653317</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" ref="E87:E88" si="638">D87-D86</f>
+        <v>30.664911100505378</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" ref="F87:F88" si="639">SUM(E83:E87)/5</f>
+        <v>37.820057023957453</v>
+      </c>
+      <c r="G87" s="16">
+        <v>1355</v>
+      </c>
+      <c r="H87" s="10">
+        <f t="shared" ref="H87:H88" si="640">G87/$BR$4</f>
+        <v>865.64488627470519</v>
+      </c>
+      <c r="I87" s="11">
+        <f t="shared" si="357"/>
+        <v>5.749670831344929</v>
+      </c>
+      <c r="J87" s="11">
+        <f t="shared" ref="J87:J88" si="641">SUM(I83:I87)/5</f>
+        <v>6.899604997613892</v>
+      </c>
+      <c r="L87" s="16">
+        <v>29547</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" ref="M87:M88" si="642">L87/$BR$5</f>
+        <v>6726.6534108164642</v>
+      </c>
+      <c r="N87" s="11">
+        <f t="shared" ref="N87:N88" si="643">M87-M86</f>
+        <v>14.570204023835686</v>
+      </c>
+      <c r="O87" s="4">
+        <f t="shared" ref="O87:O88" si="644">SUM(N83:N87)/5</f>
+        <v>29.959982024010788</v>
+      </c>
+      <c r="P87" s="16">
+        <v>3612</v>
+      </c>
+      <c r="Q87" s="10">
+        <f t="shared" ref="Q87:Q88" si="645">P87/$BR$5</f>
+        <v>822.30588959518957</v>
+      </c>
+      <c r="R87" s="11">
+        <f t="shared" ref="R87:R88" si="646">Q87-Q86</f>
+        <v>4.0978698817035593</v>
+      </c>
+      <c r="S87" s="11">
+        <f t="shared" ref="S87:S88" si="647">SUM(R83:R87)/5</f>
+        <v>8.3778673137051332</v>
+      </c>
+      <c r="U87" s="15">
+        <v>84844</v>
+      </c>
+      <c r="V87" s="10">
+        <f t="shared" ref="V87:V88" si="648">U87/$BR$6</f>
+        <v>8468.4741874430947</v>
+      </c>
+      <c r="W87" s="11">
+        <f t="shared" ref="W87:W88" si="649">V87-V86</f>
+        <v>32.538807518580143</v>
+      </c>
+      <c r="X87" s="11">
+        <f t="shared" ref="X87:X88" si="650">SUM(W83:W87)/5</f>
+        <v>38.727169684691034</v>
+      </c>
+      <c r="Y87" s="15">
+        <v>15519</v>
+      </c>
+      <c r="Z87" s="10">
+        <f t="shared" ref="Z87:Z88" si="651">Y87/$BR$6</f>
+        <v>1548.986975094637</v>
+      </c>
+      <c r="AA87" s="11">
+        <f t="shared" ref="AA87:AA88" si="652">Z87-Z86</f>
+        <v>6.8870482171228105</v>
+      </c>
+      <c r="AB87" s="11">
+        <f t="shared" ref="AB87:AB88" si="653">SUM(AA83:AA87)/5</f>
+        <v>8.044870815943522</v>
+      </c>
+      <c r="AD87" s="15">
+        <v>18941</v>
+      </c>
+      <c r="AE87" s="10">
+        <f t="shared" ref="AE87:AE88" si="654">AD87/$BR$7</f>
+        <v>3859.579841504757</v>
+      </c>
+      <c r="AF87" s="11">
+        <f t="shared" ref="AF87:AF88" si="655">AE87-AE86</f>
+        <v>2.6489909687747968</v>
+      </c>
+      <c r="AG87" s="11">
+        <f t="shared" ref="AG87:AG88" si="656">SUM(AF83:AF87)/5</f>
+        <v>6.4798394466950411</v>
+      </c>
+      <c r="AH87" s="15">
+        <v>1794</v>
+      </c>
+      <c r="AI87" s="10">
+        <f t="shared" ref="AI87:AI88" si="657">AH87/$BR$7</f>
+        <v>365.56075369091042</v>
+      </c>
+      <c r="AJ87" s="11">
+        <f t="shared" ref="AJ87:AJ88" si="658">AI87-AI86</f>
+        <v>2.2414538966555142</v>
+      </c>
+      <c r="AK87" s="11">
+        <f t="shared" ref="AK87:AK88" si="659">SUM(AJ83:AJ87)/5</f>
+        <v>4.4014003788872174</v>
+      </c>
+      <c r="AM87" s="15">
+        <v>27232</v>
+      </c>
+      <c r="AN87" s="10">
+        <f t="shared" ref="AN87:AN88" si="660">AM87/$BR$8</f>
+        <v>6121.1448105248091</v>
+      </c>
+      <c r="AO87" s="11">
+        <f t="shared" ref="AO87:AO88" si="661">AN87-AN86</f>
+        <v>11.238882216739512</v>
+      </c>
+      <c r="AP87" s="4">
+        <f t="shared" ref="AP87:AP88" si="662">SUM(AO83:AO87)/5</f>
+        <v>13.621525246687998</v>
+      </c>
+      <c r="AQ87" s="15">
+        <v>3973</v>
+      </c>
+      <c r="AR87" s="10">
+        <f t="shared" ref="AR87:AR88" si="663">AQ87/$BR$8</f>
+        <v>893.04158094209265</v>
+      </c>
+      <c r="AS87" s="11">
+        <f t="shared" ref="AS87:AS88" si="664">AR87-AR86</f>
+        <v>2.9221093763521822</v>
+      </c>
+      <c r="AT87" s="11">
+        <f t="shared" ref="AT87:AT88" si="665">SUM(AS83:AS87)/5</f>
+        <v>3.956086540292199</v>
+      </c>
+      <c r="AV87" s="15">
+        <v>9948</v>
+      </c>
+      <c r="AW87" s="10">
+        <f t="shared" ref="AW87:AW88" si="666">AV87/$BR$9</f>
+        <v>2658.1609790625735</v>
+      </c>
+      <c r="AX87" s="11">
+        <f t="shared" ref="AX87:AX88" si="667">AW87-AW86</f>
+        <v>9.3521948398861241</v>
+      </c>
+      <c r="AY87" s="4">
+        <f t="shared" ref="AY87:AY88" si="668">SUM(AX83:AX87)/5</f>
+        <v>7.8024025521337537</v>
+      </c>
+      <c r="AZ87" s="15">
+        <v>984</v>
+      </c>
+      <c r="BA87" s="10">
+        <f t="shared" ref="BA87:BA88" si="669">AZ87/$BR$9</f>
+        <v>262.93027778423527</v>
+      </c>
+      <c r="BB87" s="11">
+        <f t="shared" ref="BB87:BB88" si="670">BA87-BA86</f>
+        <v>1.3360278342694869</v>
+      </c>
+      <c r="BC87" s="11">
+        <f t="shared" ref="BC87:BC88" si="671">SUM(BB83:BB87)/5</f>
+        <v>1.3360278342694869</v>
+      </c>
     </row>
     <row r="88" spans="1:55">
       <c r="A88" s="2">
@@ -27725,20 +27947,186 @@
       <c r="B88" s="3">
         <v>85</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="G88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="U88" s="15"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="15"/>
-      <c r="AD88" s="15"/>
-      <c r="AG88" s="11"/>
-      <c r="AH88" s="15"/>
-      <c r="AM88" s="15"/>
-      <c r="AQ88" s="15"/>
-      <c r="AV88" s="15"/>
-      <c r="AZ88" s="15"/>
+      <c r="C88" s="15">
+        <v>9191</v>
+      </c>
+      <c r="D88" s="10">
+        <f t="shared" si="637"/>
+        <v>5871.6916234323362</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="638"/>
+        <v>20.443274067004495</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" si="639"/>
+        <v>33.348090821800362</v>
+      </c>
+      <c r="G88" s="16">
+        <v>1367</v>
+      </c>
+      <c r="H88" s="10">
+        <f t="shared" si="640"/>
+        <v>873.31111404983176</v>
+      </c>
+      <c r="I88" s="11">
+        <f t="shared" si="357"/>
+        <v>7.6662277751265719</v>
+      </c>
+      <c r="J88" s="11">
+        <f t="shared" si="641"/>
+        <v>6.7718345346951079</v>
+      </c>
+      <c r="L88" s="16">
+        <v>29619</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="642"/>
+        <v>6743.044890343278</v>
+      </c>
+      <c r="N88" s="11">
+        <f t="shared" si="643"/>
+        <v>16.391479526813782</v>
+      </c>
+      <c r="O88" s="4">
+        <f t="shared" si="644"/>
+        <v>25.543388929285719</v>
+      </c>
+      <c r="P88" s="16">
+        <v>3632</v>
+      </c>
+      <c r="Q88" s="10">
+        <f t="shared" si="645"/>
+        <v>826.85907835263811</v>
+      </c>
+      <c r="R88" s="11">
+        <f t="shared" si="646"/>
+        <v>4.5531887574485381</v>
+      </c>
+      <c r="S88" s="11">
+        <f t="shared" si="647"/>
+        <v>7.8314846628113397</v>
+      </c>
+      <c r="U88" s="15">
+        <v>85019</v>
+      </c>
+      <c r="V88" s="10">
+        <f t="shared" si="648"/>
+        <v>8485.9413387184068</v>
+      </c>
+      <c r="W88" s="11">
+        <f t="shared" si="649"/>
+        <v>17.467151275312062</v>
+      </c>
+      <c r="X88" s="11">
+        <f t="shared" si="650"/>
+        <v>34.355391251212858</v>
+      </c>
+      <c r="Y88" s="15">
+        <v>15543</v>
+      </c>
+      <c r="Z88" s="10">
+        <f t="shared" si="651"/>
+        <v>1551.3824701266799</v>
+      </c>
+      <c r="AA88" s="11">
+        <f t="shared" si="652"/>
+        <v>2.3954950320428452</v>
+      </c>
+      <c r="AB88" s="11">
+        <f t="shared" si="653"/>
+        <v>7.1465601789275297</v>
+      </c>
+      <c r="AD88" s="15">
+        <v>18950</v>
+      </c>
+      <c r="AE88" s="10">
+        <f t="shared" si="654"/>
+        <v>3861.4137583292936</v>
+      </c>
+      <c r="AF88" s="11">
+        <f t="shared" si="655"/>
+        <v>1.8339168245365727</v>
+      </c>
+      <c r="AG88" s="11">
+        <f t="shared" si="656"/>
+        <v>5.5832578880328585</v>
+      </c>
+      <c r="AH88" s="15">
+        <v>1803</v>
+      </c>
+      <c r="AI88" s="10">
+        <f t="shared" si="657"/>
+        <v>367.39467051544676</v>
+      </c>
+      <c r="AJ88" s="11">
+        <f t="shared" si="658"/>
+        <v>1.8339168245363453</v>
+      </c>
+      <c r="AK88" s="11">
+        <f t="shared" si="659"/>
+        <v>3.7085873562846019</v>
+      </c>
+      <c r="AM88" s="15">
+        <v>27267</v>
+      </c>
+      <c r="AN88" s="10">
+        <f t="shared" si="660"/>
+        <v>6129.0120280765259</v>
+      </c>
+      <c r="AO88" s="11">
+        <f t="shared" si="661"/>
+        <v>7.8672175517167489</v>
+      </c>
+      <c r="AP88" s="4">
+        <f t="shared" si="662"/>
+        <v>12.947192313683445</v>
+      </c>
+      <c r="AQ88" s="15">
+        <v>3986</v>
+      </c>
+      <c r="AR88" s="10">
+        <f t="shared" si="663"/>
+        <v>895.96369031844472</v>
+      </c>
+      <c r="AS88" s="11">
+        <f t="shared" si="664"/>
+        <v>2.9221093763520685</v>
+      </c>
+      <c r="AT88" s="11">
+        <f t="shared" si="665"/>
+        <v>3.6413978382234746</v>
+      </c>
+      <c r="AV88" s="15">
+        <v>9961</v>
+      </c>
+      <c r="AW88" s="10">
+        <f t="shared" si="666"/>
+        <v>2661.6346514316742</v>
+      </c>
+      <c r="AX88" s="11">
+        <f t="shared" si="667"/>
+        <v>3.4736723691007683</v>
+      </c>
+      <c r="AY88" s="4">
+        <f t="shared" si="668"/>
+        <v>7.0542269649428819</v>
+      </c>
+      <c r="AZ88" s="15">
+        <v>989</v>
+      </c>
+      <c r="BA88" s="10">
+        <f t="shared" si="669"/>
+        <v>264.26630561850476</v>
+      </c>
+      <c r="BB88" s="11">
+        <f t="shared" si="670"/>
+        <v>1.3360278342694869</v>
+      </c>
+      <c r="BC88" s="11">
+        <f t="shared" si="671"/>
+        <v>1.3360278342694869</v>
+      </c>
     </row>
     <row r="89" spans="1:55">
       <c r="A89" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C14F2E-8C9D-42D5-AF20-38A9EB7B88EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC64B8C-2694-4A8E-B5BA-4B9C9CEF44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -8844,11 +8844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2619D-6D80-438C-B4B6-FF2AE18F2819}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86:J88"/>
+      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12108,6 +12108,252 @@
         <v>2.97413304723118</v>
       </c>
     </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B89" s="3">
+        <v>86</v>
+      </c>
+      <c r="C89" s="15">
+        <v>226699</v>
+      </c>
+      <c r="D89" s="14">
+        <f t="shared" ref="D89:D90" si="118">C89/$P$4</f>
+        <v>3741.5815076263325</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" ref="E89:E90" si="119">D89-D88</f>
+        <v>13.418258420637812</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" ref="F89:F90" si="120">SUM(E85:E89)/5</f>
+        <v>11.893231264344013</v>
+      </c>
+      <c r="G89" s="15">
+        <v>32169</v>
+      </c>
+      <c r="H89" s="13">
+        <f t="shared" ref="H89:H90" si="121">G89/$P$4</f>
+        <v>530.93721418635062</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" ref="I89:I90" si="122">H89-H88</f>
+        <v>2.6737489103854841</v>
+      </c>
+      <c r="J89" s="11">
+        <f t="shared" ref="J89:J90" si="123">SUM(I85:I89)/5</f>
+        <v>2.6440405891589309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B90" s="3">
+        <v>87</v>
+      </c>
+      <c r="C90" s="15">
+        <v>227364</v>
+      </c>
+      <c r="D90" s="14">
+        <f t="shared" si="118"/>
+        <v>3752.5570818572355</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="119"/>
+        <v>10.975574230903021</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" si="120"/>
+        <v>11.483916616334408</v>
+      </c>
+      <c r="G90" s="15">
+        <v>32330</v>
+      </c>
+      <c r="H90" s="13">
+        <f t="shared" si="121"/>
+        <v>533.59445847383245</v>
+      </c>
+      <c r="I90" s="11">
+        <f t="shared" si="122"/>
+        <v>2.6572442874818307</v>
+      </c>
+      <c r="J90" s="11">
+        <f t="shared" si="123"/>
+        <v>2.3766656981203824</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B91" s="3">
+        <v>88</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B92" s="3">
+        <v>89</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="2">
+        <v>43974</v>
+      </c>
+      <c r="B93" s="3">
+        <v>90</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="2">
+        <v>43975</v>
+      </c>
+      <c r="B94" s="3">
+        <v>91</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B95" s="3">
+        <v>92</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B96" s="3">
+        <v>93</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B97" s="3">
+        <v>94</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B98" s="3">
+        <v>95</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B99" s="3">
+        <v>96</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="2">
+        <v>43981</v>
+      </c>
+      <c r="B100" s="3">
+        <v>97</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2">
+        <v>43982</v>
+      </c>
+      <c r="B101" s="3">
+        <v>98</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B102" s="3">
+        <v>99</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B103" s="3">
+        <v>100</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B104" s="3">
+        <v>101</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B105" s="3">
+        <v>102</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B106" s="3">
+        <v>103</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B107" s="3">
+        <v>104</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="G107" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:J1"/>
@@ -12120,9 +12366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR103"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AZ87" sqref="AZ87:AZ88"/>
+      <selection pane="bottomLeft" activeCell="AZ89" sqref="AZ89:AZ90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25526,7 +25772,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I88" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I90" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -28135,18 +28381,186 @@
       <c r="B89" s="3">
         <v>86</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="AD89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AM89" s="15"/>
-      <c r="AQ89" s="15"/>
-      <c r="AV89" s="15"/>
-      <c r="AZ89" s="15"/>
+      <c r="C89" s="15">
+        <v>9257</v>
+      </c>
+      <c r="D89" s="10">
+        <f t="shared" ref="D89:D90" si="672">C89/$BR$4</f>
+        <v>5913.8558761955319</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" ref="E89:E90" si="673">D89-D88</f>
+        <v>42.164252763195691</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" ref="F89:F90" si="674">SUM(E85:E89)/5</f>
+        <v>33.475861284719215</v>
+      </c>
+      <c r="G89" s="15">
+        <v>1376</v>
+      </c>
+      <c r="H89" s="10">
+        <f t="shared" ref="H89:H90" si="675">G89/$BR$4</f>
+        <v>879.06078488117669</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" si="357"/>
+        <v>5.749670831344929</v>
+      </c>
+      <c r="J89" s="11">
+        <f t="shared" ref="J89:J90" si="676">SUM(I85:I89)/5</f>
+        <v>6.005211757182451</v>
+      </c>
+      <c r="L89" s="15">
+        <v>29727</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" ref="M89:M90" si="677">L89/$BR$5</f>
+        <v>6767.6321096334996</v>
+      </c>
+      <c r="N89" s="11">
+        <f t="shared" ref="N89:N90" si="678">M89-M88</f>
+        <v>24.587219290221583</v>
+      </c>
+      <c r="O89" s="4">
+        <f t="shared" ref="O89:O90" si="679">SUM(N85:N89)/5</f>
+        <v>23.585517763582903</v>
+      </c>
+      <c r="P89" s="15">
+        <v>3679</v>
+      </c>
+      <c r="Q89" s="10">
+        <f t="shared" ref="Q89:Q91" si="680">P89/$BR$5</f>
+        <v>837.55907193264193</v>
+      </c>
+      <c r="R89" s="11">
+        <f t="shared" ref="R89:R91" si="681">Q89-Q88</f>
+        <v>10.69999358000382</v>
+      </c>
+      <c r="S89" s="11">
+        <f t="shared" ref="S89:S91" si="682">SUM(R85:R89)/5</f>
+        <v>8.4689310888541058</v>
+      </c>
+      <c r="U89" s="15">
+        <v>85481</v>
+      </c>
+      <c r="V89" s="10">
+        <f t="shared" ref="V89:V90" si="683">U89/$BR$6</f>
+        <v>8532.0546180852289</v>
+      </c>
+      <c r="W89" s="11">
+        <f t="shared" ref="W89:W90" si="684">V89-V88</f>
+        <v>46.113279366822098</v>
+      </c>
+      <c r="X89" s="11">
+        <f t="shared" ref="X89:X90" si="685">SUM(W85:W89)/5</f>
+        <v>33.157643735191598</v>
+      </c>
+      <c r="Y89" s="15">
+        <v>15597</v>
+      </c>
+      <c r="Z89" s="10">
+        <f t="shared" ref="Z89:Z90" si="686">Y89/$BR$6</f>
+        <v>1556.7723339487759</v>
+      </c>
+      <c r="AA89" s="11">
+        <f t="shared" ref="AA89:AA90" si="687">Z89-Z88</f>
+        <v>5.3898638220960038</v>
+      </c>
+      <c r="AB89" s="11">
+        <f t="shared" ref="AB89:AB90" si="688">SUM(AA85:AA89)/5</f>
+        <v>6.0087000387071843</v>
+      </c>
+      <c r="AD89" s="15">
+        <v>18997</v>
+      </c>
+      <c r="AE89" s="10">
+        <f t="shared" ref="AE89:AE90" si="689">AD89/$BR$7</f>
+        <v>3870.9908795240945</v>
+      </c>
+      <c r="AF89" s="11">
+        <f t="shared" ref="AF89:AF90" si="690">AE89-AE88</f>
+        <v>9.5771211948008386</v>
+      </c>
+      <c r="AG89" s="11">
+        <f t="shared" ref="AG89:AG90" si="691">SUM(AF85:AF89)/5</f>
+        <v>6.1945634962116856</v>
+      </c>
+      <c r="AH89" s="15">
+        <v>1820</v>
+      </c>
+      <c r="AI89" s="10">
+        <f t="shared" ref="AI89:AI90" si="692">AH89/$BR$7</f>
+        <v>370.85873562845984</v>
+      </c>
+      <c r="AJ89" s="11">
+        <f t="shared" ref="AJ89:AJ90" si="693">AI89-AI88</f>
+        <v>3.4640651130130777</v>
+      </c>
+      <c r="AK89" s="11">
+        <f t="shared" ref="AK89:AK90" si="694">SUM(AJ85:AJ89)/5</f>
+        <v>3.1380354553177314</v>
+      </c>
+      <c r="AM89" s="15">
+        <v>27314</v>
+      </c>
+      <c r="AN89" s="10">
+        <f t="shared" ref="AN89:AN90" si="695">AM89/$BR$8</f>
+        <v>6139.5765773602607</v>
+      </c>
+      <c r="AO89" s="11">
+        <f t="shared" ref="AO89:AO90" si="696">AN89-AN88</f>
+        <v>10.564549283734777</v>
+      </c>
+      <c r="AP89" s="4">
+        <f t="shared" ref="AP89:AP90" si="697">SUM(AO85:AO89)/5</f>
+        <v>11.598526447674704</v>
+      </c>
+      <c r="AQ89" s="15">
+        <v>3997</v>
+      </c>
+      <c r="AR89" s="10">
+        <f t="shared" ref="AR89:AR90" si="698">AQ89/$BR$8</f>
+        <v>898.43624440612734</v>
+      </c>
+      <c r="AS89" s="11">
+        <f t="shared" ref="AS89:AS90" si="699">AR89-AR88</f>
+        <v>2.4725540876826244</v>
+      </c>
+      <c r="AT89" s="11">
+        <f t="shared" ref="AT89:AT90" si="700">SUM(AS85:AS89)/5</f>
+        <v>3.0120204340860939</v>
+      </c>
+      <c r="AV89" s="15">
+        <v>9968</v>
+      </c>
+      <c r="AW89" s="10">
+        <f t="shared" ref="AW89:AW90" si="701">AV89/$BR$9</f>
+        <v>2663.5050903996516</v>
+      </c>
+      <c r="AX89" s="11">
+        <f t="shared" ref="AX89:AX90" si="702">AW89-AW88</f>
+        <v>1.8704389679774067</v>
+      </c>
+      <c r="AY89" s="4">
+        <f t="shared" ref="AY89:AY90" si="703">SUM(AX85:AX89)/5</f>
+        <v>5.8250813574150015</v>
+      </c>
+      <c r="AZ89" s="15">
+        <v>992</v>
+      </c>
+      <c r="BA89" s="10">
+        <f t="shared" ref="BA89:BA90" si="704">AZ89/$BR$9</f>
+        <v>265.06792231906644</v>
+      </c>
+      <c r="BB89" s="11">
+        <f t="shared" ref="BB89:BB90" si="705">BA89-BA88</f>
+        <v>0.80161670056168077</v>
+      </c>
+      <c r="BC89" s="11">
+        <f t="shared" ref="BC89:BC90" si="706">SUM(BB85:BB89)/5</f>
+        <v>1.0153811540448145</v>
+      </c>
     </row>
     <row r="90" spans="1:55">
       <c r="A90" s="2">
@@ -28155,18 +28569,186 @@
       <c r="B90" s="3">
         <v>87</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="AD90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AM90" s="15"/>
-      <c r="AQ90" s="15"/>
-      <c r="AV90" s="15"/>
-      <c r="AZ90" s="15"/>
+      <c r="C90" s="15">
+        <v>9289</v>
+      </c>
+      <c r="D90" s="10">
+        <f t="shared" si="672"/>
+        <v>5934.2991502625364</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="673"/>
+        <v>20.443274067004495</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" si="674"/>
+        <v>29.259436008399643</v>
+      </c>
+      <c r="G90" s="15">
+        <v>1386</v>
+      </c>
+      <c r="H90" s="10">
+        <f t="shared" si="675"/>
+        <v>885.44930802711542</v>
+      </c>
+      <c r="I90" s="11">
+        <f t="shared" si="357"/>
+        <v>6.3885231459387342</v>
+      </c>
+      <c r="J90" s="11">
+        <f t="shared" si="676"/>
+        <v>6.3885231459387795</v>
+      </c>
+      <c r="L90" s="15">
+        <v>29885</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="677"/>
+        <v>6803.6023008173424</v>
+      </c>
+      <c r="N90" s="11">
+        <f t="shared" si="678"/>
+        <v>35.970191183842871</v>
+      </c>
+      <c r="O90" s="4">
+        <f t="shared" si="679"/>
+        <v>24.541687402647039</v>
+      </c>
+      <c r="P90" s="15">
+        <v>3718</v>
+      </c>
+      <c r="Q90" s="10">
+        <f t="shared" si="680"/>
+        <v>846.4377900096664</v>
+      </c>
+      <c r="R90" s="11">
+        <f t="shared" si="681"/>
+        <v>8.8787180770244731</v>
+      </c>
+      <c r="S90" s="11">
+        <f t="shared" si="682"/>
+        <v>7.3306338994919997</v>
+      </c>
+      <c r="U90" s="15">
+        <v>85775</v>
+      </c>
+      <c r="V90" s="10">
+        <f t="shared" si="683"/>
+        <v>8561.3994322277522</v>
+      </c>
+      <c r="W90" s="11">
+        <f t="shared" si="684"/>
+        <v>29.344814142523319</v>
+      </c>
+      <c r="X90" s="11">
+        <f t="shared" si="685"/>
+        <v>33.057831442189851</v>
+      </c>
+      <c r="Y90" s="15">
+        <v>15662</v>
+      </c>
+      <c r="Z90" s="10">
+        <f t="shared" si="686"/>
+        <v>1563.2601329938918</v>
+      </c>
+      <c r="AA90" s="11">
+        <f t="shared" si="687"/>
+        <v>6.4877990451159349</v>
+      </c>
+      <c r="AB90" s="11">
+        <f t="shared" si="688"/>
+        <v>5.0105771086894038</v>
+      </c>
+      <c r="AD90" s="15">
+        <v>19030</v>
+      </c>
+      <c r="AE90" s="10">
+        <f t="shared" si="689"/>
+        <v>3877.7152412140608</v>
+      </c>
+      <c r="AF90" s="11">
+        <f t="shared" si="690"/>
+        <v>6.7243616899663721</v>
+      </c>
+      <c r="AG90" s="11">
+        <f t="shared" si="691"/>
+        <v>5.7462727168805028</v>
+      </c>
+      <c r="AH90" s="15">
+        <v>1832</v>
+      </c>
+      <c r="AI90" s="10">
+        <f t="shared" si="692"/>
+        <v>373.30395806117497</v>
+      </c>
+      <c r="AJ90" s="11">
+        <f t="shared" si="693"/>
+        <v>2.4452224327151271</v>
+      </c>
+      <c r="AK90" s="11">
+        <f t="shared" si="694"/>
+        <v>2.8527595048343075</v>
+      </c>
+      <c r="AM90" s="15">
+        <v>27364</v>
+      </c>
+      <c r="AN90" s="10">
+        <f t="shared" si="695"/>
+        <v>6150.8154595770002</v>
+      </c>
+      <c r="AO90" s="11">
+        <f t="shared" si="696"/>
+        <v>11.238882216739512</v>
+      </c>
+      <c r="AP90" s="4">
+        <f t="shared" si="697"/>
+        <v>11.418704332207017</v>
+      </c>
+      <c r="AQ90" s="15">
+        <v>4008</v>
+      </c>
+      <c r="AR90" s="10">
+        <f t="shared" si="698"/>
+        <v>900.90879849380997</v>
+      </c>
+      <c r="AS90" s="11">
+        <f t="shared" si="699"/>
+        <v>2.4725540876826244</v>
+      </c>
+      <c r="AT90" s="11">
+        <f t="shared" si="700"/>
+        <v>2.9221093763521822</v>
+      </c>
+      <c r="AV90" s="15">
+        <v>9982</v>
+      </c>
+      <c r="AW90" s="10">
+        <f t="shared" si="701"/>
+        <v>2667.245968335606</v>
+      </c>
+      <c r="AX90" s="11">
+        <f t="shared" si="702"/>
+        <v>3.7408779359543587</v>
+      </c>
+      <c r="AY90" s="4">
+        <f t="shared" si="703"/>
+        <v>5.2906702237071839</v>
+      </c>
+      <c r="AZ90" s="15">
+        <v>998</v>
+      </c>
+      <c r="BA90" s="10">
+        <f t="shared" si="704"/>
+        <v>266.6711557201898</v>
+      </c>
+      <c r="BB90" s="11">
+        <f t="shared" si="705"/>
+        <v>1.6032334011233615</v>
+      </c>
+      <c r="BC90" s="11">
+        <f t="shared" si="706"/>
+        <v>1.1757044941571393</v>
+      </c>
     </row>
     <row r="91" spans="1:55">
       <c r="A91" s="2">
@@ -28179,6 +28761,9 @@
       <c r="G91" s="15"/>
       <c r="L91" s="15"/>
       <c r="P91" s="15"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
       <c r="U91" s="15"/>
       <c r="Y91" s="15"/>
       <c r="AD91" s="15"/>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC64B8C-2694-4A8E-B5BA-4B9C9CEF44FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E551B-37D9-4FFF-B1B9-748F3BDBD815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$F$9:$F$74</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>5.3663594425885783</c:v>
@@ -1071,7 +1071,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$O$9:$O$74</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0.36425510059587579</c:v>
@@ -2390,7 +2390,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AP$9:$AP$74</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>8.946150244524361</c:v>
@@ -2829,7 +2829,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AY$9:$AY$74</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0.58785224707857475</c:v>
@@ -3715,7 +3715,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8848,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12191,8 +12191,36 @@
       <c r="B91" s="3">
         <v>88</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="G91" s="15"/>
+      <c r="C91" s="15">
+        <v>228006</v>
+      </c>
+      <c r="D91" s="14">
+        <f t="shared" ref="D91" si="124">C91/$P$4</f>
+        <v>3763.1530497613558</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" ref="E91" si="125">D91-D90</f>
+        <v>10.595967904120243</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" ref="F91" si="126">SUM(E87:E91)/5</f>
+        <v>10.714801189026094</v>
+      </c>
+      <c r="G91" s="15">
+        <v>32486</v>
+      </c>
+      <c r="H91" s="13">
+        <f t="shared" ref="H91" si="127">G91/$P$4</f>
+        <v>536.16917964679612</v>
+      </c>
+      <c r="I91" s="11">
+        <f t="shared" ref="I91" si="128">H91-H90</f>
+        <v>2.5747211729636774</v>
+      </c>
+      <c r="J91" s="11">
+        <f t="shared" ref="J91" si="129">SUM(I87:I91)/5</f>
+        <v>2.3865684718625517</v>
+      </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2">
@@ -12366,9 +12394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AZ89" sqref="AZ89:AZ90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13336,7 +13364,7 @@
         <f t="shared" si="13"/>
         <v>14.693603235659202</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="11">
         <f>SUM(E5:E9)/5</f>
         <v>5.3663594425885783</v>
       </c>
@@ -13366,7 +13394,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="11">
         <f>SUM(N5:N9)/5</f>
         <v>0.36425510059587579</v>
       </c>
@@ -13456,7 +13484,7 @@
         <f t="shared" si="21"/>
         <v>16.18399039210437</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AP9" s="11">
         <f>SUM(AO5:AO9)/5</f>
         <v>8.946150244524361</v>
       </c>
@@ -13486,7 +13514,7 @@
         <f t="shared" si="23"/>
         <v>0.80161670056169276</v>
       </c>
-      <c r="AY9" s="4">
+      <c r="AY9" s="11">
         <f>SUM(AX5:AX9)/5</f>
         <v>0.58785224707857475</v>
       </c>
@@ -13534,7 +13562,7 @@
         <f t="shared" si="13"/>
         <v>-10.860489348095932</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="11">
         <f t="shared" ref="F10:F64" si="25">SUM(E6:E10)/5</f>
         <v>3.0664911100506158</v>
       </c>
@@ -13564,7 +13592,7 @@
         <f t="shared" si="15"/>
         <v>8.6510586391520494</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="11">
         <f t="shared" ref="O10:O64" si="27">SUM(N6:N10)/5</f>
         <v>2.0944668284262855</v>
       </c>
@@ -13654,7 +13682,7 @@
         <f t="shared" si="21"/>
         <v>15.284879814765233</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="AP10" s="11">
         <f t="shared" ref="AP10:AP64" si="33">SUM(AO6:AO10)/5</f>
         <v>11.643481976541754</v>
       </c>
@@ -13684,7 +13712,7 @@
         <f t="shared" si="23"/>
         <v>0.53441113370779547</v>
       </c>
-      <c r="AY10" s="4">
+      <c r="AY10" s="11">
         <f t="shared" ref="AY10:AY64" si="35">SUM(AX6:AX10)/5</f>
         <v>0.58785224707857486</v>
       </c>
@@ -13722,7 +13750,7 @@
         <f t="shared" si="13"/>
         <v>-1.9165569437816359</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="11">
         <f t="shared" si="25"/>
         <v>1.405475092106532</v>
       </c>
@@ -13752,7 +13780,7 @@
         <f t="shared" si="15"/>
         <v>0.45531887574484564</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="11">
         <f t="shared" si="27"/>
         <v>2.1855306035752546</v>
       </c>
@@ -13842,7 +13870,7 @@
         <f t="shared" si="21"/>
         <v>11.238882216739157</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="AP11" s="11">
         <f t="shared" si="33"/>
         <v>12.947192313683496</v>
       </c>
@@ -13872,7 +13900,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AY11" s="4">
+      <c r="AY11" s="11">
         <f t="shared" si="35"/>
         <v>0.58785224707857486</v>
       </c>
@@ -13916,7 +13944,7 @@
         <f t="shared" si="13"/>
         <v>1.2777046291877578</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="11">
         <f t="shared" si="25"/>
         <v>0.63885231459387837</v>
       </c>
@@ -13946,7 +13974,7 @@
         <f t="shared" si="15"/>
         <v>1.1382971893621114</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="11">
         <f t="shared" si="27"/>
         <v>2.4587219290221616</v>
       </c>
@@ -14036,7 +14064,7 @@
         <f t="shared" si="21"/>
         <v>19.106099768456545</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AP12" s="11">
         <f t="shared" si="33"/>
         <v>14.520635824026977</v>
       </c>
@@ -14066,7 +14094,7 @@
         <f t="shared" si="23"/>
         <v>1.603233401123386</v>
       </c>
-      <c r="AY12" s="4">
+      <c r="AY12" s="11">
         <f t="shared" si="35"/>
         <v>0.90849892730325199</v>
       </c>
@@ -14104,7 +14132,7 @@
         <f t="shared" si="13"/>
         <v>1.2777046291877578</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="11">
         <f t="shared" si="25"/>
         <v>0.89439324043142998</v>
       </c>
@@ -14134,7 +14162,7 @@
         <f t="shared" si="15"/>
         <v>5.9191453846829809</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="11">
         <f t="shared" si="27"/>
         <v>3.2327640177883978</v>
       </c>
@@ -14224,7 +14252,7 @@
         <f t="shared" si="21"/>
         <v>27.872427897513091</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AP13" s="11">
         <f t="shared" si="33"/>
         <v>17.937256017915679</v>
       </c>
@@ -14254,7 +14282,7 @@
         <f t="shared" si="23"/>
         <v>5.0769057702240552</v>
       </c>
-      <c r="AY13" s="4">
+      <c r="AY13" s="11">
         <f t="shared" si="35"/>
         <v>1.6032334011233857</v>
       </c>
@@ -14292,7 +14320,7 @@
         <f t="shared" si="13"/>
         <v>1.2777046291877561</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="11">
         <f t="shared" si="25"/>
         <v>-1.7887864808628593</v>
       </c>
@@ -14322,7 +14350,7 @@
         <f t="shared" si="15"/>
         <v>5.9191453846829809</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="11">
         <f t="shared" si="27"/>
         <v>4.4165930947249938</v>
       </c>
@@ -14412,7 +14440,7 @@
         <f t="shared" si="21"/>
         <v>34.615757227556571</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="AP14" s="11">
         <f t="shared" si="33"/>
         <v>21.62360938500612</v>
       </c>
@@ -14442,7 +14470,7 @@
         <f t="shared" si="23"/>
         <v>6.1457280376396461</v>
       </c>
-      <c r="AY14" s="4">
+      <c r="AY14" s="11">
         <f t="shared" si="35"/>
         <v>2.6720556685389765</v>
       </c>
@@ -14480,7 +14508,7 @@
         <f t="shared" si="13"/>
         <v>2.5554092583755121</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="11">
         <f t="shared" si="25"/>
         <v>0.89439324043142965</v>
       </c>
@@ -14510,7 +14538,7 @@
         <f t="shared" si="15"/>
         <v>7.9680803255347818</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="11">
         <f t="shared" si="27"/>
         <v>4.2799974320015401</v>
       </c>
@@ -14600,7 +14628,7 @@
         <f t="shared" si="21"/>
         <v>38.661754825582648</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AP15" s="11">
         <f t="shared" si="33"/>
         <v>26.298984387169604</v>
       </c>
@@ -14630,7 +14658,7 @@
         <f t="shared" si="23"/>
         <v>4.8097002033701557</v>
       </c>
-      <c r="AY15" s="4">
+      <c r="AY15" s="11">
         <f t="shared" si="35"/>
         <v>3.5271134824714485</v>
       </c>
@@ -14668,7 +14696,7 @@
         <f t="shared" si="13"/>
         <v>12.138193977283688</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="11">
         <f t="shared" si="25"/>
         <v>3.7053434246444943</v>
       </c>
@@ -14698,7 +14726,7 @@
         <f t="shared" si="15"/>
         <v>14.570204023835032</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="11">
         <f t="shared" si="27"/>
         <v>7.1029744616195769</v>
       </c>
@@ -14788,7 +14816,7 @@
         <f t="shared" si="21"/>
         <v>31.46887020686961</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AP16" s="11">
         <f t="shared" si="33"/>
         <v>30.344981985195695</v>
       </c>
@@ -14818,7 +14846,7 @@
         <f t="shared" si="23"/>
         <v>9.0849892730325195</v>
       </c>
-      <c r="AY16" s="4">
+      <c r="AY16" s="11">
         <f t="shared" si="35"/>
         <v>5.3441113370779529</v>
       </c>
@@ -14856,7 +14884,7 @@
         <f t="shared" si="13"/>
         <v>17.249012494034716</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="11">
         <f t="shared" si="25"/>
         <v>6.8996049976138867</v>
       </c>
@@ -14886,7 +14914,7 @@
         <f t="shared" si="15"/>
         <v>34.831893994480623</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="11">
         <f t="shared" si="27"/>
         <v>13.841693822643279</v>
       </c>
@@ -14976,7 +15004,7 @@
         <f t="shared" si="21"/>
         <v>38.21219953691309</v>
       </c>
-      <c r="AP17" s="4">
+      <c r="AP17" s="11">
         <f t="shared" si="33"/>
         <v>34.166201938886999</v>
       </c>
@@ -15006,7 +15034,7 @@
         <f t="shared" si="23"/>
         <v>14.161895043256575</v>
       </c>
-      <c r="AY17" s="4">
+      <c r="AY17" s="11">
         <f t="shared" si="35"/>
         <v>7.8558436655045911</v>
       </c>
@@ -15044,7 +15072,7 @@
         <f t="shared" si="13"/>
         <v>19.804421752410228</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="11">
         <f t="shared" si="25"/>
         <v>10.60494842225838</v>
       </c>
@@ -15074,7 +15102,7 @@
         <f t="shared" si="15"/>
         <v>-2.2765943787242264</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="11">
         <f t="shared" si="27"/>
         <v>12.202545869961838</v>
       </c>
@@ -15164,7 +15192,7 @@
         <f t="shared" si="21"/>
         <v>46.3041947329653</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AP18" s="11">
         <f t="shared" si="33"/>
         <v>37.852555305977447</v>
       </c>
@@ -15194,7 +15222,7 @@
         <f t="shared" si="23"/>
         <v>11.222633807863701</v>
       </c>
-      <c r="AY18" s="4">
+      <c r="AY18" s="11">
         <f t="shared" si="35"/>
         <v>9.0849892730325195</v>
       </c>
@@ -15232,7 +15260,7 @@
         <f t="shared" si="13"/>
         <v>20.443274067004111</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="11">
         <f t="shared" si="25"/>
         <v>14.438062309821651</v>
       </c>
@@ -15262,7 +15290,7 @@
         <f t="shared" si="15"/>
         <v>23.448922100859505</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="11">
         <f t="shared" si="27"/>
         <v>15.708501213197144</v>
       </c>
@@ -15352,7 +15380,7 @@
         <f t="shared" si="21"/>
         <v>33.042313717213119</v>
       </c>
-      <c r="AP19" s="4">
+      <c r="AP19" s="11">
         <f t="shared" si="33"/>
         <v>37.537866603908753</v>
       </c>
@@ -15382,7 +15410,7 @@
         <f t="shared" si="23"/>
         <v>14.963511743818266</v>
       </c>
-      <c r="AY19" s="4">
+      <c r="AY19" s="11">
         <f t="shared" si="35"/>
         <v>10.848546014268244</v>
       </c>
@@ -15420,7 +15448,7 @@
         <f t="shared" si="13"/>
         <v>33.859172673475555</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="11">
         <f t="shared" si="25"/>
         <v>20.698814992841658</v>
       </c>
@@ -15450,7 +15478,7 @@
         <f t="shared" si="15"/>
         <v>10.927653017876281</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="11">
         <f t="shared" si="27"/>
         <v>16.300415751665444</v>
       </c>
@@ -15540,7 +15568,7 @@
         <f t="shared" si="21"/>
         <v>46.304194732965243</v>
       </c>
-      <c r="AP20" s="4">
+      <c r="AP20" s="11">
         <f t="shared" si="33"/>
         <v>39.06635458538527</v>
       </c>
@@ -15570,7 +15598,7 @@
         <f t="shared" si="23"/>
         <v>14.963511743818259</v>
       </c>
-      <c r="AY20" s="4">
+      <c r="AY20" s="11">
         <f t="shared" si="35"/>
         <v>12.879308322357867</v>
       </c>
@@ -15608,7 +15636,7 @@
         <f t="shared" si="13"/>
         <v>51.108185167510285</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="11">
         <f t="shared" si="25"/>
         <v>28.492813230886973</v>
       </c>
@@ -15638,7 +15666,7 @@
         <f t="shared" si="15"/>
         <v>17.985095591921379</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="11">
         <f t="shared" si="27"/>
         <v>16.983394065282713</v>
       </c>
@@ -15728,7 +15756,7 @@
         <f t="shared" si="21"/>
         <v>46.753750021634858</v>
       </c>
-      <c r="AP21" s="4">
+      <c r="AP21" s="11">
         <f t="shared" si="33"/>
         <v>42.123330548338323</v>
       </c>
@@ -15758,7 +15786,7 @@
         <f t="shared" si="23"/>
         <v>11.757044941571507</v>
       </c>
-      <c r="AY21" s="4">
+      <c r="AY21" s="11">
         <f t="shared" si="35"/>
         <v>13.41371945606566</v>
       </c>
@@ -15796,7 +15824,7 @@
         <f t="shared" si="13"/>
         <v>45.358514336165342</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="11">
         <f t="shared" si="25"/>
         <v>34.114713599313106</v>
       </c>
@@ -15826,7 +15854,7 @@
         <f t="shared" si="15"/>
         <v>59.191453846829802</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="11">
         <f t="shared" si="27"/>
         <v>21.855306035752548</v>
       </c>
@@ -15916,7 +15944,7 @@
         <f t="shared" si="21"/>
         <v>71.02973560979143</v>
       </c>
-      <c r="AP22" s="4">
+      <c r="AP22" s="11">
         <f t="shared" si="33"/>
         <v>48.686837762913989</v>
       </c>
@@ -15946,7 +15974,7 @@
         <f t="shared" si="23"/>
         <v>28.323790086513142</v>
       </c>
-      <c r="AY22" s="4">
+      <c r="AY22" s="11">
         <f t="shared" si="35"/>
         <v>16.246098464716976</v>
       </c>
@@ -15984,7 +16012,7 @@
         <f t="shared" si="13"/>
         <v>75.384573122077654</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="11">
         <f t="shared" si="25"/>
         <v>45.230743873246595</v>
       </c>
@@ -16014,7 +16042,7 @@
         <f t="shared" si="15"/>
         <v>7.5127614497899344</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="11">
         <f t="shared" si="27"/>
         <v>23.813177201455382</v>
       </c>
@@ -16104,7 +16132,7 @@
         <f t="shared" si="21"/>
         <v>85.640282491552341</v>
       </c>
-      <c r="AP23" s="4">
+      <c r="AP23" s="11">
         <f t="shared" si="33"/>
         <v>56.554055314631398</v>
       </c>
@@ -16134,7 +16162,7 @@
         <f t="shared" si="23"/>
         <v>42.752890696623609</v>
       </c>
-      <c r="AY23" s="4">
+      <c r="AY23" s="11">
         <f t="shared" si="35"/>
         <v>22.552149842468957</v>
       </c>
@@ -16172,7 +16200,7 @@
         <f t="shared" si="13"/>
         <v>61.329822201012348</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="11">
         <f t="shared" si="25"/>
         <v>53.408053500048233</v>
       </c>
@@ -16202,7 +16230,7 @@
         <f t="shared" si="15"/>
         <v>54.182946213636541</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="11">
         <f t="shared" si="27"/>
         <v>29.959982024010788</v>
       </c>
@@ -16292,7 +16320,7 @@
         <f t="shared" si="21"/>
         <v>100.92516230631747</v>
       </c>
-      <c r="AP24" s="4">
+      <c r="AP24" s="11">
         <f t="shared" si="33"/>
         <v>70.130625032452272</v>
       </c>
@@ -16322,7 +16350,7 @@
         <f t="shared" si="23"/>
         <v>40.348040594938539</v>
       </c>
-      <c r="AY24" s="4">
+      <c r="AY24" s="11">
         <f t="shared" si="35"/>
         <v>27.629055612693016</v>
       </c>
@@ -16360,7 +16388,7 @@
         <f t="shared" si="13"/>
         <v>68.996049976138863</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="11">
         <f t="shared" si="25"/>
         <v>60.435428960580893</v>
       </c>
@@ -16390,7 +16418,7 @@
         <f t="shared" si="15"/>
         <v>92.202072338331078</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="11">
         <f t="shared" si="27"/>
         <v>46.214865888101748</v>
       </c>
@@ -16480,7 +16508,7 @@
         <f t="shared" si="21"/>
         <v>96.429609419621897</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AP25" s="11">
         <f t="shared" si="33"/>
         <v>80.155707969783606</v>
       </c>
@@ -16510,7 +16538,7 @@
         <f t="shared" si="23"/>
         <v>22.712473182581306</v>
       </c>
-      <c r="AY25" s="4">
+      <c r="AY25" s="11">
         <f t="shared" si="35"/>
         <v>29.178847900445625</v>
       </c>
@@ -16548,7 +16576,7 @@
         <f t="shared" si="13"/>
         <v>70.912606919920506</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="11">
         <f t="shared" si="25"/>
         <v>64.39631331106294</v>
       </c>
@@ -16578,7 +16606,7 @@
         <f t="shared" si="15"/>
         <v>86.738245829392895</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="11">
         <f t="shared" si="27"/>
         <v>59.965495935596053</v>
       </c>
@@ -16668,7 +16696,7 @@
         <f t="shared" si="21"/>
         <v>91.934056532926206</v>
       </c>
-      <c r="AP26" s="4">
+      <c r="AP26" s="11">
         <f t="shared" si="33"/>
         <v>89.191769272041867</v>
       </c>
@@ -16698,7 +16726,7 @@
         <f t="shared" si="23"/>
         <v>49.967441001678878</v>
       </c>
-      <c r="AY26" s="4">
+      <c r="AY26" s="11">
         <f t="shared" si="35"/>
         <v>36.820927112467096</v>
       </c>
@@ -16736,7 +16764,7 @@
         <f t="shared" si="13"/>
         <v>69.634902290732725</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="11">
         <f t="shared" si="25"/>
         <v>69.251590901976414</v>
       </c>
@@ -16766,7 +16794,7 @@
         <f t="shared" si="15"/>
         <v>101.08079041535552</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="11">
         <f t="shared" si="27"/>
         <v>68.343363249301191</v>
       </c>
@@ -16856,7 +16884,7 @@
         <f t="shared" si="21"/>
         <v>133.51792073486104</v>
       </c>
-      <c r="AP27" s="4">
+      <c r="AP27" s="11">
         <f t="shared" si="33"/>
         <v>101.6894062970558</v>
       </c>
@@ -16886,7 +16914,7 @@
         <f t="shared" si="23"/>
         <v>74.015942018529643</v>
       </c>
-      <c r="AY27" s="4">
+      <c r="AY27" s="11">
         <f t="shared" si="35"/>
         <v>45.959357498870396</v>
       </c>
@@ -16924,7 +16952,7 @@
         <f t="shared" si="13"/>
         <v>109.88259811014711</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="11">
         <f t="shared" si="25"/>
         <v>76.151195899590306</v>
       </c>
@@ -16954,7 +16982,7 @@
         <f t="shared" si="15"/>
         <v>134.54672778260169</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="11">
         <f t="shared" si="27"/>
         <v>93.750156515863551</v>
       </c>
@@ -17044,7 +17072,7 @@
         <f t="shared" si="21"/>
         <v>154.87179694666554</v>
       </c>
-      <c r="AP28" s="4">
+      <c r="AP28" s="11">
         <f t="shared" si="33"/>
         <v>115.53570918807843</v>
       </c>
@@ -17074,7 +17102,7 @@
         <f t="shared" si="23"/>
         <v>40.615246161792413</v>
       </c>
-      <c r="AY28" s="4">
+      <c r="AY28" s="11">
         <f t="shared" si="35"/>
         <v>45.531828591904159</v>
       </c>
@@ -17112,7 +17140,7 @@
         <f t="shared" si="13"/>
         <v>103.49407496420827</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="11">
         <f t="shared" si="25"/>
         <v>84.584046452229501</v>
       </c>
@@ -17142,7 +17170,7 @@
         <f t="shared" si="15"/>
         <v>120.43184263451144</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="11">
         <f t="shared" si="27"/>
         <v>106.99993580003851</v>
       </c>
@@ -17232,7 +17260,7 @@
         <f t="shared" si="21"/>
         <v>169.48234382842634</v>
       </c>
-      <c r="AP29" s="4">
+      <c r="AP29" s="11">
         <f t="shared" si="33"/>
         <v>129.24714549250021</v>
       </c>
@@ -17262,7 +17290,7 @@
         <f t="shared" si="23"/>
         <v>83.100931291562176</v>
       </c>
-      <c r="AY29" s="4">
+      <c r="AY29" s="11">
         <f t="shared" si="35"/>
         <v>54.082406731228886</v>
       </c>
@@ -17300,7 +17328,7 @@
         <f t="shared" si="13"/>
         <v>137.35324763768381</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="11">
         <f t="shared" si="25"/>
         <v>98.255485984538481</v>
       </c>
@@ -17330,7 +17358,7 @@
         <f t="shared" si="15"/>
         <v>66.248896420874871</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="11">
         <f t="shared" si="27"/>
         <v>101.80930061654729</v>
       </c>
@@ -17420,7 +17448,7 @@
         <f t="shared" si="21"/>
         <v>165.66112387473504</v>
       </c>
-      <c r="AP30" s="4">
+      <c r="AP30" s="11">
         <f t="shared" si="33"/>
         <v>143.09344838352283</v>
       </c>
@@ -17450,7 +17478,7 @@
         <f t="shared" si="23"/>
         <v>58.518019141003606</v>
       </c>
-      <c r="AY30" s="4">
+      <c r="AY30" s="11">
         <f t="shared" si="35"/>
         <v>61.243515922913346</v>
       </c>
@@ -17488,7 +17516,7 @@
         <f t="shared" si="13"/>
         <v>146.29718004199822</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="11">
         <f t="shared" si="25"/>
         <v>113.33240060895403</v>
       </c>
@@ -17518,7 +17546,7 @@
         <f t="shared" si="15"/>
         <v>152.07650449877815</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="11">
         <f t="shared" si="27"/>
         <v>114.87695235042433</v>
       </c>
@@ -17608,7 +17636,7 @@
         <f t="shared" si="21"/>
         <v>191.06099768456534</v>
       </c>
-      <c r="AP31" s="4">
+      <c r="AP31" s="11">
         <f t="shared" si="33"/>
         <v>162.91883661385066</v>
       </c>
@@ -17638,7 +17666,7 @@
         <f t="shared" si="23"/>
         <v>70.809475216282863</v>
       </c>
-      <c r="AY31" s="4">
+      <c r="AY31" s="11">
         <f t="shared" si="35"/>
         <v>65.411922765834134</v>
       </c>
@@ -17676,7 +17704,7 @@
         <f t="shared" si="13"/>
         <v>165.46274947981442</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="11">
         <f t="shared" si="25"/>
         <v>132.49797004677038</v>
       </c>
@@ -17706,7 +17734,7 @@
         <f t="shared" si="15"/>
         <v>100.39781210173817</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="11">
         <f t="shared" si="27"/>
         <v>114.74035668770087</v>
       </c>
@@ -17796,7 +17824,7 @@
         <f t="shared" si="21"/>
         <v>220.28209144808739</v>
       </c>
-      <c r="AP32" s="4">
+      <c r="AP32" s="11">
         <f t="shared" si="33"/>
         <v>180.27167075649592</v>
       </c>
@@ -17826,7 +17854,7 @@
         <f t="shared" si="23"/>
         <v>49.165824301117141</v>
       </c>
-      <c r="AY32" s="4">
+      <c r="AY32" s="11">
         <f t="shared" si="35"/>
         <v>60.441899222351637</v>
       </c>
@@ -17864,7 +17892,7 @@
         <f t="shared" si="13"/>
         <v>122.6596444020247</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="11">
         <f t="shared" si="25"/>
         <v>135.05337930514588</v>
       </c>
@@ -17894,7 +17922,7 @@
         <f t="shared" si="15"/>
         <v>148.88927236856421</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="11">
         <f t="shared" si="27"/>
         <v>117.60886560489337</v>
       </c>
@@ -17984,7 +18012,7 @@
         <f t="shared" si="21"/>
         <v>161.61512627670891</v>
       </c>
-      <c r="AP33" s="4">
+      <c r="AP33" s="11">
         <f t="shared" si="33"/>
         <v>181.6203366225046</v>
       </c>
@@ -18014,7 +18042,7 @@
         <f t="shared" si="23"/>
         <v>63.594924911227622</v>
       </c>
-      <c r="AY33" s="4">
+      <c r="AY33" s="11">
         <f t="shared" si="35"/>
         <v>65.037834972238684</v>
       </c>
@@ -18052,7 +18080,7 @@
         <f t="shared" si="13"/>
         <v>120.74308745824305</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="11">
         <f t="shared" si="25"/>
         <v>138.50318180395283</v>
       </c>
@@ -18082,7 +18110,7 @@
         <f t="shared" si="15"/>
         <v>115.87865387706302</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="11">
         <f t="shared" si="27"/>
         <v>116.69822785340368</v>
       </c>
@@ -18172,7 +18200,7 @@
         <f t="shared" si="21"/>
         <v>179.82211546782628</v>
       </c>
-      <c r="AP34" s="4">
+      <c r="AP34" s="11">
         <f t="shared" si="33"/>
         <v>183.68829095038458</v>
       </c>
@@ -18202,7 +18230,7 @@
         <f t="shared" si="23"/>
         <v>72.947119751114087</v>
       </c>
-      <c r="AY34" s="4">
+      <c r="AY34" s="11">
         <f t="shared" si="35"/>
         <v>63.007072664149064</v>
       </c>
@@ -18240,7 +18268,7 @@
         <f t="shared" si="13"/>
         <v>167.37930642359606</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="11">
         <f t="shared" si="25"/>
         <v>144.50839356113528</v>
       </c>
@@ -18270,7 +18298,7 @@
         <f t="shared" si="15"/>
         <v>116.10631331493551</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="11">
         <f t="shared" si="27"/>
         <v>126.6697112322158</v>
       </c>
@@ -18360,7 +18388,7 @@
         <f t="shared" si="21"/>
         <v>171.2805649831048</v>
       </c>
-      <c r="AP35" s="4">
+      <c r="AP35" s="11">
         <f t="shared" si="33"/>
         <v>184.81217917205853</v>
       </c>
@@ -18390,7 +18418,7 @@
         <f t="shared" si="23"/>
         <v>67.870213980889957</v>
       </c>
-      <c r="AY35" s="4">
+      <c r="AY35" s="11">
         <f t="shared" si="35"/>
         <v>64.877511632126328</v>
       </c>
@@ -18428,7 +18456,7 @@
         <f t="shared" si="13"/>
         <v>82.411948582610421</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="11">
         <f t="shared" si="25"/>
         <v>131.73134726925772</v>
       </c>
@@ -18458,7 +18486,7 @@
         <f t="shared" si="15"/>
         <v>127.03396633281159</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="11">
         <f t="shared" si="27"/>
         <v>121.6612035990225</v>
       </c>
@@ -18548,7 +18576,7 @@
         <f t="shared" si="21"/>
         <v>173.52834142645224</v>
       </c>
-      <c r="AP36" s="4">
+      <c r="AP36" s="11">
         <f t="shared" si="33"/>
         <v>181.30564792043592</v>
       </c>
@@ -18578,7 +18606,7 @@
         <f t="shared" si="23"/>
         <v>59.854046975273036</v>
       </c>
-      <c r="AY36" s="4">
+      <c r="AY36" s="11">
         <f t="shared" si="35"/>
         <v>62.686425983924366</v>
       </c>
@@ -18616,7 +18644,7 @@
         <f t="shared" si="13"/>
         <v>80.495391638828551</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="11">
         <f t="shared" si="25"/>
         <v>114.73787570106056</v>
       </c>
@@ -18646,7 +18674,7 @@
         <f t="shared" si="15"/>
         <v>131.81481452813273</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="11">
         <f t="shared" si="27"/>
         <v>127.9446040843014</v>
       </c>
@@ -18736,7 +18764,7 @@
         <f t="shared" si="21"/>
         <v>178.69822724615233</v>
       </c>
-      <c r="AP37" s="4">
+      <c r="AP37" s="11">
         <f t="shared" si="33"/>
         <v>172.9888750800489</v>
       </c>
@@ -18766,7 +18794,7 @@
         <f t="shared" si="23"/>
         <v>98.064443035380464</v>
       </c>
-      <c r="AY37" s="4">
+      <c r="AY37" s="11">
         <f t="shared" si="35"/>
         <v>72.466149730777033</v>
       </c>
@@ -18804,7 +18832,7 @@
         <f t="shared" si="13"/>
         <v>162.26848790684517</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="11">
         <f t="shared" si="25"/>
         <v>122.65964440202465</v>
       </c>
@@ -18834,7 +18862,7 @@
         <f t="shared" si="15"/>
         <v>121.79779926174592</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="11">
         <f t="shared" si="27"/>
         <v>122.52630946293775</v>
       </c>
@@ -18924,7 +18952,7 @@
         <f t="shared" si="21"/>
         <v>165.43634623040043</v>
       </c>
-      <c r="AP38" s="4">
+      <c r="AP38" s="11">
         <f t="shared" si="33"/>
         <v>173.75311907078722</v>
       </c>
@@ -18954,7 +18982,7 @@
         <f t="shared" si="23"/>
         <v>81.497697890438758</v>
       </c>
-      <c r="AY38" s="4">
+      <c r="AY38" s="11">
         <f t="shared" si="35"/>
         <v>76.046704326619263</v>
       </c>
@@ -18992,7 +19020,7 @@
         <f t="shared" si="13"/>
         <v>90.078176357736993</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="11">
         <f t="shared" si="25"/>
         <v>116.52666218192344</v>
       </c>
@@ -19022,7 +19050,7 @@
         <f t="shared" si="15"/>
         <v>115.19567556344577</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="11">
         <f t="shared" si="27"/>
         <v>122.38971380021431</v>
       </c>
@@ -19112,7 +19140,7 @@
         <f t="shared" si="21"/>
         <v>92.608389465930486</v>
       </c>
-      <c r="AP39" s="4">
+      <c r="AP39" s="11">
         <f t="shared" si="33"/>
         <v>156.31037387040806</v>
       </c>
@@ -19142,7 +19170,7 @@
         <f t="shared" si="23"/>
         <v>77.489614387630354</v>
       </c>
-      <c r="AY39" s="4">
+      <c r="AY39" s="11">
         <f t="shared" si="35"/>
         <v>76.955203253922519</v>
       </c>
@@ -19180,7 +19208,7 @@
         <f t="shared" si="13"/>
         <v>127.13161060418179</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="11">
         <f t="shared" si="25"/>
         <v>108.47712301804059</v>
       </c>
@@ -19210,7 +19238,7 @@
         <f t="shared" si="15"/>
         <v>134.09140890685671</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="11">
         <f t="shared" si="27"/>
         <v>125.98673291859855</v>
       </c>
@@ -19300,7 +19328,7 @@
         <f t="shared" si="21"/>
         <v>122.05426087378737</v>
       </c>
-      <c r="AP40" s="4">
+      <c r="AP40" s="11">
         <f t="shared" si="33"/>
         <v>146.46511304854457</v>
       </c>
@@ -19330,7 +19358,7 @@
         <f t="shared" si="23"/>
         <v>52.372291103363978</v>
       </c>
-      <c r="AY40" s="4">
+      <c r="AY40" s="11">
         <f t="shared" si="35"/>
         <v>73.855618678417315</v>
       </c>
@@ -19368,7 +19396,7 @@
         <f t="shared" si="13"/>
         <v>155.8799647609062</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="11">
         <f t="shared" si="25"/>
         <v>123.17072625369974</v>
       </c>
@@ -19398,7 +19426,7 @@
         <f t="shared" si="15"/>
         <v>112.46376230897658</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="11">
         <f t="shared" si="27"/>
         <v>123.07269211383155</v>
       </c>
@@ -19488,7 +19516,7 @@
         <f t="shared" si="21"/>
         <v>160.26646041069989</v>
       </c>
-      <c r="AP41" s="4">
+      <c r="AP41" s="11">
         <f t="shared" si="33"/>
         <v>143.81273684539411</v>
       </c>
@@ -19518,7 +19546,7 @@
         <f t="shared" si="23"/>
         <v>69.206241815159501</v>
       </c>
-      <c r="AY41" s="4">
+      <c r="AY41" s="11">
         <f t="shared" si="35"/>
         <v>75.726057646394608</v>
       </c>
@@ -19556,7 +19584,7 @@
         <f t="shared" si="13"/>
         <v>77.93998238045333</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="11">
         <f t="shared" si="25"/>
         <v>122.6596444020247</v>
       </c>
@@ -19586,7 +19614,7 @@
         <f t="shared" si="15"/>
         <v>127.03396633281181</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="11">
         <f t="shared" si="27"/>
         <v>122.11652247476736</v>
       </c>
@@ -19676,7 +19704,7 @@
         <f t="shared" si="21"/>
         <v>122.72859380679165</v>
       </c>
-      <c r="AP42" s="4">
+      <c r="AP42" s="11">
         <f t="shared" si="33"/>
         <v>132.61881015752198</v>
       </c>
@@ -19706,7 +19734,7 @@
         <f t="shared" si="23"/>
         <v>108.48546014268231</v>
       </c>
-      <c r="AY42" s="4">
+      <c r="AY42" s="11">
         <f t="shared" si="35"/>
         <v>77.810261067854981</v>
       </c>
@@ -19744,7 +19772,7 @@
         <f t="shared" si="13"/>
         <v>116.90997357067954</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="11">
         <f t="shared" si="25"/>
         <v>113.58794153479157</v>
       </c>
@@ -19774,7 +19802,7 @@
         <f t="shared" si="15"/>
         <v>123.61907476472516</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="11">
         <f t="shared" si="27"/>
         <v>122.48077757536321</v>
       </c>
@@ -19864,7 +19892,7 @@
         <f t="shared" si="21"/>
         <v>134.64180895653499</v>
       </c>
-      <c r="AP43" s="4">
+      <c r="AP43" s="11">
         <f t="shared" si="33"/>
         <v>126.45990270274888</v>
       </c>
@@ -19894,7 +19922,7 @@
         <f t="shared" si="23"/>
         <v>60.388458108980785</v>
       </c>
-      <c r="AY43" s="4">
+      <c r="AY43" s="11">
         <f t="shared" si="35"/>
         <v>73.588413111563383</v>
       </c>
@@ -19932,7 +19960,7 @@
         <f t="shared" si="13"/>
         <v>152.04685087334292</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="11">
         <f t="shared" si="25"/>
         <v>125.98167643791275</v>
       </c>
@@ -19962,7 +19990,7 @@
         <f t="shared" si="15"/>
         <v>185.08712299027957</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="11">
         <f t="shared" si="27"/>
         <v>136.45906706072998</v>
       </c>
@@ -20052,7 +20080,7 @@
         <f t="shared" si="21"/>
         <v>136.66480775554783</v>
       </c>
-      <c r="AP44" s="4">
+      <c r="AP44" s="11">
         <f t="shared" si="33"/>
         <v>135.27118636067235</v>
       </c>
@@ -20082,7 +20110,7 @@
         <f t="shared" si="23"/>
         <v>45.959357498870531</v>
       </c>
-      <c r="AY44" s="4">
+      <c r="AY44" s="11">
         <f t="shared" si="35"/>
         <v>67.282361733811427</v>
       </c>
@@ -20120,7 +20148,7 @@
         <f t="shared" si="13"/>
         <v>157.15766939009427</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="11">
         <f t="shared" si="25"/>
         <v>131.98688819509525</v>
       </c>
@@ -20150,7 +20178,7 @@
         <f t="shared" si="15"/>
         <v>148.66161293069172</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="11">
         <f t="shared" si="27"/>
         <v>139.37310786549696</v>
       </c>
@@ -20240,7 +20268,7 @@
         <f t="shared" si="21"/>
         <v>123.40292673979593</v>
       </c>
-      <c r="AP45" s="4">
+      <c r="AP45" s="11">
         <f t="shared" si="33"/>
         <v>135.54091953387405</v>
       </c>
@@ -20270,7 +20298,7 @@
         <f t="shared" si="23"/>
         <v>47.02817976628603</v>
       </c>
-      <c r="AY45" s="4">
+      <c r="AY45" s="11">
         <f t="shared" si="35"/>
         <v>66.213539466395829</v>
       </c>
@@ -20308,7 +20336,7 @@
         <f t="shared" si="13"/>
         <v>63.885231459387796</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="11">
         <f t="shared" si="25"/>
         <v>113.58794153479157</v>
       </c>
@@ -20338,7 +20366,7 @@
         <f t="shared" si="15"/>
         <v>127.94460408430132</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="11">
         <f t="shared" si="27"/>
         <v>142.46927622056191</v>
       </c>
@@ -20428,7 +20456,7 @@
         <f t="shared" si="21"/>
         <v>104.97115990434349</v>
       </c>
-      <c r="AP46" s="4">
+      <c r="AP46" s="11">
         <f t="shared" si="33"/>
         <v>124.48185943260277</v>
       </c>
@@ -20458,7 +20486,7 @@
         <f t="shared" si="23"/>
         <v>41.149657295500219</v>
       </c>
-      <c r="AY46" s="4">
+      <c r="AY46" s="11">
         <f t="shared" si="35"/>
         <v>60.602222562463979</v>
       </c>
@@ -20496,7 +20524,7 @@
         <f t="shared" si="13"/>
         <v>132.88128143552694</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="11">
         <f t="shared" si="25"/>
         <v>124.5762013458063</v>
       </c>
@@ -20526,7 +20554,7 @@
         <f t="shared" si="15"/>
         <v>95.389304468545106</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="11">
         <f t="shared" si="27"/>
         <v>136.14034384770858</v>
       </c>
@@ -20616,7 +20644,7 @@
         <f t="shared" si="21"/>
         <v>60.465186326056937</v>
       </c>
-      <c r="AP47" s="4">
+      <c r="AP47" s="11">
         <f t="shared" si="33"/>
         <v>112.02917793645584</v>
       </c>
@@ -20646,7 +20674,7 @@
         <f t="shared" si="23"/>
         <v>45.959357498870304</v>
       </c>
-      <c r="AY47" s="4">
+      <c r="AY47" s="11">
         <f t="shared" si="35"/>
         <v>48.097002033701571</v>
       </c>
@@ -20684,7 +20712,7 @@
         <f t="shared" si="13"/>
         <v>95.188994874487889</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="11">
         <f t="shared" si="25"/>
         <v>120.23200560656797</v>
       </c>
@@ -20714,7 +20742,7 @@
         <f t="shared" si="15"/>
         <v>122.93609645110791</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="11">
         <f t="shared" si="27"/>
         <v>136.00374818498511</v>
       </c>
@@ -20804,7 +20832,7 @@
         <f t="shared" si="21"/>
         <v>91.934056532925752</v>
       </c>
-      <c r="AP48" s="4">
+      <c r="AP48" s="11">
         <f t="shared" si="33"/>
         <v>103.48762745173399</v>
       </c>
@@ -20834,7 +20862,7 @@
         <f t="shared" si="23"/>
         <v>55.044346771902838</v>
       </c>
-      <c r="AY48" s="4">
+      <c r="AY48" s="11">
         <f t="shared" si="35"/>
         <v>47.028179766285987</v>
       </c>
@@ -20872,7 +20900,7 @@
         <f t="shared" si="13"/>
         <v>72.829163863701979</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="11">
         <f t="shared" si="25"/>
         <v>104.38846820463978</v>
       </c>
@@ -20902,7 +20930,7 @@
         <f t="shared" si="15"/>
         <v>145.47438080047823</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="11">
         <f t="shared" si="27"/>
         <v>128.08119974702487</v>
       </c>
@@ -20992,7 +21020,7 @@
         <f t="shared" si="21"/>
         <v>99.576496440308802</v>
       </c>
-      <c r="AP49" s="4">
+      <c r="AP49" s="11">
         <f t="shared" si="33"/>
         <v>96.069965188686183</v>
       </c>
@@ -21022,7 +21050,7 @@
         <f t="shared" si="23"/>
         <v>46.226563065724349</v>
       </c>
-      <c r="AY49" s="4">
+      <c r="AY49" s="11">
         <f t="shared" si="35"/>
         <v>47.081620879656747</v>
       </c>
@@ -21060,7 +21088,7 @@
         <f t="shared" si="13"/>
         <v>109.24374579555297</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="11">
         <f t="shared" si="25"/>
         <v>94.805683485731521</v>
       </c>
@@ -21090,7 +21118,7 @@
         <f t="shared" si="15"/>
         <v>111.55312455748663</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="11">
         <f t="shared" si="27"/>
         <v>120.65950207238384</v>
       </c>
@@ -21180,7 +21208,7 @@
         <f t="shared" si="21"/>
         <v>101.37471759498749</v>
       </c>
-      <c r="AP50" s="4">
+      <c r="AP50" s="11">
         <f t="shared" si="33"/>
         <v>91.664323359724492</v>
       </c>
@@ -21210,7 +21238,7 @@
         <f t="shared" si="23"/>
         <v>46.760974199432212</v>
       </c>
-      <c r="AY50" s="4">
+      <c r="AY50" s="11">
         <f t="shared" si="35"/>
         <v>47.028179766285987</v>
       </c>
@@ -21248,7 +21276,7 @@
         <f t="shared" si="13"/>
         <v>118.18767819986761</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="11">
         <f t="shared" si="25"/>
         <v>105.66617283382747</v>
       </c>
@@ -21278,7 +21306,7 @@
         <f t="shared" si="15"/>
         <v>226.74880012093263</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="11">
         <f t="shared" si="27"/>
         <v>140.4203412797101</v>
       </c>
@@ -21368,7 +21396,7 @@
         <f t="shared" si="21"/>
         <v>113.96226567773465</v>
       </c>
-      <c r="AP51" s="4">
+      <c r="AP51" s="11">
         <f t="shared" si="33"/>
         <v>93.462544514402722</v>
       </c>
@@ -21398,7 +21426,7 @@
         <f t="shared" si="23"/>
         <v>61.724485943250329</v>
       </c>
-      <c r="AY51" s="4">
+      <c r="AY51" s="11">
         <f t="shared" si="35"/>
         <v>51.143145495836009</v>
       </c>
@@ -21436,7 +21464,7 @@
         <f t="shared" si="13"/>
         <v>75.384573122077654</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="11">
         <f t="shared" si="25"/>
         <v>94.166831171137616</v>
       </c>
@@ -21466,7 +21494,7 @@
         <f t="shared" si="15"/>
         <v>148.43395349281946</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="11">
         <f t="shared" si="27"/>
         <v>151.02927108456498</v>
       </c>
@@ -21556,7 +21584,7 @@
         <f t="shared" si="21"/>
         <v>104.07204932700461</v>
       </c>
-      <c r="AP52" s="4">
+      <c r="AP52" s="11">
         <f t="shared" si="33"/>
         <v>102.18391711459226</v>
       </c>
@@ -21586,7 +21614,7 @@
         <f t="shared" si="23"/>
         <v>74.015942018529586</v>
       </c>
-      <c r="AY52" s="4">
+      <c r="AY52" s="11">
         <f t="shared" si="35"/>
         <v>56.75446239976786</v>
       </c>
@@ -21624,7 +21652,7 @@
         <f t="shared" si="13"/>
         <v>65.162936088575862</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="11">
         <f t="shared" si="25"/>
         <v>88.161619413955208</v>
       </c>
@@ -21654,7 +21682,7 @@
         <f t="shared" si="15"/>
         <v>107.91057355152816</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="11">
         <f t="shared" si="27"/>
         <v>148.02416650464903</v>
       </c>
@@ -21744,7 +21772,7 @@
         <f t="shared" si="21"/>
         <v>76.873954362496079</v>
       </c>
-      <c r="AP53" s="4">
+      <c r="AP53" s="11">
         <f t="shared" si="33"/>
         <v>99.171896680506322</v>
       </c>
@@ -21774,7 +21802,7 @@
         <f t="shared" si="23"/>
         <v>41.416862862354037</v>
       </c>
-      <c r="AY53" s="4">
+      <c r="AY53" s="11">
         <f t="shared" si="35"/>
         <v>54.028965617858105</v>
       </c>
@@ -21812,7 +21840,7 @@
         <f t="shared" si="13"/>
         <v>135.43669069390216</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="11">
         <f t="shared" si="25"/>
         <v>100.68312477999525</v>
       </c>
@@ -21842,7 +21870,7 @@
         <f t="shared" si="15"/>
         <v>126.57864745706684</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="11">
         <f t="shared" si="27"/>
         <v>144.24501983596673</v>
       </c>
@@ -21932,7 +21960,7 @@
         <f t="shared" si="21"/>
         <v>70.130625032452372</v>
       </c>
-      <c r="AP54" s="4">
+      <c r="AP54" s="11">
         <f t="shared" si="33"/>
         <v>93.282722398935036</v>
       </c>
@@ -21962,7 +21990,7 @@
         <f t="shared" si="23"/>
         <v>36.607162658983952</v>
       </c>
-      <c r="AY54" s="4">
+      <c r="AY54" s="11">
         <f t="shared" si="35"/>
         <v>52.105085536510025</v>
       </c>
@@ -22000,7 +22028,7 @@
         <f t="shared" si="13"/>
         <v>81.773096268016161</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="11">
         <f t="shared" si="25"/>
         <v>95.188994874487889</v>
       </c>
@@ -22030,7 +22058,7 @@
         <f t="shared" si="15"/>
         <v>122.70843701323611</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="11">
         <f t="shared" si="27"/>
         <v>146.47608232711664</v>
       </c>
@@ -22120,7 +22148,7 @@
         <f t="shared" si="21"/>
         <v>62.263407480734713</v>
       </c>
-      <c r="AP55" s="4">
+      <c r="AP55" s="11">
         <f t="shared" si="33"/>
         <v>85.460460376084484</v>
       </c>
@@ -22150,7 +22178,7 @@
         <f t="shared" si="23"/>
         <v>37.141573792692043</v>
       </c>
-      <c r="AY55" s="4">
+      <c r="AY55" s="11">
         <f t="shared" si="35"/>
         <v>50.181205455161987</v>
       </c>
@@ -22188,7 +22216,7 @@
         <f t="shared" si="13"/>
         <v>65.801788403169667</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="11">
         <f t="shared" si="25"/>
         <v>84.711816915148304</v>
       </c>
@@ -22218,7 +22246,7 @@
         <f t="shared" si="15"/>
         <v>200.11264588985887</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="11">
         <f t="shared" si="27"/>
         <v>141.1488514809019</v>
       </c>
@@ -22308,7 +22336,7 @@
         <f t="shared" si="21"/>
         <v>102.72338346099605</v>
       </c>
-      <c r="AP56" s="4">
+      <c r="AP56" s="11">
         <f t="shared" si="33"/>
         <v>83.212683932736766</v>
       </c>
@@ -22338,7 +22366,7 @@
         <f t="shared" si="23"/>
         <v>74.015942018529586</v>
       </c>
-      <c r="AY56" s="4">
+      <c r="AY56" s="11">
         <f t="shared" si="35"/>
         <v>52.639496670217838</v>
       </c>
@@ -22376,7 +22404,7 @@
         <f t="shared" si="13"/>
         <v>95.188994874487889</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="11">
         <f t="shared" si="25"/>
         <v>88.672701265630351</v>
       </c>
@@ -22406,7 +22434,7 @@
         <f t="shared" si="15"/>
         <v>158.22330932133355</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="11">
         <f t="shared" si="27"/>
         <v>143.10672264660471</v>
       </c>
@@ -22496,7 +22524,7 @@
         <f t="shared" si="21"/>
         <v>78.222620228503729</v>
       </c>
-      <c r="AP57" s="4">
+      <c r="AP57" s="11">
         <f t="shared" si="33"/>
         <v>78.042798113036582</v>
       </c>
@@ -22526,7 +22554,7 @@
         <f t="shared" si="23"/>
         <v>44.623329664600988</v>
       </c>
-      <c r="AY57" s="4">
+      <c r="AY57" s="11">
         <f t="shared" si="35"/>
         <v>46.76097419943212</v>
       </c>
@@ -22564,7 +22592,7 @@
         <f t="shared" si="13"/>
         <v>72.190311549108173</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="11">
         <f t="shared" si="25"/>
         <v>90.078176357736808</v>
       </c>
@@ -22594,7 +22622,7 @@
         <f t="shared" si="15"/>
         <v>150.48288843367118</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="11">
         <f t="shared" si="27"/>
         <v>151.62118562303331</v>
       </c>
@@ -22684,7 +22712,7 @@
         <f t="shared" si="21"/>
         <v>78.672175517174765</v>
       </c>
-      <c r="AP58" s="4">
+      <c r="AP58" s="11">
         <f t="shared" si="33"/>
         <v>78.402442343972325</v>
       </c>
@@ -22714,7 +22742,7 @@
         <f t="shared" si="23"/>
         <v>33.935106990444638</v>
       </c>
-      <c r="AY58" s="4">
+      <c r="AY58" s="11">
         <f t="shared" si="35"/>
         <v>45.264623025050241</v>
       </c>
@@ -22752,7 +22780,7 @@
         <f t="shared" si="13"/>
         <v>145.01947541281015</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="11">
         <f t="shared" si="25"/>
         <v>91.994733301518409</v>
       </c>
@@ -22782,7 +22810,7 @@
         <f t="shared" si="15"/>
         <v>135.00204665834644</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="11">
         <f t="shared" si="27"/>
         <v>153.30586546328922</v>
       </c>
@@ -22872,7 +22900,7 @@
         <f t="shared" si="21"/>
         <v>84.516394269878219</v>
       </c>
-      <c r="AP59" s="4">
+      <c r="AP59" s="11">
         <f t="shared" si="33"/>
         <v>81.2795961914575</v>
       </c>
@@ -22902,7 +22930,7 @@
         <f t="shared" si="23"/>
         <v>36.072751525276544</v>
       </c>
-      <c r="AY59" s="4">
+      <c r="AY59" s="11">
         <f t="shared" si="35"/>
         <v>45.157740798308758</v>
       </c>
@@ -22940,7 +22968,7 @@
         <f t="shared" si="13"/>
         <v>90.078176357736993</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="11">
         <f t="shared" si="25"/>
         <v>93.655749319462572</v>
       </c>
@@ -22970,7 +22998,7 @@
         <f t="shared" si="15"/>
         <v>66.476555858747815</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="11">
         <f t="shared" si="27"/>
         <v>142.05948923239157</v>
       </c>
@@ -23060,7 +23088,7 @@
         <f t="shared" si="21"/>
         <v>69.00673681077842</v>
       </c>
-      <c r="AP60" s="4">
+      <c r="AP60" s="11">
         <f t="shared" si="33"/>
         <v>82.62826205746623</v>
       </c>
@@ -23090,7 +23118,7 @@
         <f t="shared" si="23"/>
         <v>36.07275152527609</v>
       </c>
-      <c r="AY60" s="4">
+      <c r="AY60" s="11">
         <f t="shared" si="35"/>
         <v>44.943976344825572</v>
       </c>
@@ -23128,7 +23156,7 @@
         <f t="shared" si="13"/>
         <v>60.690969886418316</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="11">
         <f t="shared" si="25"/>
         <v>92.633585616112299</v>
       </c>
@@ -23158,7 +23186,7 @@
         <f t="shared" si="15"/>
         <v>137.96161935068722</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="11">
         <f t="shared" si="27"/>
         <v>129.62928392455723</v>
       </c>
@@ -23248,7 +23276,7 @@
         <f t="shared" si="21"/>
         <v>50.574969975325985</v>
       </c>
-      <c r="AP61" s="4">
+      <c r="AP61" s="11">
         <f t="shared" si="33"/>
         <v>72.198579360332218</v>
       </c>
@@ -23278,7 +23306,7 @@
         <f t="shared" si="23"/>
         <v>25.651734417974239</v>
       </c>
-      <c r="AY61" s="4">
+      <c r="AY61" s="11">
         <f t="shared" si="35"/>
         <v>35.271134824714501</v>
       </c>
@@ -23316,7 +23344,7 @@
         <f t="shared" si="13"/>
         <v>98.383256447457825</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="11">
         <f t="shared" si="25"/>
         <v>93.272437930706289</v>
       </c>
@@ -23346,7 +23374,7 @@
         <f t="shared" si="15"/>
         <v>178.48499929197988</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="11">
         <f t="shared" si="27"/>
         <v>133.68162191868652</v>
       </c>
@@ -23436,7 +23464,7 @@
         <f t="shared" si="21"/>
         <v>76.873954362496079</v>
       </c>
-      <c r="AP62" s="4">
+      <c r="AP62" s="11">
         <f t="shared" si="33"/>
         <v>71.928846187130688</v>
       </c>
@@ -23466,7 +23494,7 @@
         <f t="shared" si="23"/>
         <v>25.91893998482783</v>
       </c>
-      <c r="AY62" s="4">
+      <c r="AY62" s="11">
         <f t="shared" si="35"/>
         <v>31.530256888759869</v>
       </c>
@@ -23504,7 +23532,7 @@
         <f t="shared" si="13"/>
         <v>83.689653211798031</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="11">
         <f t="shared" si="25"/>
         <v>95.572306263244258</v>
       </c>
@@ -23534,7 +23562,7 @@
         <f t="shared" si="15"/>
         <v>91.291434586841206</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="11">
         <f t="shared" si="27"/>
         <v>121.84333114932051</v>
       </c>
@@ -23624,7 +23652,7 @@
         <f t="shared" si="21"/>
         <v>64.960739212751832</v>
       </c>
-      <c r="AP63" s="4">
+      <c r="AP63" s="11">
         <f t="shared" si="33"/>
         <v>69.186558926246107</v>
       </c>
@@ -23654,7 +23682,7 @@
         <f t="shared" si="23"/>
         <v>21.37644534831179</v>
       </c>
-      <c r="AY63" s="4">
+      <c r="AY63" s="11">
         <f t="shared" si="35"/>
         <v>29.018524560333297</v>
       </c>
@@ -23692,7 +23720,7 @@
         <f t="shared" si="13"/>
         <v>79.21768700964094</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="11">
         <f t="shared" si="25"/>
         <v>82.411948582610421</v>
       </c>
@@ -23722,7 +23750,7 @@
         <f t="shared" si="15"/>
         <v>155.26373662899186</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="11">
         <f t="shared" si="27"/>
         <v>125.8956691434496</v>
       </c>
@@ -23812,7 +23840,7 @@
         <f t="shared" si="21"/>
         <v>55.520078150691006</v>
       </c>
-      <c r="AP64" s="4">
+      <c r="AP64" s="11">
         <f t="shared" si="33"/>
         <v>63.387295702408665</v>
       </c>
@@ -23842,7 +23870,7 @@
         <f t="shared" si="23"/>
         <v>25.918939984828285</v>
       </c>
-      <c r="AY64" s="4">
+      <c r="AY64" s="11">
         <f t="shared" si="35"/>
         <v>26.987762252243648</v>
       </c>
@@ -23880,7 +23908,7 @@
         <f t="shared" ref="E65" si="49">D65-D64</f>
         <v>81.773096268016161</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="11">
         <f t="shared" ref="F65" si="50">SUM(E61:E65)/5</f>
         <v>80.750932564666257</v>
       </c>
@@ -23910,7 +23938,7 @@
         <f t="shared" ref="N65" si="52">M65-M64</f>
         <v>137.5063004749436</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O65" s="11">
         <f t="shared" ref="O65" si="53">SUM(N61:N65)/5</f>
         <v>140.10161806668876</v>
       </c>
@@ -24000,7 +24028,7 @@
         <f t="shared" ref="AO65" si="64">AN65-AN64</f>
         <v>53.72185699601323</v>
       </c>
-      <c r="AP65" s="4">
+      <c r="AP65" s="11">
         <f t="shared" ref="AP65" si="65">SUM(AO61:AO65)/5</f>
         <v>60.330319739455625</v>
       </c>
@@ -24030,7 +24058,7 @@
         <f t="shared" ref="AX65" si="68">AW65-AW64</f>
         <v>36.87436822583777</v>
       </c>
-      <c r="AY65" s="4">
+      <c r="AY65" s="11">
         <f t="shared" ref="AY65" si="69">SUM(AX61:AX65)/5</f>
         <v>27.148085592355983</v>
       </c>
@@ -24068,7 +24096,7 @@
         <f t="shared" ref="E66" si="72">D66-D65</f>
         <v>119.46538282905567</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="11">
         <f t="shared" ref="F66" si="73">SUM(E62:E66)/5</f>
         <v>92.505815153193723</v>
       </c>
@@ -24098,7 +24126,7 @@
         <f t="shared" ref="N66" si="75">M66-M65</f>
         <v>89.697818521734007</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O66" s="11">
         <f t="shared" ref="O66" si="76">SUM(N62:N66)/5</f>
         <v>130.4488579008981</v>
       </c>
@@ -24188,7 +24216,7 @@
         <f t="shared" ref="AO66" si="87">AN66-AN65</f>
         <v>54.171412284683356</v>
       </c>
-      <c r="AP66" s="4">
+      <c r="AP66" s="11">
         <f t="shared" ref="AP66" si="88">SUM(AO62:AO66)/5</f>
         <v>61.049608201327104</v>
       </c>
@@ -24218,7 +24246,7 @@
         <f t="shared" ref="AX66" si="91">AW66-AW65</f>
         <v>35.271134824714409</v>
       </c>
-      <c r="AY66" s="4">
+      <c r="AY66" s="11">
         <f t="shared" ref="AY66" si="92">SUM(AX62:AX66)/5</f>
         <v>29.071965673704018</v>
       </c>
@@ -24256,7 +24284,7 @@
         <f t="shared" ref="E67" si="96">D67-D66</f>
         <v>98.383256447456915</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="11">
         <f t="shared" ref="F67" si="97">SUM(E63:E67)/5</f>
         <v>92.505815153193538</v>
       </c>
@@ -24286,7 +24314,7 @@
         <f t="shared" ref="N67" si="101">M67-M66</f>
         <v>63.289323728533418</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O67" s="11">
         <f t="shared" ref="O67" si="102">SUM(N63:N67)/5</f>
         <v>107.40972278820882</v>
       </c>
@@ -24376,7 +24404,7 @@
         <f t="shared" ref="AO67" si="119">AN67-AN66</f>
         <v>47.652860598973348</v>
       </c>
-      <c r="AP67" s="4">
+      <c r="AP67" s="11">
         <f t="shared" ref="AP67" si="120">SUM(AO63:AO67)/5</f>
         <v>55.205389448622554</v>
       </c>
@@ -24406,7 +24434,7 @@
         <f t="shared" ref="AX67" si="125">AW67-AW66</f>
         <v>8.5505781393248981</v>
       </c>
-      <c r="AY67" s="4">
+      <c r="AY67" s="11">
         <f t="shared" ref="AY67" si="126">SUM(AX63:AX67)/5</f>
         <v>25.59829330460343</v>
       </c>
@@ -24444,7 +24472,7 @@
         <f t="shared" ref="E68" si="131">D68-D67</f>
         <v>83.050800897203771</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="11">
         <f t="shared" ref="F68" si="132">SUM(E64:E68)/5</f>
         <v>92.378044690274692</v>
       </c>
@@ -24474,7 +24502,7 @@
         <f t="shared" ref="N68" si="136">M68-M67</f>
         <v>80.136122131092634</v>
       </c>
-      <c r="O68" s="4">
+      <c r="O68" s="11">
         <f t="shared" ref="O68" si="137">SUM(N64:N68)/5</f>
         <v>105.17866029705911</v>
       </c>
@@ -24564,7 +24592,7 @@
         <f t="shared" ref="AO68" si="151">AN68-AN67</f>
         <v>56.643966372365867</v>
       </c>
-      <c r="AP68" s="4">
+      <c r="AP68" s="11">
         <f t="shared" ref="AP68" si="152">SUM(AO64:AO68)/5</f>
         <v>53.542034880545359</v>
       </c>
@@ -24594,7 +24622,7 @@
         <f t="shared" ref="AX68" si="157">AW68-AW67</f>
         <v>13.894689476402618</v>
       </c>
-      <c r="AY68" s="4">
+      <c r="AY68" s="11">
         <f t="shared" ref="AY68" si="158">SUM(AX64:AX68)/5</f>
         <v>24.101942130221595</v>
       </c>
@@ -24632,7 +24660,7 @@
         <f t="shared" ref="E69" si="163">D69-D68</f>
         <v>74.745720807483849</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="11">
         <f t="shared" ref="F69" si="164">SUM(E65:E69)/5</f>
         <v>91.483651449843279</v>
       </c>
@@ -24662,7 +24690,7 @@
         <f t="shared" ref="N69" si="168">M69-M68</f>
         <v>93.568028965565645</v>
       </c>
-      <c r="O69" s="4">
+      <c r="O69" s="11">
         <f t="shared" ref="O69" si="169">SUM(N65:N69)/5</f>
         <v>92.839518764373864</v>
       </c>
@@ -24752,7 +24780,7 @@
         <f t="shared" ref="AO69" si="183">AN69-AN68</f>
         <v>59.116520460047468</v>
       </c>
-      <c r="AP69" s="4">
+      <c r="AP69" s="11">
         <f t="shared" ref="AP69" si="184">SUM(AO65:AO69)/5</f>
         <v>54.261323342416652</v>
       </c>
@@ -24782,7 +24810,7 @@
         <f t="shared" ref="AX69" si="189">AW69-AW68</f>
         <v>16.299539578087661</v>
       </c>
-      <c r="AY69" s="4">
+      <c r="AY69" s="11">
         <f t="shared" ref="AY69" si="190">SUM(AX65:AX69)/5</f>
         <v>22.178062048873471</v>
       </c>
@@ -24820,7 +24848,7 @@
         <f t="shared" ref="E70" si="195">D70-D69</f>
         <v>66.440640717763927</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="11">
         <f t="shared" ref="F70" si="196">SUM(E66:E70)/5</f>
         <v>88.417160339792829</v>
       </c>
@@ -24850,7 +24878,7 @@
         <f t="shared" ref="N70" si="200">M70-M69</f>
         <v>97.438239409396374</v>
       </c>
-      <c r="O70" s="4">
+      <c r="O70" s="11">
         <f t="shared" ref="O70" si="201">SUM(N66:N70)/5</f>
         <v>84.82590655126441</v>
       </c>
@@ -24940,7 +24968,7 @@
         <f t="shared" ref="AO70" si="215">AN70-AN69</f>
         <v>58.217409882709035</v>
       </c>
-      <c r="AP70" s="4">
+      <c r="AP70" s="11">
         <f t="shared" ref="AP70" si="216">SUM(AO66:AO70)/5</f>
         <v>55.160433919755818</v>
       </c>
@@ -24970,7 +24998,7 @@
         <f t="shared" ref="AX70" si="221">AW70-AW69</f>
         <v>16.03233401123407</v>
       </c>
-      <c r="AY70" s="4">
+      <c r="AY70" s="11">
         <f t="shared" ref="AY70" si="222">SUM(AX66:AX70)/5</f>
         <v>18.009655205952733</v>
       </c>
@@ -25008,7 +25036,7 @@
         <f t="shared" ref="E71" si="227">D71-D70</f>
         <v>84.967357840985642</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="11">
         <f t="shared" ref="F71" si="228">SUM(E67:E71)/5</f>
         <v>81.517555342178824</v>
       </c>
@@ -25038,7 +25066,7 @@
         <f t="shared" ref="N71" si="232">M71-M70</f>
         <v>89.925477959607633</v>
       </c>
-      <c r="O71" s="4">
+      <c r="O71" s="11">
         <f t="shared" ref="O71" si="233">SUM(N67:N71)/5</f>
         <v>84.871438438839135</v>
       </c>
@@ -25128,7 +25156,7 @@
         <f t="shared" ref="AO71" si="247">AN71-AN70</f>
         <v>46.753750021634914</v>
       </c>
-      <c r="AP71" s="4">
+      <c r="AP71" s="11">
         <f t="shared" ref="AP71" si="248">SUM(AO67:AO71)/5</f>
         <v>53.676901467146124</v>
       </c>
@@ -25158,7 +25186,7 @@
         <f t="shared" ref="AX71" si="253">AW71-AW70</f>
         <v>24.850117717412104</v>
       </c>
-      <c r="AY71" s="4">
+      <c r="AY71" s="11">
         <f t="shared" ref="AY71" si="254">SUM(AX67:AX71)/5</f>
         <v>15.925451784492271</v>
       </c>
@@ -25196,7 +25224,7 @@
         <f t="shared" ref="E72" si="259">D72-D71</f>
         <v>118.82653051446141</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="11">
         <f t="shared" ref="F72" si="260">SUM(E68:E72)/5</f>
         <v>85.606210155579717</v>
       </c>
@@ -25226,7 +25254,7 @@
         <f t="shared" ref="N72" si="264">M72-M71</f>
         <v>112.69142174684839</v>
       </c>
-      <c r="O72" s="4">
+      <c r="O72" s="11">
         <f t="shared" ref="O72" si="265">SUM(N68:N72)/5</f>
         <v>94.751858042502136</v>
       </c>
@@ -25316,7 +25344,7 @@
         <f t="shared" ref="AO72" si="279">AN72-AN71</f>
         <v>46.304194732964788</v>
       </c>
-      <c r="AP72" s="4">
+      <c r="AP72" s="11">
         <f t="shared" ref="AP72" si="280">SUM(AO68:AO72)/5</f>
         <v>53.407168293944416</v>
       </c>
@@ -25346,7 +25374,7 @@
         <f t="shared" ref="AX72" si="285">AW72-AW71</f>
         <v>21.37644534831179</v>
       </c>
-      <c r="AY72" s="4">
+      <c r="AY72" s="11">
         <f t="shared" ref="AY72" si="286">SUM(AX68:AX72)/5</f>
         <v>18.490625226289648</v>
       </c>
@@ -25384,7 +25412,7 @@
         <f t="shared" ref="E73" si="291">D73-D72</f>
         <v>30.026058785912028</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="11">
         <f t="shared" ref="F73" si="292">SUM(E69:E73)/5</f>
         <v>75.001261733321371</v>
       </c>
@@ -25414,7 +25442,7 @@
         <f t="shared" ref="N73" si="296">M73-M72</f>
         <v>57.14251890597825</v>
       </c>
-      <c r="O73" s="4">
+      <c r="O73" s="11">
         <f t="shared" ref="O73" si="297">SUM(N69:N73)/5</f>
         <v>90.153137397479256</v>
       </c>
@@ -25504,7 +25532,7 @@
         <f t="shared" ref="AO73" si="311">AN73-AN72</f>
         <v>37.313088959574088</v>
       </c>
-      <c r="AP73" s="4">
+      <c r="AP73" s="11">
         <f t="shared" ref="AP73" si="312">SUM(AO69:AO73)/5</f>
         <v>49.540992811386062</v>
       </c>
@@ -25534,7 +25562,7 @@
         <f t="shared" ref="AX73" si="317">AW73-AW72</f>
         <v>10.15381154044826</v>
       </c>
-      <c r="AY73" s="4">
+      <c r="AY73" s="11">
         <f t="shared" ref="AY73" si="318">SUM(AX69:AX73)/5</f>
         <v>17.742449639098776</v>
       </c>
@@ -25572,7 +25600,7 @@
         <f t="shared" ref="E74:E75" si="323">D74-D73</f>
         <v>33.859172673475769</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="11">
         <f t="shared" ref="F74:F75" si="324">SUM(E70:E74)/5</f>
         <v>66.823952106519755</v>
       </c>
@@ -25602,7 +25630,7 @@
         <f t="shared" ref="N74:N75" si="328">M74-M73</f>
         <v>43.710612071505238</v>
       </c>
-      <c r="O74" s="4">
+      <c r="O74" s="11">
         <f t="shared" ref="O74:O75" si="329">SUM(N70:N74)/5</f>
         <v>80.181654018667174</v>
       </c>
@@ -25692,7 +25720,7 @@
         <f t="shared" ref="AO74:AO75" si="346">AN74-AN73</f>
         <v>35.73964544923092</v>
       </c>
-      <c r="AP74" s="4">
+      <c r="AP74" s="11">
         <f t="shared" ref="AP74:AP75" si="347">SUM(AO70:AO74)/5</f>
         <v>44.865617809222748</v>
       </c>
@@ -25722,7 +25750,7 @@
         <f t="shared" ref="AX74:AX75" si="352">AW74-AW73</f>
         <v>10.15381154044826</v>
       </c>
-      <c r="AY74" s="4">
+      <c r="AY74" s="11">
         <f t="shared" ref="AY74:AY75" si="353">SUM(AX70:AX74)/5</f>
         <v>16.513304031570897</v>
       </c>
@@ -25760,7 +25788,7 @@
         <f t="shared" si="323"/>
         <v>40.247695819413821</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="11">
         <f t="shared" si="324"/>
         <v>61.585363126849735</v>
       </c>
@@ -25772,7 +25800,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I90" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I91" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -25790,7 +25818,7 @@
         <f t="shared" si="328"/>
         <v>34.60423455660839</v>
       </c>
-      <c r="O75" s="4">
+      <c r="O75" s="11">
         <f t="shared" si="329"/>
         <v>67.61485304810958</v>
       </c>
@@ -25880,7 +25908,7 @@
         <f t="shared" si="346"/>
         <v>22.477764433478114</v>
       </c>
-      <c r="AP75" s="4">
+      <c r="AP75" s="11">
         <f t="shared" si="347"/>
         <v>37.717688719376568</v>
       </c>
@@ -25910,7 +25938,7 @@
         <f t="shared" si="352"/>
         <v>8.0161670056168077</v>
       </c>
-      <c r="AY75" s="4">
+      <c r="AY75" s="11">
         <f t="shared" si="353"/>
         <v>14.910070630447445</v>
       </c>
@@ -25948,7 +25976,7 @@
         <f t="shared" ref="E76:E77" si="359">D76-D75</f>
         <v>48.552775909135562</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="11">
         <f t="shared" ref="F76:F77" si="360">SUM(E72:E76)/5</f>
         <v>54.302446740479716</v>
       </c>
@@ -25978,7 +26006,7 @@
         <f t="shared" ref="N76:N77" si="364">M76-M75</f>
         <v>37.563807248949161</v>
       </c>
-      <c r="O76" s="4">
+      <c r="O76" s="11">
         <f t="shared" ref="O76:O77" si="365">SUM(N72:N76)/5</f>
         <v>57.142518905977887</v>
       </c>
@@ -26068,7 +26096,7 @@
         <f t="shared" ref="AO76:AO77" si="382">AN76-AN75</f>
         <v>23.376875010817457</v>
       </c>
-      <c r="AP76" s="4">
+      <c r="AP76" s="11">
         <f t="shared" ref="AP76:AP77" si="383">SUM(AO72:AO76)/5</f>
         <v>33.042313717213077</v>
       </c>
@@ -26098,7 +26126,7 @@
         <f t="shared" ref="AX76:AX77" si="388">AW76-AW75</f>
         <v>6.9473447382015365</v>
       </c>
-      <c r="AY76" s="4">
+      <c r="AY76" s="11">
         <f t="shared" ref="AY76:AY77" si="389">SUM(AX72:AX76)/5</f>
         <v>11.32951603460533</v>
       </c>
@@ -26136,7 +26164,7 @@
         <f t="shared" si="359"/>
         <v>60.052117571824056</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="11">
         <f t="shared" si="360"/>
         <v>42.547564151952244</v>
       </c>
@@ -26166,7 +26194,7 @@
         <f t="shared" si="364"/>
         <v>44.621249822995196</v>
       </c>
-      <c r="O77" s="4">
+      <c r="O77" s="11">
         <f t="shared" si="365"/>
         <v>43.528484521207247</v>
       </c>
@@ -26256,7 +26284,7 @@
         <f t="shared" si="382"/>
         <v>24.2759855881568</v>
       </c>
-      <c r="AP77" s="4">
+      <c r="AP77" s="11">
         <f t="shared" si="383"/>
         <v>28.636671888251477</v>
       </c>
@@ -26286,7 +26314,7 @@
         <f t="shared" si="388"/>
         <v>6.9473447382010818</v>
       </c>
-      <c r="AY77" s="4">
+      <c r="AY77" s="11">
         <f t="shared" si="389"/>
         <v>8.4436959125831894</v>
       </c>
@@ -26324,7 +26352,7 @@
         <f t="shared" ref="E78:E79" si="394">D78-D77</f>
         <v>49.830480538322263</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="11">
         <f t="shared" ref="F78:F79" si="395">SUM(E74:E78)/5</f>
         <v>46.508448502434291</v>
       </c>
@@ -26354,7 +26382,7 @@
         <f t="shared" ref="N78:N79" si="399">M78-M77</f>
         <v>53.044649024273895</v>
       </c>
-      <c r="O78" s="4">
+      <c r="O78" s="11">
         <f t="shared" ref="O78:O79" si="400">SUM(N74:N78)/5</f>
         <v>42.708910544866377</v>
       </c>
@@ -26444,7 +26472,7 @@
         <f t="shared" ref="AO78:AO79" si="417">AN78-AN77</f>
         <v>24.950318521160625</v>
       </c>
-      <c r="AP78" s="4">
+      <c r="AP78" s="11">
         <f t="shared" ref="AP78:AP79" si="418">SUM(AO74:AO78)/5</f>
         <v>26.164117800568782</v>
       </c>
@@ -26474,7 +26502,7 @@
         <f t="shared" ref="AX78:AX79" si="423">AW78-AW77</f>
         <v>10.15381154044826</v>
       </c>
-      <c r="AY78" s="4">
+      <c r="AY78" s="11">
         <f t="shared" ref="AY78:AY79" si="424">SUM(AX74:AX78)/5</f>
         <v>8.4436959125831894</v>
       </c>
@@ -26512,7 +26540,7 @@
         <f t="shared" si="394"/>
         <v>9.5827847189084423</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="11">
         <f t="shared" si="395"/>
         <v>41.653170911520832</v>
       </c>
@@ -26542,7 +26570,7 @@
         <f t="shared" si="399"/>
         <v>41.206358254908992</v>
       </c>
-      <c r="O79" s="4">
+      <c r="O79" s="11">
         <f t="shared" si="400"/>
         <v>42.208059781547128</v>
       </c>
@@ -26632,7 +26660,7 @@
         <f t="shared" si="417"/>
         <v>27.198094964508527</v>
       </c>
-      <c r="AP79" s="4">
+      <c r="AP79" s="11">
         <f t="shared" si="418"/>
         <v>24.455807703624306</v>
       </c>
@@ -26662,7 +26690,7 @@
         <f t="shared" si="423"/>
         <v>6.4129336044934462</v>
       </c>
-      <c r="AY79" s="4">
+      <c r="AY79" s="11">
         <f t="shared" si="424"/>
         <v>7.6955203253922262</v>
       </c>
@@ -26700,7 +26728,7 @@
         <f t="shared" ref="E80" si="429">D80-D79</f>
         <v>31.942615729693898</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="11">
         <f t="shared" ref="F80" si="430">SUM(E76:E80)/5</f>
         <v>39.992154893576846</v>
       </c>
@@ -26730,7 +26758,7 @@
         <f t="shared" ref="N80" si="434">M80-M79</f>
         <v>26.408494793200589</v>
       </c>
-      <c r="O80" s="4">
+      <c r="O80" s="11">
         <f t="shared" ref="O80" si="435">SUM(N76:N80)/5</f>
         <v>40.568911828865566</v>
       </c>
@@ -26820,7 +26848,7 @@
         <f t="shared" ref="AO80" si="452">AN80-AN79</f>
         <v>17.307878613778485</v>
       </c>
-      <c r="AP80" s="4">
+      <c r="AP80" s="11">
         <f t="shared" ref="AP80" si="453">SUM(AO76:AO80)/5</f>
         <v>23.421830539684379</v>
       </c>
@@ -26850,7 +26878,7 @@
         <f t="shared" ref="AX80" si="458">AW80-AW79</f>
         <v>7.7489614387632173</v>
       </c>
-      <c r="AY80" s="4">
+      <c r="AY80" s="11">
         <f t="shared" ref="AY80" si="459">SUM(AX76:AX80)/5</f>
         <v>7.6420792120215086</v>
       </c>
@@ -26888,7 +26916,7 @@
         <f t="shared" ref="E81" si="464">D81-D80</f>
         <v>28.109501842131067</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="11">
         <f t="shared" ref="F81" si="465">SUM(E77:E81)/5</f>
         <v>35.903500080175945</v>
       </c>
@@ -26918,7 +26946,7 @@
         <f t="shared" ref="N81" si="469">M81-M80</f>
         <v>25.270197603838824</v>
       </c>
-      <c r="O81" s="4">
+      <c r="O81" s="11">
         <f t="shared" ref="O81" si="470">SUM(N77:N81)/5</f>
         <v>38.110189899843498</v>
       </c>
@@ -27008,7 +27036,7 @@
         <f t="shared" ref="AO81" si="487">AN81-AN80</f>
         <v>17.98221154678231</v>
       </c>
-      <c r="AP81" s="4">
+      <c r="AP81" s="11">
         <f t="shared" ref="AP81" si="488">SUM(AO77:AO81)/5</f>
         <v>22.342897846877349</v>
       </c>
@@ -27038,7 +27066,7 @@
         <f t="shared" ref="AX81" si="493">AW81-AW80</f>
         <v>3.4736723691003135</v>
       </c>
-      <c r="AY81" s="4">
+      <c r="AY81" s="11">
         <f t="shared" ref="AY81" si="494">SUM(AX77:AX81)/5</f>
         <v>6.9473447382012639</v>
       </c>
@@ -27076,7 +27104,7 @@
         <f t="shared" ref="E82" si="499">D82-D81</f>
         <v>19.804421752410235</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="11">
         <f t="shared" ref="F82" si="500">SUM(E78:E82)/5</f>
         <v>27.853960916293182</v>
       </c>
@@ -27106,7 +27134,7 @@
         <f t="shared" ref="N82" si="504">M82-M81</f>
         <v>25.725516479584257</v>
       </c>
-      <c r="O82" s="4">
+      <c r="O82" s="11">
         <f t="shared" ref="O82" si="505">SUM(N78:N82)/5</f>
         <v>34.33104323116131</v>
       </c>
@@ -27196,7 +27224,7 @@
         <f t="shared" ref="AO82" si="522">AN82-AN81</f>
         <v>11.913215149743337</v>
       </c>
-      <c r="AP82" s="4">
+      <c r="AP82" s="11">
         <f t="shared" ref="AP82" si="523">SUM(AO78:AO82)/5</f>
         <v>19.870343759194657</v>
       </c>
@@ -27226,7 +27254,7 @@
         <f t="shared" ref="AX82" si="527">AW82-AW81</f>
         <v>4.0080835028088586</v>
       </c>
-      <c r="AY82" s="4">
+      <c r="AY82" s="11">
         <f t="shared" ref="AY82" si="528">SUM(AX78:AX82)/5</f>
         <v>6.3594924911228192</v>
       </c>
@@ -27264,7 +27292,7 @@
         <f t="shared" ref="E83" si="533">D83-D82</f>
         <v>42.803105077789951</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="11">
         <f t="shared" ref="F83" si="534">SUM(E79:E83)/5</f>
         <v>26.448485824186719</v>
       </c>
@@ -27294,7 +27322,7 @@
         <f t="shared" ref="N83" si="538">M83-M82</f>
         <v>38.474445000439118</v>
       </c>
-      <c r="O83" s="4">
+      <c r="O83" s="11">
         <f t="shared" ref="O83" si="539">SUM(N79:N83)/5</f>
         <v>31.417002426394355</v>
       </c>
@@ -27384,7 +27412,7 @@
         <f t="shared" ref="AO83" si="556">AN83-AN82</f>
         <v>11.238882216739512</v>
       </c>
-      <c r="AP83" s="4">
+      <c r="AP83" s="11">
         <f t="shared" ref="AP83" si="557">SUM(AO79:AO83)/5</f>
         <v>17.128056498310436</v>
       </c>
@@ -27414,7 +27442,7 @@
         <f t="shared" ref="AX83" si="562">AW83-AW82</f>
         <v>7.214550305055127</v>
       </c>
-      <c r="AY83" s="4">
+      <c r="AY83" s="11">
         <f t="shared" ref="AY83" si="563">SUM(AX79:AX83)/5</f>
         <v>5.7716402440441925</v>
       </c>
@@ -27452,7 +27480,7 @@
         <f t="shared" ref="E84:E85" si="568">D84-D83</f>
         <v>41.525400448601431</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="11">
         <f t="shared" ref="F84:F85" si="569">SUM(E80:E84)/5</f>
         <v>32.837008970125318</v>
       </c>
@@ -27482,7 +27510,7 @@
         <f t="shared" ref="N84:N85" si="573">M84-M83</f>
         <v>34.376575118735673</v>
       </c>
-      <c r="O84" s="4">
+      <c r="O84" s="11">
         <f t="shared" ref="O84:O85" si="574">SUM(N80:N84)/5</f>
         <v>30.051045799159692</v>
       </c>
@@ -27572,7 +27600,7 @@
         <f t="shared" ref="AO84:AO85" si="591">AN84-AN83</f>
         <v>17.307878613778485</v>
       </c>
-      <c r="AP84" s="4">
+      <c r="AP84" s="11">
         <f t="shared" ref="AP84:AP85" si="592">SUM(AO80:AO84)/5</f>
         <v>15.150013228164426</v>
       </c>
@@ -27602,7 +27630,7 @@
         <f t="shared" ref="AX84:AX85" si="597">AW84-AW83</f>
         <v>8.0161670056168077</v>
       </c>
-      <c r="AY84" s="4">
+      <c r="AY84" s="11">
         <f t="shared" ref="AY84:AY85" si="598">SUM(AX80:AX84)/5</f>
         <v>6.0922869242688646</v>
       </c>
@@ -27640,7 +27668,7 @@
         <f t="shared" si="568"/>
         <v>41.52540044860234</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="11">
         <f t="shared" si="569"/>
         <v>34.753565913907003</v>
       </c>
@@ -27670,7 +27698,7 @@
         <f t="shared" si="573"/>
         <v>31.189342988522185</v>
       </c>
-      <c r="O85" s="4">
+      <c r="O85" s="11">
         <f t="shared" si="574"/>
         <v>31.007215438224012</v>
       </c>
@@ -27760,7 +27788,7 @@
         <f t="shared" si="591"/>
         <v>12.137992794077945</v>
       </c>
-      <c r="AP85" s="4">
+      <c r="AP85" s="11">
         <f t="shared" si="592"/>
         <v>14.116036064224318</v>
       </c>
@@ -27790,7 +27818,7 @@
         <f t="shared" si="597"/>
         <v>6.4129336044934462</v>
       </c>
-      <c r="AY85" s="4">
+      <c r="AY85" s="11">
         <f t="shared" si="598"/>
         <v>5.825081357414911</v>
       </c>
@@ -27828,7 +27856,7 @@
         <f t="shared" ref="E86" si="603">D86-D85</f>
         <v>32.581468044288158</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="11">
         <f t="shared" ref="F86" si="604">SUM(E82:E86)/5</f>
         <v>35.647959154338423</v>
       </c>
@@ -27858,7 +27886,7 @@
         <f t="shared" ref="N86" si="608">M86-M85</f>
         <v>31.189342988521275</v>
       </c>
-      <c r="O86" s="4">
+      <c r="O86" s="11">
         <f t="shared" ref="O86" si="609">SUM(N82:N86)/5</f>
         <v>32.191044515160499</v>
       </c>
@@ -27948,7 +27976,7 @@
         <f t="shared" ref="AO86" si="626">AN86-AN85</f>
         <v>16.183990392104533</v>
       </c>
-      <c r="AP86" s="4">
+      <c r="AP86" s="11">
         <f t="shared" ref="AP86" si="627">SUM(AO82:AO86)/5</f>
         <v>13.756391833288763</v>
       </c>
@@ -27978,7 +28006,7 @@
         <f t="shared" ref="AX86" si="632">AW86-AW85</f>
         <v>8.0161670056172625</v>
       </c>
-      <c r="AY86" s="4">
+      <c r="AY86" s="11">
         <f t="shared" ref="AY86" si="633">SUM(AX82:AX86)/5</f>
         <v>6.7335802847183004</v>
       </c>
@@ -28016,7 +28044,7 @@
         <f t="shared" ref="E87:E88" si="638">D87-D86</f>
         <v>30.664911100505378</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="11">
         <f t="shared" ref="F87:F88" si="639">SUM(E83:E87)/5</f>
         <v>37.820057023957453</v>
       </c>
@@ -28046,7 +28074,7 @@
         <f t="shared" ref="N87:N88" si="643">M87-M86</f>
         <v>14.570204023835686</v>
       </c>
-      <c r="O87" s="4">
+      <c r="O87" s="11">
         <f t="shared" ref="O87:O88" si="644">SUM(N83:N87)/5</f>
         <v>29.959982024010788</v>
       </c>
@@ -28136,7 +28164,7 @@
         <f t="shared" ref="AO87:AO88" si="661">AN87-AN86</f>
         <v>11.238882216739512</v>
       </c>
-      <c r="AP87" s="4">
+      <c r="AP87" s="11">
         <f t="shared" ref="AP87:AP88" si="662">SUM(AO83:AO87)/5</f>
         <v>13.621525246687998</v>
       </c>
@@ -28166,7 +28194,7 @@
         <f t="shared" ref="AX87:AX88" si="667">AW87-AW86</f>
         <v>9.3521948398861241</v>
       </c>
-      <c r="AY87" s="4">
+      <c r="AY87" s="11">
         <f t="shared" ref="AY87:AY88" si="668">SUM(AX83:AX87)/5</f>
         <v>7.8024025521337537</v>
       </c>
@@ -28204,7 +28232,7 @@
         <f t="shared" si="638"/>
         <v>20.443274067004495</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="11">
         <f t="shared" si="639"/>
         <v>33.348090821800362</v>
       </c>
@@ -28234,7 +28262,7 @@
         <f t="shared" si="643"/>
         <v>16.391479526813782</v>
       </c>
-      <c r="O88" s="4">
+      <c r="O88" s="11">
         <f t="shared" si="644"/>
         <v>25.543388929285719</v>
       </c>
@@ -28324,7 +28352,7 @@
         <f t="shared" si="661"/>
         <v>7.8672175517167489</v>
       </c>
-      <c r="AP88" s="4">
+      <c r="AP88" s="11">
         <f t="shared" si="662"/>
         <v>12.947192313683445</v>
       </c>
@@ -28354,7 +28382,7 @@
         <f t="shared" si="667"/>
         <v>3.4736723691007683</v>
       </c>
-      <c r="AY88" s="4">
+      <c r="AY88" s="11">
         <f t="shared" si="668"/>
         <v>7.0542269649428819</v>
       </c>
@@ -28392,7 +28420,7 @@
         <f t="shared" ref="E89:E90" si="673">D89-D88</f>
         <v>42.164252763195691</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="11">
         <f t="shared" ref="F89:F90" si="674">SUM(E85:E89)/5</f>
         <v>33.475861284719215</v>
       </c>
@@ -28422,7 +28450,7 @@
         <f t="shared" ref="N89:N90" si="678">M89-M88</f>
         <v>24.587219290221583</v>
       </c>
-      <c r="O89" s="4">
+      <c r="O89" s="11">
         <f t="shared" ref="O89:O90" si="679">SUM(N85:N89)/5</f>
         <v>23.585517763582903</v>
       </c>
@@ -28430,15 +28458,15 @@
         <v>3679</v>
       </c>
       <c r="Q89" s="10">
-        <f t="shared" ref="Q89:Q91" si="680">P89/$BR$5</f>
+        <f t="shared" ref="Q89:Q90" si="680">P89/$BR$5</f>
         <v>837.55907193264193</v>
       </c>
       <c r="R89" s="11">
-        <f t="shared" ref="R89:R91" si="681">Q89-Q88</f>
+        <f t="shared" ref="R89:R90" si="681">Q89-Q88</f>
         <v>10.69999358000382</v>
       </c>
       <c r="S89" s="11">
-        <f t="shared" ref="S89:S91" si="682">SUM(R85:R89)/5</f>
+        <f t="shared" ref="S89:S90" si="682">SUM(R85:R89)/5</f>
         <v>8.4689310888541058</v>
       </c>
       <c r="U89" s="15">
@@ -28512,7 +28540,7 @@
         <f t="shared" ref="AO89:AO90" si="696">AN89-AN88</f>
         <v>10.564549283734777</v>
       </c>
-      <c r="AP89" s="4">
+      <c r="AP89" s="11">
         <f t="shared" ref="AP89:AP90" si="697">SUM(AO85:AO89)/5</f>
         <v>11.598526447674704</v>
       </c>
@@ -28542,7 +28570,7 @@
         <f t="shared" ref="AX89:AX90" si="702">AW89-AW88</f>
         <v>1.8704389679774067</v>
       </c>
-      <c r="AY89" s="4">
+      <c r="AY89" s="11">
         <f t="shared" ref="AY89:AY90" si="703">SUM(AX85:AX89)/5</f>
         <v>5.8250813574150015</v>
       </c>
@@ -28580,7 +28608,7 @@
         <f t="shared" si="673"/>
         <v>20.443274067004495</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="11">
         <f t="shared" si="674"/>
         <v>29.259436008399643</v>
       </c>
@@ -28610,7 +28638,7 @@
         <f t="shared" si="678"/>
         <v>35.970191183842871</v>
       </c>
-      <c r="O90" s="4">
+      <c r="O90" s="11">
         <f t="shared" si="679"/>
         <v>24.541687402647039</v>
       </c>
@@ -28700,7 +28728,7 @@
         <f t="shared" si="696"/>
         <v>11.238882216739512</v>
       </c>
-      <c r="AP90" s="4">
+      <c r="AP90" s="11">
         <f t="shared" si="697"/>
         <v>11.418704332207017</v>
       </c>
@@ -28730,7 +28758,7 @@
         <f t="shared" si="702"/>
         <v>3.7408779359543587</v>
       </c>
-      <c r="AY90" s="4">
+      <c r="AY90" s="11">
         <f t="shared" si="703"/>
         <v>5.2906702237071839</v>
       </c>
@@ -28757,21 +28785,186 @@
       <c r="B91" s="3">
         <v>88</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="11"/>
-      <c r="U91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="AD91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AM91" s="15"/>
-      <c r="AQ91" s="15"/>
-      <c r="AV91" s="15"/>
-      <c r="AZ91" s="15"/>
+      <c r="C91" s="15">
+        <v>9344</v>
+      </c>
+      <c r="D91" s="10">
+        <f t="shared" ref="D91" si="707">C91/$BR$4</f>
+        <v>5969.4360275651998</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" ref="E91" si="708">D91-D90</f>
+        <v>35.136877302663379</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" ref="F91" si="709">SUM(E87:E91)/5</f>
+        <v>29.770517860074687</v>
+      </c>
+      <c r="G91" s="15">
+        <v>1397</v>
+      </c>
+      <c r="H91" s="10">
+        <f t="shared" ref="H91" si="710">G91/$BR$4</f>
+        <v>892.47668348764807</v>
+      </c>
+      <c r="I91" s="11">
+        <f t="shared" si="357"/>
+        <v>7.0273754605326531</v>
+      </c>
+      <c r="J91" s="11">
+        <f t="shared" ref="J91" si="711">SUM(I87:I91)/5</f>
+        <v>6.5162936088575636</v>
+      </c>
+      <c r="L91" s="15">
+        <v>29990</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" ref="M91" si="712">L91/$BR$5</f>
+        <v>6827.5065417939468</v>
+      </c>
+      <c r="N91" s="11">
+        <f t="shared" ref="N91" si="713">M91-M90</f>
+        <v>23.904240976604342</v>
+      </c>
+      <c r="O91" s="11">
+        <f t="shared" ref="O91" si="714">SUM(N87:N91)/5</f>
+        <v>23.084667000263654</v>
+      </c>
+      <c r="P91" s="15">
+        <v>3742</v>
+      </c>
+      <c r="Q91" s="10">
+        <f t="shared" ref="Q91" si="715">P91/$BR$5</f>
+        <v>851.90161651860456</v>
+      </c>
+      <c r="R91" s="11">
+        <f t="shared" ref="R91" si="716">Q91-Q90</f>
+        <v>5.4638265089381548</v>
+      </c>
+      <c r="S91" s="11">
+        <f t="shared" ref="S91" si="717">SUM(R87:R91)/5</f>
+        <v>6.7387193610237093</v>
+      </c>
+      <c r="U91" s="15">
+        <v>86091</v>
+      </c>
+      <c r="V91" s="10">
+        <f t="shared" ref="V91" si="718">U91/$BR$6</f>
+        <v>8592.9401168163149</v>
+      </c>
+      <c r="W91" s="11">
+        <f t="shared" ref="W91" si="719">V91-V90</f>
+        <v>31.540684588562726</v>
+      </c>
+      <c r="X91" s="11">
+        <f t="shared" ref="X91" si="720">SUM(W87:W91)/5</f>
+        <v>31.400947378360069</v>
+      </c>
+      <c r="Y91" s="15">
+        <v>15727</v>
+      </c>
+      <c r="Z91" s="10">
+        <f t="shared" ref="Z91" si="721">Y91/$BR$6</f>
+        <v>1569.7479320390075</v>
+      </c>
+      <c r="AA91" s="11">
+        <f t="shared" ref="AA91" si="722">Z91-Z90</f>
+        <v>6.4877990451157075</v>
+      </c>
+      <c r="AB91" s="11">
+        <f t="shared" ref="AB91" si="723">SUM(AA87:AA91)/5</f>
+        <v>5.5296010322986602</v>
+      </c>
+      <c r="AD91" s="15">
+        <v>19038</v>
+      </c>
+      <c r="AE91" s="10">
+        <f t="shared" ref="AE91" si="724">AD91/$BR$7</f>
+        <v>3879.3453895025377</v>
+      </c>
+      <c r="AF91" s="11">
+        <f t="shared" ref="AF91" si="725">AE91-AE90</f>
+        <v>1.630148288476903</v>
+      </c>
+      <c r="AG91" s="11">
+        <f t="shared" ref="AG91" si="726">SUM(AF87:AF91)/5</f>
+        <v>4.4829077933110968</v>
+      </c>
+      <c r="AH91" s="15">
+        <v>1841</v>
+      </c>
+      <c r="AI91" s="10">
+        <f t="shared" ref="AI91" si="727">AH91/$BR$7</f>
+        <v>375.13787488571131</v>
+      </c>
+      <c r="AJ91" s="11">
+        <f t="shared" ref="AJ91" si="728">AI91-AI90</f>
+        <v>1.8339168245363453</v>
+      </c>
+      <c r="AK91" s="11">
+        <f t="shared" ref="AK91" si="729">SUM(AJ87:AJ91)/5</f>
+        <v>2.3637150182912818</v>
+      </c>
+      <c r="AM91" s="15">
+        <v>27417</v>
+      </c>
+      <c r="AN91" s="10">
+        <f t="shared" ref="AN91" si="730">AM91/$BR$8</f>
+        <v>6162.7286747267435</v>
+      </c>
+      <c r="AO91" s="11">
+        <f t="shared" ref="AO91" si="731">AN91-AN90</f>
+        <v>11.913215149743337</v>
+      </c>
+      <c r="AP91" s="11">
+        <f t="shared" ref="AP91" si="732">SUM(AO87:AO91)/5</f>
+        <v>10.564549283734777</v>
+      </c>
+      <c r="AQ91" s="15">
+        <v>4025</v>
+      </c>
+      <c r="AR91" s="10">
+        <f t="shared" ref="AR91" si="733">AQ91/$BR$8</f>
+        <v>904.73001844750127</v>
+      </c>
+      <c r="AS91" s="11">
+        <f t="shared" ref="AS91" si="734">AR91-AR90</f>
+        <v>3.8212199536912976</v>
+      </c>
+      <c r="AT91" s="11">
+        <f t="shared" ref="AT91" si="735">SUM(AS87:AS91)/5</f>
+        <v>2.9221093763521595</v>
+      </c>
+      <c r="AV91" s="15">
+        <v>10000</v>
+      </c>
+      <c r="AW91" s="10">
+        <f t="shared" ref="AW91" si="736">AV91/$BR$9</f>
+        <v>2672.0556685389761</v>
+      </c>
+      <c r="AX91" s="11">
+        <f t="shared" ref="AX91" si="737">AW91-AW90</f>
+        <v>4.8097002033700846</v>
+      </c>
+      <c r="AY91" s="11">
+        <f t="shared" ref="AY91" si="738">SUM(AX87:AX91)/5</f>
+        <v>4.6493768632577481</v>
+      </c>
+      <c r="AZ91" s="15">
+        <v>1004</v>
+      </c>
+      <c r="BA91" s="10">
+        <f t="shared" ref="BA91" si="739">AZ91/$BR$9</f>
+        <v>268.27438912131322</v>
+      </c>
+      <c r="BB91" s="11">
+        <f t="shared" ref="BB91" si="740">BA91-BA90</f>
+        <v>1.6032334011234184</v>
+      </c>
+      <c r="BC91" s="11">
+        <f t="shared" ref="BC91" si="741">SUM(BB87:BB91)/5</f>
+        <v>1.3360278342694869</v>
+      </c>
     </row>
     <row r="92" spans="1:55">
       <c r="A92" s="2">
@@ -29031,7 +29224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E551B-37D9-4FFF-B1B9-748F3BDBD815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DCD998-919D-4370-BAFA-B4021A940044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -8848,7 +8848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12229,8 +12229,36 @@
       <c r="B92" s="3">
         <v>89</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="G92" s="15"/>
+      <c r="C92" s="15">
+        <v>228658</v>
+      </c>
+      <c r="D92" s="14">
+        <f t="shared" ref="D92:D93" si="130">C92/$P$4</f>
+        <v>3773.9140638945119</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" ref="E92:E93" si="131">D92-D91</f>
+        <v>10.761014133156095</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" ref="F92:F93" si="132">SUM(E88:E92)/5</f>
+        <v>10.638879923669446</v>
+      </c>
+      <c r="G92" s="15">
+        <v>32616</v>
+      </c>
+      <c r="H92" s="13">
+        <f t="shared" ref="H92:H93" si="133">G92/$P$4</f>
+        <v>538.31478062426595</v>
+      </c>
+      <c r="I92" s="11">
+        <f t="shared" ref="I92:I93" si="134">H92-H91</f>
+        <v>2.1456009774698259</v>
+      </c>
+      <c r="J92" s="11">
+        <f t="shared" ref="J92:J93" si="135">SUM(I88:I92)/5</f>
+        <v>2.3370546031517052</v>
+      </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2">
@@ -12239,8 +12267,36 @@
       <c r="B93" s="3">
         <v>90</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="G93" s="15"/>
+      <c r="C93" s="15">
+        <v>229327</v>
+      </c>
+      <c r="D93" s="14">
+        <f t="shared" si="130"/>
+        <v>3784.9556566170295</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="131"/>
+        <v>11.041592722517635</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="132"/>
+        <v>11.358481482266962</v>
+      </c>
+      <c r="G93" s="15">
+        <v>32735</v>
+      </c>
+      <c r="H93" s="13">
+        <f t="shared" si="133"/>
+        <v>540.27883074979593</v>
+      </c>
+      <c r="I93" s="11">
+        <f t="shared" si="134"/>
+        <v>1.9640501255299796</v>
+      </c>
+      <c r="J93" s="11">
+        <f t="shared" si="135"/>
+        <v>2.4030730947661594</v>
+      </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2">
@@ -12396,7 +12452,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomLeft" activeCell="AZ92" sqref="AZ92:AZ93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25800,7 +25856,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I91" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I93" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -28973,18 +29029,186 @@
       <c r="B92" s="3">
         <v>89</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="AD92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AM92" s="15"/>
-      <c r="AQ92" s="15"/>
-      <c r="AV92" s="15"/>
-      <c r="AZ92" s="15"/>
+      <c r="C92" s="15">
+        <v>9389</v>
+      </c>
+      <c r="D92" s="10">
+        <f t="shared" ref="D92:D93" si="742">C92/$BR$4</f>
+        <v>5998.1843817219242</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" ref="E92:E93" si="743">D92-D91</f>
+        <v>28.748354156724417</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" ref="F92:F93" si="744">SUM(E88:E92)/5</f>
+        <v>29.387206471318496</v>
+      </c>
+      <c r="G92" s="15">
+        <v>1407</v>
+      </c>
+      <c r="H92" s="10">
+        <f t="shared" ref="H92:H93" si="745">G92/$BR$4</f>
+        <v>898.86520663358692</v>
+      </c>
+      <c r="I92" s="11">
+        <f t="shared" si="357"/>
+        <v>6.3885231459388478</v>
+      </c>
+      <c r="J92" s="11">
+        <f t="shared" ref="J92:J93" si="746">SUM(I88:I92)/5</f>
+        <v>6.6440640717763468</v>
+      </c>
+      <c r="L92" s="15">
+        <v>30077</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" ref="M92:M93" si="747">L92/$BR$5</f>
+        <v>6847.3129128888477</v>
+      </c>
+      <c r="N92" s="11">
+        <f t="shared" ref="N92:N93" si="748">M92-M91</f>
+        <v>19.806371094900896</v>
+      </c>
+      <c r="O92" s="11">
+        <f t="shared" ref="O92:O93" si="749">SUM(N88:N92)/5</f>
+        <v>24.131900414476696</v>
+      </c>
+      <c r="P92" s="15">
+        <v>3757</v>
+      </c>
+      <c r="Q92" s="10">
+        <f t="shared" ref="Q92:Q93" si="750">P92/$BR$5</f>
+        <v>855.31650808669087</v>
+      </c>
+      <c r="R92" s="11">
+        <f t="shared" ref="R92:R93" si="751">Q92-Q91</f>
+        <v>3.4148915680863183</v>
+      </c>
+      <c r="S92" s="11">
+        <f t="shared" ref="S92:S93" si="752">SUM(R88:R92)/5</f>
+        <v>6.6021236983002609</v>
+      </c>
+      <c r="U92" s="15">
+        <v>86384</v>
+      </c>
+      <c r="V92" s="10">
+        <f t="shared" ref="V92:V93" si="753">U92/$BR$6</f>
+        <v>8622.1851186658369</v>
+      </c>
+      <c r="W92" s="11">
+        <f t="shared" ref="W92:W93" si="754">V92-V91</f>
+        <v>29.245001849521941</v>
+      </c>
+      <c r="X92" s="11">
+        <f t="shared" ref="X92:X93" si="755">SUM(W88:W92)/5</f>
+        <v>30.742186244548428</v>
+      </c>
+      <c r="Y92" s="15">
+        <v>15784</v>
+      </c>
+      <c r="Z92" s="10">
+        <f t="shared" ref="Z92:Z93" si="756">Y92/$BR$6</f>
+        <v>1575.437232740109</v>
+      </c>
+      <c r="AA92" s="11">
+        <f t="shared" ref="AA92:AA93" si="757">Z92-Z91</f>
+        <v>5.6893007011015015</v>
+      </c>
+      <c r="AB92" s="11">
+        <f t="shared" ref="AB92:AB93" si="758">SUM(AA88:AA92)/5</f>
+        <v>5.2900515290943986</v>
+      </c>
+      <c r="AD92" s="15">
+        <v>19059</v>
+      </c>
+      <c r="AE92" s="10">
+        <f t="shared" ref="AE92:AE93" si="759">AD92/$BR$7</f>
+        <v>3883.624528759789</v>
+      </c>
+      <c r="AF92" s="11">
+        <f t="shared" ref="AF92:AF93" si="760">AE92-AE91</f>
+        <v>4.279139257251245</v>
+      </c>
+      <c r="AG92" s="11">
+        <f t="shared" ref="AG92:AG93" si="761">SUM(AF88:AF92)/5</f>
+        <v>4.8089374510063863</v>
+      </c>
+      <c r="AH92" s="15">
+        <v>1854</v>
+      </c>
+      <c r="AI92" s="10">
+        <f t="shared" ref="AI92:AI93" si="762">AH92/$BR$7</f>
+        <v>377.786865854486</v>
+      </c>
+      <c r="AJ92" s="11">
+        <f t="shared" ref="AJ92:AJ93" si="763">AI92-AI91</f>
+        <v>2.6489909687746831</v>
+      </c>
+      <c r="AK92" s="11">
+        <f t="shared" ref="AK92:AK93" si="764">SUM(AJ88:AJ92)/5</f>
+        <v>2.4452224327151155</v>
+      </c>
+      <c r="AM92" s="15">
+        <v>27470</v>
+      </c>
+      <c r="AN92" s="10">
+        <f t="shared" ref="AN92:AN93" si="765">AM92/$BR$8</f>
+        <v>6174.6418898764869</v>
+      </c>
+      <c r="AO92" s="11">
+        <f t="shared" ref="AO92:AO93" si="766">AN92-AN91</f>
+        <v>11.913215149743337</v>
+      </c>
+      <c r="AP92" s="11">
+        <f t="shared" ref="AP92:AP93" si="767">SUM(AO88:AO92)/5</f>
+        <v>10.699415870335542</v>
+      </c>
+      <c r="AQ92" s="15">
+        <v>4037</v>
+      </c>
+      <c r="AR92" s="10">
+        <f t="shared" ref="AR92:AR93" si="768">AQ92/$BR$8</f>
+        <v>907.42735017951873</v>
+      </c>
+      <c r="AS92" s="11">
+        <f t="shared" ref="AS92:AS93" si="769">AR92-AR91</f>
+        <v>2.6973317320174601</v>
+      </c>
+      <c r="AT92" s="11">
+        <f t="shared" ref="AT92:AT93" si="770">SUM(AS88:AS92)/5</f>
+        <v>2.8771538474852152</v>
+      </c>
+      <c r="AV92" s="15">
+        <v>10035</v>
+      </c>
+      <c r="AW92" s="10">
+        <f t="shared" ref="AW92:AW93" si="771">AV92/$BR$9</f>
+        <v>2681.4078633788627</v>
+      </c>
+      <c r="AX92" s="11">
+        <f t="shared" ref="AX92:AX93" si="772">AW92-AW91</f>
+        <v>9.3521948398865788</v>
+      </c>
+      <c r="AY92" s="11">
+        <f t="shared" ref="AY92:AY93" si="773">SUM(AX88:AX92)/5</f>
+        <v>4.6493768632578396</v>
+      </c>
+      <c r="AZ92" s="15">
+        <v>1009</v>
+      </c>
+      <c r="BA92" s="10">
+        <f t="shared" ref="BA92:BA93" si="774">AZ92/$BR$9</f>
+        <v>269.61041695558271</v>
+      </c>
+      <c r="BB92" s="11">
+        <f t="shared" ref="BB92:BB93" si="775">BA92-BA91</f>
+        <v>1.3360278342694869</v>
+      </c>
+      <c r="BC92" s="11">
+        <f t="shared" ref="BC92:BC93" si="776">SUM(BB88:BB92)/5</f>
+        <v>1.3360278342694869</v>
+      </c>
     </row>
     <row r="93" spans="1:55">
       <c r="A93" s="2">
@@ -28993,18 +29217,186 @@
       <c r="B93" s="3">
         <v>90</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="AD93" s="15"/>
-      <c r="AH93" s="15"/>
-      <c r="AM93" s="15"/>
-      <c r="AQ93" s="15"/>
-      <c r="AV93" s="15"/>
-      <c r="AZ93" s="15"/>
+      <c r="C93" s="15">
+        <v>9427</v>
+      </c>
+      <c r="D93" s="10">
+        <f t="shared" si="742"/>
+        <v>6022.4607696764915</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="743"/>
+        <v>24.276387954567326</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="744"/>
+        <v>30.153829248831062</v>
+      </c>
+      <c r="G93" s="15">
+        <v>1414</v>
+      </c>
+      <c r="H93" s="10">
+        <f t="shared" si="745"/>
+        <v>903.33717283574401</v>
+      </c>
+      <c r="I93" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021570912</v>
+      </c>
+      <c r="J93" s="11">
+        <f t="shared" si="746"/>
+        <v>6.005211757182451</v>
+      </c>
+      <c r="L93" s="15">
+        <v>30137</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="747"/>
+        <v>6860.9724791611934</v>
+      </c>
+      <c r="N93" s="11">
+        <f t="shared" si="748"/>
+        <v>13.659566272345728</v>
+      </c>
+      <c r="O93" s="11">
+        <f t="shared" si="749"/>
+        <v>23.585517763583084</v>
+      </c>
+      <c r="P93" s="15">
+        <v>3771</v>
+      </c>
+      <c r="Q93" s="10">
+        <f t="shared" si="750"/>
+        <v>858.50374021690482</v>
+      </c>
+      <c r="R93" s="11">
+        <f t="shared" si="751"/>
+        <v>3.1872321302139426</v>
+      </c>
+      <c r="S93" s="11">
+        <f t="shared" si="752"/>
+        <v>6.328932372853342</v>
+      </c>
+      <c r="U93" s="15">
+        <v>86825</v>
+      </c>
+      <c r="V93" s="10">
+        <f t="shared" si="753"/>
+        <v>8666.2023398796227</v>
+      </c>
+      <c r="W93" s="11">
+        <f t="shared" si="754"/>
+        <v>44.017221213785888</v>
+      </c>
+      <c r="X93" s="11">
+        <f t="shared" si="755"/>
+        <v>36.052200232243194</v>
+      </c>
+      <c r="Y93" s="15">
+        <v>15840</v>
+      </c>
+      <c r="Z93" s="10">
+        <f t="shared" si="756"/>
+        <v>1581.0267211482087</v>
+      </c>
+      <c r="AA93" s="11">
+        <f t="shared" si="757"/>
+        <v>5.589488408099669</v>
+      </c>
+      <c r="AB93" s="11">
+        <f t="shared" si="758"/>
+        <v>5.9288502043057631</v>
+      </c>
+      <c r="AD93" s="15">
+        <v>19069</v>
+      </c>
+      <c r="AE93" s="10">
+        <f t="shared" si="759"/>
+        <v>3885.6622141203852</v>
+      </c>
+      <c r="AF93" s="11">
+        <f t="shared" si="760"/>
+        <v>2.0376853605962424</v>
+      </c>
+      <c r="AG93" s="11">
+        <f t="shared" si="761"/>
+        <v>4.8496911582183202</v>
+      </c>
+      <c r="AH93" s="15">
+        <v>1865</v>
+      </c>
+      <c r="AI93" s="10">
+        <f t="shared" si="762"/>
+        <v>380.02831975114157</v>
+      </c>
+      <c r="AJ93" s="11">
+        <f t="shared" si="763"/>
+        <v>2.241453896655571</v>
+      </c>
+      <c r="AK93" s="11">
+        <f t="shared" si="764"/>
+        <v>2.5267298471389608</v>
+      </c>
+      <c r="AM93" s="15">
+        <v>27513</v>
+      </c>
+      <c r="AN93" s="10">
+        <f t="shared" si="765"/>
+        <v>6184.3073285828832</v>
+      </c>
+      <c r="AO93" s="11">
+        <f t="shared" si="766"/>
+        <v>9.6654387063963441</v>
+      </c>
+      <c r="AP93" s="11">
+        <f t="shared" si="767"/>
+        <v>11.059060101271461</v>
+      </c>
+      <c r="AQ93" s="15">
+        <v>4047</v>
+      </c>
+      <c r="AR93" s="10">
+        <f t="shared" si="768"/>
+        <v>909.67512662286651</v>
+      </c>
+      <c r="AS93" s="11">
+        <f t="shared" si="769"/>
+        <v>2.2477764433477887</v>
+      </c>
+      <c r="AT93" s="11">
+        <f t="shared" si="770"/>
+        <v>2.7422872608843591</v>
+      </c>
+      <c r="AV93" s="15">
+        <v>10047</v>
+      </c>
+      <c r="AW93" s="10">
+        <f t="shared" si="771"/>
+        <v>2684.6143301811094</v>
+      </c>
+      <c r="AX93" s="11">
+        <f t="shared" si="772"/>
+        <v>3.2064668022467231</v>
+      </c>
+      <c r="AY93" s="11">
+        <f t="shared" si="773"/>
+        <v>4.5959357498870306</v>
+      </c>
+      <c r="AZ93" s="15">
+        <v>1011</v>
+      </c>
+      <c r="BA93" s="10">
+        <f t="shared" si="774"/>
+        <v>270.14482808929051</v>
+      </c>
+      <c r="BB93" s="11">
+        <f t="shared" si="775"/>
+        <v>0.53441113370780613</v>
+      </c>
+      <c r="BC93" s="11">
+        <f t="shared" si="776"/>
+        <v>1.1757044941571508</v>
+      </c>
     </row>
     <row r="94" spans="1:55">
       <c r="A94" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DCD998-919D-4370-BAFA-B4021A940044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF5682-CD5F-46E5-B8D0-D58C828DBC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$D$9:$D$74</c:f>
+              <c:f>'Dati REG'!$D$9:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>26.831797212942892</c:v>
                 </c:pt>
@@ -624,16 +624,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>5374.0256703637051</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5414.2733661831189</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5462.8261420922545</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5522.8782596640785</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5572.7087402024008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5582.2915249213092</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5614.2341406510031</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5642.3436424931342</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5662.1480642455444</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5704.9511693233344</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5746.4765697719358</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5788.0019702205382</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5820.5834382648263</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5851.2483493653317</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5871.6916234323362</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5913.8558761955319</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5934.2991502625364</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5969.4360275651998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5998.1843817219242</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6022.4607696764915</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6056.3199423499673</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6067.1804316980633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$F$9:$F$74</c:f>
+              <c:f>'Dati REG'!$F$9:$F$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>5.3663594425885783</c:v>
                 </c:pt>
@@ -831,6 +894,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>66.823952106519755</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61.585363126849735</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54.302446740479716</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42.547564151952244</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46.508448502434291</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.653170911520832</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39.992154893576846</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.903500080175945</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27.853960916293182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26.448485824186719</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32.837008970125318</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.753565913907003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>35.647959154338423</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>37.820057023957453</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33.348090821800362</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33.475861284719215</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.259436008399643</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.770517860074687</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29.387206471318496</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30.153829248831062</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.492813230887077</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.576256287105387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -862,10 +988,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$M$9:$M$74</c:f>
+              <c:f>'Dati REG'!$M$9:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2.5042538165966461</c:v>
                 </c:pt>
@@ -1063,16 +1189,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>6288.408992912051</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6323.0132274686594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6360.5770347176085</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6405.1982845406037</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6458.2429335648776</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6499.4492918197866</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6525.8577866129872</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6551.127984216826</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6576.8535006964103</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6615.3279456968494</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6649.7045208155851</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6680.8938638041072</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6712.0832067926285</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6726.6534108164642</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6743.044890343278</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6767.6321096334996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6803.6023008173424</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6827.5065417939468</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6847.3129128888477</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6860.9724791611934</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6870.7618349897075</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6881.6894880075833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$O$9:$O$74</c:f>
+              <c:f>'Dati REG'!$O$9:$O$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.36425510059587579</c:v>
                 </c:pt>
@@ -1270,6 +1459,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>80.181654018667174</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.61485304810958</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>57.142518905977887</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43.528484521207247</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42.708910544866377</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42.208059781547128</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40.568911828865566</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.110189899843498</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.33104323116131</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31.417002426394355</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.051045799159692</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.007215438224012</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32.191044515160499</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.959982024010788</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25.543388929285719</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23.585517763582903</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24.541687402647039</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23.084667000263654</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.131900414476696</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>23.585517763583084</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20.625945071241585</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15.617437438048182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,10 +1553,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$V$9:$V$74</c:f>
+              <c:f>'Dati REG'!$V$9:$V$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>61.384560196095222</c:v>
                 </c:pt>
@@ -1502,16 +1754,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>7795.8391449040937</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7845.7452914049836</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7922.0018832583446</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7993.8667342196268</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8057.1477279827559</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8107.2534990696495</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8135.4005656961517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8171.7322403488006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8274.8383390196395</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8314.1643824623425</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8366.2663994092709</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8396.1102750168029</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8435.9353799245146</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8468.4741874430947</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8485.9413387184068</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8532.0546180852289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8561.3994322277522</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8592.9401168163149</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8622.1851186658369</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8666.2023398796227</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8694.64884338513</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8709.421062749394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$X$9:$X$74</c:f>
+              <c:f>'Dati REG'!$X$9:$X$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>8.8433691599577831</c:v>
                 </c:pt>
@@ -1709,6 +2024,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>59.308464501658271</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>57.352143558823265</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>57.891129941032887</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>61.624109699299517</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>63.780055228138011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62.282870833111154</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>57.931054858233622</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49.946071418091194</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.19432096000255</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.403330895917314</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51.802580067924282</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>52.141941864130239</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>52.840627915142797</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38.727169684691034</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.355391251212858</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>33.157643735191598</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33.057831442189851</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31.400947378360069</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.742186244548428</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36.052200232243194</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32.518845059980229</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.604326104328358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,10 +2118,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AE$9:$AE$74</c:f>
+              <c:f>'Dati REG'!$AE$9:$AE$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>38.919790387382321</c:v>
                 </c:pt>
@@ -1941,16 +2319,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3743.8393130229083</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3749.7486005686364</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3765.4387778452251</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3780.5176495136348</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3793.7626043575083</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3804.5623367686667</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3814.9545321077062</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3818.8261342928386</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3827.1806442712818</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3833.4974688891293</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3840.018062043036</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3848.9838776296583</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3856.9308505359822</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3859.579841504757</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3861.4137583292936</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3870.9908795240945</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3877.7152412140608</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3879.3453895025377</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3883.624528759789</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3885.6622141203852</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3889.1262792333982</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3891.3677331300537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AG$9:$AG$74</c:f>
+              <c:f>'Dati REG'!$AG$9:$AG$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>6.4390857394831471</c:v>
                 </c:pt>
@@ -2148,6 +2589,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>22.333031552131434</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>18.013138587668074</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.527162447741011</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.407969672721174</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.226112163575545</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.144604749151677</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.04118630781395</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.677471289522691</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3325989515294161</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.9469729063242083</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.0911450548738681</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.805869104390422</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.6209432486287367</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.4798394466950411</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.5832578880328585</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.1945634962116856</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.7462727168805028</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.4829077933110968</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.8089374510063863</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.8496911582183202</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.6270799418607567</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7304983831985736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,10 +2685,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AN$9:$AN$74</c:f>
+              <c:f>'Dati REG'!$AN$9:$AN$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>48.776748820647896</c:v>
                 </c:pt>
@@ -2382,16 +2886,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>5883.5548404629435</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5906.0326048964216</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5929.4094799072391</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5953.6854654953959</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5978.6357840165565</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6005.833878981065</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6023.1417575948435</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6041.1239691416258</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6053.0371842913692</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6064.2760665081087</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6081.5839451218872</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6093.7219379159651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6109.9059283080696</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6121.1448105248091</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6129.0120280765259</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6139.5765773602607</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6150.8154595770002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6162.7286747267435</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6174.6418898764869</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6184.3073285828832</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6194.4223225779479</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6200.940874263657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AP$9:$AP$74</c:f>
+              <c:f>'Dati REG'!$AP$9:$AP$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>8.946150244524361</c:v>
                 </c:pt>
@@ -2589,6 +3156,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>44.865617809222748</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37.717688719376568</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.042313717213077</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28.636671888251477</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.164117800568782</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.455807703624306</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.421830539684379</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.342897846877349</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.870343759194657</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.128056498310436</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.150013228164426</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.116036064224318</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.756391833288763</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.621525246687998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.947192313683445</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.598526447674704</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.418704332207017</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10.564549283734777</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10.699415870335542</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.059060101271461</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.969149043537437</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.025082937331353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2620,10 +3250,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AW$9:$AW$74</c:f>
+              <c:f>'Dati REG'!$AW$9:$AW$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2.9392612353928738</c:v>
                 </c:pt>
@@ -2821,16 +3451,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>2565.4406473642712</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2573.456814369888</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2580.4041591080895</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2587.3515038462906</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2597.5053153867389</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2603.9182489912323</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2611.6672104299955</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2615.1408827990958</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2619.1489663019047</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2626.3635166069598</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2634.3796836125766</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2640.7926172170701</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2648.8087842226873</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2658.1609790625735</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2661.6346514316742</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2663.5050903996516</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2667.245968335606</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2672.0556685389761</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2681.4078633788627</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2684.6143301811094</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2688.6224136839178</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2689.9584415181876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AY$9:$AY$74</c:f>
+              <c:f>'Dati REG'!$AY$9:$AY$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.58785224707857475</c:v>
                 </c:pt>
@@ -3028,6 +3721,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>16.513304031570897</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.910070630447445</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.32951603460533</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.4436959125831894</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.4436959125831894</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.6955203253922262</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.6420792120215086</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.9473447382012639</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.3594924911228192</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.7716402440441925</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.0922869242688646</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.825081357414911</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.7335802847183004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8024025521337537</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.0542269649428819</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.8250813574150015</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.2906702237071839</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6493768632577481</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6493768632578396</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5959357498870306</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.0234646568532302</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5424946365163121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,10 +3815,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$D$9:$D$74</c:f>
+              <c:f>'Dati ITA'!$D$9:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>18.617214635276305</c:v>
                 </c:pt>
@@ -3260,16 +4016,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3497.9567689460901</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3515.6992385674748</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3539.531914040293</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3562.6548907282559</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3584.5565253213513</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3602.4310319259653</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3615.6677394946632</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3627.9471789349518</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3651.0866602458182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3665.7427653842274</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3682.1153513046124</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3695.1374987755635</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3709.5790438162253</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3720.7196642761646</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3728.1632492056947</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3741.5815076263325</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3752.5570818572355</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3763.1530497613558</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3773.9140638945119</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3784.9556566170295</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3793.7196113788482</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3798.6709982499324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$F$9:$F$74</c:f>
+              <c:f>'Dati ITA'!$F$9:$F$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2.9675311980697514</c:v>
                 </c:pt>
@@ -3467,6 +4286,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>27.552817475292795</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.92198058445674</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.202198877900173</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21.555037512119544</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>21.350380188114741</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20.894852595975046</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19.993700185437682</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.683052978931755</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.686353903512462</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16.237248012575218</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.936863875729433</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.893951856180047</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.326372976254696</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.926600806069292</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.484096764293463</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.893231264344013</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.483916616334408</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10.714801189026094</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10.638879923669446</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.358481482266962</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.427620750503138</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.2227832785393726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,7 +4510,7 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
-          <c:min val="10"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3715,7 +4597,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3939,10 +4821,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$H$9:$H$74</c:f>
+              <c:f>'Dati REG'!$H$9:$H$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4140,16 +5022,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>780.03867611912551</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>787.06605157965816</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>794.09342704019082</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>801.12080250072347</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>808.14817796125612</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>815.17555342178878</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>818.36981499475826</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>826.03604276988472</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>831.14686128663573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>839.45194137635622</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>849.03472609526443</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>853.50669229742152</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>859.89521544336026</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>865.64488627470519</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>873.31111404983176</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>879.06078488117669</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>885.44930802711542</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>892.47668348764807</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>898.86520663358692</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>903.33717283574401</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>906.53143440871338</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>910.36454829627667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$J$9:$J$74</c:f>
+              <c:f>'Dati REG'!$J$9:$J$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4347,6 +5292,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>8.8161619413955119</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.3050800897204233</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.5384573122077656</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.5384573122077656</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.1551459234514372</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0273754605326531</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.2607526830200184</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3885231459387795</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.005211757182451</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.2607526830200184</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.771834534695131</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.0273754605326531</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.7718345346951079</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.899604997613892</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.7718345346951079</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.005211757182451</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.3885231459387795</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.5162936088575636</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.6440640717763468</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.005211757182451</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.4941299055073385</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.983048053832249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,10 +5386,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$Q$9:$Q$74</c:f>
+              <c:f>'Dati REG'!$Q$9:$Q$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4579,16 +5587,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>725.32296906153772</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>732.15275219771036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>739.21019477175548</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>747.17827509729022</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>752.414442168356</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>758.33358755303891</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>766.52932731644614</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>774.04208876623602</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>780.41655302666391</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>787.70165503858141</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>795.2144164883714</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>809.7846205122064</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>818.20801971348601</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>822.30588959518957</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>826.85907835263811</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>837.55907193264193</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>846.4377900096664</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>851.90161651860456</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>855.31650808669087</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>858.50374021690482</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>861.23565347137389</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>864.65054503946021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$S$9:$S$74</c:f>
+              <c:f>'Dati REG'!$S$9:$S$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4786,6 +5857,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>8.3323354261306584</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.829783136172682</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.829783136172682</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.1029744616195787</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9663787988961303</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.6021236983002378</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.8753150237471576</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.9663787988961072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.6476555858747357</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.0574425740450808</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.3761657870664976</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.6510586391520512</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.8331861894499983</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.3778673137051332</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.8314846628113397</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.4689310888541058</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.3306338994919997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7387193610237093</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.6021236983002609</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.328932372853342</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.7353163077463929</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6425510059587625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4817,10 +5951,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$Z$9:$Z$74</c:f>
+              <c:f>'Dati REG'!$Z$9:$Z$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2.2956827390409598</c:v>
                 </c:pt>
@@ -5018,16 +6152,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1426.7169161674556</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1436.1990840026247</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1458.3574130490201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1471.7322603112586</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1481.1146158534261</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1489.5986607585776</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1495.7870229246878</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1502.574258848809</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1508.7626210149194</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1515.6496692320422</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1526.72883375524</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1538.2072474504448</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1542.0999268775142</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1548.986975094637</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1551.3824701266799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1556.7723339487759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1563.2601329938918</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1569.7479320390075</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1575.437232740109</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1581.0267211482087</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1581.0267211482087</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1584.4203391102692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AB$9:$AB$74</c:f>
+              <c:f>'Dati REG'!$AB$9:$AB$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.33936179620605494</c:v>
                 </c:pt>
@@ -5225,6 +6422,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>12.276912039219042</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.31683695641973</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.991806408867479</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.099126981798008</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.137174829016567</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.576348918224403</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.917587784412627</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.8433691599577742</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.4060721407321584</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9070106757232228</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4260345993324792</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.4840449051514035</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.9051336057410477</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.044870815943522</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.1465601789275297</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.0087000387071843</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.0105771086894038</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5296010322986602</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2900515290943986</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.9288502043057631</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.8508774398865624</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.2320412232754734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5256,10 +6516,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AI$9:$AI$74</c:f>
+              <c:f>'Dati REG'!$AI$9:$AI$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.40753707211918666</c:v>
                 </c:pt>
@@ -5457,16 +6717,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>311.35832309905857</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>314.8223882120717</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>319.50906454144234</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>323.78820379869381</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>331.53140816895831</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>334.79170474591183</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>337.64446425074613</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>339.47838107528247</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>343.55375179647433</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>348.85173373402375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>355.16855835187118</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>359.04016053700343</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>363.3192997942549</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>365.56075369091042</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>367.39467051544676</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>370.85873562845984</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>373.30395806117497</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>375.13787488571131</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>377.786865854486</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>380.02831975114157</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>380.8433938953799</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>382.67731071991625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AK$9:$AK$74</c:f>
+              <c:f>'Dati REG'!$AK$9:$AK$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>4.0753707211918663E-2</c:v>
                 </c:pt>
@@ -5664,6 +6987,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3.7085873562845904</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.5048188202250117</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.6270799418607682</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.5455725274369341</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.5236615005229623</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.6866763293706528</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.5644152077348847</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.9938633067680258</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.953109599556103</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4640651130130893</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.075370721191871</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.2791392572514608</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.7681837437944861</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.4014003788872174</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7085873562846019</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1380354553177314</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.8527595048343075</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.3637150182912818</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.4452224327151155</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.5267298471389608</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9969316533840129</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8746705317482566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5695,10 +7081,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AR$9:$AR$74</c:f>
+              <c:f>'Dati REG'!$AR$9:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.89911057733913169</c:v>
                 </c:pt>
@@ -5896,16 +7282,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>824.03484413131423</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>832.80117226037078</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>839.99405687908381</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>846.51260856479257</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>853.48071553917077</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>860.22404486921425</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>864.27004246724039</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>869.21515064260564</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>873.26114824063166</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>877.75670112732735</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>883.37614223569688</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>886.29825161204906</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>890.11947156574047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>893.04158094209265</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>895.96369031844472</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>898.43624440612734</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>900.90879849380997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>904.73001844750127</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>907.42735017951873</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>909.67512662286651</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>911.47334777754475</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>914.39545715389693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AT$9:$AT$74</c:f>
+              <c:f>'Dati REG'!$AT$9:$AT$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.17982211546782634</c:v>
                 </c:pt>
@@ -6103,6 +7552,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>6.9231514455113032</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.9231514455113254</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.1029735609791489</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8332403877774137</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9681069743782702</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.2378401475800045</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.293774041373922</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.8442187527043643</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.3497079351678165</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.8551971176313149</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.6304194732965245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.4056418289617341</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.1808641846269667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.956086540292199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6413978382234746</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0120204340860939</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9221093763521822</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.9221093763521595</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8771538474852152</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.7422872608843591</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.6074206742834805</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.6973317320173917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6134,10 +7646,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$BA$9:$BA$74</c:f>
+              <c:f>'Dati REG'!$BA$9:$BA$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6335,16 +7847,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>235.4081043982838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>237.54574893311499</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>240.21780460165397</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>244.49309367131633</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>248.50117717412479</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>250.37161614210208</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>251.70764397637157</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>253.84528851120274</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>256.25013861288784</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>257.58616644715732</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>259.99101654884237</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>260.7926332494041</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>261.59424994996579</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>262.93027778423527</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>264.26630561850476</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>265.06792231906644</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>266.6711557201898</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>268.27438912131322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>269.61041695558271</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>270.14482808929051</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>270.67923922299832</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>271.21365035670607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$BC$9:$BC$74</c:f>
+              <c:f>'Dati REG'!$BC$9:$BC$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6542,6 +8117,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>2.8858201220220905</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5117323284266377</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.4048501016850823</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.778937895280535</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0995845755052129</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.9927023487636575</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8323790086513156</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7254967819097544</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.3514089883143017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8169978546065066</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9238800813480565</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8169978546065066</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5497922877526094</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3360278342694869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3360278342694869</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0153811540448145</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1757044941571393</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3360278342694869</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3360278342694869</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1757044941571508</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1222633807863758</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.90849892730325332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6573,10 +8211,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$H$9:$H$74</c:f>
+              <c:f>'Dati ITA'!$H$9:$H$107</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.47863406420479865</c:v>
                 </c:pt>
@@ -6774,16 +8412,79 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>479.93792941418411</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>483.83302041943693</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>489.92322627087043</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>494.4454929464606</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>498.45611631203872</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>501.6580131553398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>504.38127593443608</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>507.33560343418293</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>510.17439857360449</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>513.39280003980923</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>517.71701124055596</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>521.71112998323053</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>524.23633728748337</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>526.62950760850742</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>528.26346527596513</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>530.93721418635062</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>533.59445847383245</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>536.16917964679612</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>538.31478062426595</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>540.27883074979593</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>541.10406189497667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>542.62248720210914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$J$9:$J$74</c:f>
+              <c:f>'Dati ITA'!$J$9:$J$107</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>7.2620340775900488E-2</c:v>
                 </c:pt>
@@ -6981,6 +8682,69 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>4.6113916392696748</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.4496463348142585</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7797387928865422</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.1195538767419979</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.3473176728118572</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.3440167482311383</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.1096511029998286</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.4824754326624996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1457811254287775</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9873367455541029</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.2117996170432321</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.4659708097588919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.3801467706600876</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2910218069805866</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.97413304723118</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.6440405891589309</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.3766656981203824</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.3865684718625517</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.3370546031517052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.4030730947661594</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.03336954172521</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8056057456553389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7230,7 +8994,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8848,7 +10612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12305,8 +14069,36 @@
       <c r="B94" s="3">
         <v>91</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="C94" s="15">
+        <v>229858</v>
+      </c>
+      <c r="D94" s="14">
+        <f t="shared" ref="D94:D95" si="136">C94/$P$4</f>
+        <v>3793.7196113788482</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" ref="E94:E95" si="137">D94-D93</f>
+        <v>8.7639547618186953</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" ref="F94:F95" si="138">SUM(E90:E94)/5</f>
+        <v>10.427620750503138</v>
+      </c>
+      <c r="G94" s="15">
+        <v>32785</v>
+      </c>
+      <c r="H94" s="13">
+        <f t="shared" ref="H94:H95" si="139">G94/$P$4</f>
+        <v>541.10406189497667</v>
+      </c>
+      <c r="I94" s="11">
+        <f t="shared" ref="I94:I95" si="140">H94-H93</f>
+        <v>0.82523114518073726</v>
+      </c>
+      <c r="J94" s="11">
+        <f t="shared" ref="J94:J95" si="141">SUM(I90:I94)/5</f>
+        <v>2.03336954172521</v>
+      </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2">
@@ -12315,8 +14107,36 @@
       <c r="B95" s="3">
         <v>92</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="G95" s="15"/>
+      <c r="C95" s="15">
+        <v>230158</v>
+      </c>
+      <c r="D95" s="14">
+        <f t="shared" si="136"/>
+        <v>3798.6709982499324</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="137"/>
+        <v>4.9513868710841962</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="138"/>
+        <v>9.2227832785393726</v>
+      </c>
+      <c r="G95" s="15">
+        <v>32877</v>
+      </c>
+      <c r="H95" s="13">
+        <f t="shared" si="139"/>
+        <v>542.62248720210914</v>
+      </c>
+      <c r="I95" s="11">
+        <f t="shared" si="140"/>
+        <v>1.5184253071324747</v>
+      </c>
+      <c r="J95" s="11">
+        <f t="shared" si="141"/>
+        <v>1.8056057456553389</v>
+      </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2">
@@ -12450,9 +14270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
   <dimension ref="A1:BR103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AZ92" sqref="AZ92:AZ93"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA93" sqref="BA93:BA95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25856,7 +27676,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I93" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I95" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -29168,7 +30988,7 @@
         <v>4037</v>
       </c>
       <c r="AR92" s="10">
-        <f t="shared" ref="AR92:AR93" si="768">AQ92/$BR$8</f>
+        <f t="shared" ref="AR92:AR95" si="768">AQ92/$BR$8</f>
         <v>907.42735017951873</v>
       </c>
       <c r="AS92" s="11">
@@ -29198,7 +31018,7 @@
         <v>1009</v>
       </c>
       <c r="BA92" s="10">
-        <f t="shared" ref="BA92:BA93" si="774">AZ92/$BR$9</f>
+        <f t="shared" ref="BA92:BA95" si="774">AZ92/$BR$9</f>
         <v>269.61041695558271</v>
       </c>
       <c r="BB92" s="11">
@@ -29405,18 +31225,186 @@
       <c r="B94" s="3">
         <v>91</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="AD94" s="15"/>
-      <c r="AH94" s="15"/>
-      <c r="AM94" s="15"/>
-      <c r="AQ94" s="15"/>
-      <c r="AV94" s="15"/>
-      <c r="AZ94" s="15"/>
+      <c r="C94" s="15">
+        <v>9480</v>
+      </c>
+      <c r="D94" s="10">
+        <f t="shared" ref="D94:D95" si="777">C94/$BR$4</f>
+        <v>6056.3199423499673</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" ref="E94:E95" si="778">D94-D93</f>
+        <v>33.859172673475769</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" ref="F94:F95" si="779">SUM(E90:E94)/5</f>
+        <v>28.492813230887077</v>
+      </c>
+      <c r="G94" s="15">
+        <v>1419</v>
+      </c>
+      <c r="H94" s="10">
+        <f t="shared" ref="H94:H95" si="780">G94/$BR$4</f>
+        <v>906.53143440871338</v>
+      </c>
+      <c r="I94" s="11">
+        <f t="shared" si="357"/>
+        <v>3.1942615729693671</v>
+      </c>
+      <c r="J94" s="11">
+        <f t="shared" ref="J94:J95" si="781">SUM(I90:I94)/5</f>
+        <v>5.4941299055073385</v>
+      </c>
+      <c r="L94" s="15">
+        <v>30180</v>
+      </c>
+      <c r="M94" s="10">
+        <f t="shared" ref="M94:M95" si="782">L94/$BR$5</f>
+        <v>6870.7618349897075</v>
+      </c>
+      <c r="N94" s="11">
+        <f t="shared" ref="N94:N95" si="783">M94-M93</f>
+        <v>9.7893558285140898</v>
+      </c>
+      <c r="O94" s="11">
+        <f t="shared" ref="O94:O95" si="784">SUM(N90:N94)/5</f>
+        <v>20.625945071241585</v>
+      </c>
+      <c r="P94" s="15">
+        <v>3783</v>
+      </c>
+      <c r="Q94" s="10">
+        <f t="shared" ref="Q94:Q95" si="785">P94/$BR$5</f>
+        <v>861.23565347137389</v>
+      </c>
+      <c r="R94" s="11">
+        <f t="shared" ref="R94:R95" si="786">Q94-Q93</f>
+        <v>2.7319132544690774</v>
+      </c>
+      <c r="S94" s="11">
+        <f t="shared" ref="S94:S95" si="787">SUM(R90:R94)/5</f>
+        <v>4.7353163077463929</v>
+      </c>
+      <c r="U94" s="15">
+        <v>87110</v>
+      </c>
+      <c r="V94" s="10">
+        <f t="shared" ref="V94:V95" si="788">U94/$BR$6</f>
+        <v>8694.64884338513</v>
+      </c>
+      <c r="W94" s="11">
+        <f t="shared" ref="W94:W95" si="789">V94-V93</f>
+        <v>28.44650350550728</v>
+      </c>
+      <c r="X94" s="11">
+        <f t="shared" ref="X94:X95" si="790">SUM(W90:W94)/5</f>
+        <v>32.518845059980229</v>
+      </c>
+      <c r="Y94" s="15">
+        <v>15840</v>
+      </c>
+      <c r="Z94" s="10">
+        <f t="shared" ref="Z94:Z95" si="791">Y94/$BR$6</f>
+        <v>1581.0267211482087</v>
+      </c>
+      <c r="AA94" s="11">
+        <f t="shared" ref="AA94:AA95" si="792">Z94-Z93</f>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="11">
+        <f t="shared" ref="AB94:AB95" si="793">SUM(AA90:AA94)/5</f>
+        <v>4.8508774398865624</v>
+      </c>
+      <c r="AD94" s="15">
+        <v>19086</v>
+      </c>
+      <c r="AE94" s="10">
+        <f t="shared" ref="AE94:AE95" si="794">AD94/$BR$7</f>
+        <v>3889.1262792333982</v>
+      </c>
+      <c r="AF94" s="11">
+        <f t="shared" ref="AF94:AF95" si="795">AE94-AE93</f>
+        <v>3.4640651130130209</v>
+      </c>
+      <c r="AG94" s="11">
+        <f t="shared" ref="AG94:AG95" si="796">SUM(AF90:AF94)/5</f>
+        <v>3.6270799418607567</v>
+      </c>
+      <c r="AH94" s="15">
+        <v>1869</v>
+      </c>
+      <c r="AI94" s="10">
+        <f t="shared" ref="AI94:AI95" si="797">AH94/$BR$7</f>
+        <v>380.8433938953799</v>
+      </c>
+      <c r="AJ94" s="11">
+        <f t="shared" ref="AJ94:AJ95" si="798">AI94-AI93</f>
+        <v>0.81507414423833779</v>
+      </c>
+      <c r="AK94" s="11">
+        <f t="shared" ref="AK94:AK95" si="799">SUM(AJ90:AJ94)/5</f>
+        <v>1.9969316533840129</v>
+      </c>
+      <c r="AM94" s="15">
+        <v>27558</v>
+      </c>
+      <c r="AN94" s="10">
+        <f t="shared" ref="AN94:AN95" si="800">AM94/$BR$8</f>
+        <v>6194.4223225779479</v>
+      </c>
+      <c r="AO94" s="11">
+        <f t="shared" ref="AO94:AO95" si="801">AN94-AN93</f>
+        <v>10.114993995064651</v>
+      </c>
+      <c r="AP94" s="11">
+        <f t="shared" ref="AP94:AP95" si="802">SUM(AO90:AO94)/5</f>
+        <v>10.969149043537437</v>
+      </c>
+      <c r="AQ94" s="15">
+        <v>4055</v>
+      </c>
+      <c r="AR94" s="10">
+        <f t="shared" si="768"/>
+        <v>911.47334777754475</v>
+      </c>
+      <c r="AS94" s="11">
+        <f t="shared" ref="AS94:AS95" si="803">AR94-AR93</f>
+        <v>1.798221154678231</v>
+      </c>
+      <c r="AT94" s="11">
+        <f t="shared" ref="AT94:AT95" si="804">SUM(AS90:AS94)/5</f>
+        <v>2.6074206742834805</v>
+      </c>
+      <c r="AV94" s="15">
+        <v>10062</v>
+      </c>
+      <c r="AW94" s="10">
+        <f t="shared" ref="AW94:AW95" si="805">AV94/$BR$9</f>
+        <v>2688.6224136839178</v>
+      </c>
+      <c r="AX94" s="11">
+        <f t="shared" ref="AX94:AX95" si="806">AW94-AW93</f>
+        <v>4.0080835028084039</v>
+      </c>
+      <c r="AY94" s="11">
+        <f t="shared" ref="AY94:AY95" si="807">SUM(AX90:AX94)/5</f>
+        <v>5.0234646568532302</v>
+      </c>
+      <c r="AZ94" s="15">
+        <v>1013</v>
+      </c>
+      <c r="BA94" s="10">
+        <f t="shared" si="774"/>
+        <v>270.67923922299832</v>
+      </c>
+      <c r="BB94" s="11">
+        <f t="shared" ref="BB94:BB95" si="808">BA94-BA93</f>
+        <v>0.53441113370780613</v>
+      </c>
+      <c r="BC94" s="11">
+        <f t="shared" ref="BC94:BC95" si="809">SUM(BB90:BB94)/5</f>
+        <v>1.1222633807863758</v>
+      </c>
     </row>
     <row r="95" spans="1:55">
       <c r="A95" s="2">
@@ -29425,18 +31413,186 @@
       <c r="B95" s="3">
         <v>92</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="U95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="AD95" s="15"/>
-      <c r="AH95" s="15"/>
-      <c r="AM95" s="15"/>
-      <c r="AQ95" s="15"/>
-      <c r="AV95" s="15"/>
-      <c r="AZ95" s="15"/>
+      <c r="C95" s="15">
+        <v>9497</v>
+      </c>
+      <c r="D95" s="10">
+        <f t="shared" si="777"/>
+        <v>6067.1804316980633</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="778"/>
+        <v>10.860489348096053</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="779"/>
+        <v>26.576256287105387</v>
+      </c>
+      <c r="G95" s="15">
+        <v>1425</v>
+      </c>
+      <c r="H95" s="10">
+        <f t="shared" si="780"/>
+        <v>910.36454829627667</v>
+      </c>
+      <c r="I95" s="11">
+        <f t="shared" si="357"/>
+        <v>3.833113887563286</v>
+      </c>
+      <c r="J95" s="11">
+        <f t="shared" si="781"/>
+        <v>4.983048053832249</v>
+      </c>
+      <c r="L95" s="15">
+        <v>30228</v>
+      </c>
+      <c r="M95" s="10">
+        <f t="shared" si="782"/>
+        <v>6881.6894880075833</v>
+      </c>
+      <c r="N95" s="11">
+        <f t="shared" si="783"/>
+        <v>10.927653017875855</v>
+      </c>
+      <c r="O95" s="11">
+        <f t="shared" si="784"/>
+        <v>15.617437438048182</v>
+      </c>
+      <c r="P95" s="15">
+        <v>3798</v>
+      </c>
+      <c r="Q95" s="10">
+        <f t="shared" si="785"/>
+        <v>864.65054503946021</v>
+      </c>
+      <c r="R95" s="11">
+        <f t="shared" si="786"/>
+        <v>3.4148915680863183</v>
+      </c>
+      <c r="S95" s="11">
+        <f t="shared" si="787"/>
+        <v>3.6425510059587625</v>
+      </c>
+      <c r="U95" s="15">
+        <v>87258</v>
+      </c>
+      <c r="V95" s="10">
+        <f t="shared" si="788"/>
+        <v>8709.421062749394</v>
+      </c>
+      <c r="W95" s="11">
+        <f t="shared" si="789"/>
+        <v>14.772219364263947</v>
+      </c>
+      <c r="X95" s="11">
+        <f t="shared" si="790"/>
+        <v>29.604326104328358</v>
+      </c>
+      <c r="Y95" s="15">
+        <v>15874</v>
+      </c>
+      <c r="Z95" s="10">
+        <f t="shared" si="791"/>
+        <v>1584.4203391102692</v>
+      </c>
+      <c r="AA95" s="11">
+        <f t="shared" si="792"/>
+        <v>3.3936179620604889</v>
+      </c>
+      <c r="AB95" s="11">
+        <f t="shared" si="793"/>
+        <v>4.2320412232754734</v>
+      </c>
+      <c r="AD95" s="15">
+        <v>19097</v>
+      </c>
+      <c r="AE95" s="10">
+        <f t="shared" si="794"/>
+        <v>3891.3677331300537</v>
+      </c>
+      <c r="AF95" s="11">
+        <f t="shared" si="795"/>
+        <v>2.2414538966554574</v>
+      </c>
+      <c r="AG95" s="11">
+        <f t="shared" si="796"/>
+        <v>2.7304983831985736</v>
+      </c>
+      <c r="AH95" s="15">
+        <v>1878</v>
+      </c>
+      <c r="AI95" s="10">
+        <f t="shared" si="797"/>
+        <v>382.67731071991625</v>
+      </c>
+      <c r="AJ95" s="11">
+        <f t="shared" si="798"/>
+        <v>1.8339168245363453</v>
+      </c>
+      <c r="AK95" s="11">
+        <f t="shared" si="799"/>
+        <v>1.8746705317482566</v>
+      </c>
+      <c r="AM95" s="15">
+        <v>27587</v>
+      </c>
+      <c r="AN95" s="10">
+        <f t="shared" si="800"/>
+        <v>6200.940874263657</v>
+      </c>
+      <c r="AO95" s="11">
+        <f t="shared" si="801"/>
+        <v>6.5185516857090988</v>
+      </c>
+      <c r="AP95" s="11">
+        <f t="shared" si="802"/>
+        <v>10.025082937331353</v>
+      </c>
+      <c r="AQ95" s="15">
+        <v>4068</v>
+      </c>
+      <c r="AR95" s="10">
+        <f t="shared" si="768"/>
+        <v>914.39545715389693</v>
+      </c>
+      <c r="AS95" s="11">
+        <f t="shared" si="803"/>
+        <v>2.9221093763521822</v>
+      </c>
+      <c r="AT95" s="11">
+        <f t="shared" si="804"/>
+        <v>2.6973317320173917</v>
+      </c>
+      <c r="AV95" s="15">
+        <v>10067</v>
+      </c>
+      <c r="AW95" s="10">
+        <f t="shared" si="805"/>
+        <v>2689.9584415181876</v>
+      </c>
+      <c r="AX95" s="11">
+        <f t="shared" si="806"/>
+        <v>1.3360278342697711</v>
+      </c>
+      <c r="AY95" s="11">
+        <f t="shared" si="807"/>
+        <v>4.5424946365163121</v>
+      </c>
+      <c r="AZ95" s="15">
+        <v>1015</v>
+      </c>
+      <c r="BA95" s="10">
+        <f t="shared" si="774"/>
+        <v>271.21365035670607</v>
+      </c>
+      <c r="BB95" s="11">
+        <f t="shared" si="808"/>
+        <v>0.53441113370774929</v>
+      </c>
+      <c r="BC95" s="11">
+        <f t="shared" si="809"/>
+        <v>0.90849892730325332</v>
+      </c>
     </row>
     <row r="96" spans="1:55">
       <c r="A96" s="2">
@@ -29616,9 +31772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF5682-CD5F-46E5-B8D0-D58C828DBC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B177C629-3B5B-4593-9DA2-E2F47E1DEF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -688,6 +688,9 @@
                 <c:pt idx="86">
                   <c:v>6067.1804316980633</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>6101.0396043715382</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -695,7 +698,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$F$9:$F$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>5.3663594425885783</c:v>
@@ -957,6 +960,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>26.576256287105387</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26.320715361267684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,6 +1259,9 @@
                 <c:pt idx="86">
                   <c:v>6881.6894880075833</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>6901.2681996646115</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1260,7 +1269,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$O$9:$O$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.36425510059587579</c:v>
@@ -1522,6 +1531,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>15.617437438048182</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.752331574132949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,6 +1830,9 @@
                 <c:pt idx="86">
                   <c:v>8709.421062749394</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>8725.2912173366767</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1825,7 +1840,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$X$9:$X$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>8.8433691599577831</c:v>
@@ -2087,6 +2102,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>29.604326104328358</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26.470220104072361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,6 +2401,9 @@
                 <c:pt idx="86">
                   <c:v>3891.3677331300537</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>3892.9978814185306</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2390,7 +2411,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AG$9:$AG$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>6.4390857394831471</c:v>
@@ -2651,6 +2672,9 @@
                   <c:v>3.6270799418607567</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>2.7304983831985736</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>2.7304983831985736</c:v>
                 </c:pt>
               </c:numCache>
@@ -2950,6 +2974,9 @@
                 <c:pt idx="86">
                   <c:v>6200.940874263657</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>6206.3355377276912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2957,7 +2984,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AP$9:$AP$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>8.946150244524361</c:v>
@@ -3219,6 +3246,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>10.025082937331353</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7213726001895342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,6 +3545,9 @@
                 <c:pt idx="86">
                   <c:v>2689.9584415181876</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>2690.7600582187492</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3522,7 +3555,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AY$9:$AY$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.58785224707857475</c:v>
@@ -3784,6 +3817,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>4.5424946365163121</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7408779359546314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,6 +4116,9 @@
                 <c:pt idx="86">
                   <c:v>3798.6709982499324</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>3805.2233335426672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4087,7 +4126,7 @@
             <c:numRef>
               <c:f>'Dati ITA'!$F$9:$F$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2.9675311980697514</c:v>
@@ -4349,6 +4388,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>9.2227832785393726</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.4140567562622888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,7 +4639,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5086,6 +5128,9 @@
                 <c:pt idx="86">
                   <c:v>910.36454829627667</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>914.19766218383995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5093,7 +5138,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$J$9:$J$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5355,6 +5400,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>4.983048053832249</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3441957392383754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5651,6 +5699,9 @@
                 <c:pt idx="86">
                   <c:v>864.65054503946021</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>867.83777716967404</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5658,7 +5709,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$S$9:$S$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5920,6 +5971,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>3.6425510059587625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1872321302138973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6216,6 +6270,9 @@
                 <c:pt idx="86">
                   <c:v>1584.4203391102692</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>1586.6162095563084</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6223,7 +6280,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AB$9:$AB$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.33936179620605494</c:v>
@@ -6485,6 +6542,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>4.2320412232754734</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.3736555034601681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6781,6 +6841,9 @@
                 <c:pt idx="86">
                   <c:v>382.67731071991625</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>384.30745900839298</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6788,7 +6851,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AK$9:$AK$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>4.0753707211918663E-2</c:v>
@@ -7050,6 +7113,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1.8746705317482566</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.833916824536334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7346,6 +7412,9 @@
                 <c:pt idx="86">
                   <c:v>914.39545715389693</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>916.19367830857527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7353,7 +7422,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$AT$9:$AT$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0.17982211546782634</c:v>
@@ -7615,6 +7684,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2.6973317320173917</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2927319722148014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7911,6 +7983,9 @@
                 <c:pt idx="86">
                   <c:v>271.21365035670607</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>272.81688375782949</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7918,7 +7993,7 @@
             <c:numRef>
               <c:f>'Dati REG'!$BC$9:$BC$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8179,6 +8254,9 @@
                   <c:v>1.1222633807863758</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>0.90849892730325332</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0.90849892730325332</c:v>
                 </c:pt>
               </c:numCache>
@@ -8476,6 +8554,9 @@
                 <c:pt idx="86">
                   <c:v>542.62248720210914</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>543.90984778859104</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8483,7 +8564,7 @@
             <c:numRef>
               <c:f>'Dati ITA'!$J$9:$J$107</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>7.2620340775900488E-2</c:v>
@@ -8745,6 +8826,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1.8056057456553389</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5481336283589826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8907,7 +8991,7 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="1"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8994,7 +9078,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,#00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10234,14 +10318,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -10272,16 +10356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10612,7 +10696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14145,8 +14229,36 @@
       <c r="B96" s="3">
         <v>93</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="G96" s="15"/>
+      <c r="C96" s="15">
+        <v>230555</v>
+      </c>
+      <c r="D96" s="14">
+        <f t="shared" ref="D96" si="142">C96/$P$4</f>
+        <v>3805.2233335426672</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" ref="E96" si="143">D96-D95</f>
+        <v>6.5523352927348242</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" ref="F96" si="144">SUM(E92:E96)/5</f>
+        <v>8.4140567562622888</v>
+      </c>
+      <c r="G96" s="15">
+        <v>32955</v>
+      </c>
+      <c r="H96" s="13">
+        <f t="shared" ref="H96" si="145">G96/$P$4</f>
+        <v>543.90984778859104</v>
+      </c>
+      <c r="I96" s="11">
+        <f t="shared" ref="I96" si="146">H96-H95</f>
+        <v>1.2873605864818956</v>
+      </c>
+      <c r="J96" s="11">
+        <f t="shared" ref="J96" si="147">SUM(I92:I96)/5</f>
+        <v>1.5481336283589826</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
@@ -14272,7 +14384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA93" sqref="BA93:BA95"/>
+      <selection pane="bottomLeft" activeCell="AZ97" sqref="AZ97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27676,7 +27788,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I95" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I96" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -31601,18 +31713,186 @@
       <c r="B96" s="3">
         <v>93</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="U96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="AD96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AM96" s="15"/>
-      <c r="AQ96" s="15"/>
-      <c r="AV96" s="15"/>
-      <c r="AZ96" s="15"/>
+      <c r="C96" s="15">
+        <v>9550</v>
+      </c>
+      <c r="D96" s="10">
+        <f t="shared" ref="D96" si="810">C96/$BR$4</f>
+        <v>6101.0396043715382</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" ref="E96" si="811">D96-D95</f>
+        <v>33.859172673474859</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" ref="F96" si="812">SUM(E92:E96)/5</f>
+        <v>26.320715361267684</v>
+      </c>
+      <c r="G96" s="15">
+        <v>1431</v>
+      </c>
+      <c r="H96" s="10">
+        <f t="shared" ref="H96" si="813">G96/$BR$4</f>
+        <v>914.19766218383995</v>
+      </c>
+      <c r="I96" s="11">
+        <f t="shared" si="357"/>
+        <v>3.833113887563286</v>
+      </c>
+      <c r="J96" s="11">
+        <f t="shared" ref="J96" si="814">SUM(I92:I96)/5</f>
+        <v>4.3441957392383754</v>
+      </c>
+      <c r="L96" s="15">
+        <v>30314</v>
+      </c>
+      <c r="M96" s="10">
+        <f t="shared" ref="M96" si="815">L96/$BR$5</f>
+        <v>6901.2681996646115</v>
+      </c>
+      <c r="N96" s="11">
+        <f t="shared" ref="N96" si="816">M96-M95</f>
+        <v>19.57871165702818</v>
+      </c>
+      <c r="O96" s="11">
+        <f t="shared" ref="O96" si="817">SUM(N92:N96)/5</f>
+        <v>14.752331574132949</v>
+      </c>
+      <c r="P96" s="15">
+        <v>3812</v>
+      </c>
+      <c r="Q96" s="10">
+        <f t="shared" ref="Q96" si="818">P96/$BR$5</f>
+        <v>867.83777716967404</v>
+      </c>
+      <c r="R96" s="11">
+        <f t="shared" ref="R96" si="819">Q96-Q95</f>
+        <v>3.1872321302138289</v>
+      </c>
+      <c r="S96" s="11">
+        <f t="shared" ref="S96" si="820">SUM(R92:R96)/5</f>
+        <v>3.1872321302138973</v>
+      </c>
+      <c r="U96" s="15">
+        <v>87417</v>
+      </c>
+      <c r="V96" s="10">
+        <f t="shared" ref="V96" si="821">U96/$BR$6</f>
+        <v>8725.2912173366767</v>
+      </c>
+      <c r="W96" s="11">
+        <f t="shared" ref="W96" si="822">V96-V95</f>
+        <v>15.870154587282741</v>
+      </c>
+      <c r="X96" s="11">
+        <f t="shared" ref="X96" si="823">SUM(W92:W96)/5</f>
+        <v>26.470220104072361</v>
+      </c>
+      <c r="Y96" s="15">
+        <v>15896</v>
+      </c>
+      <c r="Z96" s="10">
+        <f t="shared" ref="Z96" si="824">Y96/$BR$6</f>
+        <v>1586.6162095563084</v>
+      </c>
+      <c r="AA96" s="11">
+        <f t="shared" ref="AA96" si="825">Z96-Z95</f>
+        <v>2.19587044603918</v>
+      </c>
+      <c r="AB96" s="11">
+        <f t="shared" ref="AB96" si="826">SUM(AA92:AA96)/5</f>
+        <v>3.3736555034601681</v>
+      </c>
+      <c r="AD96" s="15">
+        <v>19105</v>
+      </c>
+      <c r="AE96" s="10">
+        <f t="shared" ref="AE96" si="827">AD96/$BR$7</f>
+        <v>3892.9978814185306</v>
+      </c>
+      <c r="AF96" s="11">
+        <f t="shared" ref="AF96" si="828">AE96-AE95</f>
+        <v>1.630148288476903</v>
+      </c>
+      <c r="AG96" s="11">
+        <f t="shared" ref="AG96" si="829">SUM(AF92:AF96)/5</f>
+        <v>2.7304983831985736</v>
+      </c>
+      <c r="AH96" s="15">
+        <v>1886</v>
+      </c>
+      <c r="AI96" s="10">
+        <f t="shared" ref="AI96" si="830">AH96/$BR$7</f>
+        <v>384.30745900839298</v>
+      </c>
+      <c r="AJ96" s="11">
+        <f t="shared" ref="AJ96" si="831">AI96-AI95</f>
+        <v>1.6301482884767324</v>
+      </c>
+      <c r="AK96" s="11">
+        <f t="shared" ref="AK96" si="832">SUM(AJ92:AJ96)/5</f>
+        <v>1.833916824536334</v>
+      </c>
+      <c r="AM96" s="15">
+        <v>27611</v>
+      </c>
+      <c r="AN96" s="10">
+        <f t="shared" ref="AN96" si="833">AM96/$BR$8</f>
+        <v>6206.3355377276912</v>
+      </c>
+      <c r="AO96" s="11">
+        <f t="shared" ref="AO96" si="834">AN96-AN95</f>
+        <v>5.3946634640342381</v>
+      </c>
+      <c r="AP96" s="11">
+        <f t="shared" ref="AP96" si="835">SUM(AO92:AO96)/5</f>
+        <v>8.7213726001895342</v>
+      </c>
+      <c r="AQ96" s="15">
+        <v>4076</v>
+      </c>
+      <c r="AR96" s="10">
+        <f t="shared" ref="AR96" si="836">AQ96/$BR$8</f>
+        <v>916.19367830857527</v>
+      </c>
+      <c r="AS96" s="11">
+        <f t="shared" ref="AS96" si="837">AR96-AR95</f>
+        <v>1.7982211546783446</v>
+      </c>
+      <c r="AT96" s="11">
+        <f t="shared" ref="AT96" si="838">SUM(AS92:AS96)/5</f>
+        <v>2.2927319722148014</v>
+      </c>
+      <c r="AV96" s="15">
+        <v>10070</v>
+      </c>
+      <c r="AW96" s="10">
+        <f t="shared" ref="AW96" si="839">AV96/$BR$9</f>
+        <v>2690.7600582187492</v>
+      </c>
+      <c r="AX96" s="11">
+        <f t="shared" ref="AX96" si="840">AW96-AW95</f>
+        <v>0.80161670056168077</v>
+      </c>
+      <c r="AY96" s="11">
+        <f t="shared" ref="AY96" si="841">SUM(AX92:AX96)/5</f>
+        <v>3.7408779359546314</v>
+      </c>
+      <c r="AZ96" s="15">
+        <v>1021</v>
+      </c>
+      <c r="BA96" s="10">
+        <f t="shared" ref="BA96" si="842">AZ96/$BR$9</f>
+        <v>272.81688375782949</v>
+      </c>
+      <c r="BB96" s="11">
+        <f t="shared" ref="BB96" si="843">BA96-BA95</f>
+        <v>1.6032334011234184</v>
+      </c>
+      <c r="BC96" s="11">
+        <f t="shared" ref="BC96" si="844">SUM(BB92:BB96)/5</f>
+        <v>0.90849892730325332</v>
+      </c>
     </row>
     <row r="97" spans="1:52">
       <c r="A97" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B177C629-3B5B-4593-9DA2-E2F47E1DEF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E313DF-DB77-4ADA-BCC9-FDAEC19F79B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -691,6 +691,18 @@
                 <c:pt idx="87">
                   <c:v>6101.0396043715382</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>6125.9548446406998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6136.1764816742016</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6145.1204140785167</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6165.5636881455202</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -963,6 +975,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>26.320715361267684</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>25.554092583755118</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.743142399542013</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.760094345709877</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.676651289491382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,6 +1286,18 @@
                 <c:pt idx="87">
                   <c:v>6901.2681996646115</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>6917.8873386292989</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6931.0915860258992</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6943.840514546755</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6962.5085884522932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1534,6 +1570,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>14.752331574132949</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.114885148090252</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.023821372941166</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.615735911409502</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.163820088941975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,6 +1881,18 @@
                 <c:pt idx="87">
                   <c:v>8725.2912173366767</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>8763.6191378493604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8801.7474337760414</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8837.080985498671</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8859.1395022520646</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2105,6 +2165,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>26.470220104072361</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>28.286803836704713</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.109018779283723</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28.486428422708194</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.943687900534133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,6 +2476,18 @@
                 <c:pt idx="87">
                   <c:v>3892.9978814185306</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>3894.628029707007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3897.0732521397222</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3898.9071689642587</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3901.3523913969739</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2676,6 +2760,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2.7304983831985736</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2007001894436145</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2822076038673913</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9561779461721016</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9969316533840356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,6 +3073,18 @@
                 <c:pt idx="87">
                   <c:v>6206.3355377276912</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>6209.9319800370477</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6226.5655257178223</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6235.1070762025438</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6239.6026290892396</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3249,6 +3357,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>8.7213726001895342</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.0580180321121588</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.4516394269878212</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.1369507249191884</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.7323509651165292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,6 +3668,18 @@
                 <c:pt idx="87">
                   <c:v>2690.7600582187492</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>2693.966525020996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2695.0353472884112</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2695.5697584221193</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2698.776225224366</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3820,6 +3952,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3.7408779359546314</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.5117323284266604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0842034214603702</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3894689476403073</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7635567412356976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,6 +4263,18 @@
                 <c:pt idx="87">
                   <c:v>3805.2233335426672</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>3805.2233335426672</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3814.8620333183776</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3824.6492747002203</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3833.165660118485</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4391,6 +4547,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>8.4140567562622888</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.2618539296310702</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9812753402696215</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.1859326642744232</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8989323737105224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,6 +5299,18 @@
                 <c:pt idx="87">
                   <c:v>914.19766218383995</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>918.66962838599716</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>923.14159458815425</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>927.61356079031145</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>932.08552699246854</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5402,6 +5582,18 @@
                   <c:v>4.983048053832249</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>4.3441957392383754</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.960884350482047</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.960884350482047</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.2164252763196144</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>4.3441957392383754</c:v>
                 </c:pt>
               </c:numCache>
@@ -5702,6 +5894,18 @@
                 <c:pt idx="87">
                   <c:v>867.83777716967404</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>871.48032817563285</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>873.75692255435706</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>876.71649524669851</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>878.31011131180549</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5974,6 +6178,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3.1872321302138973</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.2327640177883952</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.0506364674904489</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.0961683550649242</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.7319132544690548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6273,6 +6489,18 @@
                 <c:pt idx="87">
                   <c:v>1586.6162095563084</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>1592.4053225504117</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1594.4015684104475</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1598.194435544515</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1604.8818591756344</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6545,6 +6773,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3.3736555034601681</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.3936179620605342</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.674969452447749</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.4335428792612674</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0923040130730444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6844,6 +7084,18 @@
                 <c:pt idx="87">
                   <c:v>384.30745900839298</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>386.14137583292933</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>386.75268144110811</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>388.38282972958484</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>390.4205150901808</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7116,6 +7368,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.833916824536334</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6709019956886664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.3448723379933085</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5078871668409874</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5486408740529101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7415,6 +7679,18 @@
                 <c:pt idx="87">
                   <c:v>916.19367830857527</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>917.76712181891867</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>920.23967590660129</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>922.03789706127964</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>923.16178528295347</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7687,6 +7963,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2.2927319722148014</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0679543278799883</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1129098567469553</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1129098567469784</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7532656258113093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7986,6 +8274,18 @@
                 <c:pt idx="87">
                   <c:v>272.81688375782949</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>274.42011715895285</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>274.95452829266065</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>275.48893942636846</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>277.09217282749182</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8258,6 +8558,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.90849892730325332</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.96194004067402827</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.96194004067402827</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.96194004067402827</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1757044941571508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8557,6 +8869,18 @@
                 <c:pt idx="87">
                   <c:v>543.90984778859104</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>545.84088866831382</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>546.99621227156672</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>548.43211446418115</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>550.26412760648225</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8829,6 +9153,18 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.5481336283589826</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5052216088095747</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.343476304354158</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4656105138408975</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5283280808746214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10696,7 +11032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14260,47 +14596,159 @@
         <v>1.5481336283589826</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>43978</v>
       </c>
       <c r="B97" s="3">
         <v>94</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="G97" s="15"/>
+      <c r="C97" s="15">
+        <v>231139</v>
+      </c>
+      <c r="D97" s="14">
+        <f>C96/$P$4</f>
+        <v>3805.2233335426672</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" ref="E97:E100" si="148">D97-D96</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <f t="shared" ref="F97:F100" si="149">SUM(E93:E97)/5</f>
+        <v>6.2618539296310702</v>
+      </c>
+      <c r="G97" s="15">
+        <v>33072</v>
+      </c>
+      <c r="H97" s="13">
+        <f t="shared" ref="H97:H100" si="150">G97/$P$4</f>
+        <v>545.84088866831382</v>
+      </c>
+      <c r="I97" s="11">
+        <f t="shared" ref="I97:I100" si="151">H97-H96</f>
+        <v>1.9310408797227865</v>
+      </c>
+      <c r="J97" s="11">
+        <f t="shared" ref="J97:J100" si="152">SUM(I93:I97)/5</f>
+        <v>1.5052216088095747</v>
+      </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>43979</v>
       </c>
       <c r="B98" s="3">
         <v>95</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="G98" s="15"/>
+      <c r="C98" s="15">
+        <v>231732</v>
+      </c>
+      <c r="D98" s="14">
+        <f>C97/$P$4</f>
+        <v>3814.8620333183776</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="148"/>
+        <v>9.6386997757103927</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" si="149"/>
+        <v>5.9812753402696215</v>
+      </c>
+      <c r="G98" s="15">
+        <v>33142</v>
+      </c>
+      <c r="H98" s="13">
+        <f t="shared" si="150"/>
+        <v>546.99621227156672</v>
+      </c>
+      <c r="I98" s="11">
+        <f t="shared" si="151"/>
+        <v>1.1553236032528957</v>
+      </c>
+      <c r="J98" s="11">
+        <f t="shared" si="152"/>
+        <v>1.343476304354158</v>
+      </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>43980</v>
       </c>
       <c r="B99" s="3">
         <v>96</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="G99" s="15"/>
+      <c r="C99" s="15">
+        <v>232248</v>
+      </c>
+      <c r="D99" s="14">
+        <f>C98/$P$4</f>
+        <v>3824.6492747002203</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" si="148"/>
+        <v>9.7872413818427049</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="149"/>
+        <v>6.1859326642744232</v>
+      </c>
+      <c r="G99" s="15">
+        <v>33229</v>
+      </c>
+      <c r="H99" s="13">
+        <f t="shared" si="150"/>
+        <v>548.43211446418115</v>
+      </c>
+      <c r="I99" s="11">
+        <f t="shared" si="151"/>
+        <v>1.4359021926144351</v>
+      </c>
+      <c r="J99" s="11">
+        <f t="shared" si="152"/>
+        <v>1.4656105138408975</v>
+      </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>43981</v>
       </c>
       <c r="B100" s="3">
         <v>97</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="G100" s="15"/>
+      <c r="C100" s="15">
+        <v>232664</v>
+      </c>
+      <c r="D100" s="14">
+        <f>C99/$P$4</f>
+        <v>3833.165660118485</v>
+      </c>
+      <c r="E100" s="11">
+        <f t="shared" si="148"/>
+        <v>8.5163854182646901</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" si="149"/>
+        <v>6.8989323737105224</v>
+      </c>
+      <c r="G100" s="15">
+        <v>33340</v>
+      </c>
+      <c r="H100" s="13">
+        <f t="shared" si="150"/>
+        <v>550.26412760648225</v>
+      </c>
+      <c r="I100" s="11">
+        <f t="shared" si="151"/>
+        <v>1.8320131423010935</v>
+      </c>
+      <c r="J100" s="11">
+        <f t="shared" si="152"/>
+        <v>1.5283280808746214</v>
+      </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>43982</v>
       </c>
@@ -14310,7 +14758,7 @@
       <c r="C101" s="15"/>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>43983</v>
       </c>
@@ -14320,7 +14768,7 @@
       <c r="C102" s="15"/>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>43984</v>
       </c>
@@ -14330,7 +14778,7 @@
       <c r="C103" s="15"/>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>43985</v>
       </c>
@@ -14340,7 +14788,7 @@
       <c r="C104" s="15"/>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:10">
       <c r="A105" s="2">
         <v>43986</v>
       </c>
@@ -14350,7 +14798,7 @@
       <c r="C105" s="15"/>
       <c r="G105" s="15"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:10">
       <c r="A106" s="2">
         <v>43987</v>
       </c>
@@ -14360,7 +14808,7 @@
       <c r="C106" s="15"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>43988</v>
       </c>
@@ -14383,8 +14831,8 @@
   <dimension ref="A1:BR103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AZ97" sqref="AZ97"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27788,7 +28236,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I96" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I100" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -31894,87 +32342,759 @@
         <v>0.90849892730325332</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:55">
       <c r="A97" s="2">
         <v>43978</v>
       </c>
       <c r="B97" s="3">
         <v>94</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="U97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="AD97" s="15"/>
-      <c r="AH97" s="15"/>
-      <c r="AM97" s="15"/>
-      <c r="AQ97" s="15"/>
-      <c r="AV97" s="15"/>
-      <c r="AZ97" s="15"/>
+      <c r="C97" s="15">
+        <v>9589</v>
+      </c>
+      <c r="D97" s="10">
+        <f t="shared" ref="D97:D100" si="845">C97/$BR$4</f>
+        <v>6125.9548446406998</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" ref="E97:E100" si="846">D97-D96</f>
+        <v>24.915240269161586</v>
+      </c>
+      <c r="F97" s="11">
+        <f t="shared" ref="F97:F100" si="847">SUM(E93:E97)/5</f>
+        <v>25.554092583755118</v>
+      </c>
+      <c r="G97" s="15">
+        <v>1438</v>
+      </c>
+      <c r="H97" s="10">
+        <f t="shared" ref="H97:H100" si="848">G97/$BR$4</f>
+        <v>918.66962838599716</v>
+      </c>
+      <c r="I97" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021572049</v>
+      </c>
+      <c r="J97" s="11">
+        <f t="shared" ref="J97:J100" si="849">SUM(I93:I97)/5</f>
+        <v>3.960884350482047</v>
+      </c>
+      <c r="L97" s="15">
+        <v>30387</v>
+      </c>
+      <c r="M97" s="10">
+        <f t="shared" ref="M97:M100" si="850">L97/$BR$5</f>
+        <v>6917.8873386292989</v>
+      </c>
+      <c r="N97" s="11">
+        <f t="shared" ref="N97:N100" si="851">M97-M96</f>
+        <v>16.619138964687409</v>
+      </c>
+      <c r="O97" s="11">
+        <f t="shared" ref="O97:O100" si="852">SUM(N93:N97)/5</f>
+        <v>14.114885148090252</v>
+      </c>
+      <c r="P97" s="15">
+        <v>3828</v>
+      </c>
+      <c r="Q97" s="10">
+        <f t="shared" ref="Q97:Q100" si="853">P97/$BR$5</f>
+        <v>871.48032817563285</v>
+      </c>
+      <c r="R97" s="11">
+        <f t="shared" ref="R97:R100" si="854">Q97-Q96</f>
+        <v>3.6425510059588078</v>
+      </c>
+      <c r="S97" s="11">
+        <f t="shared" ref="S97:S100" si="855">SUM(R93:R97)/5</f>
+        <v>3.2327640177883952</v>
+      </c>
+      <c r="U97" s="15">
+        <v>87801</v>
+      </c>
+      <c r="V97" s="10">
+        <f t="shared" ref="V97:V100" si="856">U97/$BR$6</f>
+        <v>8763.6191378493604</v>
+      </c>
+      <c r="W97" s="11">
+        <f t="shared" ref="W97:W100" si="857">V97-V96</f>
+        <v>38.327920512683704</v>
+      </c>
+      <c r="X97" s="11">
+        <f t="shared" ref="X97:X100" si="858">SUM(W93:W97)/5</f>
+        <v>28.286803836704713</v>
+      </c>
+      <c r="Y97" s="15">
+        <v>15954</v>
+      </c>
+      <c r="Z97" s="10">
+        <f t="shared" ref="Z97:Z100" si="859">Y97/$BR$6</f>
+        <v>1592.4053225504117</v>
+      </c>
+      <c r="AA97" s="11">
+        <f t="shared" ref="AA97:AA100" si="860">Z97-Z96</f>
+        <v>5.7891129941033341</v>
+      </c>
+      <c r="AB97" s="11">
+        <f t="shared" ref="AB97:AB100" si="861">SUM(AA93:AA97)/5</f>
+        <v>3.3936179620605342</v>
+      </c>
+      <c r="AD97" s="15">
+        <v>19113</v>
+      </c>
+      <c r="AE97" s="10">
+        <f t="shared" ref="AE97:AE100" si="862">AD97/$BR$7</f>
+        <v>3894.628029707007</v>
+      </c>
+      <c r="AF97" s="11">
+        <f t="shared" ref="AF97:AF100" si="863">AE97-AE96</f>
+        <v>1.6301482884764482</v>
+      </c>
+      <c r="AG97" s="11">
+        <f t="shared" ref="AG97:AG100" si="864">SUM(AF93:AF97)/5</f>
+        <v>2.2007001894436145</v>
+      </c>
+      <c r="AH97" s="15">
+        <v>1895</v>
+      </c>
+      <c r="AI97" s="10">
+        <f t="shared" ref="AI97:AI100" si="865">AH97/$BR$7</f>
+        <v>386.14137583292933</v>
+      </c>
+      <c r="AJ97" s="11">
+        <f t="shared" ref="AJ97:AJ100" si="866">AI97-AI96</f>
+        <v>1.8339168245363453</v>
+      </c>
+      <c r="AK97" s="11">
+        <f t="shared" ref="AK97:AK100" si="867">SUM(AJ93:AJ97)/5</f>
+        <v>1.6709019956886664</v>
+      </c>
+      <c r="AM97" s="15">
+        <v>27627</v>
+      </c>
+      <c r="AN97" s="10">
+        <f t="shared" ref="AN97:AN100" si="868">AM97/$BR$8</f>
+        <v>6209.9319800370477</v>
+      </c>
+      <c r="AO97" s="11">
+        <f t="shared" ref="AO97:AO100" si="869">AN97-AN96</f>
+        <v>3.5964423093564619</v>
+      </c>
+      <c r="AP97" s="11">
+        <f t="shared" ref="AP97:AP100" si="870">SUM(AO93:AO97)/5</f>
+        <v>7.0580180321121588</v>
+      </c>
+      <c r="AQ97" s="15">
+        <v>4083</v>
+      </c>
+      <c r="AR97" s="10">
+        <f t="shared" ref="AR97:AR100" si="871">AQ97/$BR$8</f>
+        <v>917.76712181891867</v>
+      </c>
+      <c r="AS97" s="11">
+        <f t="shared" ref="AS97:AS100" si="872">AR97-AR96</f>
+        <v>1.5734435103433952</v>
+      </c>
+      <c r="AT97" s="11">
+        <f t="shared" ref="AT97:AT100" si="873">SUM(AS93:AS97)/5</f>
+        <v>2.0679543278799883</v>
+      </c>
+      <c r="AV97" s="15">
+        <v>10082</v>
+      </c>
+      <c r="AW97" s="10">
+        <f t="shared" ref="AW97:AW100" si="874">AV97/$BR$9</f>
+        <v>2693.966525020996</v>
+      </c>
+      <c r="AX97" s="11">
+        <f t="shared" ref="AX97:AX100" si="875">AW97-AW96</f>
+        <v>3.2064668022467231</v>
+      </c>
+      <c r="AY97" s="11">
+        <f t="shared" ref="AY97:AY100" si="876">SUM(AX93:AX97)/5</f>
+        <v>2.5117323284266604</v>
+      </c>
+      <c r="AZ97" s="15">
+        <v>1027</v>
+      </c>
+      <c r="BA97" s="10">
+        <f t="shared" ref="BA97:BA100" si="877">AZ97/$BR$9</f>
+        <v>274.42011715895285</v>
+      </c>
+      <c r="BB97" s="11">
+        <f t="shared" ref="BB97:BB100" si="878">BA97-BA96</f>
+        <v>1.6032334011233615</v>
+      </c>
+      <c r="BC97" s="11">
+        <f t="shared" ref="BC97:BC100" si="879">SUM(BB93:BB97)/5</f>
+        <v>0.96194004067402827</v>
+      </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:55">
       <c r="A98" s="2">
         <v>43979</v>
       </c>
       <c r="B98" s="3">
         <v>95</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="U98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="AD98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AM98" s="15"/>
-      <c r="AQ98" s="15"/>
-      <c r="AV98" s="15"/>
-      <c r="AZ98" s="15"/>
+      <c r="C98" s="15">
+        <v>9605</v>
+      </c>
+      <c r="D98" s="10">
+        <f t="shared" si="845"/>
+        <v>6136.1764816742016</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" si="846"/>
+        <v>10.221637033501793</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" si="847"/>
+        <v>22.743142399542013</v>
+      </c>
+      <c r="G98" s="15">
+        <v>1445</v>
+      </c>
+      <c r="H98" s="10">
+        <f t="shared" si="848"/>
+        <v>923.14159458815425</v>
+      </c>
+      <c r="I98" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021570912</v>
+      </c>
+      <c r="J98" s="11">
+        <f t="shared" si="849"/>
+        <v>3.960884350482047</v>
+      </c>
+      <c r="L98" s="15">
+        <v>30445</v>
+      </c>
+      <c r="M98" s="10">
+        <f t="shared" si="850"/>
+        <v>6931.0915860258992</v>
+      </c>
+      <c r="N98" s="11">
+        <f t="shared" si="851"/>
+        <v>13.204247396600294</v>
+      </c>
+      <c r="O98" s="11">
+        <f t="shared" si="852"/>
+        <v>14.023821372941166</v>
+      </c>
+      <c r="P98" s="15">
+        <v>3838</v>
+      </c>
+      <c r="Q98" s="10">
+        <f t="shared" si="853"/>
+        <v>873.75692255435706</v>
+      </c>
+      <c r="R98" s="11">
+        <f t="shared" si="854"/>
+        <v>2.2765943787242122</v>
+      </c>
+      <c r="S98" s="11">
+        <f t="shared" si="855"/>
+        <v>3.0506364674904489</v>
+      </c>
+      <c r="U98" s="15">
+        <v>88183</v>
+      </c>
+      <c r="V98" s="10">
+        <f t="shared" si="856"/>
+        <v>8801.7474337760414</v>
+      </c>
+      <c r="W98" s="11">
+        <f t="shared" si="857"/>
+        <v>38.128295926680948</v>
+      </c>
+      <c r="X98" s="11">
+        <f t="shared" si="858"/>
+        <v>27.109018779283723</v>
+      </c>
+      <c r="Y98" s="15">
+        <v>15974</v>
+      </c>
+      <c r="Z98" s="10">
+        <f t="shared" si="859"/>
+        <v>1594.4015684104475</v>
+      </c>
+      <c r="AA98" s="11">
+        <f t="shared" si="860"/>
+        <v>1.9962458600357422</v>
+      </c>
+      <c r="AB98" s="11">
+        <f t="shared" si="861"/>
+        <v>2.674969452447749</v>
+      </c>
+      <c r="AD98" s="15">
+        <v>19125</v>
+      </c>
+      <c r="AE98" s="10">
+        <f t="shared" si="862"/>
+        <v>3897.0732521397222</v>
+      </c>
+      <c r="AF98" s="11">
+        <f t="shared" si="863"/>
+        <v>2.4452224327151271</v>
+      </c>
+      <c r="AG98" s="11">
+        <f t="shared" si="864"/>
+        <v>2.2822076038673913</v>
+      </c>
+      <c r="AH98" s="15">
+        <v>1898</v>
+      </c>
+      <c r="AI98" s="10">
+        <f t="shared" si="865"/>
+        <v>386.75268144110811</v>
+      </c>
+      <c r="AJ98" s="11">
+        <f t="shared" si="866"/>
+        <v>0.61130560817878177</v>
+      </c>
+      <c r="AK98" s="11">
+        <f t="shared" si="867"/>
+        <v>1.3448723379933085</v>
+      </c>
+      <c r="AM98" s="15">
+        <v>27701</v>
+      </c>
+      <c r="AN98" s="10">
+        <f t="shared" si="868"/>
+        <v>6226.5655257178223</v>
+      </c>
+      <c r="AO98" s="11">
+        <f t="shared" si="869"/>
+        <v>16.63354568077466</v>
+      </c>
+      <c r="AP98" s="11">
+        <f t="shared" si="870"/>
+        <v>8.4516394269878212</v>
+      </c>
+      <c r="AQ98" s="15">
+        <v>4094</v>
+      </c>
+      <c r="AR98" s="10">
+        <f t="shared" si="871"/>
+        <v>920.23967590660129</v>
+      </c>
+      <c r="AS98" s="11">
+        <f t="shared" si="872"/>
+        <v>2.4725540876826244</v>
+      </c>
+      <c r="AT98" s="11">
+        <f t="shared" si="873"/>
+        <v>2.1129098567469553</v>
+      </c>
+      <c r="AV98" s="15">
+        <v>10086</v>
+      </c>
+      <c r="AW98" s="10">
+        <f t="shared" si="874"/>
+        <v>2695.0353472884112</v>
+      </c>
+      <c r="AX98" s="11">
+        <f t="shared" si="875"/>
+        <v>1.0688222674152712</v>
+      </c>
+      <c r="AY98" s="11">
+        <f t="shared" si="876"/>
+        <v>2.0842034214603702</v>
+      </c>
+      <c r="AZ98" s="15">
+        <v>1029</v>
+      </c>
+      <c r="BA98" s="10">
+        <f t="shared" si="877"/>
+        <v>274.95452829266065</v>
+      </c>
+      <c r="BB98" s="11">
+        <f t="shared" si="878"/>
+        <v>0.53441113370780613</v>
+      </c>
+      <c r="BC98" s="11">
+        <f t="shared" si="879"/>
+        <v>0.96194004067402827</v>
+      </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:55">
       <c r="A99" s="2">
         <v>43980</v>
       </c>
       <c r="B99" s="3">
         <v>96</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="AD99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AM99" s="15"/>
-      <c r="AQ99" s="15"/>
-      <c r="AV99" s="15"/>
-      <c r="AZ99" s="15"/>
+      <c r="C99" s="15">
+        <v>9619</v>
+      </c>
+      <c r="D99" s="10">
+        <f t="shared" si="845"/>
+        <v>6145.1204140785167</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" si="846"/>
+        <v>8.9439324043150918</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="847"/>
+        <v>17.760094345709877</v>
+      </c>
+      <c r="G99" s="15">
+        <v>1452</v>
+      </c>
+      <c r="H99" s="10">
+        <f t="shared" si="848"/>
+        <v>927.61356079031145</v>
+      </c>
+      <c r="I99" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021572049</v>
+      </c>
+      <c r="J99" s="11">
+        <f t="shared" si="849"/>
+        <v>4.2164252763196144</v>
+      </c>
+      <c r="L99" s="15">
+        <v>30501</v>
+      </c>
+      <c r="M99" s="10">
+        <f t="shared" si="850"/>
+        <v>6943.840514546755</v>
+      </c>
+      <c r="N99" s="11">
+        <f t="shared" si="851"/>
+        <v>12.74892852085577</v>
+      </c>
+      <c r="O99" s="11">
+        <f t="shared" si="852"/>
+        <v>14.615735911409502</v>
+      </c>
+      <c r="P99" s="15">
+        <v>3851</v>
+      </c>
+      <c r="Q99" s="10">
+        <f t="shared" si="853"/>
+        <v>876.71649524669851</v>
+      </c>
+      <c r="R99" s="11">
+        <f t="shared" si="854"/>
+        <v>2.9595726923414531</v>
+      </c>
+      <c r="S99" s="11">
+        <f t="shared" si="855"/>
+        <v>3.0961683550649242</v>
+      </c>
+      <c r="U99" s="15">
+        <v>88537</v>
+      </c>
+      <c r="V99" s="10">
+        <f t="shared" si="856"/>
+        <v>8837.080985498671</v>
+      </c>
+      <c r="W99" s="11">
+        <f t="shared" si="857"/>
+        <v>35.333551722629636</v>
+      </c>
+      <c r="X99" s="11">
+        <f t="shared" si="858"/>
+        <v>28.486428422708194</v>
+      </c>
+      <c r="Y99" s="15">
+        <v>16012</v>
+      </c>
+      <c r="Z99" s="10">
+        <f t="shared" si="859"/>
+        <v>1598.194435544515</v>
+      </c>
+      <c r="AA99" s="11">
+        <f t="shared" si="860"/>
+        <v>3.7928671340675919</v>
+      </c>
+      <c r="AB99" s="11">
+        <f t="shared" si="861"/>
+        <v>3.4335428792612674</v>
+      </c>
+      <c r="AD99" s="15">
+        <v>19134</v>
+      </c>
+      <c r="AE99" s="10">
+        <f t="shared" si="862"/>
+        <v>3898.9071689642587</v>
+      </c>
+      <c r="AF99" s="11">
+        <f t="shared" si="863"/>
+        <v>1.8339168245365727</v>
+      </c>
+      <c r="AG99" s="11">
+        <f t="shared" si="864"/>
+        <v>1.9561779461721016</v>
+      </c>
+      <c r="AH99" s="15">
+        <v>1906</v>
+      </c>
+      <c r="AI99" s="10">
+        <f t="shared" si="865"/>
+        <v>388.38282972958484</v>
+      </c>
+      <c r="AJ99" s="11">
+        <f t="shared" si="866"/>
+        <v>1.6301482884767324</v>
+      </c>
+      <c r="AK99" s="11">
+        <f t="shared" si="867"/>
+        <v>1.5078871668409874</v>
+      </c>
+      <c r="AM99" s="15">
+        <v>27739</v>
+      </c>
+      <c r="AN99" s="10">
+        <f t="shared" si="868"/>
+        <v>6235.1070762025438</v>
+      </c>
+      <c r="AO99" s="11">
+        <f t="shared" si="869"/>
+        <v>8.5415504847214834</v>
+      </c>
+      <c r="AP99" s="11">
+        <f t="shared" si="870"/>
+        <v>8.1369507249191884</v>
+      </c>
+      <c r="AQ99" s="15">
+        <v>4102</v>
+      </c>
+      <c r="AR99" s="10">
+        <f t="shared" si="871"/>
+        <v>922.03789706127964</v>
+      </c>
+      <c r="AS99" s="11">
+        <f t="shared" si="872"/>
+        <v>1.7982211546783446</v>
+      </c>
+      <c r="AT99" s="11">
+        <f t="shared" si="873"/>
+        <v>2.1129098567469784</v>
+      </c>
+      <c r="AV99" s="15">
+        <v>10088</v>
+      </c>
+      <c r="AW99" s="10">
+        <f t="shared" si="874"/>
+        <v>2695.5697584221193</v>
+      </c>
+      <c r="AX99" s="11">
+        <f t="shared" si="875"/>
+        <v>0.53441113370809035</v>
+      </c>
+      <c r="AY99" s="11">
+        <f t="shared" si="876"/>
+        <v>1.3894689476403073</v>
+      </c>
+      <c r="AZ99" s="15">
+        <v>1031</v>
+      </c>
+      <c r="BA99" s="10">
+        <f t="shared" si="877"/>
+        <v>275.48893942636846</v>
+      </c>
+      <c r="BB99" s="11">
+        <f t="shared" si="878"/>
+        <v>0.53441113370780613</v>
+      </c>
+      <c r="BC99" s="11">
+        <f t="shared" si="879"/>
+        <v>0.96194004067402827</v>
+      </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:55">
       <c r="A100" s="2">
         <v>43981</v>
       </c>
       <c r="B100" s="3">
         <v>97</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="U100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="AD100" s="15"/>
-      <c r="AH100" s="15"/>
-      <c r="AM100" s="15"/>
-      <c r="AQ100" s="15"/>
-      <c r="AV100" s="15"/>
-      <c r="AZ100" s="15"/>
+      <c r="C100" s="15">
+        <v>9651</v>
+      </c>
+      <c r="D100" s="10">
+        <f t="shared" si="845"/>
+        <v>6165.5636881455202</v>
+      </c>
+      <c r="E100" s="11">
+        <f t="shared" si="846"/>
+        <v>20.443274067003586</v>
+      </c>
+      <c r="F100" s="11">
+        <f t="shared" si="847"/>
+        <v>19.676651289491382</v>
+      </c>
+      <c r="G100" s="15">
+        <v>1459</v>
+      </c>
+      <c r="H100" s="10">
+        <f t="shared" si="848"/>
+        <v>932.08552699246854</v>
+      </c>
+      <c r="I100" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021570912</v>
+      </c>
+      <c r="J100" s="11">
+        <f t="shared" si="849"/>
+        <v>4.3441957392383754</v>
+      </c>
+      <c r="L100" s="15">
+        <v>30583</v>
+      </c>
+      <c r="M100" s="10">
+        <f t="shared" si="850"/>
+        <v>6962.5085884522932</v>
+      </c>
+      <c r="N100" s="11">
+        <f t="shared" si="851"/>
+        <v>18.668073905538222</v>
+      </c>
+      <c r="O100" s="11">
+        <f t="shared" si="852"/>
+        <v>16.163820088941975</v>
+      </c>
+      <c r="P100" s="15">
+        <v>3858</v>
+      </c>
+      <c r="Q100" s="10">
+        <f t="shared" si="853"/>
+        <v>878.31011131180549</v>
+      </c>
+      <c r="R100" s="11">
+        <f t="shared" si="854"/>
+        <v>1.5936160651069713</v>
+      </c>
+      <c r="S100" s="11">
+        <f t="shared" si="855"/>
+        <v>2.7319132544690548</v>
+      </c>
+      <c r="U100" s="15">
+        <v>88758</v>
+      </c>
+      <c r="V100" s="10">
+        <f t="shared" si="856"/>
+        <v>8859.1395022520646</v>
+      </c>
+      <c r="W100" s="11">
+        <f t="shared" si="857"/>
+        <v>22.058516753393633</v>
+      </c>
+      <c r="X100" s="11">
+        <f t="shared" si="858"/>
+        <v>29.943687900534133</v>
+      </c>
+      <c r="Y100" s="15">
+        <v>16079</v>
+      </c>
+      <c r="Z100" s="10">
+        <f t="shared" si="859"/>
+        <v>1604.8818591756344</v>
+      </c>
+      <c r="AA100" s="11">
+        <f t="shared" si="860"/>
+        <v>6.6874236311193727</v>
+      </c>
+      <c r="AB100" s="11">
+        <f t="shared" si="861"/>
+        <v>4.0923040130730444</v>
+      </c>
+      <c r="AD100" s="15">
+        <v>19146</v>
+      </c>
+      <c r="AE100" s="10">
+        <f t="shared" si="862"/>
+        <v>3901.3523913969739</v>
+      </c>
+      <c r="AF100" s="11">
+        <f t="shared" si="863"/>
+        <v>2.4452224327151271</v>
+      </c>
+      <c r="AG100" s="11">
+        <f t="shared" si="864"/>
+        <v>1.9969316533840356</v>
+      </c>
+      <c r="AH100" s="15">
+        <v>1916</v>
+      </c>
+      <c r="AI100" s="10">
+        <f t="shared" si="865"/>
+        <v>390.4205150901808</v>
+      </c>
+      <c r="AJ100" s="11">
+        <f t="shared" si="866"/>
+        <v>2.0376853605959582</v>
+      </c>
+      <c r="AK100" s="11">
+        <f t="shared" si="867"/>
+        <v>1.5486408740529101</v>
+      </c>
+      <c r="AM100" s="15">
+        <v>27759</v>
+      </c>
+      <c r="AN100" s="10">
+        <f t="shared" si="868"/>
+        <v>6239.6026290892396</v>
+      </c>
+      <c r="AO100" s="11">
+        <f t="shared" si="869"/>
+        <v>4.4955528866958048</v>
+      </c>
+      <c r="AP100" s="11">
+        <f t="shared" si="870"/>
+        <v>7.7323509651165292</v>
+      </c>
+      <c r="AQ100" s="15">
+        <v>4107</v>
+      </c>
+      <c r="AR100" s="10">
+        <f t="shared" si="871"/>
+        <v>923.16178528295347</v>
+      </c>
+      <c r="AS100" s="11">
+        <f t="shared" si="872"/>
+        <v>1.1238882216738375</v>
+      </c>
+      <c r="AT100" s="11">
+        <f t="shared" si="873"/>
+        <v>1.7532656258113093</v>
+      </c>
+      <c r="AV100" s="15">
+        <v>10100</v>
+      </c>
+      <c r="AW100" s="10">
+        <f t="shared" si="874"/>
+        <v>2698.776225224366</v>
+      </c>
+      <c r="AX100" s="11">
+        <f t="shared" si="875"/>
+        <v>3.2064668022467231</v>
+      </c>
+      <c r="AY100" s="11">
+        <f t="shared" si="876"/>
+        <v>1.7635567412356976</v>
+      </c>
+      <c r="AZ100" s="15">
+        <v>1037</v>
+      </c>
+      <c r="BA100" s="10">
+        <f t="shared" si="877"/>
+        <v>277.09217282749182</v>
+      </c>
+      <c r="BB100" s="11">
+        <f t="shared" si="878"/>
+        <v>1.6032334011233615</v>
+      </c>
+      <c r="BC100" s="11">
+        <f t="shared" si="879"/>
+        <v>1.1757044941571508</v>
+      </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:55">
       <c r="A101" s="2">
         <v>43982</v>
       </c>
@@ -31994,7 +33114,7 @@
       <c r="AV101" s="15"/>
       <c r="AZ101" s="15"/>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:55">
       <c r="A102" s="2">
         <v>43983</v>
       </c>
@@ -32014,7 +33134,7 @@
       <c r="AV102" s="15"/>
       <c r="AZ102" s="15"/>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:55">
       <c r="A103" s="2">
         <v>43984</v>
       </c>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E313DF-DB77-4ADA-BCC9-FDAEC19F79B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D1EB1C-5739-4953-A479-69E0B8B7619D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -703,6 +703,9 @@
                 <c:pt idx="91">
                   <c:v>6165.5636881455202</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>6173.2299159206468</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -987,6 +990,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>19.676651289491382</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.438062309821726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,6 +1304,9 @@
                 <c:pt idx="91">
                   <c:v>6962.5085884522932</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>6974.8021980974045</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1582,6 +1591,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>16.163820088941975</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.706799686558588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,6 +1905,9 @@
                 <c:pt idx="91">
                   <c:v>8859.1395022520646</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>8880.1000837824395</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2177,6 +2192,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>29.943687900534133</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>30.961773289152553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,6 +2506,9 @@
                 <c:pt idx="91">
                   <c:v>3901.3523913969739</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>3902.5750026133314</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2772,6 +2793,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.9969316533840356</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9154242389601677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3085,6 +3109,9 @@
                 <c:pt idx="91">
                   <c:v>6239.6026290892396</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>6246.5707360636179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3369,6 +3396,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>7.7323509651165292</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.047039667185345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3680,6 +3710,9 @@
                 <c:pt idx="91">
                   <c:v>2698.776225224366</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>2699.8450474917818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3964,6 +3997,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.7635567412356976</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8169978546065066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,6 +4311,9 @@
                 <c:pt idx="91">
                   <c:v>3833.165660118485</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>3840.0315832463884</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4559,6 +4598,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>6.8989323737105224</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.9616499407442465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5311,6 +5353,9 @@
                 <c:pt idx="91">
                   <c:v>932.08552699246854</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>935.91864088003183</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5594,6 +5639,9 @@
                   <c:v>4.2164252763196144</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4.3441957392383754</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4.3441957392383754</c:v>
                 </c:pt>
               </c:numCache>
@@ -5906,6 +5954,9 @@
                 <c:pt idx="91">
                   <c:v>878.31011131180549</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>880.35904625265732</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6190,6 +6241,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>2.7319132544690548</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.5042538165966564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6501,6 +6555,9 @@
                 <c:pt idx="91">
                   <c:v>1604.8818591756344</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>1608.1756648446931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6785,6 +6842,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>4.0923040130730444</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.3118910576769398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7096,6 +7156,9 @@
                 <c:pt idx="91">
                   <c:v>390.4205150901808</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>390.82805216229997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7380,6 +7443,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.5486408740529101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3041186307813972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7691,6 +7757,9 @@
                 <c:pt idx="91">
                   <c:v>923.16178528295347</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>924.73522879329698</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7975,6 +8044,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.7532656258113093</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7083100969443421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8286,6 +8358,9 @@
                 <c:pt idx="91">
                   <c:v>277.09217282749182</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>278.16099509490743</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8570,6 +8645,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.1757044941571508</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0688222674155896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8881,6 +8959,9 @@
                 <c:pt idx="91">
                   <c:v>550.26412760648225</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>551.5019743242533</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9165,6 +9246,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.5283280808746214</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5184253071324521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11032,7 +11116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14755,8 +14839,36 @@
       <c r="B101" s="3">
         <v>98</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="G101" s="15"/>
+      <c r="C101" s="15">
+        <v>232997</v>
+      </c>
+      <c r="D101" s="14">
+        <f>C100/$P$4</f>
+        <v>3840.0315832463884</v>
+      </c>
+      <c r="E101" s="11">
+        <f t="shared" ref="E101" si="153">D101-D100</f>
+        <v>6.8659231279034429</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" ref="F101" si="154">SUM(E97:E101)/5</f>
+        <v>6.9616499407442465</v>
+      </c>
+      <c r="G101" s="15">
+        <v>33415</v>
+      </c>
+      <c r="H101" s="13">
+        <f t="shared" ref="H101" si="155">G101/$P$4</f>
+        <v>551.5019743242533</v>
+      </c>
+      <c r="I101" s="11">
+        <f t="shared" ref="I101" si="156">H101-H100</f>
+        <v>1.237846717771049</v>
+      </c>
+      <c r="J101" s="11">
+        <f t="shared" ref="J101" si="157">SUM(I97:I101)/5</f>
+        <v>1.5184253071324521</v>
+      </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2">
@@ -14831,8 +14943,8 @@
   <dimension ref="A1:BR103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28236,7 +28348,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I100" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I101" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -32368,7 +32480,7 @@
         <v>1438</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" ref="H97:H100" si="848">G97/$BR$4</f>
+        <f t="shared" ref="H97:H101" si="848">G97/$BR$4</f>
         <v>918.66962838599716</v>
       </c>
       <c r="I97" s="11">
@@ -33101,18 +33213,186 @@
       <c r="B101" s="3">
         <v>98</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="AD101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AM101" s="15"/>
-      <c r="AQ101" s="15"/>
-      <c r="AV101" s="15"/>
-      <c r="AZ101" s="15"/>
+      <c r="C101" s="15">
+        <v>9663</v>
+      </c>
+      <c r="D101" s="10">
+        <f t="shared" ref="D101" si="880">C101/$BR$4</f>
+        <v>6173.2299159206468</v>
+      </c>
+      <c r="E101" s="11">
+        <f t="shared" ref="E101" si="881">D101-D100</f>
+        <v>7.6662277751265719</v>
+      </c>
+      <c r="F101" s="11">
+        <f t="shared" ref="F101" si="882">SUM(E97:E101)/5</f>
+        <v>14.438062309821726</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1465</v>
+      </c>
+      <c r="H101" s="10">
+        <f t="shared" ref="H101" si="883">G101/$BR$4</f>
+        <v>935.91864088003183</v>
+      </c>
+      <c r="I101" s="11">
+        <f t="shared" si="357"/>
+        <v>3.833113887563286</v>
+      </c>
+      <c r="J101" s="11">
+        <f t="shared" ref="J101" si="884">SUM(I97:I101)/5</f>
+        <v>4.3441957392383754</v>
+      </c>
+      <c r="L101" s="15">
+        <v>30637</v>
+      </c>
+      <c r="M101" s="10">
+        <f t="shared" ref="M101" si="885">L101/$BR$5</f>
+        <v>6974.8021980974045</v>
+      </c>
+      <c r="N101" s="11">
+        <f t="shared" ref="N101" si="886">M101-M100</f>
+        <v>12.293609645111246</v>
+      </c>
+      <c r="O101" s="11">
+        <f t="shared" ref="O101" si="887">SUM(N97:N101)/5</f>
+        <v>14.706799686558588</v>
+      </c>
+      <c r="P101" s="15">
+        <v>3867</v>
+      </c>
+      <c r="Q101" s="10">
+        <f t="shared" ref="Q101" si="888">P101/$BR$5</f>
+        <v>880.35904625265732</v>
+      </c>
+      <c r="R101" s="11">
+        <f t="shared" ref="R101" si="889">Q101-Q100</f>
+        <v>2.0489349408518365</v>
+      </c>
+      <c r="S101" s="11">
+        <f t="shared" ref="S101" si="890">SUM(R97:R101)/5</f>
+        <v>2.5042538165966564</v>
+      </c>
+      <c r="U101" s="15">
+        <v>88968</v>
+      </c>
+      <c r="V101" s="10">
+        <f t="shared" ref="V101" si="891">U101/$BR$6</f>
+        <v>8880.1000837824395</v>
+      </c>
+      <c r="W101" s="11">
+        <f t="shared" ref="W101" si="892">V101-V100</f>
+        <v>20.960581530374839</v>
+      </c>
+      <c r="X101" s="11">
+        <f t="shared" ref="X101" si="893">SUM(W97:W101)/5</f>
+        <v>30.961773289152553</v>
+      </c>
+      <c r="Y101" s="15">
+        <v>16112</v>
+      </c>
+      <c r="Z101" s="10">
+        <f t="shared" ref="Z101" si="894">Y101/$BR$6</f>
+        <v>1608.1756648446931</v>
+      </c>
+      <c r="AA101" s="11">
+        <f t="shared" ref="AA101" si="895">Z101-Z100</f>
+        <v>3.2938056690586563</v>
+      </c>
+      <c r="AB101" s="11">
+        <f t="shared" ref="AB101" si="896">SUM(AA97:AA101)/5</f>
+        <v>4.3118910576769398</v>
+      </c>
+      <c r="AD101" s="15">
+        <v>19152</v>
+      </c>
+      <c r="AE101" s="10">
+        <f t="shared" ref="AE101" si="897">AD101/$BR$7</f>
+        <v>3902.5750026133314</v>
+      </c>
+      <c r="AF101" s="11">
+        <f t="shared" ref="AF101" si="898">AE101-AE100</f>
+        <v>1.2226112163575635</v>
+      </c>
+      <c r="AG101" s="11">
+        <f t="shared" ref="AG101" si="899">SUM(AF97:AF101)/5</f>
+        <v>1.9154242389601677</v>
+      </c>
+      <c r="AH101" s="15">
+        <v>1918</v>
+      </c>
+      <c r="AI101" s="10">
+        <f t="shared" ref="AI101" si="900">AH101/$BR$7</f>
+        <v>390.82805216229997</v>
+      </c>
+      <c r="AJ101" s="11">
+        <f t="shared" ref="AJ101" si="901">AI101-AI100</f>
+        <v>0.4075370721191689</v>
+      </c>
+      <c r="AK101" s="11">
+        <f t="shared" ref="AK101" si="902">SUM(AJ97:AJ101)/5</f>
+        <v>1.3041186307813972</v>
+      </c>
+      <c r="AM101" s="15">
+        <v>27790</v>
+      </c>
+      <c r="AN101" s="10">
+        <f t="shared" ref="AN101" si="903">AM101/$BR$8</f>
+        <v>6246.5707360636179</v>
+      </c>
+      <c r="AO101" s="11">
+        <f t="shared" ref="AO101" si="904">AN101-AN100</f>
+        <v>6.9681069743783155</v>
+      </c>
+      <c r="AP101" s="11">
+        <f t="shared" ref="AP101" si="905">SUM(AO97:AO101)/5</f>
+        <v>8.047039667185345</v>
+      </c>
+      <c r="AQ101" s="15">
+        <v>4114</v>
+      </c>
+      <c r="AR101" s="10">
+        <f t="shared" ref="AR101" si="906">AQ101/$BR$8</f>
+        <v>924.73522879329698</v>
+      </c>
+      <c r="AS101" s="11">
+        <f t="shared" ref="AS101" si="907">AR101-AR100</f>
+        <v>1.5734435103435089</v>
+      </c>
+      <c r="AT101" s="11">
+        <f t="shared" ref="AT101" si="908">SUM(AS97:AS101)/5</f>
+        <v>1.7083100969443421</v>
+      </c>
+      <c r="AV101" s="15">
+        <v>10104</v>
+      </c>
+      <c r="AW101" s="10">
+        <f t="shared" ref="AW101" si="909">AV101/$BR$9</f>
+        <v>2699.8450474917818</v>
+      </c>
+      <c r="AX101" s="11">
+        <f t="shared" ref="AX101" si="910">AW101-AW100</f>
+        <v>1.0688222674157259</v>
+      </c>
+      <c r="AY101" s="11">
+        <f t="shared" ref="AY101" si="911">SUM(AX97:AX101)/5</f>
+        <v>1.8169978546065066</v>
+      </c>
+      <c r="AZ101" s="15">
+        <v>1041</v>
+      </c>
+      <c r="BA101" s="10">
+        <f t="shared" ref="BA101" si="912">AZ101/$BR$9</f>
+        <v>278.16099509490743</v>
+      </c>
+      <c r="BB101" s="11">
+        <f t="shared" ref="BB101" si="913">BA101-BA100</f>
+        <v>1.0688222674156123</v>
+      </c>
+      <c r="BC101" s="11">
+        <f t="shared" ref="BC101" si="914">SUM(BB97:BB101)/5</f>
+        <v>1.0688222674155896</v>
+      </c>
     </row>
     <row r="102" spans="1:55">
       <c r="A102" s="2">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D1EB1C-5739-4953-A479-69E0B8B7619D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4540DA9-9527-42F2-A25A-D3238DF04246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -706,6 +706,15 @@
                 <c:pt idx="92">
                   <c:v>6173.2299159206468</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>6209.0056455379045</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6218.588430256812</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6229.448919604908</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -993,6 +1002,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>14.438062309821726</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.610160179440935</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.482389716522086</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16.865701105278276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,6 +1325,15 @@
                 <c:pt idx="92">
                   <c:v>6974.8021980974045</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>6979.5830462927252</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6992.5596342514536</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6996.8851635710289</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1594,6 +1621,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>14.706799686558588</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>12.339141532685243</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12.293609645110882</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>10.608929804854778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,6 +1944,15 @@
                 <c:pt idx="92">
                   <c:v>8880.1000837824395</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>8885.0906984325284</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8903.7555972238606</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8927.4111106652836</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2195,6 +2240,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>30.961773289152553</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.294312116633591</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.401632689563847</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.066025033322511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,6 +2563,15 @@
                 <c:pt idx="92">
                   <c:v>3902.5750026133314</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>3902.9825396854503</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3904.6126879739272</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3905.0202250460466</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2796,6 +2859,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.9154242389601677</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.6709019956886551</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5078871668410101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2226112163575635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,6 +3184,15 @@
                 <c:pt idx="92">
                   <c:v>6246.5707360636179</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>6250.8415113059782</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6255.1122865483394</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6258.2591735690266</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3399,6 +3480,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>8.047039667185345</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.18190625378611</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.7093521661034172</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.6304194732965698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,6 +3803,15 @@
                 <c:pt idx="92">
                   <c:v>2699.8450474917818</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>2700.6466641923435</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2703.3187198608821</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2704.3875421282978</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4000,6 +4099,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.8169978546065066</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3360278342694982</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.6566745144941706</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7635567412356976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4314,6 +4422,15 @@
                 <c:pt idx="92">
                   <c:v>3840.0315832463884</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>3845.5276226732917</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3848.8285472540147</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3854.0770173373639</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4601,6 +4718,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>6.9616499407442465</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.0608578261249022</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.7933027871274136</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8855485274287274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5356,6 +5482,15 @@
                 <c:pt idx="92">
                   <c:v>935.91864088003183</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>937.19634550921955</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>937.83519782381347</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>941.02945939678284</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5643,6 +5778,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>4.3441957392383754</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7053434246444796</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.938720647131845</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.6831797212942776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5957,6 +6101,15 @@
                 <c:pt idx="92">
                   <c:v>880.35904625265732</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>882.40798119350916</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>884.22925669648851</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>887.41648882670245</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6244,6 +6397,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>2.5042538165966564</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1855306035752617</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.0944668284262891</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.1399987160007869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6558,6 +6720,15 @@
                 <c:pt idx="92">
                   <c:v>1608.1756648446931</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>1610.072098411727</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1611.2698459277483</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1614.1644024248001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6845,6 +7016,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>4.3118910576769398</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.5333551722630547</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.3736555034601681</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1939933760570058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7159,6 +7339,15 @@
                 <c:pt idx="92">
                   <c:v>390.82805216229997</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>390.82805216229997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>391.43935777047875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>391.43935777047875</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7446,6 +7635,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.3041186307813972</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9373352658741283</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9373352658741283</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.61130560817878177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7760,6 +7958,15 @@
                 <c:pt idx="92">
                   <c:v>924.73522879329698</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>926.98300523664477</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>929.68033696866223</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>932.15289105634486</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8047,6 +8254,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.7083100969443421</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8431766835452208</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.888132212412188</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.022998799013044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8361,6 +8577,15 @@
                 <c:pt idx="92">
                   <c:v>278.16099509490743</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>280.03143406288473</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>281.36746189715421</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>281.90187303086196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8648,6 +8873,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.0688222674155896</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1222633807863758</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2825867208987121</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2825867208987005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8962,6 +9196,15 @@
                 <c:pt idx="92">
                   <c:v>551.5019743242533</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>552.49225169847011</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>553.40000595816889</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>554.57183418432544</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9249,6 +9492,15 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>1.5184253071324521</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.330272606031258</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2807587373204341</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2279439440288571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11116,7 +11368,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14877,8 +15129,36 @@
       <c r="B102" s="3">
         <v>99</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="G102" s="15"/>
+      <c r="C102" s="15">
+        <v>233197</v>
+      </c>
+      <c r="D102" s="14">
+        <f t="shared" ref="D102:D103" si="158">C101/$P$4</f>
+        <v>3845.5276226732917</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" ref="E102:E103" si="159">D102-D101</f>
+        <v>5.4960394269032804</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" ref="F102:F103" si="160">SUM(E98:E102)/5</f>
+        <v>8.0608578261249022</v>
+      </c>
+      <c r="G102" s="15">
+        <v>33475</v>
+      </c>
+      <c r="H102" s="13">
+        <f t="shared" ref="H102:H103" si="161">G102/$P$4</f>
+        <v>552.49225169847011</v>
+      </c>
+      <c r="I102" s="11">
+        <f t="shared" ref="I102:I103" si="162">H102-H101</f>
+        <v>0.9902773742168165</v>
+      </c>
+      <c r="J102" s="11">
+        <f t="shared" ref="J102:J103" si="163">SUM(I98:I102)/5</f>
+        <v>1.330272606031258</v>
+      </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2">
@@ -14887,8 +15167,36 @@
       <c r="B103" s="3">
         <v>100</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="G103" s="15"/>
+      <c r="C103" s="15">
+        <v>233515</v>
+      </c>
+      <c r="D103" s="14">
+        <f t="shared" si="158"/>
+        <v>3848.8285472540147</v>
+      </c>
+      <c r="E103" s="11">
+        <f t="shared" si="159"/>
+        <v>3.300924580722949</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="160"/>
+        <v>6.7933027871274136</v>
+      </c>
+      <c r="G103" s="15">
+        <v>33530</v>
+      </c>
+      <c r="H103" s="13">
+        <f t="shared" si="161"/>
+        <v>553.40000595816889</v>
+      </c>
+      <c r="I103" s="11">
+        <f t="shared" si="162"/>
+        <v>0.90775425969877688</v>
+      </c>
+      <c r="J103" s="11">
+        <f t="shared" si="163"/>
+        <v>1.2807587373204341</v>
+      </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2">
@@ -14897,8 +15205,36 @@
       <c r="B104" s="3">
         <v>101</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="G104" s="15"/>
+      <c r="C104" s="15">
+        <v>233836</v>
+      </c>
+      <c r="D104" s="14">
+        <f t="shared" ref="D104" si="164">C103/$P$4</f>
+        <v>3854.0770173373639</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" ref="E104" si="165">D104-D103</f>
+        <v>5.2484700833492752</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" ref="F104" si="166">SUM(E100:E104)/5</f>
+        <v>5.8855485274287274</v>
+      </c>
+      <c r="G104" s="15">
+        <v>33601</v>
+      </c>
+      <c r="H104" s="13">
+        <f t="shared" ref="H104" si="167">G104/$P$4</f>
+        <v>554.57183418432544</v>
+      </c>
+      <c r="I104" s="11">
+        <f t="shared" ref="I104" si="168">H104-H103</f>
+        <v>1.1718282261565491</v>
+      </c>
+      <c r="J104" s="11">
+        <f t="shared" ref="J104" si="169">SUM(I100:I104)/5</f>
+        <v>1.2279439440288571</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2">
@@ -14940,11 +15276,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
-  <dimension ref="A1:BR103"/>
+  <dimension ref="A1:BR113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="AV104" sqref="AV104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28348,7 +28684,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I101" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I104" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -32480,7 +32816,7 @@
         <v>1438</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" ref="H97:H101" si="848">G97/$BR$4</f>
+        <f t="shared" ref="H97:H100" si="848">G97/$BR$4</f>
         <v>918.66962838599716</v>
       </c>
       <c r="I97" s="11">
@@ -33401,18 +33737,186 @@
       <c r="B102" s="3">
         <v>99</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="U102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="AD102" s="15"/>
-      <c r="AH102" s="15"/>
-      <c r="AM102" s="15"/>
-      <c r="AQ102" s="15"/>
-      <c r="AV102" s="15"/>
-      <c r="AZ102" s="15"/>
+      <c r="C102" s="15">
+        <v>9719</v>
+      </c>
+      <c r="D102" s="10">
+        <f t="shared" ref="D102:D103" si="915">C102/$BR$4</f>
+        <v>6209.0056455379045</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" ref="E102:E103" si="916">D102-D101</f>
+        <v>35.775729617257639</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" ref="F102:F103" si="917">SUM(E98:E102)/5</f>
+        <v>16.610160179440935</v>
+      </c>
+      <c r="G102" s="15">
+        <v>1467</v>
+      </c>
+      <c r="H102" s="10">
+        <f t="shared" ref="H102:H103" si="918">G102/$BR$4</f>
+        <v>937.19634550921955</v>
+      </c>
+      <c r="I102" s="11">
+        <f t="shared" si="357"/>
+        <v>1.2777046291877241</v>
+      </c>
+      <c r="J102" s="11">
+        <f t="shared" ref="J102:J103" si="919">SUM(I98:I102)/5</f>
+        <v>3.7053434246444796</v>
+      </c>
+      <c r="L102" s="15">
+        <v>30658</v>
+      </c>
+      <c r="M102" s="10">
+        <f t="shared" ref="M102:M103" si="920">L102/$BR$5</f>
+        <v>6979.5830462927252</v>
+      </c>
+      <c r="N102" s="11">
+        <f t="shared" ref="N102:N103" si="921">M102-M101</f>
+        <v>4.7808481953206865</v>
+      </c>
+      <c r="O102" s="11">
+        <f t="shared" ref="O102:O103" si="922">SUM(N98:N102)/5</f>
+        <v>12.339141532685243</v>
+      </c>
+      <c r="P102" s="15">
+        <v>3876</v>
+      </c>
+      <c r="Q102" s="10">
+        <f t="shared" ref="Q102:Q103" si="923">P102/$BR$5</f>
+        <v>882.40798119350916</v>
+      </c>
+      <c r="R102" s="11">
+        <f t="shared" ref="R102:R103" si="924">Q102-Q101</f>
+        <v>2.0489349408518365</v>
+      </c>
+      <c r="S102" s="11">
+        <f t="shared" ref="S102:S103" si="925">SUM(R98:R102)/5</f>
+        <v>2.1855306035752617</v>
+      </c>
+      <c r="U102" s="15">
+        <v>89018</v>
+      </c>
+      <c r="V102" s="10">
+        <f t="shared" ref="V102:V103" si="926">U102/$BR$6</f>
+        <v>8885.0906984325284</v>
+      </c>
+      <c r="W102" s="11">
+        <f t="shared" ref="W102:W103" si="927">V102-V101</f>
+        <v>4.9906146500889008</v>
+      </c>
+      <c r="X102" s="11">
+        <f t="shared" ref="X102:X103" si="928">SUM(W98:W102)/5</f>
+        <v>24.294312116633591</v>
+      </c>
+      <c r="Y102" s="15">
+        <v>16131</v>
+      </c>
+      <c r="Z102" s="10">
+        <f t="shared" ref="Z102:Z103" si="929">Y102/$BR$6</f>
+        <v>1610.072098411727</v>
+      </c>
+      <c r="AA102" s="11">
+        <f t="shared" ref="AA102:AA103" si="930">Z102-Z101</f>
+        <v>1.8964335670339096</v>
+      </c>
+      <c r="AB102" s="11">
+        <f t="shared" ref="AB102:AB103" si="931">SUM(AA98:AA102)/5</f>
+        <v>3.5333551722630547</v>
+      </c>
+      <c r="AD102" s="15">
+        <v>19154</v>
+      </c>
+      <c r="AE102" s="10">
+        <f t="shared" ref="AE102:AE103" si="932">AD102/$BR$7</f>
+        <v>3902.9825396854503</v>
+      </c>
+      <c r="AF102" s="11">
+        <f t="shared" ref="AF102:AF103" si="933">AE102-AE101</f>
+        <v>0.40753707211888468</v>
+      </c>
+      <c r="AG102" s="11">
+        <f t="shared" ref="AG102:AG103" si="934">SUM(AF98:AF102)/5</f>
+        <v>1.6709019956886551</v>
+      </c>
+      <c r="AH102" s="15">
+        <v>1918</v>
+      </c>
+      <c r="AI102" s="10">
+        <f t="shared" ref="AI102:AI103" si="935">AH102/$BR$7</f>
+        <v>390.82805216229997</v>
+      </c>
+      <c r="AJ102" s="11">
+        <f t="shared" ref="AJ102:AJ103" si="936">AI102-AI101</f>
+        <v>0</v>
+      </c>
+      <c r="AK102" s="11">
+        <f t="shared" ref="AK102:AK103" si="937">SUM(AJ98:AJ102)/5</f>
+        <v>0.9373352658741283</v>
+      </c>
+      <c r="AM102" s="15">
+        <v>27809</v>
+      </c>
+      <c r="AN102" s="10">
+        <f t="shared" ref="AN102:AN103" si="938">AM102/$BR$8</f>
+        <v>6250.8415113059782</v>
+      </c>
+      <c r="AO102" s="11">
+        <f t="shared" ref="AO102:AO103" si="939">AN102-AN101</f>
+        <v>4.2707752423602869</v>
+      </c>
+      <c r="AP102" s="11">
+        <f t="shared" ref="AP102:AP103" si="940">SUM(AO98:AO102)/5</f>
+        <v>8.18190625378611</v>
+      </c>
+      <c r="AQ102" s="15">
+        <v>4124</v>
+      </c>
+      <c r="AR102" s="10">
+        <f t="shared" ref="AR102:AR103" si="941">AQ102/$BR$8</f>
+        <v>926.98300523664477</v>
+      </c>
+      <c r="AS102" s="11">
+        <f t="shared" ref="AS102:AS103" si="942">AR102-AR101</f>
+        <v>2.2477764433477887</v>
+      </c>
+      <c r="AT102" s="11">
+        <f t="shared" ref="AT102:AT103" si="943">SUM(AS98:AS102)/5</f>
+        <v>1.8431766835452208</v>
+      </c>
+      <c r="AV102" s="15">
+        <v>10107</v>
+      </c>
+      <c r="AW102" s="10">
+        <f t="shared" ref="AW102:AW103" si="944">AV102/$BR$9</f>
+        <v>2700.6466641923435</v>
+      </c>
+      <c r="AX102" s="11">
+        <f t="shared" ref="AX102:AX103" si="945">AW102-AW101</f>
+        <v>0.80161670056168077</v>
+      </c>
+      <c r="AY102" s="11">
+        <f t="shared" ref="AY102:AY103" si="946">SUM(AX98:AX102)/5</f>
+        <v>1.3360278342694982</v>
+      </c>
+      <c r="AZ102" s="15">
+        <v>1048</v>
+      </c>
+      <c r="BA102" s="10">
+        <f t="shared" ref="BA102:BA103" si="947">AZ102/$BR$9</f>
+        <v>280.03143406288473</v>
+      </c>
+      <c r="BB102" s="11">
+        <f t="shared" ref="BB102:BB103" si="948">BA102-BA101</f>
+        <v>1.870438967977293</v>
+      </c>
+      <c r="BC102" s="11">
+        <f t="shared" ref="BC102:BC103" si="949">SUM(BB98:BB102)/5</f>
+        <v>1.1222633807863758</v>
+      </c>
     </row>
     <row r="103" spans="1:55">
       <c r="A103" s="2">
@@ -33421,18 +33925,554 @@
       <c r="B103" s="3">
         <v>100</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="U103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="AD103" s="15"/>
-      <c r="AH103" s="15"/>
-      <c r="AM103" s="15"/>
-      <c r="AQ103" s="15"/>
-      <c r="AV103" s="15"/>
-      <c r="AZ103" s="15"/>
+      <c r="C103" s="15">
+        <v>9734</v>
+      </c>
+      <c r="D103" s="10">
+        <f t="shared" si="915"/>
+        <v>6218.588430256812</v>
+      </c>
+      <c r="E103" s="11">
+        <f t="shared" si="916"/>
+        <v>9.5827847189075328</v>
+      </c>
+      <c r="F103" s="11">
+        <f t="shared" si="917"/>
+        <v>16.482389716522086</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1468</v>
+      </c>
+      <c r="H103" s="10">
+        <f t="shared" si="918"/>
+        <v>937.83519782381347</v>
+      </c>
+      <c r="I103" s="11">
+        <f t="shared" si="357"/>
+        <v>0.63885231459391889</v>
+      </c>
+      <c r="J103" s="11">
+        <f t="shared" si="919"/>
+        <v>2.938720647131845</v>
+      </c>
+      <c r="L103" s="15">
+        <v>30715</v>
+      </c>
+      <c r="M103" s="10">
+        <f t="shared" si="920"/>
+        <v>6992.5596342514536</v>
+      </c>
+      <c r="N103" s="11">
+        <f t="shared" si="921"/>
+        <v>12.976587958728487</v>
+      </c>
+      <c r="O103" s="11">
+        <f t="shared" si="922"/>
+        <v>12.293609645110882</v>
+      </c>
+      <c r="P103" s="15">
+        <v>3884</v>
+      </c>
+      <c r="Q103" s="10">
+        <f t="shared" si="923"/>
+        <v>884.22925669648851</v>
+      </c>
+      <c r="R103" s="11">
+        <f t="shared" si="924"/>
+        <v>1.821275502979347</v>
+      </c>
+      <c r="S103" s="11">
+        <f t="shared" si="925"/>
+        <v>2.0944668284262891</v>
+      </c>
+      <c r="U103" s="15">
+        <v>89205</v>
+      </c>
+      <c r="V103" s="10">
+        <f t="shared" si="926"/>
+        <v>8903.7555972238606</v>
+      </c>
+      <c r="W103" s="11">
+        <f t="shared" si="927"/>
+        <v>18.664898791332234</v>
+      </c>
+      <c r="X103" s="11">
+        <f t="shared" si="928"/>
+        <v>20.401632689563847</v>
+      </c>
+      <c r="Y103" s="15">
+        <v>16143</v>
+      </c>
+      <c r="Z103" s="10">
+        <f t="shared" si="929"/>
+        <v>1611.2698459277483</v>
+      </c>
+      <c r="AA103" s="11">
+        <f t="shared" si="930"/>
+        <v>1.1977475160213089</v>
+      </c>
+      <c r="AB103" s="11">
+        <f t="shared" si="931"/>
+        <v>3.3736555034601681</v>
+      </c>
+      <c r="AD103" s="15">
+        <v>19162</v>
+      </c>
+      <c r="AE103" s="10">
+        <f t="shared" si="932"/>
+        <v>3904.6126879739272</v>
+      </c>
+      <c r="AF103" s="11">
+        <f t="shared" si="933"/>
+        <v>1.630148288476903</v>
+      </c>
+      <c r="AG103" s="11">
+        <f t="shared" si="934"/>
+        <v>1.5078871668410101</v>
+      </c>
+      <c r="AH103" s="15">
+        <v>1921</v>
+      </c>
+      <c r="AI103" s="10">
+        <f t="shared" si="935"/>
+        <v>391.43935777047875</v>
+      </c>
+      <c r="AJ103" s="11">
+        <f t="shared" si="936"/>
+        <v>0.61130560817878177</v>
+      </c>
+      <c r="AK103" s="11">
+        <f t="shared" si="937"/>
+        <v>0.9373352658741283</v>
+      </c>
+      <c r="AM103" s="15">
+        <v>27828</v>
+      </c>
+      <c r="AN103" s="10">
+        <f t="shared" si="938"/>
+        <v>6255.1122865483394</v>
+      </c>
+      <c r="AO103" s="11">
+        <f t="shared" si="939"/>
+        <v>4.2707752423611964</v>
+      </c>
+      <c r="AP103" s="11">
+        <f t="shared" si="940"/>
+        <v>5.7093521661034172</v>
+      </c>
+      <c r="AQ103" s="15">
+        <v>4136</v>
+      </c>
+      <c r="AR103" s="10">
+        <f t="shared" si="941"/>
+        <v>929.68033696866223</v>
+      </c>
+      <c r="AS103" s="11">
+        <f t="shared" si="942"/>
+        <v>2.6973317320174601</v>
+      </c>
+      <c r="AT103" s="11">
+        <f t="shared" si="943"/>
+        <v>1.888132212412188</v>
+      </c>
+      <c r="AV103" s="15">
+        <v>10117</v>
+      </c>
+      <c r="AW103" s="10">
+        <f t="shared" si="944"/>
+        <v>2703.3187198608821</v>
+      </c>
+      <c r="AX103" s="11">
+        <f t="shared" si="945"/>
+        <v>2.6720556685386327</v>
+      </c>
+      <c r="AY103" s="11">
+        <f t="shared" si="946"/>
+        <v>1.6566745144941706</v>
+      </c>
+      <c r="AZ103" s="15">
+        <v>1053</v>
+      </c>
+      <c r="BA103" s="10">
+        <f t="shared" si="947"/>
+        <v>281.36746189715421</v>
+      </c>
+      <c r="BB103" s="11">
+        <f t="shared" si="948"/>
+        <v>1.3360278342694869</v>
+      </c>
+      <c r="BC103" s="11">
+        <f t="shared" si="949"/>
+        <v>1.2825867208987121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:55">
+      <c r="A104" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B104" s="3">
+        <v>101</v>
+      </c>
+      <c r="C104" s="15">
+        <v>9751</v>
+      </c>
+      <c r="D104" s="10">
+        <f t="shared" ref="D104" si="950">C104/$BR$4</f>
+        <v>6229.448919604908</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" ref="E104" si="951">D104-D103</f>
+        <v>10.860489348096053</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" ref="F104" si="952">SUM(E100:E104)/5</f>
+        <v>16.865701105278276</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1473</v>
+      </c>
+      <c r="H104" s="10">
+        <f t="shared" ref="H104" si="953">G104/$BR$4</f>
+        <v>941.02945939678284</v>
+      </c>
+      <c r="I104" s="11">
+        <f t="shared" si="357"/>
+        <v>3.1942615729693671</v>
+      </c>
+      <c r="J104" s="11">
+        <f t="shared" ref="J104" si="954">SUM(I100:I104)/5</f>
+        <v>2.6831797212942776</v>
+      </c>
+      <c r="L104" s="15">
+        <v>30734</v>
+      </c>
+      <c r="M104" s="10">
+        <f t="shared" ref="M104" si="955">L104/$BR$5</f>
+        <v>6996.8851635710289</v>
+      </c>
+      <c r="N104" s="11">
+        <f t="shared" ref="N104" si="956">M104-M103</f>
+        <v>4.3255293195752529</v>
+      </c>
+      <c r="O104" s="11">
+        <f t="shared" ref="O104" si="957">SUM(N100:N104)/5</f>
+        <v>10.608929804854778</v>
+      </c>
+      <c r="P104" s="15">
+        <v>3898</v>
+      </c>
+      <c r="Q104" s="10">
+        <f t="shared" ref="Q104" si="958">P104/$BR$5</f>
+        <v>887.41648882670245</v>
+      </c>
+      <c r="R104" s="11">
+        <f t="shared" ref="R104" si="959">Q104-Q103</f>
+        <v>3.1872321302139426</v>
+      </c>
+      <c r="S104" s="11">
+        <f t="shared" ref="S104" si="960">SUM(R100:R104)/5</f>
+        <v>2.1399987160007869</v>
+      </c>
+      <c r="U104" s="15">
+        <v>89442</v>
+      </c>
+      <c r="V104" s="10">
+        <f t="shared" ref="V104" si="961">U104/$BR$6</f>
+        <v>8927.4111106652836</v>
+      </c>
+      <c r="W104" s="11">
+        <f t="shared" ref="W104" si="962">V104-V103</f>
+        <v>23.655513441422954</v>
+      </c>
+      <c r="X104" s="11">
+        <f t="shared" ref="X104" si="963">SUM(W100:W104)/5</f>
+        <v>18.066025033322511</v>
+      </c>
+      <c r="Y104" s="15">
+        <v>16172</v>
+      </c>
+      <c r="Z104" s="10">
+        <f t="shared" ref="Z104" si="964">Y104/$BR$6</f>
+        <v>1614.1644024248001</v>
+      </c>
+      <c r="AA104" s="11">
+        <f t="shared" ref="AA104" si="965">Z104-Z103</f>
+        <v>2.8945564970517808</v>
+      </c>
+      <c r="AB104" s="11">
+        <f t="shared" ref="AB104" si="966">SUM(AA100:AA104)/5</f>
+        <v>3.1939933760570058</v>
+      </c>
+      <c r="AD104" s="15">
+        <v>19164</v>
+      </c>
+      <c r="AE104" s="10">
+        <f t="shared" ref="AE104" si="967">AD104/$BR$7</f>
+        <v>3905.0202250460466</v>
+      </c>
+      <c r="AF104" s="11">
+        <f t="shared" ref="AF104" si="968">AE104-AE103</f>
+        <v>0.40753707211933943</v>
+      </c>
+      <c r="AG104" s="11">
+        <f t="shared" ref="AG104" si="969">SUM(AF100:AF104)/5</f>
+        <v>1.2226112163575635</v>
+      </c>
+      <c r="AH104" s="15">
+        <v>1921</v>
+      </c>
+      <c r="AI104" s="10">
+        <f t="shared" ref="AI104" si="970">AH104/$BR$7</f>
+        <v>391.43935777047875</v>
+      </c>
+      <c r="AJ104" s="11">
+        <f t="shared" ref="AJ104" si="971">AI104-AI103</f>
+        <v>0</v>
+      </c>
+      <c r="AK104" s="11">
+        <f t="shared" ref="AK104" si="972">SUM(AJ100:AJ104)/5</f>
+        <v>0.61130560817878177</v>
+      </c>
+      <c r="AM104" s="15">
+        <v>27842</v>
+      </c>
+      <c r="AN104" s="10">
+        <f t="shared" ref="AN104" si="973">AM104/$BR$8</f>
+        <v>6258.2591735690266</v>
+      </c>
+      <c r="AO104" s="11">
+        <f t="shared" ref="AO104" si="974">AN104-AN103</f>
+        <v>3.1468870206872452</v>
+      </c>
+      <c r="AP104" s="11">
+        <f t="shared" ref="AP104" si="975">SUM(AO100:AO104)/5</f>
+        <v>4.6304194732965698</v>
+      </c>
+      <c r="AQ104" s="15">
+        <v>4147</v>
+      </c>
+      <c r="AR104" s="10">
+        <f t="shared" ref="AR104" si="976">AQ104/$BR$8</f>
+        <v>932.15289105634486</v>
+      </c>
+      <c r="AS104" s="11">
+        <f t="shared" ref="AS104" si="977">AR104-AR103</f>
+        <v>2.4725540876826244</v>
+      </c>
+      <c r="AT104" s="11">
+        <f t="shared" ref="AT104" si="978">SUM(AS100:AS104)/5</f>
+        <v>2.022998799013044</v>
+      </c>
+      <c r="AV104" s="15">
+        <v>10121</v>
+      </c>
+      <c r="AW104" s="10">
+        <f t="shared" ref="AW104" si="979">AV104/$BR$9</f>
+        <v>2704.3875421282978</v>
+      </c>
+      <c r="AX104" s="11">
+        <f t="shared" ref="AX104" si="980">AW104-AW103</f>
+        <v>1.0688222674157259</v>
+      </c>
+      <c r="AY104" s="11">
+        <f t="shared" ref="AY104" si="981">SUM(AX100:AX104)/5</f>
+        <v>1.7635567412356976</v>
+      </c>
+      <c r="AZ104" s="15">
+        <v>1055</v>
+      </c>
+      <c r="BA104" s="10">
+        <f t="shared" ref="BA104" si="982">AZ104/$BR$9</f>
+        <v>281.90187303086196</v>
+      </c>
+      <c r="BB104" s="11">
+        <f t="shared" ref="BB104" si="983">BA104-BA103</f>
+        <v>0.53441113370774929</v>
+      </c>
+      <c r="BC104" s="11">
+        <f t="shared" ref="BC104" si="984">SUM(BB100:BB104)/5</f>
+        <v>1.2825867208987005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:55">
+      <c r="A105" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B105" s="3">
+        <v>102</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="U105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="AD105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AM105" s="15"/>
+      <c r="AQ105" s="15"/>
+      <c r="AV105" s="15"/>
+      <c r="AZ105" s="15"/>
+    </row>
+    <row r="106" spans="1:55">
+      <c r="A106" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B106" s="3">
+        <v>103</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="U106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="AD106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AM106" s="15"/>
+      <c r="AQ106" s="15"/>
+      <c r="AV106" s="15"/>
+      <c r="AZ106" s="15"/>
+    </row>
+    <row r="107" spans="1:55">
+      <c r="A107" s="2">
+        <v>43988</v>
+      </c>
+      <c r="B107" s="3">
+        <v>104</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="U107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="AD107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AM107" s="15"/>
+      <c r="AQ107" s="15"/>
+      <c r="AV107" s="15"/>
+      <c r="AZ107" s="15"/>
+    </row>
+    <row r="108" spans="1:55">
+      <c r="A108" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B108" s="3">
+        <v>105</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="U108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="AD108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AM108" s="15"/>
+      <c r="AQ108" s="15"/>
+      <c r="AV108" s="15"/>
+      <c r="AZ108" s="15"/>
+    </row>
+    <row r="109" spans="1:55">
+      <c r="A109" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B109" s="3">
+        <v>106</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="U109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="AD109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AM109" s="15"/>
+      <c r="AQ109" s="15"/>
+      <c r="AV109" s="15"/>
+      <c r="AZ109" s="15"/>
+    </row>
+    <row r="110" spans="1:55">
+      <c r="A110" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B110" s="3">
+        <v>107</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="U110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="AD110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AM110" s="15"/>
+      <c r="AQ110" s="15"/>
+      <c r="AV110" s="15"/>
+      <c r="AZ110" s="15"/>
+    </row>
+    <row r="111" spans="1:55">
+      <c r="A111" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B111" s="3">
+        <v>108</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="U111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="AD111" s="15"/>
+      <c r="AH111" s="15"/>
+      <c r="AM111" s="15"/>
+      <c r="AQ111" s="15"/>
+      <c r="AV111" s="15"/>
+      <c r="AZ111" s="15"/>
+    </row>
+    <row r="112" spans="1:55">
+      <c r="A112" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B112" s="3">
+        <v>109</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="U112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="AD112" s="15"/>
+      <c r="AH112" s="15"/>
+      <c r="AM112" s="15"/>
+      <c r="AQ112" s="15"/>
+      <c r="AV112" s="15"/>
+      <c r="AZ112" s="15"/>
+    </row>
+    <row r="113" spans="1:52">
+      <c r="A113" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B113" s="3">
+        <v>110</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="U113" s="15"/>
+      <c r="Y113" s="15"/>
+      <c r="AD113" s="15"/>
+      <c r="AH113" s="15"/>
+      <c r="AM113" s="15"/>
+      <c r="AQ113" s="15"/>
+      <c r="AV113" s="15"/>
+      <c r="AZ113" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4540DA9-9527-42F2-A25A-D3238DF04246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70456E-A531-42D7-B589-4CFCF721A572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
   </bookViews>
@@ -423,10 +423,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$D$9:$D$107</c:f>
+              <c:f>'Dati REG'!$D$9:$D$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>26.831797212942892</c:v>
                 </c:pt>
@@ -714,16 +714,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>6229.448919604908</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6242.8648182113793</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6251.8087506156935</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6260.1138307054143</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6268.4189107951352</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6277.3628431994493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$F$9:$F$107</c:f>
+              <c:f>'Dati REG'!$F$9:$F$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>5.3663594425885783</c:v>
                 </c:pt>
@@ -1011,6 +1026,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>16.865701105278276</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.460226013171814</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.715766939009336</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.221637033501974</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9660961076646348</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.5827847189082611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,10 +1072,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$M$9:$M$107</c:f>
+              <c:f>'Dati REG'!$M$9:$M$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>2.5042538165966461</c:v>
                 </c:pt>
@@ -1333,16 +1363,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>6996.8851635710289</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7002.3489900799677</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7013.5043025357163</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7022.1553611748677</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7024.4319555535922</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7027.6191876838066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$O$9:$O$107</c:f>
+              <c:f>'Dati REG'!$O$9:$O$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0.36425510059587579</c:v>
                 </c:pt>
@@ -1630,6 +1675,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>10.608929804854778</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.9680803255349018</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.740420887662367</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.5144629764285131</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.3744642604277031</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.1468048225555325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,10 +1721,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$V$9:$V$107</c:f>
+              <c:f>'Dati REG'!$V$9:$V$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>61.384560196095222</c:v>
                 </c:pt>
@@ -1952,16 +2012,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>8927.4111106652836</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8935.795343277432</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8975.9198850641478</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8990.0932306704017</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9002.5697672956248</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9021.9333521379704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$X$9:$X$107</c:f>
+              <c:f>'Dati REG'!$X$9:$X$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>8.8433691599577831</c:v>
                 </c:pt>
@@ -2249,6 +2324,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>18.066025033322511</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.331168205073482</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.163960256341671</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>21.000506447574661</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.762834014352848</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>18.90444829453736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2280,10 +2370,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AE$9:$AE$107</c:f>
+              <c:f>'Dati REG'!$AE$9:$AE$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>38.919790387382321</c:v>
                 </c:pt>
@@ -2571,16 +2661,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>3905.0202250460466</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3905.8352991902848</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3907.0579104066423</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3908.6880586951193</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3908.8918272311785</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3909.7069013754171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AG$9:$AG$107</c:f>
+              <c:f>'Dati REG'!$AG$9:$AG$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>6.4390857394831471</c:v>
                 </c:pt>
@@ -2868,6 +2973,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.2226112163575635</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.89658155866218292</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.89658155866218292</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1411038019337867</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.85582785145024898</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.93733526587411686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,10 +3021,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AN$9:$AN$107</c:f>
+              <c:f>'Dati REG'!$AN$9:$AN$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>48.776748820647896</c:v>
                 </c:pt>
@@ -3192,16 +3312,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>6258.2591735690266</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6262.3051711670523</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6266.1263911207434</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6269.9476110744354</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6273.0944980951217</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6277.5900509818175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AP$9:$AP$107</c:f>
+              <c:f>'Dati REG'!$AP$9:$AP$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>8.946150244524361</c:v>
                 </c:pt>
@@ -3489,6 +3624,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>4.6304194732965698</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5405084155625444</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9111310114250957</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.821219953691434</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.5964423093564619</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.866175482558174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,10 +3670,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AW$9:$AW$107</c:f>
+              <c:f>'Dati REG'!$AW$9:$AW$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>2.9392612353928738</c:v>
                 </c:pt>
@@ -3811,16 +3961,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>2704.3875421282978</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2704.6547476951519</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2706.5251866631288</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2707.8612144973986</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2708.1284200642526</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2710.5332701659377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AY$9:$AY$107</c:f>
+              <c:f>'Dati REG'!$AY$9:$AY$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0.58785224707857475</c:v>
                 </c:pt>
@@ -4108,6 +4273,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.7635567412356976</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1757044941571622</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3360278342694074</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4429100610110255</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.96194004067410788</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2291456075279712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,10 +4319,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$D$9:$D$107</c:f>
+              <c:f>'Dati ITA'!$D$9:$D$190</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>18.617214635276305</c:v>
                 </c:pt>
@@ -4430,16 +4610,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>3854.0770173373639</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3859.3750012894238</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3862.2963195433636</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3870.8457142074353</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3875.3019623914111</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3878.5533731034229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$F$9:$F$107</c:f>
+              <c:f>'Dati ITA'!$F$9:$F$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>2.9675311980697514</c:v>
                 </c:pt>
@@ -4727,6 +4922,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>5.8855485274287274</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.241868234187768</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.4529472593950228</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0636183068287206</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.2946830274792775</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.8952711532117972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4888,7 +5098,7 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
-          <c:min val="1"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5199,10 +5409,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$H$9:$H$107</c:f>
+              <c:f>'Dati REG'!$H$9:$H$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5490,16 +5700,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>941.02945939678284</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>944.86257328434613</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>949.33453948650333</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>953.1676533740665</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>957.63961957622371</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>961.47273346378699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$J$9:$J$107</c:f>
+              <c:f>'Dati REG'!$J$9:$J$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5787,6 +6012,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>2.6831797212942776</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.5554092583755166</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.6831797212943003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1942615729693897</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.960884350482047</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.0886548134008311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5818,10 +6058,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$Q$9:$Q$107</c:f>
+              <c:f>'Dati REG'!$Q$9:$Q$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6109,16 +6349,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>887.41648882670245</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>890.14840208117153</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>894.01861252500271</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>895.61222859010957</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>897.20584465521654</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>900.1654173475581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$S$9:$S$107</c:f>
+              <c:f>'Dati REG'!$S$9:$S$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6406,6 +6661,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>2.1399987160007869</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.367658153873208</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.7319132544690774</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.6408494793200816</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5953175917456064</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.5497857041711312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6437,10 +6707,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$Z$9:$Z$107</c:f>
+              <c:f>'Dati REG'!$Z$9:$Z$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>2.2956827390409598</c:v>
                 </c:pt>
@@ -6728,16 +6998,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1614.1644024248001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1617.0589589218516</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1619.155017074889</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1621.8499489859371</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1623.9460071389744</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1627.1400005150315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AB$9:$AB$107</c:f>
+              <c:f>'Dati REG'!$AB$9:$AB$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0.33936179620605494</c:v>
                 </c:pt>
@@ -7025,6 +7310,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>3.1939933760570058</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4354199492434416</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.19587044603918</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3555701148420214</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5352322422452289</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.595119618046283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7056,10 +7356,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AI$9:$AI$107</c:f>
+              <c:f>'Dati REG'!$AI$9:$AI$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0.40753707211918666</c:v>
                 </c:pt>
@@ -7347,16 +7647,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>391.43935777047875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>394.08834873925349</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>394.90342288349183</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>397.1448767801474</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>398.16371946044535</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>398.36748799650496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AK$9:$AK$107</c:f>
+              <c:f>'Dati REG'!$AK$9:$AK$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>4.0753707211918663E-2</c:v>
                 </c:pt>
@@ -7644,6 +7959,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.61130560817878177</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.73356672981453808</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.81507414423837188</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2633649235694862</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3448723379933198</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3856260452052425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7675,10 +8005,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AR$9:$AR$107</c:f>
+              <c:f>'Dati REG'!$AR$9:$AR$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0.89911057733913169</c:v>
                 </c:pt>
@@ -7966,16 +8296,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>932.15289105634486</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>933.72633456668825</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>936.64844394304043</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>937.54755452037966</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>938.44666509771878</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>939.34577567505789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$AT$9:$AT$107</c:f>
+              <c:f>'Dati REG'!$AT$9:$AT$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0.17982211546782634</c:v>
                 </c:pt>
@@ -8263,6 +8608,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>2.022998799013044</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.1129098567469553</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.38264302994869</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.1129098567469784</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7532656258113093</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4385769237426076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8294,10 +8654,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati REG'!$BA$9:$BA$107</c:f>
+              <c:f>'Dati REG'!$BA$9:$BA$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8585,16 +8945,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>281.90187303086196</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>282.97069529827758</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>284.03951756569319</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>285.37554539996268</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>285.90995653367048</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>286.97877880108604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati REG'!$BC$9:$BC$107</c:f>
+              <c:f>'Dati REG'!$BC$9:$BC$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8882,6 +9257,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.2825867208987005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1757044941571508</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1757044941571508</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0688222674155896</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.90849892730325332</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0153811540448145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8913,10 +9303,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$H$9:$H$107</c:f>
+              <c:f>'Dati ITA'!$H$9:$H$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0.47863406420479865</c:v>
                 </c:pt>
@@ -9204,16 +9594,31 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>554.57183418432544</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>556.02424099984353</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>557.42713394665066</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>558.61546679571086</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>559.49021180960233</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>560.5630122983373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Dati ITA'!$J$9:$J$107</c:f>
+              <c:f>'Dati ITA'!$J$9:$J$190</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>7.2620340775900488E-2</c:v>
                 </c:pt>
@@ -9501,6 +9906,21 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>1.2279439440288571</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1520226786722561</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1850319244794718</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.224643019448149</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2180411702866878</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1982356228023718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11364,11 +11784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2619D-6D80-438C-B4B6-FF2AE18F2819}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15243,8 +15663,36 @@
       <c r="B105" s="3">
         <v>102</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="G105" s="15"/>
+      <c r="C105" s="15">
+        <v>234013</v>
+      </c>
+      <c r="D105" s="14">
+        <f t="shared" ref="D105:D109" si="170">C104/$P$4</f>
+        <v>3859.3750012894238</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" ref="E105:E109" si="171">D105-D104</f>
+        <v>5.2979839520598944</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" ref="F105:F109" si="172">SUM(E101:E105)/5</f>
+        <v>5.241868234187768</v>
+      </c>
+      <c r="G105" s="15">
+        <v>33689</v>
+      </c>
+      <c r="H105" s="13">
+        <f t="shared" ref="H105:H109" si="173">G105/$P$4</f>
+        <v>556.02424099984353</v>
+      </c>
+      <c r="I105" s="11">
+        <f t="shared" ref="I105:I109" si="174">H105-H104</f>
+        <v>1.4524068155180885</v>
+      </c>
+      <c r="J105" s="11">
+        <f t="shared" ref="J105:J109" si="175">SUM(I101:I105)/5</f>
+        <v>1.1520226786722561</v>
+      </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2">
@@ -15253,8 +15701,36 @@
       <c r="B106" s="3">
         <v>103</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="G106" s="15"/>
+      <c r="C106" s="15">
+        <v>234531</v>
+      </c>
+      <c r="D106" s="14">
+        <f t="shared" si="170"/>
+        <v>3862.2963195433636</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" si="171"/>
+        <v>2.9213182539397167</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="172"/>
+        <v>4.4529472593950228</v>
+      </c>
+      <c r="G106" s="15">
+        <v>33774</v>
+      </c>
+      <c r="H106" s="13">
+        <f t="shared" si="173"/>
+        <v>557.42713394665066</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="174"/>
+        <v>1.4028929468071283</v>
+      </c>
+      <c r="J106" s="11">
+        <f t="shared" si="175"/>
+        <v>1.1850319244794718</v>
+      </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2">
@@ -15263,8 +15739,312 @@
       <c r="B107" s="3">
         <v>104</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="C107" s="15">
+        <v>234801</v>
+      </c>
+      <c r="D107" s="14">
+        <f t="shared" si="170"/>
+        <v>3870.8457142074353</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="171"/>
+        <v>8.5493946640717695</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="172"/>
+        <v>5.0636183068287206</v>
+      </c>
+      <c r="G107" s="15">
+        <v>33846</v>
+      </c>
+      <c r="H107" s="13">
+        <f t="shared" si="173"/>
+        <v>558.61546679571086</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="174"/>
+        <v>1.1883328490602025</v>
+      </c>
+      <c r="J107" s="11">
+        <f t="shared" si="175"/>
+        <v>1.224643019448149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="2">
+        <v>43989</v>
+      </c>
+      <c r="B108" s="3">
+        <v>105</v>
+      </c>
+      <c r="C108" s="15">
+        <v>234998</v>
+      </c>
+      <c r="D108" s="14">
+        <f t="shared" si="170"/>
+        <v>3875.3019623914111</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="171"/>
+        <v>4.4562481839757311</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="172"/>
+        <v>5.2946830274792775</v>
+      </c>
+      <c r="G108" s="15">
+        <v>33899</v>
+      </c>
+      <c r="H108" s="13">
+        <f t="shared" si="173"/>
+        <v>559.49021180960233</v>
+      </c>
+      <c r="I108" s="11">
+        <f t="shared" si="174"/>
+        <v>0.87474501389147008</v>
+      </c>
+      <c r="J108" s="11">
+        <f t="shared" si="175"/>
+        <v>1.2180411702866878</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B109" s="3">
+        <v>106</v>
+      </c>
+      <c r="C109" s="15">
+        <v>235278</v>
+      </c>
+      <c r="D109" s="14">
+        <f t="shared" si="170"/>
+        <v>3878.5533731034229</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="171"/>
+        <v>3.2514107120118751</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="172"/>
+        <v>4.8952711532117972</v>
+      </c>
+      <c r="G109" s="15">
+        <v>33964</v>
+      </c>
+      <c r="H109" s="13">
+        <f t="shared" si="173"/>
+        <v>560.5630122983373</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="174"/>
+        <v>1.0728004887349698</v>
+      </c>
+      <c r="J109" s="11">
+        <f t="shared" si="175"/>
+        <v>1.1982356228023718</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B110" s="3">
+        <v>107</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B111" s="3">
+        <v>108</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B112" s="3">
+        <v>109</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B113" s="3">
+        <v>110</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B114" s="3">
+        <v>111</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B115" s="3">
+        <v>112</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B116" s="3">
+        <v>113</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="G116" s="15"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B117" s="3">
+        <v>114</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B118" s="3">
+        <v>115</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="G118" s="15"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B119" s="3">
+        <v>116</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="G119" s="15"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B120" s="3">
+        <v>117</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="G120" s="15"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B121" s="3">
+        <v>118</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B122" s="3">
+        <v>119</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="G122" s="15"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B123" s="3">
+        <v>120</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="G123" s="15"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B124" s="3">
+        <v>121</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="G124" s="15"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B125" s="3">
+        <v>122</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="G125" s="15"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B126" s="3">
+        <v>123</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="G126" s="15"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B127" s="3">
+        <v>124</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="G127" s="15"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B128" s="3">
+        <v>125</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="G128" s="15"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B129" s="3">
+        <v>126</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="G129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15276,11 +16056,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
-  <dimension ref="A1:BR113"/>
+  <dimension ref="A1:BR139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AV104" sqref="AV104"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA104" sqref="BA104:BC109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28684,7 +29464,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I104" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I109" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -34301,18 +35081,186 @@
       <c r="B105" s="3">
         <v>102</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AM105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AV105" s="15"/>
-      <c r="AZ105" s="15"/>
+      <c r="C105" s="15">
+        <v>9772</v>
+      </c>
+      <c r="D105" s="10">
+        <f t="shared" ref="D105:D109" si="985">C105/$BR$4</f>
+        <v>6242.8648182113793</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" ref="E105:E109" si="986">D105-D104</f>
+        <v>13.415898606471274</v>
+      </c>
+      <c r="F105" s="11">
+        <f t="shared" ref="F105:F109" si="987">SUM(E101:E105)/5</f>
+        <v>15.460226013171814</v>
+      </c>
+      <c r="G105" s="15">
+        <v>1479</v>
+      </c>
+      <c r="H105" s="10">
+        <f t="shared" ref="H105:H109" si="988">G105/$BR$4</f>
+        <v>944.86257328434613</v>
+      </c>
+      <c r="I105" s="11">
+        <f t="shared" si="357"/>
+        <v>3.833113887563286</v>
+      </c>
+      <c r="J105" s="11">
+        <f t="shared" ref="J105:J109" si="989">SUM(I101:I105)/5</f>
+        <v>2.5554092583755166</v>
+      </c>
+      <c r="L105" s="15">
+        <v>30758</v>
+      </c>
+      <c r="M105" s="10">
+        <f t="shared" ref="M105:M109" si="990">L105/$BR$5</f>
+        <v>7002.3489900799677</v>
+      </c>
+      <c r="N105" s="11">
+        <f t="shared" ref="N105:N109" si="991">M105-M104</f>
+        <v>5.4638265089388369</v>
+      </c>
+      <c r="O105" s="11">
+        <f t="shared" ref="O105:O109" si="992">SUM(N101:N105)/5</f>
+        <v>7.9680803255349018</v>
+      </c>
+      <c r="P105" s="15">
+        <v>3910</v>
+      </c>
+      <c r="Q105" s="10">
+        <f t="shared" ref="Q105:Q109" si="993">P105/$BR$5</f>
+        <v>890.14840208117153</v>
+      </c>
+      <c r="R105" s="11">
+        <f t="shared" ref="R105:R109" si="994">Q105-Q104</f>
+        <v>2.7319132544690774</v>
+      </c>
+      <c r="S105" s="11">
+        <f t="shared" ref="S105:S109" si="995">SUM(R101:R105)/5</f>
+        <v>2.367658153873208</v>
+      </c>
+      <c r="U105" s="15">
+        <v>89526</v>
+      </c>
+      <c r="V105" s="10">
+        <f t="shared" ref="V105:V109" si="996">U105/$BR$6</f>
+        <v>8935.795343277432</v>
+      </c>
+      <c r="W105" s="11">
+        <f t="shared" ref="W105:W109" si="997">V105-V104</f>
+        <v>8.3842326121484803</v>
+      </c>
+      <c r="X105" s="11">
+        <f t="shared" ref="X105:X109" si="998">SUM(W101:W105)/5</f>
+        <v>15.331168205073482</v>
+      </c>
+      <c r="Y105" s="15">
+        <v>16201</v>
+      </c>
+      <c r="Z105" s="10">
+        <f t="shared" ref="Z105:Z109" si="999">Y105/$BR$6</f>
+        <v>1617.0589589218516</v>
+      </c>
+      <c r="AA105" s="11">
+        <f t="shared" ref="AA105:AA109" si="1000">Z105-Z104</f>
+        <v>2.8945564970515534</v>
+      </c>
+      <c r="AB105" s="11">
+        <f t="shared" ref="AB105:AB109" si="1001">SUM(AA101:AA105)/5</f>
+        <v>2.4354199492434416</v>
+      </c>
+      <c r="AD105" s="15">
+        <v>19168</v>
+      </c>
+      <c r="AE105" s="10">
+        <f t="shared" ref="AE105:AE109" si="1002">AD105/$BR$7</f>
+        <v>3905.8352991902848</v>
+      </c>
+      <c r="AF105" s="11">
+        <f t="shared" ref="AF105:AF109" si="1003">AE105-AE104</f>
+        <v>0.81507414423822411</v>
+      </c>
+      <c r="AG105" s="11">
+        <f t="shared" ref="AG105:AG109" si="1004">SUM(AF101:AF105)/5</f>
+        <v>0.89658155866218292</v>
+      </c>
+      <c r="AH105" s="15">
+        <v>1934</v>
+      </c>
+      <c r="AI105" s="10">
+        <f t="shared" ref="AI105:AI109" si="1005">AH105/$BR$7</f>
+        <v>394.08834873925349</v>
+      </c>
+      <c r="AJ105" s="11">
+        <f t="shared" ref="AJ105:AJ109" si="1006">AI105-AI104</f>
+        <v>2.6489909687747399</v>
+      </c>
+      <c r="AK105" s="11">
+        <f t="shared" ref="AK105:AK109" si="1007">SUM(AJ101:AJ105)/5</f>
+        <v>0.73356672981453808</v>
+      </c>
+      <c r="AM105" s="15">
+        <v>27860</v>
+      </c>
+      <c r="AN105" s="10">
+        <f t="shared" ref="AN105:AN109" si="1008">AM105/$BR$8</f>
+        <v>6262.3051711670523</v>
+      </c>
+      <c r="AO105" s="11">
+        <f t="shared" ref="AO105:AO109" si="1009">AN105-AN104</f>
+        <v>4.0459975980256786</v>
+      </c>
+      <c r="AP105" s="11">
+        <f t="shared" ref="AP105:AP109" si="1010">SUM(AO101:AO105)/5</f>
+        <v>4.5405084155625444</v>
+      </c>
+      <c r="AQ105" s="15">
+        <v>4154</v>
+      </c>
+      <c r="AR105" s="10">
+        <f t="shared" ref="AR105:AR109" si="1011">AQ105/$BR$8</f>
+        <v>933.72633456668825</v>
+      </c>
+      <c r="AS105" s="11">
+        <f t="shared" ref="AS105:AS109" si="1012">AR105-AR104</f>
+        <v>1.5734435103433952</v>
+      </c>
+      <c r="AT105" s="11">
+        <f t="shared" ref="AT105:AT109" si="1013">SUM(AS101:AS105)/5</f>
+        <v>2.1129098567469553</v>
+      </c>
+      <c r="AV105" s="15">
+        <v>10122</v>
+      </c>
+      <c r="AW105" s="10">
+        <f t="shared" ref="AW105:AW109" si="1014">AV105/$BR$9</f>
+        <v>2704.6547476951519</v>
+      </c>
+      <c r="AX105" s="11">
+        <f t="shared" ref="AX105:AX109" si="1015">AW105-AW104</f>
+        <v>0.26720556685404517</v>
+      </c>
+      <c r="AY105" s="11">
+        <f t="shared" ref="AY105:AY109" si="1016">SUM(AX101:AX105)/5</f>
+        <v>1.1757044941571622</v>
+      </c>
+      <c r="AZ105" s="15">
+        <v>1059</v>
+      </c>
+      <c r="BA105" s="10">
+        <f t="shared" ref="BA105:BA109" si="1017">AZ105/$BR$9</f>
+        <v>282.97069529827758</v>
+      </c>
+      <c r="BB105" s="11">
+        <f t="shared" ref="BB105:BB109" si="1018">BA105-BA104</f>
+        <v>1.0688222674156123</v>
+      </c>
+      <c r="BC105" s="11">
+        <f t="shared" ref="BC105:BC109" si="1019">SUM(BB101:BB105)/5</f>
+        <v>1.1757044941571508</v>
+      </c>
     </row>
     <row r="106" spans="1:55">
       <c r="A106" s="2">
@@ -34321,18 +35269,186 @@
       <c r="B106" s="3">
         <v>103</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="L106" s="15"/>
-      <c r="P106" s="15"/>
-      <c r="U106" s="15"/>
-      <c r="Y106" s="15"/>
-      <c r="AD106" s="15"/>
-      <c r="AH106" s="15"/>
-      <c r="AM106" s="15"/>
-      <c r="AQ106" s="15"/>
-      <c r="AV106" s="15"/>
-      <c r="AZ106" s="15"/>
+      <c r="C106" s="15">
+        <v>9786</v>
+      </c>
+      <c r="D106" s="10">
+        <f t="shared" si="985"/>
+        <v>6251.8087506156935</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" si="986"/>
+        <v>8.9439324043141823</v>
+      </c>
+      <c r="F106" s="11">
+        <f t="shared" si="987"/>
+        <v>15.715766939009336</v>
+      </c>
+      <c r="G106" s="15">
+        <v>1486</v>
+      </c>
+      <c r="H106" s="10">
+        <f t="shared" si="988"/>
+        <v>949.33453948650333</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021572049</v>
+      </c>
+      <c r="J106" s="11">
+        <f t="shared" si="989"/>
+        <v>2.6831797212943003</v>
+      </c>
+      <c r="L106" s="15">
+        <v>30807</v>
+      </c>
+      <c r="M106" s="10">
+        <f t="shared" si="990"/>
+        <v>7013.5043025357163</v>
+      </c>
+      <c r="N106" s="11">
+        <f t="shared" si="991"/>
+        <v>11.155312455748572</v>
+      </c>
+      <c r="O106" s="11">
+        <f t="shared" si="992"/>
+        <v>7.740420887662367</v>
+      </c>
+      <c r="P106" s="15">
+        <v>3927</v>
+      </c>
+      <c r="Q106" s="10">
+        <f t="shared" si="993"/>
+        <v>894.01861252500271</v>
+      </c>
+      <c r="R106" s="11">
+        <f t="shared" si="994"/>
+        <v>3.8702104438311835</v>
+      </c>
+      <c r="S106" s="11">
+        <f t="shared" si="995"/>
+        <v>2.7319132544690774</v>
+      </c>
+      <c r="U106" s="15">
+        <v>89928</v>
+      </c>
+      <c r="V106" s="10">
+        <f t="shared" si="996"/>
+        <v>8975.9198850641478</v>
+      </c>
+      <c r="W106" s="11">
+        <f t="shared" si="997"/>
+        <v>40.124541786715781</v>
+      </c>
+      <c r="X106" s="11">
+        <f t="shared" si="998"/>
+        <v>19.163960256341671</v>
+      </c>
+      <c r="Y106" s="15">
+        <v>16222</v>
+      </c>
+      <c r="Z106" s="10">
+        <f t="shared" si="999"/>
+        <v>1619.155017074889</v>
+      </c>
+      <c r="AA106" s="11">
+        <f t="shared" si="1000"/>
+        <v>2.0960581530373474</v>
+      </c>
+      <c r="AB106" s="11">
+        <f t="shared" si="1001"/>
+        <v>2.19587044603918</v>
+      </c>
+      <c r="AD106" s="15">
+        <v>19174</v>
+      </c>
+      <c r="AE106" s="10">
+        <f t="shared" si="1002"/>
+        <v>3907.0579104066423</v>
+      </c>
+      <c r="AF106" s="11">
+        <f t="shared" si="1003"/>
+        <v>1.2226112163575635</v>
+      </c>
+      <c r="AG106" s="11">
+        <f t="shared" si="1004"/>
+        <v>0.89658155866218292</v>
+      </c>
+      <c r="AH106" s="15">
+        <v>1938</v>
+      </c>
+      <c r="AI106" s="10">
+        <f t="shared" si="1005"/>
+        <v>394.90342288349183</v>
+      </c>
+      <c r="AJ106" s="11">
+        <f t="shared" si="1006"/>
+        <v>0.81507414423833779</v>
+      </c>
+      <c r="AK106" s="11">
+        <f t="shared" si="1007"/>
+        <v>0.81507414423837188</v>
+      </c>
+      <c r="AM106" s="15">
+        <v>27877</v>
+      </c>
+      <c r="AN106" s="10">
+        <f t="shared" si="1008"/>
+        <v>6266.1263911207434</v>
+      </c>
+      <c r="AO106" s="11">
+        <f t="shared" si="1009"/>
+        <v>3.8212199536910703</v>
+      </c>
+      <c r="AP106" s="11">
+        <f t="shared" si="1010"/>
+        <v>3.9111310114250957</v>
+      </c>
+      <c r="AQ106" s="15">
+        <v>4167</v>
+      </c>
+      <c r="AR106" s="10">
+        <f t="shared" si="1011"/>
+        <v>936.64844394304043</v>
+      </c>
+      <c r="AS106" s="11">
+        <f t="shared" si="1012"/>
+        <v>2.9221093763521822</v>
+      </c>
+      <c r="AT106" s="11">
+        <f t="shared" si="1013"/>
+        <v>2.38264302994869</v>
+      </c>
+      <c r="AV106" s="15">
+        <v>10129</v>
+      </c>
+      <c r="AW106" s="10">
+        <f t="shared" si="1014"/>
+        <v>2706.5251866631288</v>
+      </c>
+      <c r="AX106" s="11">
+        <f t="shared" si="1015"/>
+        <v>1.870438967976952</v>
+      </c>
+      <c r="AY106" s="11">
+        <f t="shared" si="1016"/>
+        <v>1.3360278342694074</v>
+      </c>
+      <c r="AZ106" s="15">
+        <v>1063</v>
+      </c>
+      <c r="BA106" s="10">
+        <f t="shared" si="1017"/>
+        <v>284.03951756569319</v>
+      </c>
+      <c r="BB106" s="11">
+        <f t="shared" si="1018"/>
+        <v>1.0688222674156123</v>
+      </c>
+      <c r="BC106" s="11">
+        <f t="shared" si="1019"/>
+        <v>1.1757044941571508</v>
+      </c>
     </row>
     <row r="107" spans="1:55">
       <c r="A107" s="2">
@@ -34341,18 +35457,186 @@
       <c r="B107" s="3">
         <v>104</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="P107" s="15"/>
-      <c r="U107" s="15"/>
-      <c r="Y107" s="15"/>
-      <c r="AD107" s="15"/>
-      <c r="AH107" s="15"/>
-      <c r="AM107" s="15"/>
-      <c r="AQ107" s="15"/>
-      <c r="AV107" s="15"/>
-      <c r="AZ107" s="15"/>
+      <c r="C107" s="15">
+        <v>9799</v>
+      </c>
+      <c r="D107" s="10">
+        <f t="shared" si="985"/>
+        <v>6260.1138307054143</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="986"/>
+        <v>8.3050800897208319</v>
+      </c>
+      <c r="F107" s="11">
+        <f t="shared" si="987"/>
+        <v>10.221637033501974</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1492</v>
+      </c>
+      <c r="H107" s="10">
+        <f t="shared" si="988"/>
+        <v>953.1676533740665</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="357"/>
+        <v>3.8331138875631723</v>
+      </c>
+      <c r="J107" s="11">
+        <f t="shared" si="989"/>
+        <v>3.1942615729693897</v>
+      </c>
+      <c r="L107" s="15">
+        <v>30845</v>
+      </c>
+      <c r="M107" s="10">
+        <f t="shared" si="990"/>
+        <v>7022.1553611748677</v>
+      </c>
+      <c r="N107" s="11">
+        <f t="shared" si="991"/>
+        <v>8.6510586391514153</v>
+      </c>
+      <c r="O107" s="11">
+        <f t="shared" si="992"/>
+        <v>8.5144629764285131</v>
+      </c>
+      <c r="P107" s="15">
+        <v>3934</v>
+      </c>
+      <c r="Q107" s="10">
+        <f t="shared" si="993"/>
+        <v>895.61222859010957</v>
+      </c>
+      <c r="R107" s="11">
+        <f t="shared" si="994"/>
+        <v>1.5936160651068576</v>
+      </c>
+      <c r="S107" s="11">
+        <f t="shared" si="995"/>
+        <v>2.6408494793200816</v>
+      </c>
+      <c r="U107" s="15">
+        <v>90070</v>
+      </c>
+      <c r="V107" s="10">
+        <f t="shared" si="996"/>
+        <v>8990.0932306704017</v>
+      </c>
+      <c r="W107" s="11">
+        <f t="shared" si="997"/>
+        <v>14.173345606253861</v>
+      </c>
+      <c r="X107" s="11">
+        <f t="shared" si="998"/>
+        <v>21.000506447574661</v>
+      </c>
+      <c r="Y107" s="15">
+        <v>16249</v>
+      </c>
+      <c r="Z107" s="10">
+        <f t="shared" si="999"/>
+        <v>1621.8499489859371</v>
+      </c>
+      <c r="AA107" s="11">
+        <f t="shared" si="1000"/>
+        <v>2.6949319110481156</v>
+      </c>
+      <c r="AB107" s="11">
+        <f t="shared" si="1001"/>
+        <v>2.3555701148420214</v>
+      </c>
+      <c r="AD107" s="15">
+        <v>19182</v>
+      </c>
+      <c r="AE107" s="10">
+        <f t="shared" si="1002"/>
+        <v>3908.6880586951193</v>
+      </c>
+      <c r="AF107" s="11">
+        <f t="shared" si="1003"/>
+        <v>1.630148288476903</v>
+      </c>
+      <c r="AG107" s="11">
+        <f t="shared" si="1004"/>
+        <v>1.1411038019337867</v>
+      </c>
+      <c r="AH107" s="15">
+        <v>1949</v>
+      </c>
+      <c r="AI107" s="10">
+        <f t="shared" si="1005"/>
+        <v>397.1448767801474</v>
+      </c>
+      <c r="AJ107" s="11">
+        <f t="shared" si="1006"/>
+        <v>2.241453896655571</v>
+      </c>
+      <c r="AK107" s="11">
+        <f t="shared" si="1007"/>
+        <v>1.2633649235694862</v>
+      </c>
+      <c r="AM107" s="15">
+        <v>27894</v>
+      </c>
+      <c r="AN107" s="10">
+        <f t="shared" si="1008"/>
+        <v>6269.9476110744354</v>
+      </c>
+      <c r="AO107" s="11">
+        <f t="shared" si="1009"/>
+        <v>3.8212199536919798</v>
+      </c>
+      <c r="AP107" s="11">
+        <f t="shared" si="1010"/>
+        <v>3.821219953691434</v>
+      </c>
+      <c r="AQ107" s="15">
+        <v>4171</v>
+      </c>
+      <c r="AR107" s="10">
+        <f t="shared" si="1011"/>
+        <v>937.54755452037966</v>
+      </c>
+      <c r="AS107" s="11">
+        <f t="shared" si="1012"/>
+        <v>0.89911057733922917</v>
+      </c>
+      <c r="AT107" s="11">
+        <f t="shared" si="1013"/>
+        <v>2.1129098567469784</v>
+      </c>
+      <c r="AV107" s="15">
+        <v>10134</v>
+      </c>
+      <c r="AW107" s="10">
+        <f t="shared" si="1014"/>
+        <v>2707.8612144973986</v>
+      </c>
+      <c r="AX107" s="11">
+        <f t="shared" si="1015"/>
+        <v>1.3360278342697711</v>
+      </c>
+      <c r="AY107" s="11">
+        <f t="shared" si="1016"/>
+        <v>1.4429100610110255</v>
+      </c>
+      <c r="AZ107" s="15">
+        <v>1068</v>
+      </c>
+      <c r="BA107" s="10">
+        <f t="shared" si="1017"/>
+        <v>285.37554539996268</v>
+      </c>
+      <c r="BB107" s="11">
+        <f t="shared" si="1018"/>
+        <v>1.3360278342694869</v>
+      </c>
+      <c r="BC107" s="11">
+        <f t="shared" si="1019"/>
+        <v>1.0688222674155896</v>
+      </c>
     </row>
     <row r="108" spans="1:55">
       <c r="A108" s="2">
@@ -34361,18 +35645,186 @@
       <c r="B108" s="3">
         <v>105</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="U108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="AD108" s="15"/>
-      <c r="AH108" s="15"/>
-      <c r="AM108" s="15"/>
-      <c r="AQ108" s="15"/>
-      <c r="AV108" s="15"/>
-      <c r="AZ108" s="15"/>
+      <c r="C108" s="15">
+        <v>9812</v>
+      </c>
+      <c r="D108" s="10">
+        <f t="shared" si="985"/>
+        <v>6268.4189107951352</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="986"/>
+        <v>8.3050800897208319</v>
+      </c>
+      <c r="F108" s="11">
+        <f t="shared" si="987"/>
+        <v>9.9660961076646348</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1499</v>
+      </c>
+      <c r="H108" s="10">
+        <f t="shared" si="988"/>
+        <v>957.63961957622371</v>
+      </c>
+      <c r="I108" s="11">
+        <f t="shared" si="357"/>
+        <v>4.4719662021572049</v>
+      </c>
+      <c r="J108" s="11">
+        <f t="shared" si="989"/>
+        <v>3.960884350482047</v>
+      </c>
+      <c r="L108" s="15">
+        <v>30855</v>
+      </c>
+      <c r="M108" s="10">
+        <f t="shared" si="990"/>
+        <v>7024.4319555535922</v>
+      </c>
+      <c r="N108" s="11">
+        <f t="shared" si="991"/>
+        <v>2.2765943787244396</v>
+      </c>
+      <c r="O108" s="11">
+        <f t="shared" si="992"/>
+        <v>6.3744642604277031</v>
+      </c>
+      <c r="P108" s="15">
+        <v>3941</v>
+      </c>
+      <c r="Q108" s="10">
+        <f t="shared" si="993"/>
+        <v>897.20584465521654</v>
+      </c>
+      <c r="R108" s="11">
+        <f t="shared" si="994"/>
+        <v>1.5936160651069713</v>
+      </c>
+      <c r="S108" s="11">
+        <f t="shared" si="995"/>
+        <v>2.5953175917456064</v>
+      </c>
+      <c r="U108" s="15">
+        <v>90195</v>
+      </c>
+      <c r="V108" s="10">
+        <f t="shared" si="996"/>
+        <v>9002.5697672956248</v>
+      </c>
+      <c r="W108" s="11">
+        <f t="shared" si="997"/>
+        <v>12.476536625223162</v>
+      </c>
+      <c r="X108" s="11">
+        <f t="shared" si="998"/>
+        <v>19.762834014352848</v>
+      </c>
+      <c r="Y108" s="15">
+        <v>16270</v>
+      </c>
+      <c r="Z108" s="10">
+        <f t="shared" si="999"/>
+        <v>1623.9460071389744</v>
+      </c>
+      <c r="AA108" s="11">
+        <f t="shared" si="1000"/>
+        <v>2.0960581530373474</v>
+      </c>
+      <c r="AB108" s="11">
+        <f t="shared" si="1001"/>
+        <v>2.5352322422452289</v>
+      </c>
+      <c r="AD108" s="15">
+        <v>19183</v>
+      </c>
+      <c r="AE108" s="10">
+        <f t="shared" si="1002"/>
+        <v>3908.8918272311785</v>
+      </c>
+      <c r="AF108" s="11">
+        <f t="shared" si="1003"/>
+        <v>0.20376853605921497</v>
+      </c>
+      <c r="AG108" s="11">
+        <f t="shared" si="1004"/>
+        <v>0.85582785145024898</v>
+      </c>
+      <c r="AH108" s="15">
+        <v>1954</v>
+      </c>
+      <c r="AI108" s="10">
+        <f t="shared" si="1005"/>
+        <v>398.16371946044535</v>
+      </c>
+      <c r="AJ108" s="11">
+        <f t="shared" si="1006"/>
+        <v>1.0188426802979507</v>
+      </c>
+      <c r="AK108" s="11">
+        <f t="shared" si="1007"/>
+        <v>1.3448723379933198</v>
+      </c>
+      <c r="AM108" s="15">
+        <v>27908</v>
+      </c>
+      <c r="AN108" s="10">
+        <f t="shared" si="1008"/>
+        <v>6273.0944980951217</v>
+      </c>
+      <c r="AO108" s="11">
+        <f t="shared" si="1009"/>
+        <v>3.1468870206863357</v>
+      </c>
+      <c r="AP108" s="11">
+        <f t="shared" si="1010"/>
+        <v>3.5964423093564619</v>
+      </c>
+      <c r="AQ108" s="15">
+        <v>4175</v>
+      </c>
+      <c r="AR108" s="10">
+        <f t="shared" si="1011"/>
+        <v>938.44666509771878</v>
+      </c>
+      <c r="AS108" s="11">
+        <f t="shared" si="1012"/>
+        <v>0.89911057733911548</v>
+      </c>
+      <c r="AT108" s="11">
+        <f t="shared" si="1013"/>
+        <v>1.7532656258113093</v>
+      </c>
+      <c r="AV108" s="15">
+        <v>10135</v>
+      </c>
+      <c r="AW108" s="10">
+        <f t="shared" si="1014"/>
+        <v>2708.1284200642526</v>
+      </c>
+      <c r="AX108" s="11">
+        <f t="shared" si="1015"/>
+        <v>0.26720556685404517</v>
+      </c>
+      <c r="AY108" s="11">
+        <f t="shared" si="1016"/>
+        <v>0.96194004067410788</v>
+      </c>
+      <c r="AZ108" s="15">
+        <v>1070</v>
+      </c>
+      <c r="BA108" s="10">
+        <f t="shared" si="1017"/>
+        <v>285.90995653367048</v>
+      </c>
+      <c r="BB108" s="11">
+        <f t="shared" si="1018"/>
+        <v>0.53441113370780613</v>
+      </c>
+      <c r="BC108" s="11">
+        <f t="shared" si="1019"/>
+        <v>0.90849892730325332</v>
+      </c>
     </row>
     <row r="109" spans="1:55">
       <c r="A109" s="2">
@@ -34381,18 +35833,186 @@
       <c r="B109" s="3">
         <v>106</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="U109" s="15"/>
-      <c r="Y109" s="15"/>
-      <c r="AD109" s="15"/>
-      <c r="AH109" s="15"/>
-      <c r="AM109" s="15"/>
-      <c r="AQ109" s="15"/>
-      <c r="AV109" s="15"/>
-      <c r="AZ109" s="15"/>
+      <c r="C109" s="15">
+        <v>9826</v>
+      </c>
+      <c r="D109" s="10">
+        <f t="shared" si="985"/>
+        <v>6277.3628431994493</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="986"/>
+        <v>8.9439324043141823</v>
+      </c>
+      <c r="F109" s="11">
+        <f t="shared" si="987"/>
+        <v>9.5827847189082611</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1505</v>
+      </c>
+      <c r="H109" s="10">
+        <f t="shared" si="988"/>
+        <v>961.47273346378699</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="357"/>
+        <v>3.833113887563286</v>
+      </c>
+      <c r="J109" s="11">
+        <f t="shared" si="989"/>
+        <v>4.0886548134008311</v>
+      </c>
+      <c r="L109" s="15">
+        <v>30869</v>
+      </c>
+      <c r="M109" s="10">
+        <f t="shared" si="990"/>
+        <v>7027.6191876838066</v>
+      </c>
+      <c r="N109" s="11">
+        <f t="shared" si="991"/>
+        <v>3.1872321302143973</v>
+      </c>
+      <c r="O109" s="11">
+        <f t="shared" si="992"/>
+        <v>6.1468048225555325</v>
+      </c>
+      <c r="P109" s="15">
+        <v>3954</v>
+      </c>
+      <c r="Q109" s="10">
+        <f t="shared" si="993"/>
+        <v>900.1654173475581</v>
+      </c>
+      <c r="R109" s="11">
+        <f t="shared" si="994"/>
+        <v>2.9595726923415668</v>
+      </c>
+      <c r="S109" s="11">
+        <f t="shared" si="995"/>
+        <v>2.5497857041711312</v>
+      </c>
+      <c r="U109" s="15">
+        <v>90389</v>
+      </c>
+      <c r="V109" s="10">
+        <f t="shared" si="996"/>
+        <v>9021.9333521379704</v>
+      </c>
+      <c r="W109" s="11">
+        <f t="shared" si="997"/>
+        <v>19.363584842345517</v>
+      </c>
+      <c r="X109" s="11">
+        <f t="shared" si="998"/>
+        <v>18.90444829453736</v>
+      </c>
+      <c r="Y109" s="15">
+        <v>16302</v>
+      </c>
+      <c r="Z109" s="10">
+        <f t="shared" si="999"/>
+        <v>1627.1400005150315</v>
+      </c>
+      <c r="AA109" s="11">
+        <f t="shared" si="1000"/>
+        <v>3.1939933760570511</v>
+      </c>
+      <c r="AB109" s="11">
+        <f t="shared" si="1001"/>
+        <v>2.595119618046283</v>
+      </c>
+      <c r="AD109" s="15">
+        <v>19187</v>
+      </c>
+      <c r="AE109" s="10">
+        <f t="shared" si="1002"/>
+        <v>3909.7069013754171</v>
+      </c>
+      <c r="AF109" s="11">
+        <f t="shared" si="1003"/>
+        <v>0.81507414423867885</v>
+      </c>
+      <c r="AG109" s="11">
+        <f t="shared" si="1004"/>
+        <v>0.93733526587411686</v>
+      </c>
+      <c r="AH109" s="15">
+        <v>1955</v>
+      </c>
+      <c r="AI109" s="10">
+        <f t="shared" si="1005"/>
+        <v>398.36748799650496</v>
+      </c>
+      <c r="AJ109" s="11">
+        <f t="shared" si="1006"/>
+        <v>0.20376853605961287</v>
+      </c>
+      <c r="AK109" s="11">
+        <f t="shared" si="1007"/>
+        <v>1.3856260452052425</v>
+      </c>
+      <c r="AM109" s="15">
+        <v>27928</v>
+      </c>
+      <c r="AN109" s="10">
+        <f t="shared" si="1008"/>
+        <v>6277.5900509818175</v>
+      </c>
+      <c r="AO109" s="11">
+        <f t="shared" si="1009"/>
+        <v>4.4955528866958048</v>
+      </c>
+      <c r="AP109" s="11">
+        <f t="shared" si="1010"/>
+        <v>3.866175482558174</v>
+      </c>
+      <c r="AQ109" s="15">
+        <v>4179</v>
+      </c>
+      <c r="AR109" s="10">
+        <f t="shared" si="1011"/>
+        <v>939.34577567505789</v>
+      </c>
+      <c r="AS109" s="11">
+        <f t="shared" si="1012"/>
+        <v>0.89911057733911548</v>
+      </c>
+      <c r="AT109" s="11">
+        <f t="shared" si="1013"/>
+        <v>1.4385769237426076</v>
+      </c>
+      <c r="AV109" s="15">
+        <v>10144</v>
+      </c>
+      <c r="AW109" s="10">
+        <f t="shared" si="1014"/>
+        <v>2710.5332701659377</v>
+      </c>
+      <c r="AX109" s="11">
+        <f t="shared" si="1015"/>
+        <v>2.4048501016850423</v>
+      </c>
+      <c r="AY109" s="11">
+        <f t="shared" si="1016"/>
+        <v>1.2291456075279712</v>
+      </c>
+      <c r="AZ109" s="15">
+        <v>1074</v>
+      </c>
+      <c r="BA109" s="10">
+        <f t="shared" si="1017"/>
+        <v>286.97877880108604</v>
+      </c>
+      <c r="BB109" s="11">
+        <f t="shared" si="1018"/>
+        <v>1.0688222674155554</v>
+      </c>
+      <c r="BC109" s="11">
+        <f t="shared" si="1019"/>
+        <v>1.0153811540448145</v>
+      </c>
     </row>
     <row r="110" spans="1:55">
       <c r="A110" s="2">
@@ -34473,6 +36093,526 @@
       <c r="AQ113" s="15"/>
       <c r="AV113" s="15"/>
       <c r="AZ113" s="15"/>
+    </row>
+    <row r="114" spans="1:52">
+      <c r="A114" s="2">
+        <v>43995</v>
+      </c>
+      <c r="B114" s="3">
+        <v>111</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="U114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="AD114" s="15"/>
+      <c r="AH114" s="15"/>
+      <c r="AM114" s="15"/>
+      <c r="AQ114" s="15"/>
+      <c r="AV114" s="15"/>
+      <c r="AZ114" s="15"/>
+    </row>
+    <row r="115" spans="1:52">
+      <c r="A115" s="2">
+        <v>43996</v>
+      </c>
+      <c r="B115" s="3">
+        <v>112</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="U115" s="15"/>
+      <c r="Y115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AH115" s="15"/>
+      <c r="AM115" s="15"/>
+      <c r="AQ115" s="15"/>
+      <c r="AV115" s="15"/>
+      <c r="AZ115" s="15"/>
+    </row>
+    <row r="116" spans="1:52">
+      <c r="A116" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B116" s="3">
+        <v>113</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="U116" s="15"/>
+      <c r="Y116" s="15"/>
+      <c r="AD116" s="15"/>
+      <c r="AH116" s="15"/>
+      <c r="AM116" s="15"/>
+      <c r="AQ116" s="15"/>
+      <c r="AV116" s="15"/>
+      <c r="AZ116" s="15"/>
+    </row>
+    <row r="117" spans="1:52">
+      <c r="A117" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B117" s="3">
+        <v>114</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="Y117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AH117" s="15"/>
+      <c r="AM117" s="15"/>
+      <c r="AQ117" s="15"/>
+      <c r="AV117" s="15"/>
+      <c r="AZ117" s="15"/>
+    </row>
+    <row r="118" spans="1:52">
+      <c r="A118" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B118" s="3">
+        <v>115</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="U118" s="15"/>
+      <c r="Y118" s="15"/>
+      <c r="AD118" s="15"/>
+      <c r="AH118" s="15"/>
+      <c r="AM118" s="15"/>
+      <c r="AQ118" s="15"/>
+      <c r="AV118" s="15"/>
+      <c r="AZ118" s="15"/>
+    </row>
+    <row r="119" spans="1:52">
+      <c r="A119" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B119" s="3">
+        <v>116</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="U119" s="15"/>
+      <c r="Y119" s="15"/>
+      <c r="AD119" s="15"/>
+      <c r="AH119" s="15"/>
+      <c r="AM119" s="15"/>
+      <c r="AQ119" s="15"/>
+      <c r="AV119" s="15"/>
+      <c r="AZ119" s="15"/>
+    </row>
+    <row r="120" spans="1:52">
+      <c r="A120" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B120" s="3">
+        <v>117</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="U120" s="15"/>
+      <c r="Y120" s="15"/>
+      <c r="AD120" s="15"/>
+      <c r="AH120" s="15"/>
+      <c r="AM120" s="15"/>
+      <c r="AQ120" s="15"/>
+      <c r="AV120" s="15"/>
+      <c r="AZ120" s="15"/>
+    </row>
+    <row r="121" spans="1:52">
+      <c r="A121" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B121" s="3">
+        <v>118</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="U121" s="15"/>
+      <c r="Y121" s="15"/>
+      <c r="AD121" s="15"/>
+      <c r="AH121" s="15"/>
+      <c r="AM121" s="15"/>
+      <c r="AQ121" s="15"/>
+      <c r="AV121" s="15"/>
+      <c r="AZ121" s="15"/>
+    </row>
+    <row r="122" spans="1:52">
+      <c r="A122" s="2">
+        <v>44003</v>
+      </c>
+      <c r="B122" s="3">
+        <v>119</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="U122" s="15"/>
+      <c r="Y122" s="15"/>
+      <c r="AD122" s="15"/>
+      <c r="AH122" s="15"/>
+      <c r="AM122" s="15"/>
+      <c r="AQ122" s="15"/>
+      <c r="AV122" s="15"/>
+      <c r="AZ122" s="15"/>
+    </row>
+    <row r="123" spans="1:52">
+      <c r="A123" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B123" s="3">
+        <v>120</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="U123" s="15"/>
+      <c r="Y123" s="15"/>
+      <c r="AD123" s="15"/>
+      <c r="AH123" s="15"/>
+      <c r="AM123" s="15"/>
+      <c r="AQ123" s="15"/>
+      <c r="AV123" s="15"/>
+      <c r="AZ123" s="15"/>
+    </row>
+    <row r="124" spans="1:52">
+      <c r="A124" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B124" s="3">
+        <v>121</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="U124" s="15"/>
+      <c r="Y124" s="15"/>
+      <c r="AD124" s="15"/>
+      <c r="AH124" s="15"/>
+      <c r="AM124" s="15"/>
+      <c r="AQ124" s="15"/>
+      <c r="AV124" s="15"/>
+      <c r="AZ124" s="15"/>
+    </row>
+    <row r="125" spans="1:52">
+      <c r="A125" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B125" s="3">
+        <v>122</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="U125" s="15"/>
+      <c r="Y125" s="15"/>
+      <c r="AD125" s="15"/>
+      <c r="AH125" s="15"/>
+      <c r="AM125" s="15"/>
+      <c r="AQ125" s="15"/>
+      <c r="AV125" s="15"/>
+      <c r="AZ125" s="15"/>
+    </row>
+    <row r="126" spans="1:52">
+      <c r="A126" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B126" s="3">
+        <v>123</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="U126" s="15"/>
+      <c r="Y126" s="15"/>
+      <c r="AD126" s="15"/>
+      <c r="AH126" s="15"/>
+      <c r="AM126" s="15"/>
+      <c r="AQ126" s="15"/>
+      <c r="AV126" s="15"/>
+      <c r="AZ126" s="15"/>
+    </row>
+    <row r="127" spans="1:52">
+      <c r="A127" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B127" s="3">
+        <v>124</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="U127" s="15"/>
+      <c r="Y127" s="15"/>
+      <c r="AD127" s="15"/>
+      <c r="AH127" s="15"/>
+      <c r="AM127" s="15"/>
+      <c r="AQ127" s="15"/>
+      <c r="AV127" s="15"/>
+      <c r="AZ127" s="15"/>
+    </row>
+    <row r="128" spans="1:52">
+      <c r="A128" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B128" s="3">
+        <v>125</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="U128" s="15"/>
+      <c r="Y128" s="15"/>
+      <c r="AD128" s="15"/>
+      <c r="AH128" s="15"/>
+      <c r="AM128" s="15"/>
+      <c r="AQ128" s="15"/>
+      <c r="AV128" s="15"/>
+      <c r="AZ128" s="15"/>
+    </row>
+    <row r="129" spans="1:52">
+      <c r="A129" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B129" s="3">
+        <v>126</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="U129" s="15"/>
+      <c r="Y129" s="15"/>
+      <c r="AD129" s="15"/>
+      <c r="AH129" s="15"/>
+      <c r="AM129" s="15"/>
+      <c r="AQ129" s="15"/>
+      <c r="AV129" s="15"/>
+      <c r="AZ129" s="15"/>
+    </row>
+    <row r="130" spans="1:52">
+      <c r="A130" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B130" s="3">
+        <v>127</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="U130" s="15"/>
+      <c r="Y130" s="15"/>
+      <c r="AD130" s="15"/>
+      <c r="AH130" s="15"/>
+      <c r="AM130" s="15"/>
+      <c r="AQ130" s="15"/>
+      <c r="AV130" s="15"/>
+      <c r="AZ130" s="15"/>
+    </row>
+    <row r="131" spans="1:52">
+      <c r="A131" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B131" s="3">
+        <v>128</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="U131" s="15"/>
+      <c r="Y131" s="15"/>
+      <c r="AD131" s="15"/>
+      <c r="AH131" s="15"/>
+      <c r="AM131" s="15"/>
+      <c r="AQ131" s="15"/>
+      <c r="AV131" s="15"/>
+      <c r="AZ131" s="15"/>
+    </row>
+    <row r="132" spans="1:52">
+      <c r="A132" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B132" s="3">
+        <v>129</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="U132" s="15"/>
+      <c r="Y132" s="15"/>
+      <c r="AD132" s="15"/>
+      <c r="AH132" s="15"/>
+      <c r="AM132" s="15"/>
+      <c r="AQ132" s="15"/>
+      <c r="AV132" s="15"/>
+      <c r="AZ132" s="15"/>
+    </row>
+    <row r="133" spans="1:52">
+      <c r="A133" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B133" s="3">
+        <v>130</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="U133" s="15"/>
+      <c r="Y133" s="15"/>
+      <c r="AD133" s="15"/>
+      <c r="AH133" s="15"/>
+      <c r="AM133" s="15"/>
+      <c r="AQ133" s="15"/>
+      <c r="AV133" s="15"/>
+      <c r="AZ133" s="15"/>
+    </row>
+    <row r="134" spans="1:52">
+      <c r="A134" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B134" s="3">
+        <v>131</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="U134" s="15"/>
+      <c r="Y134" s="15"/>
+      <c r="AD134" s="15"/>
+      <c r="AH134" s="15"/>
+      <c r="AM134" s="15"/>
+      <c r="AQ134" s="15"/>
+      <c r="AV134" s="15"/>
+      <c r="AZ134" s="15"/>
+    </row>
+    <row r="135" spans="1:52">
+      <c r="A135" s="2">
+        <v>44016</v>
+      </c>
+      <c r="B135" s="3">
+        <v>132</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="Y135" s="15"/>
+      <c r="AD135" s="15"/>
+      <c r="AH135" s="15"/>
+      <c r="AM135" s="15"/>
+      <c r="AQ135" s="15"/>
+      <c r="AV135" s="15"/>
+      <c r="AZ135" s="15"/>
+    </row>
+    <row r="136" spans="1:52">
+      <c r="A136" s="2">
+        <v>44017</v>
+      </c>
+      <c r="B136" s="3">
+        <v>133</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="U136" s="15"/>
+      <c r="Y136" s="15"/>
+      <c r="AD136" s="15"/>
+      <c r="AH136" s="15"/>
+      <c r="AM136" s="15"/>
+      <c r="AQ136" s="15"/>
+      <c r="AV136" s="15"/>
+      <c r="AZ136" s="15"/>
+    </row>
+    <row r="137" spans="1:52">
+      <c r="A137" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B137" s="3">
+        <v>134</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="U137" s="15"/>
+      <c r="Y137" s="15"/>
+      <c r="AD137" s="15"/>
+      <c r="AH137" s="15"/>
+      <c r="AM137" s="15"/>
+      <c r="AQ137" s="15"/>
+      <c r="AV137" s="15"/>
+      <c r="AZ137" s="15"/>
+    </row>
+    <row r="138" spans="1:52">
+      <c r="A138" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B138" s="3">
+        <v>135</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="U138" s="15"/>
+      <c r="Y138" s="15"/>
+      <c r="AD138" s="15"/>
+      <c r="AH138" s="15"/>
+      <c r="AM138" s="15"/>
+      <c r="AQ138" s="15"/>
+      <c r="AV138" s="15"/>
+      <c r="AZ138" s="15"/>
+    </row>
+    <row r="139" spans="1:52">
+      <c r="A139" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B139" s="3">
+        <v>136</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="U139" s="15"/>
+      <c r="Y139" s="15"/>
+      <c r="AD139" s="15"/>
+      <c r="AH139" s="15"/>
+      <c r="AM139" s="15"/>
+      <c r="AQ139" s="15"/>
+      <c r="AV139" s="15"/>
+      <c r="AZ139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70456E-A531-42D7-B589-4CFCF721A572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{24153491-7FA0-4CA9-BAC4-C7C64044D3F8}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
     <sheet name="Dati REG" sheetId="2" r:id="rId2"/>
     <sheet name="Grafici" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -324,7 +318,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -368,6 +362,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -376,26 +371,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -730,6 +705,24 @@
                 <c:pt idx="100">
                   <c:v>6277.3628431994493</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>6282.4736617161998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6295.2507080080777</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6301.6392311540167</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6306.1111973561738</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6308.666606614549</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6311.2220158729242</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1042,11 +1035,29 @@
                 <c:pt idx="100">
                   <c:v>9.5827847189082611</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.921768700964094</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.6883914784768415</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.3050800897204677</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.5384573122077203</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.2607526830199278</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.7496708313448837</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -1379,6 +1390,24 @@
                 <c:pt idx="100">
                   <c:v>7027.6191876838066</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>7032.4000358791272</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7038.3191812638097</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7047.880877654452</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7054.9383202284971</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7064.044697743394</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7070.8744808795664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1691,11 +1720,29 @@
                 <c:pt idx="100">
                   <c:v>6.1468048225555325</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.0102091598319021</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.962975745618678</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.1451032959168517</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.1012729349809884</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.2851020119174787</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.6948890000878238</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -2028,6 +2075,24 @@
                 <c:pt idx="100">
                   <c:v>9021.9333521379704</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>9041.0973123943113</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9050.9787294014877</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9076.1314272379368</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9103.2803709344207</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9124.2409524647956</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9148.59515195723</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2340,11 +2405,29 @@
                 <c:pt idx="100">
                   <c:v>18.90444829453736</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>21.060393823375854</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15.011768867467982</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17.207639313507023</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>20.142120727759174</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>20.46152006536504</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21.499567912583736</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -2677,6 +2760,24 @@
                 <c:pt idx="100">
                   <c:v>3909.7069013754171</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>3910.5219755196554</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3911.1332811278344</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3912.1521238081323</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3912.1521238081323</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3914.8011147769071</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3916.2274945293238</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2989,11 +3090,29 @@
                 <c:pt idx="100">
                   <c:v>0.93733526587411686</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.93733526587411686</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.81507414423840596</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.69281302260260413</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.65205931539076123</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0188426802979849</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1411038019336956</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -3328,6 +3447,24 @@
                 <c:pt idx="100">
                   <c:v>6277.5900509818175</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>6281.6360485798441</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6287.0307120438783</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6292.6501531522481</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6300.0678154152956</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6306.3615894566701</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6310.1828094103612</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3640,11 +3777,29 @@
                 <c:pt idx="100">
                   <c:v>3.866175482558174</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.8661754825583556</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.1808641846269889</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.5405084155625444</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.3946634640347835</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.754307694970521</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.7093521661034172</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -3977,6 +4132,24 @@
                 <c:pt idx="100">
                   <c:v>2710.5332701659377</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>2710.8004757327913</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2711.6020924333529</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2714.274148101892</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2716.1445870698694</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2718.0150260378468</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2720.1526705726778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4289,11 +4462,29 @@
                 <c:pt idx="100">
                   <c:v>1.2291456075279712</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2291456075278802</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0153811540448259</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2825867208986892</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6032334011233615</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4963511743818345</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8704389679773157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -4626,6 +4817,24 @@
                 <c:pt idx="100">
                   <c:v>3878.5533731034229</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>3883.174667516435</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3887.8454757981576</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3891.1794096246877</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3897.4346617051569</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3900.1249152384462</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3905.8355147630964</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4938,11 +5147,29 @@
                 <c:pt idx="100">
                   <c:v>4.8952711532117972</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.7599332454022258</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.1098312509588144</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.0667390834504662</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.4265398627491779</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.3143084270046526</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.5321694493322866</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -4956,11 +5183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="706565664"/>
-        <c:axId val="706565992"/>
+        <c:axId val="97247232"/>
+        <c:axId val="97249152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="706565664"/>
+        <c:axId val="97247232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5022,6 +5249,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5030,26 +5258,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5088,12 +5296,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706565992"/>
+        <c:crossAx val="97249152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="706565992"/>
+        <c:axId val="97249152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5156,6 +5364,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5164,26 +5373,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5222,7 +5411,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706565664"/>
+        <c:crossAx val="97247232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5236,6 +5425,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5267,14 +5457,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5310,7 +5500,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -5354,6 +5544,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5362,26 +5553,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5716,6 +5887,24 @@
                 <c:pt idx="100">
                   <c:v>961.47273346378699</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>964.02814272216244</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>966.583551980538</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>967.22240429513192</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>968.50010892431965</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>969.77781355350737</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>971.69437049728901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6028,11 +6217,29 @@
                 <c:pt idx="100">
                   <c:v>4.0886548134008311</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.8331138875632633</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.4498024988069345</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.810950184213084</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1720978696191877</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.6610160179440754</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5332455550253143</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -6365,6 +6572,24 @@
                 <c:pt idx="100">
                   <c:v>900.1654173475581</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>901.75903341266508</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>905.17392498075139</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>907.90583823522047</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>909.72711373819982</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>912.00370811692403</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>913.36966474415851</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6677,11 +6902,29 @@
                 <c:pt idx="100">
                   <c:v>2.5497857041711312</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.3221262662987101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.231062491149737</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4587219290221811</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.5042538165966564</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.3676581538731853</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.3221262662986875</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -7014,6 +7257,24 @@
                 <c:pt idx="100">
                   <c:v>1627.1400005150315</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>1628.6371849100583</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1631.8311782861151</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1634.3264856111598</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1637.420666694215</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1639.7163494332558</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1641.8124075862934</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7326,11 +7587,29 @@
                 <c:pt idx="100">
                   <c:v>2.595119618046283</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.3156451976413335</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.5352322422452289</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4953073250445414</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.6949319110481156</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.5152697836448623</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.6350445352470162</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -7663,6 +7942,24 @@
                 <c:pt idx="100">
                   <c:v>398.36748799650496</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>399.59009921286253</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>399.59009921286253</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>400.20140482104131</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>400.81271042922009</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>402.85039578981599</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>403.0541643258756</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7975,11 +8272,29 @@
                 <c:pt idx="100">
                   <c:v>1.3856260452052425</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1003500947218072</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.93733526587413962</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.61130560817878177</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.52979819375494797</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.89658155866220568</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.69281302260261557</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -8312,6 +8627,24 @@
                 <c:pt idx="100">
                   <c:v>939.34577567505789</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>940.69444154106657</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>942.26788505141008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>942.26788505141008</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>943.16699562874919</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>943.84132856175358</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>944.96521678342742</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8624,11 +8957,29 @@
                 <c:pt idx="100">
                   <c:v>1.4385769237426076</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.3936213948756631</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1238882216739285</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.94406610620608267</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.94406610620608267</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.89911057733913824</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.85415504847217105</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -8961,6 +9312,24 @@
                 <c:pt idx="100">
                   <c:v>286.97877880108604</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>287.78039550164772</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>288.04760106850165</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>288.31480663535552</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>288.58201220220946</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>289.1164233359172</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>289.91804003647894</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9273,11 +9642,29 @@
                 <c:pt idx="100">
                   <c:v>1.0153811540448145</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.96194004067402827</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.8016167005616921</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.58785224707856965</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.53441113370779481</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.42752890696623352</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.4275289069662449</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -9610,6 +9997,24 @@
                 <c:pt idx="100">
                   <c:v>560.5630122983373</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>561.86687750772273</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>563.03870573387928</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>563.91345074777087</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>564.83770963037318</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>566.12507021685508</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>566.85127362461412</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9922,11 +10327,29 @@
                 <c:pt idx="100">
                   <c:v>1.1982356228023718</c:v>
                 </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1685273015758413</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1223143574457253</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0595967904120016</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0694995641541709</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.112411583703556</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.99687922337827783</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -9940,11 +10363,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="706565664"/>
-        <c:axId val="706565992"/>
+        <c:axId val="102304000"/>
+        <c:axId val="102326656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="706565664"/>
+        <c:axId val="102304000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10007,6 +10430,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10015,26 +10439,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10073,12 +10477,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706565992"/>
+        <c:crossAx val="102326656"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="706565992"/>
+        <c:axId val="102326656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10141,6 +10545,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10149,26 +10554,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10207,7 +10592,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706565664"/>
+        <c:crossAx val="102304000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10221,6 +10606,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10252,14 +10638,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11411,22 +11797,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531FB3D2-D000-403D-896A-A7C592D950CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{531FB3D2-D000-403D-896A-A7C592D950CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11449,22 +11835,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>384810</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>163830</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D866BD6-D42F-494C-8B31-16EC73F9000D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D866BD6-D42F-494C-8B31-16EC73F9000D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11776,29 +12162,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2619D-6D80-438C-B4B6-FF2AE18F2819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="7" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11813,7 +12199,7 @@
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1">
+    <row r="2" spans="1:16" ht="27" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15853,8 +16239,36 @@
       <c r="B110" s="3">
         <v>107</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="G110" s="15"/>
+      <c r="C110" s="15">
+        <v>235561</v>
+      </c>
+      <c r="D110" s="14">
+        <f t="shared" ref="D110:D115" si="176">C109/$P$4</f>
+        <v>3883.174667516435</v>
+      </c>
+      <c r="E110" s="11">
+        <f t="shared" ref="E110:E115" si="177">D110-D109</f>
+        <v>4.6212944130120377</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" ref="F110:F115" si="178">SUM(E106:E110)/5</f>
+        <v>4.7599332454022258</v>
+      </c>
+      <c r="G110" s="15">
+        <v>34043</v>
+      </c>
+      <c r="H110" s="13">
+        <f t="shared" ref="H110:H115" si="179">G110/$P$4</f>
+        <v>561.86687750772273</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" ref="I110:I115" si="180">H110-H109</f>
+        <v>1.3038652093854353</v>
+      </c>
+      <c r="J110" s="11">
+        <f t="shared" ref="J110:J115" si="181">SUM(I106:I110)/5</f>
+        <v>1.1685273015758413</v>
+      </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2">
@@ -15863,8 +16277,36 @@
       <c r="B111" s="3">
         <v>108</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="G111" s="15"/>
+      <c r="C111" s="15">
+        <v>235763</v>
+      </c>
+      <c r="D111" s="14">
+        <f t="shared" si="176"/>
+        <v>3887.8454757981576</v>
+      </c>
+      <c r="E111" s="11">
+        <f t="shared" si="177"/>
+        <v>4.6708082817226568</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="178"/>
+        <v>5.1098312509588144</v>
+      </c>
+      <c r="G111" s="15">
+        <v>34114</v>
+      </c>
+      <c r="H111" s="13">
+        <f t="shared" si="179"/>
+        <v>563.03870573387928</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="180"/>
+        <v>1.1718282261565491</v>
+      </c>
+      <c r="J111" s="11">
+        <f t="shared" si="181"/>
+        <v>1.1223143574457253</v>
+      </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2">
@@ -15873,40 +16315,152 @@
       <c r="B112" s="3">
         <v>109</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="G112" s="15"/>
+      <c r="C112" s="15">
+        <v>236142</v>
+      </c>
+      <c r="D112" s="14">
+        <f t="shared" si="176"/>
+        <v>3891.1794096246877</v>
+      </c>
+      <c r="E112" s="11">
+        <f t="shared" si="177"/>
+        <v>3.3339338265300285</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="178"/>
+        <v>4.0667390834504662</v>
+      </c>
+      <c r="G112" s="15">
+        <v>34167</v>
+      </c>
+      <c r="H112" s="13">
+        <f t="shared" si="179"/>
+        <v>563.91345074777087</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="180"/>
+        <v>0.87474501389158377</v>
+      </c>
+      <c r="J112" s="11">
+        <f t="shared" si="181"/>
+        <v>1.0595967904120016</v>
+      </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:10">
       <c r="A113" s="2">
         <v>43994</v>
       </c>
       <c r="B113" s="3">
         <v>110</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="G113" s="15"/>
+      <c r="C113" s="15">
+        <v>236305</v>
+      </c>
+      <c r="D113" s="14">
+        <f t="shared" si="176"/>
+        <v>3897.4346617051569</v>
+      </c>
+      <c r="E113" s="11">
+        <f t="shared" si="177"/>
+        <v>6.2552520804692904</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="178"/>
+        <v>4.4265398627491779</v>
+      </c>
+      <c r="G113" s="15">
+        <v>34223</v>
+      </c>
+      <c r="H113" s="13">
+        <f t="shared" si="179"/>
+        <v>564.83770963037318</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="180"/>
+        <v>0.92425888260231659</v>
+      </c>
+      <c r="J113" s="11">
+        <f t="shared" si="181"/>
+        <v>1.0694995641541709</v>
+      </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:10">
       <c r="A114" s="2">
         <v>43995</v>
       </c>
       <c r="B114" s="3">
         <v>111</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="G114" s="15"/>
+      <c r="C114" s="15">
+        <v>236651</v>
+      </c>
+      <c r="D114" s="14">
+        <f t="shared" si="176"/>
+        <v>3900.1249152384462</v>
+      </c>
+      <c r="E114" s="11">
+        <f t="shared" si="177"/>
+        <v>2.6902535332892512</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="178"/>
+        <v>4.3143084270046526</v>
+      </c>
+      <c r="G114" s="15">
+        <v>34301</v>
+      </c>
+      <c r="H114" s="13">
+        <f t="shared" si="179"/>
+        <v>566.12507021685508</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="180"/>
+        <v>1.2873605864818956</v>
+      </c>
+      <c r="J114" s="11">
+        <f t="shared" si="181"/>
+        <v>1.112411583703556</v>
+      </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:10">
       <c r="A115" s="2">
         <v>43996</v>
       </c>
       <c r="B115" s="3">
         <v>112</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="G115" s="15"/>
+      <c r="C115" s="15">
+        <v>236989</v>
+      </c>
+      <c r="D115" s="14">
+        <f t="shared" si="176"/>
+        <v>3905.8355147630964</v>
+      </c>
+      <c r="E115" s="11">
+        <f t="shared" si="177"/>
+        <v>5.7105995246502061</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="178"/>
+        <v>4.5321694493322866</v>
+      </c>
+      <c r="G115" s="15">
+        <v>34345</v>
+      </c>
+      <c r="H115" s="13">
+        <f t="shared" si="179"/>
+        <v>566.85127362461412</v>
+      </c>
+      <c r="I115" s="11">
+        <f t="shared" si="180"/>
+        <v>0.72620340775904424</v>
+      </c>
+      <c r="J115" s="11">
+        <f t="shared" si="181"/>
+        <v>0.99687922337827783</v>
+      </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:10">
       <c r="A116" s="2">
         <v>43997</v>
       </c>
@@ -15916,7 +16470,7 @@
       <c r="C116" s="15"/>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:10">
       <c r="A117" s="2">
         <v>43998</v>
       </c>
@@ -15926,7 +16480,7 @@
       <c r="C117" s="15"/>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:10">
       <c r="A118" s="2">
         <v>43999</v>
       </c>
@@ -15936,7 +16490,7 @@
       <c r="C118" s="15"/>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:10">
       <c r="A119" s="2">
         <v>44000</v>
       </c>
@@ -15946,7 +16500,7 @@
       <c r="C119" s="15"/>
       <c r="G119" s="15"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:10">
       <c r="A120" s="2">
         <v>44001</v>
       </c>
@@ -15956,7 +16510,7 @@
       <c r="C120" s="15"/>
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:10">
       <c r="A121" s="2">
         <v>44002</v>
       </c>
@@ -15966,7 +16520,7 @@
       <c r="C121" s="15"/>
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:10">
       <c r="A122" s="2">
         <v>44003</v>
       </c>
@@ -15976,7 +16530,7 @@
       <c r="C122" s="15"/>
       <c r="G122" s="15"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:10">
       <c r="A123" s="2">
         <v>44004</v>
       </c>
@@ -15986,7 +16540,7 @@
       <c r="C123" s="15"/>
       <c r="G123" s="15"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:10">
       <c r="A124" s="2">
         <v>44005</v>
       </c>
@@ -15996,7 +16550,7 @@
       <c r="C124" s="15"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:10">
       <c r="A125" s="2">
         <v>44006</v>
       </c>
@@ -16006,7 +16560,7 @@
       <c r="C125" s="15"/>
       <c r="G125" s="15"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:10">
       <c r="A126" s="2">
         <v>44007</v>
       </c>
@@ -16016,7 +16570,7 @@
       <c r="C126" s="15"/>
       <c r="G126" s="15"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:10">
       <c r="A127" s="2">
         <v>44008</v>
       </c>
@@ -16026,7 +16580,7 @@
       <c r="C127" s="15"/>
       <c r="G127" s="15"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:10">
       <c r="A128" s="2">
         <v>44009</v>
       </c>
@@ -16055,31 +16609,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DB82D-D1F1-4D7F-95F7-747CB4CDFB06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR139"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA104" sqref="BA104:BC109"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" customWidth="1"/>
-    <col min="22" max="22" width="9.77734375" customWidth="1"/>
-    <col min="31" max="31" width="10.109375" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" customWidth="1"/>
-    <col min="49" max="49" width="10.88671875" customWidth="1"/>
-    <col min="69" max="69" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" customWidth="1"/>
+    <col min="69" max="69" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70">
@@ -16144,7 +16698,7 @@
       <c r="BB1" s="25"/>
       <c r="BC1" s="26"/>
     </row>
-    <row r="2" spans="1:70" ht="27.6" thickBot="1">
+    <row r="2" spans="1:70" ht="27" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -29464,7 +30018,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I109" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I115" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -35912,7 +36466,7 @@
         <v>16302</v>
       </c>
       <c r="Z109" s="10">
-        <f t="shared" si="999"/>
+        <f>Y109/$BR$6</f>
         <v>1627.1400005150315</v>
       </c>
       <c r="AA109" s="11">
@@ -35957,7 +36511,7 @@
         <v>27928</v>
       </c>
       <c r="AN109" s="10">
-        <f t="shared" si="1008"/>
+        <f>AM109/$BR$8</f>
         <v>6277.5900509818175</v>
       </c>
       <c r="AO109" s="11">
@@ -36021,18 +36575,186 @@
       <c r="B110" s="3">
         <v>107</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="P110" s="15"/>
-      <c r="U110" s="15"/>
-      <c r="Y110" s="15"/>
-      <c r="AD110" s="15"/>
-      <c r="AH110" s="15"/>
-      <c r="AM110" s="15"/>
-      <c r="AQ110" s="15"/>
-      <c r="AV110" s="15"/>
-      <c r="AZ110" s="15"/>
+      <c r="C110" s="15">
+        <v>9834</v>
+      </c>
+      <c r="D110" s="10">
+        <f t="shared" ref="D110:D115" si="1020">C110/$BR$4</f>
+        <v>6282.4736617161998</v>
+      </c>
+      <c r="E110" s="11">
+        <f t="shared" ref="E110:E115" si="1021">D110-D109</f>
+        <v>5.1108185167504416</v>
+      </c>
+      <c r="F110" s="11">
+        <f t="shared" ref="F110:F115" si="1022">SUM(E106:E110)/5</f>
+        <v>7.921768700964094</v>
+      </c>
+      <c r="G110" s="15">
+        <v>1509</v>
+      </c>
+      <c r="H110" s="10">
+        <f t="shared" ref="H110:H115" si="1023">G110/$BR$4</f>
+        <v>964.02814272216244</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" si="357"/>
+        <v>2.5554092583754482</v>
+      </c>
+      <c r="J110" s="11">
+        <f t="shared" ref="J110:J115" si="1024">SUM(I106:I110)/5</f>
+        <v>3.8331138875632633</v>
+      </c>
+      <c r="L110" s="15">
+        <v>30890</v>
+      </c>
+      <c r="M110" s="10">
+        <f t="shared" ref="M110:M115" si="1025">L110/$BR$5</f>
+        <v>7032.4000358791272</v>
+      </c>
+      <c r="N110" s="11">
+        <f t="shared" ref="N110:N115" si="1026">M110-M109</f>
+        <v>4.7808481953206865</v>
+      </c>
+      <c r="O110" s="11">
+        <f t="shared" ref="O110:O115" si="1027">SUM(N106:N110)/5</f>
+        <v>6.0102091598319021</v>
+      </c>
+      <c r="P110" s="15">
+        <v>3961</v>
+      </c>
+      <c r="Q110" s="10">
+        <f t="shared" ref="Q110:Q115" si="1028">P110/$BR$5</f>
+        <v>901.75903341266508</v>
+      </c>
+      <c r="R110" s="11">
+        <f t="shared" ref="R110:R115" si="1029">Q110-Q109</f>
+        <v>1.5936160651069713</v>
+      </c>
+      <c r="S110" s="11">
+        <f t="shared" ref="S110:S115" si="1030">SUM(R106:R110)/5</f>
+        <v>2.3221262662987101</v>
+      </c>
+      <c r="U110" s="15">
+        <v>90581</v>
+      </c>
+      <c r="V110" s="10">
+        <f t="shared" ref="V110:V115" si="1031">U110/$BR$6</f>
+        <v>9041.0973123943113</v>
+      </c>
+      <c r="W110" s="11">
+        <f t="shared" ref="W110:W115" si="1032">V110-V109</f>
+        <v>19.163960256340943</v>
+      </c>
+      <c r="X110" s="11">
+        <f t="shared" ref="X110:X115" si="1033">SUM(W106:W110)/5</f>
+        <v>21.060393823375854</v>
+      </c>
+      <c r="Y110" s="15">
+        <v>16317</v>
+      </c>
+      <c r="Z110" s="10">
+        <f t="shared" ref="Z110:Z115" si="1034">Y110/$BR$6</f>
+        <v>1628.6371849100583</v>
+      </c>
+      <c r="AA110" s="11">
+        <f t="shared" ref="AA110:AA115" si="1035">Z110-Z109</f>
+        <v>1.4971843950268067</v>
+      </c>
+      <c r="AB110" s="11">
+        <f t="shared" ref="AB110:AB115" si="1036">SUM(AA106:AA110)/5</f>
+        <v>2.3156451976413335</v>
+      </c>
+      <c r="AD110" s="15">
+        <v>19191</v>
+      </c>
+      <c r="AE110" s="10">
+        <f t="shared" ref="AE110:AE115" si="1037">AD110/$BR$7</f>
+        <v>3910.5219755196554</v>
+      </c>
+      <c r="AF110" s="11">
+        <f t="shared" ref="AF110:AF115" si="1038">AE110-AE109</f>
+        <v>0.81507414423822411</v>
+      </c>
+      <c r="AG110" s="11">
+        <f t="shared" ref="AG110:AG115" si="1039">SUM(AF106:AF110)/5</f>
+        <v>0.93733526587411686</v>
+      </c>
+      <c r="AH110" s="15">
+        <v>1961</v>
+      </c>
+      <c r="AI110" s="10">
+        <f t="shared" ref="AI110:AI115" si="1040">AH110/$BR$7</f>
+        <v>399.59009921286253</v>
+      </c>
+      <c r="AJ110" s="11">
+        <f t="shared" ref="AJ110:AJ115" si="1041">AI110-AI109</f>
+        <v>1.2226112163575635</v>
+      </c>
+      <c r="AK110" s="11">
+        <f t="shared" ref="AK110:AK115" si="1042">SUM(AJ106:AJ110)/5</f>
+        <v>1.1003500947218072</v>
+      </c>
+      <c r="AM110" s="15">
+        <v>27946</v>
+      </c>
+      <c r="AN110" s="10">
+        <f t="shared" ref="AN110:AN115" si="1043">AM110/$BR$8</f>
+        <v>6281.6360485798441</v>
+      </c>
+      <c r="AO110" s="11">
+        <f t="shared" ref="AO110:AO115" si="1044">AN110-AN109</f>
+        <v>4.0459975980265881</v>
+      </c>
+      <c r="AP110" s="11">
+        <f t="shared" ref="AP110:AP115" si="1045">SUM(AO106:AO110)/5</f>
+        <v>3.8661754825583556</v>
+      </c>
+      <c r="AQ110" s="15">
+        <v>4185</v>
+      </c>
+      <c r="AR110" s="10">
+        <f t="shared" ref="AR110:AR115" si="1046">AQ110/$BR$8</f>
+        <v>940.69444154106657</v>
+      </c>
+      <c r="AS110" s="11">
+        <f t="shared" ref="AS110:AS115" si="1047">AR110-AR109</f>
+        <v>1.3486658660086732</v>
+      </c>
+      <c r="AT110" s="11">
+        <f t="shared" ref="AT110:AT115" si="1048">SUM(AS106:AS110)/5</f>
+        <v>1.3936213948756631</v>
+      </c>
+      <c r="AV110" s="15">
+        <v>10145</v>
+      </c>
+      <c r="AW110" s="10">
+        <f t="shared" ref="AW110:AW115" si="1049">AV110/$BR$9</f>
+        <v>2710.8004757327913</v>
+      </c>
+      <c r="AX110" s="11">
+        <f t="shared" ref="AX110:AX115" si="1050">AW110-AW109</f>
+        <v>0.26720556685359043</v>
+      </c>
+      <c r="AY110" s="11">
+        <f t="shared" ref="AY110:AY115" si="1051">SUM(AX106:AX110)/5</f>
+        <v>1.2291456075278802</v>
+      </c>
+      <c r="AZ110" s="15">
+        <v>1077</v>
+      </c>
+      <c r="BA110" s="10">
+        <f t="shared" ref="BA110:BA115" si="1052">AZ110/$BR$9</f>
+        <v>287.78039550164772</v>
+      </c>
+      <c r="BB110" s="11">
+        <f t="shared" ref="BB110:BB115" si="1053">BA110-BA109</f>
+        <v>0.80161670056168077</v>
+      </c>
+      <c r="BC110" s="11">
+        <f t="shared" ref="BC110:BC115" si="1054">SUM(BB106:BB110)/5</f>
+        <v>0.96194004067402827</v>
+      </c>
     </row>
     <row r="111" spans="1:55">
       <c r="A111" s="2">
@@ -36041,18 +36763,186 @@
       <c r="B111" s="3">
         <v>108</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="U111" s="15"/>
-      <c r="Y111" s="15"/>
-      <c r="AD111" s="15"/>
-      <c r="AH111" s="15"/>
-      <c r="AM111" s="15"/>
-      <c r="AQ111" s="15"/>
-      <c r="AV111" s="15"/>
-      <c r="AZ111" s="15"/>
+      <c r="C111" s="15">
+        <v>9854</v>
+      </c>
+      <c r="D111" s="10">
+        <f t="shared" si="1020"/>
+        <v>6295.2507080080777</v>
+      </c>
+      <c r="E111" s="11">
+        <f t="shared" si="1021"/>
+        <v>12.777046291877923</v>
+      </c>
+      <c r="F111" s="11">
+        <f t="shared" si="1022"/>
+        <v>8.6883914784768415</v>
+      </c>
+      <c r="G111" s="15">
+        <v>1513</v>
+      </c>
+      <c r="H111" s="10">
+        <f t="shared" si="1023"/>
+        <v>966.583551980538</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="357"/>
+        <v>2.5554092583755619</v>
+      </c>
+      <c r="J111" s="11">
+        <f t="shared" si="1024"/>
+        <v>3.4498024988069345</v>
+      </c>
+      <c r="L111" s="15">
+        <v>30916</v>
+      </c>
+      <c r="M111" s="10">
+        <f t="shared" si="1025"/>
+        <v>7038.3191812638097</v>
+      </c>
+      <c r="N111" s="11">
+        <f t="shared" si="1026"/>
+        <v>5.9191453846824515</v>
+      </c>
+      <c r="O111" s="11">
+        <f t="shared" si="1027"/>
+        <v>4.962975745618678</v>
+      </c>
+      <c r="P111" s="15">
+        <v>3976</v>
+      </c>
+      <c r="Q111" s="10">
+        <f t="shared" si="1028"/>
+        <v>905.17392498075139</v>
+      </c>
+      <c r="R111" s="11">
+        <f t="shared" si="1029"/>
+        <v>3.4148915680863183</v>
+      </c>
+      <c r="S111" s="11">
+        <f t="shared" si="1030"/>
+        <v>2.231062491149737</v>
+      </c>
+      <c r="U111" s="15">
+        <v>90680</v>
+      </c>
+      <c r="V111" s="10">
+        <f t="shared" si="1031"/>
+        <v>9050.9787294014877</v>
+      </c>
+      <c r="W111" s="11">
+        <f t="shared" si="1032"/>
+        <v>9.8814170071764238</v>
+      </c>
+      <c r="X111" s="11">
+        <f t="shared" si="1033"/>
+        <v>15.011768867467982</v>
+      </c>
+      <c r="Y111" s="15">
+        <v>16349</v>
+      </c>
+      <c r="Z111" s="10">
+        <f t="shared" si="1034"/>
+        <v>1631.8311782861151</v>
+      </c>
+      <c r="AA111" s="11">
+        <f t="shared" si="1035"/>
+        <v>3.1939933760568238</v>
+      </c>
+      <c r="AB111" s="11">
+        <f t="shared" si="1036"/>
+        <v>2.5352322422452289</v>
+      </c>
+      <c r="AD111" s="15">
+        <v>19194</v>
+      </c>
+      <c r="AE111" s="10">
+        <f t="shared" si="1037"/>
+        <v>3911.1332811278344</v>
+      </c>
+      <c r="AF111" s="11">
+        <f t="shared" si="1038"/>
+        <v>0.61130560817900914</v>
+      </c>
+      <c r="AG111" s="11">
+        <f t="shared" si="1039"/>
+        <v>0.81507414423840596</v>
+      </c>
+      <c r="AH111" s="15">
+        <v>1961</v>
+      </c>
+      <c r="AI111" s="10">
+        <f t="shared" si="1040"/>
+        <v>399.59009921286253</v>
+      </c>
+      <c r="AJ111" s="11">
+        <f t="shared" si="1041"/>
+        <v>0</v>
+      </c>
+      <c r="AK111" s="11">
+        <f t="shared" si="1042"/>
+        <v>0.93733526587413962</v>
+      </c>
+      <c r="AM111" s="15">
+        <v>27970</v>
+      </c>
+      <c r="AN111" s="10">
+        <f t="shared" si="1043"/>
+        <v>6287.0307120438783</v>
+      </c>
+      <c r="AO111" s="11">
+        <f t="shared" si="1044"/>
+        <v>5.3946634640342381</v>
+      </c>
+      <c r="AP111" s="11">
+        <f t="shared" si="1045"/>
+        <v>4.1808641846269889</v>
+      </c>
+      <c r="AQ111" s="15">
+        <v>4192</v>
+      </c>
+      <c r="AR111" s="10">
+        <f t="shared" si="1046"/>
+        <v>942.26788505141008</v>
+      </c>
+      <c r="AS111" s="11">
+        <f t="shared" si="1047"/>
+        <v>1.5734435103435089</v>
+      </c>
+      <c r="AT111" s="11">
+        <f t="shared" si="1048"/>
+        <v>1.1238882216739285</v>
+      </c>
+      <c r="AV111" s="15">
+        <v>10148</v>
+      </c>
+      <c r="AW111" s="10">
+        <f t="shared" si="1049"/>
+        <v>2711.6020924333529</v>
+      </c>
+      <c r="AX111" s="11">
+        <f t="shared" si="1050"/>
+        <v>0.80161670056168077</v>
+      </c>
+      <c r="AY111" s="11">
+        <f t="shared" si="1051"/>
+        <v>1.0153811540448259</v>
+      </c>
+      <c r="AZ111" s="15">
+        <v>1078</v>
+      </c>
+      <c r="BA111" s="10">
+        <f t="shared" si="1052"/>
+        <v>288.04760106850165</v>
+      </c>
+      <c r="BB111" s="11">
+        <f t="shared" si="1053"/>
+        <v>0.26720556685393149</v>
+      </c>
+      <c r="BC111" s="11">
+        <f t="shared" si="1054"/>
+        <v>0.8016167005616921</v>
+      </c>
     </row>
     <row r="112" spans="1:55">
       <c r="A112" s="2">
@@ -36061,80 +36951,752 @@
       <c r="B112" s="3">
         <v>109</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="U112" s="15"/>
-      <c r="Y112" s="15"/>
-      <c r="AD112" s="15"/>
-      <c r="AH112" s="15"/>
-      <c r="AM112" s="15"/>
-      <c r="AQ112" s="15"/>
-      <c r="AV112" s="15"/>
-      <c r="AZ112" s="15"/>
+      <c r="C112" s="15">
+        <v>9864</v>
+      </c>
+      <c r="D112" s="10">
+        <f t="shared" si="1020"/>
+        <v>6301.6392311540167</v>
+      </c>
+      <c r="E112" s="11">
+        <f t="shared" si="1021"/>
+        <v>6.3885231459389615</v>
+      </c>
+      <c r="F112" s="11">
+        <f t="shared" si="1022"/>
+        <v>8.3050800897204677</v>
+      </c>
+      <c r="G112" s="15">
+        <v>1514</v>
+      </c>
+      <c r="H112" s="10">
+        <f t="shared" si="1023"/>
+        <v>967.22240429513192</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="357"/>
+        <v>0.63885231459391889</v>
+      </c>
+      <c r="J112" s="11">
+        <f t="shared" si="1024"/>
+        <v>2.810950184213084</v>
+      </c>
+      <c r="L112" s="15">
+        <v>30958</v>
+      </c>
+      <c r="M112" s="10">
+        <f t="shared" si="1025"/>
+        <v>7047.880877654452</v>
+      </c>
+      <c r="N112" s="11">
+        <f t="shared" si="1026"/>
+        <v>9.5616963906422825</v>
+      </c>
+      <c r="O112" s="11">
+        <f t="shared" si="1027"/>
+        <v>5.1451032959168517</v>
+      </c>
+      <c r="P112" s="15">
+        <v>3988</v>
+      </c>
+      <c r="Q112" s="10">
+        <f t="shared" si="1028"/>
+        <v>907.90583823522047</v>
+      </c>
+      <c r="R112" s="11">
+        <f t="shared" si="1029"/>
+        <v>2.7319132544690774</v>
+      </c>
+      <c r="S112" s="11">
+        <f t="shared" si="1030"/>
+        <v>2.4587219290221811</v>
+      </c>
+      <c r="U112" s="15">
+        <v>90932</v>
+      </c>
+      <c r="V112" s="10">
+        <f t="shared" si="1031"/>
+        <v>9076.1314272379368</v>
+      </c>
+      <c r="W112" s="11">
+        <f t="shared" si="1032"/>
+        <v>25.152697836449079</v>
+      </c>
+      <c r="X112" s="11">
+        <f t="shared" si="1033"/>
+        <v>17.207639313507023</v>
+      </c>
+      <c r="Y112" s="15">
+        <v>16374</v>
+      </c>
+      <c r="Z112" s="10">
+        <f t="shared" si="1034"/>
+        <v>1634.3264856111598</v>
+      </c>
+      <c r="AA112" s="11">
+        <f t="shared" si="1035"/>
+        <v>2.4953073250446778</v>
+      </c>
+      <c r="AB112" s="11">
+        <f t="shared" si="1036"/>
+        <v>2.4953073250445414</v>
+      </c>
+      <c r="AD112" s="15">
+        <v>19199</v>
+      </c>
+      <c r="AE112" s="10">
+        <f t="shared" si="1037"/>
+        <v>3912.1521238081323</v>
+      </c>
+      <c r="AF112" s="11">
+        <f t="shared" si="1038"/>
+        <v>1.0188426802978938</v>
+      </c>
+      <c r="AG112" s="11">
+        <f t="shared" si="1039"/>
+        <v>0.69281302260260413</v>
+      </c>
+      <c r="AH112" s="15">
+        <v>1964</v>
+      </c>
+      <c r="AI112" s="10">
+        <f t="shared" si="1040"/>
+        <v>400.20140482104131</v>
+      </c>
+      <c r="AJ112" s="11">
+        <f t="shared" si="1041"/>
+        <v>0.61130560817878177</v>
+      </c>
+      <c r="AK112" s="11">
+        <f t="shared" si="1042"/>
+        <v>0.61130560817878177</v>
+      </c>
+      <c r="AM112" s="15">
+        <v>27995</v>
+      </c>
+      <c r="AN112" s="10">
+        <f t="shared" si="1043"/>
+        <v>6292.6501531522481</v>
+      </c>
+      <c r="AO112" s="11">
+        <f t="shared" si="1044"/>
+        <v>5.619441108369756</v>
+      </c>
+      <c r="AP112" s="11">
+        <f t="shared" si="1045"/>
+        <v>4.5405084155625444</v>
+      </c>
+      <c r="AQ112" s="15">
+        <v>4192</v>
+      </c>
+      <c r="AR112" s="10">
+        <f t="shared" si="1046"/>
+        <v>942.26788505141008</v>
+      </c>
+      <c r="AS112" s="11">
+        <f t="shared" si="1047"/>
+        <v>0</v>
+      </c>
+      <c r="AT112" s="11">
+        <f t="shared" si="1048"/>
+        <v>0.94406610620608267</v>
+      </c>
+      <c r="AV112" s="15">
+        <v>10158</v>
+      </c>
+      <c r="AW112" s="10">
+        <f t="shared" si="1049"/>
+        <v>2714.274148101892</v>
+      </c>
+      <c r="AX112" s="11">
+        <f t="shared" si="1050"/>
+        <v>2.6720556685390875</v>
+      </c>
+      <c r="AY112" s="11">
+        <f t="shared" si="1051"/>
+        <v>1.2825867208986892</v>
+      </c>
+      <c r="AZ112" s="15">
+        <v>1079</v>
+      </c>
+      <c r="BA112" s="10">
+        <f t="shared" si="1052"/>
+        <v>288.31480663535552</v>
+      </c>
+      <c r="BB112" s="11">
+        <f t="shared" si="1053"/>
+        <v>0.26720556685387464</v>
+      </c>
+      <c r="BC112" s="11">
+        <f t="shared" si="1054"/>
+        <v>0.58785224707856965</v>
+      </c>
     </row>
-    <row r="113" spans="1:52">
+    <row r="113" spans="1:55">
       <c r="A113" s="2">
         <v>43994</v>
       </c>
       <c r="B113" s="3">
         <v>110</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="P113" s="15"/>
-      <c r="U113" s="15"/>
-      <c r="Y113" s="15"/>
-      <c r="AD113" s="15"/>
-      <c r="AH113" s="15"/>
-      <c r="AM113" s="15"/>
-      <c r="AQ113" s="15"/>
-      <c r="AV113" s="15"/>
-      <c r="AZ113" s="15"/>
+      <c r="C113" s="15">
+        <v>9871</v>
+      </c>
+      <c r="D113" s="10">
+        <f t="shared" si="1020"/>
+        <v>6306.1111973561738</v>
+      </c>
+      <c r="E113" s="11">
+        <f t="shared" si="1021"/>
+        <v>4.4719662021570912</v>
+      </c>
+      <c r="F113" s="11">
+        <f t="shared" si="1022"/>
+        <v>7.5384573122077203</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1516</v>
+      </c>
+      <c r="H113" s="10">
+        <f t="shared" si="1023"/>
+        <v>968.50010892431965</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="357"/>
+        <v>1.2777046291877241</v>
+      </c>
+      <c r="J113" s="11">
+        <f t="shared" si="1024"/>
+        <v>2.1720978696191877</v>
+      </c>
+      <c r="L113" s="15">
+        <v>30989</v>
+      </c>
+      <c r="M113" s="10">
+        <f t="shared" si="1025"/>
+        <v>7054.9383202284971</v>
+      </c>
+      <c r="N113" s="11">
+        <f t="shared" si="1026"/>
+        <v>7.0574425740451261</v>
+      </c>
+      <c r="O113" s="11">
+        <f t="shared" si="1027"/>
+        <v>6.1012729349809884</v>
+      </c>
+      <c r="P113" s="15">
+        <v>3996</v>
+      </c>
+      <c r="Q113" s="10">
+        <f t="shared" si="1028"/>
+        <v>909.72711373819982</v>
+      </c>
+      <c r="R113" s="11">
+        <f t="shared" si="1029"/>
+        <v>1.821275502979347</v>
+      </c>
+      <c r="S113" s="11">
+        <f t="shared" si="1030"/>
+        <v>2.5042538165966564</v>
+      </c>
+      <c r="U113" s="15">
+        <v>91204</v>
+      </c>
+      <c r="V113" s="10">
+        <f t="shared" si="1031"/>
+        <v>9103.2803709344207</v>
+      </c>
+      <c r="W113" s="11">
+        <f t="shared" si="1032"/>
+        <v>27.148943696483911</v>
+      </c>
+      <c r="X113" s="11">
+        <f t="shared" si="1033"/>
+        <v>20.142120727759174</v>
+      </c>
+      <c r="Y113" s="15">
+        <v>16405</v>
+      </c>
+      <c r="Z113" s="10">
+        <f t="shared" si="1034"/>
+        <v>1637.420666694215</v>
+      </c>
+      <c r="AA113" s="11">
+        <f t="shared" si="1035"/>
+        <v>3.0941810830552186</v>
+      </c>
+      <c r="AB113" s="11">
+        <f t="shared" si="1036"/>
+        <v>2.6949319110481156</v>
+      </c>
+      <c r="AD113" s="15">
+        <v>19199</v>
+      </c>
+      <c r="AE113" s="10">
+        <f t="shared" si="1037"/>
+        <v>3912.1521238081323</v>
+      </c>
+      <c r="AF113" s="11">
+        <f t="shared" si="1038"/>
+        <v>0</v>
+      </c>
+      <c r="AG113" s="11">
+        <f t="shared" si="1039"/>
+        <v>0.65205931539076123</v>
+      </c>
+      <c r="AH113" s="15">
+        <v>1967</v>
+      </c>
+      <c r="AI113" s="10">
+        <f t="shared" si="1040"/>
+        <v>400.81271042922009</v>
+      </c>
+      <c r="AJ113" s="11">
+        <f t="shared" si="1041"/>
+        <v>0.61130560817878177</v>
+      </c>
+      <c r="AK113" s="11">
+        <f t="shared" si="1042"/>
+        <v>0.52979819375494797</v>
+      </c>
+      <c r="AM113" s="15">
+        <v>28028</v>
+      </c>
+      <c r="AN113" s="10">
+        <f t="shared" si="1043"/>
+        <v>6300.0678154152956</v>
+      </c>
+      <c r="AO113" s="11">
+        <f t="shared" si="1044"/>
+        <v>7.4176622630475322</v>
+      </c>
+      <c r="AP113" s="11">
+        <f t="shared" si="1045"/>
+        <v>5.3946634640347835</v>
+      </c>
+      <c r="AQ113" s="15">
+        <v>4196</v>
+      </c>
+      <c r="AR113" s="10">
+        <f t="shared" si="1046"/>
+        <v>943.16699562874919</v>
+      </c>
+      <c r="AS113" s="11">
+        <f t="shared" si="1047"/>
+        <v>0.89911057733911548</v>
+      </c>
+      <c r="AT113" s="11">
+        <f t="shared" si="1048"/>
+        <v>0.94406610620608267</v>
+      </c>
+      <c r="AV113" s="15">
+        <v>10165</v>
+      </c>
+      <c r="AW113" s="10">
+        <f t="shared" si="1049"/>
+        <v>2716.1445870698694</v>
+      </c>
+      <c r="AX113" s="11">
+        <f t="shared" si="1050"/>
+        <v>1.8704389679774067</v>
+      </c>
+      <c r="AY113" s="11">
+        <f t="shared" si="1051"/>
+        <v>1.6032334011233615</v>
+      </c>
+      <c r="AZ113" s="15">
+        <v>1080</v>
+      </c>
+      <c r="BA113" s="10">
+        <f t="shared" si="1052"/>
+        <v>288.58201220220946</v>
+      </c>
+      <c r="BB113" s="11">
+        <f t="shared" si="1053"/>
+        <v>0.26720556685393149</v>
+      </c>
+      <c r="BC113" s="11">
+        <f t="shared" si="1054"/>
+        <v>0.53441113370779481</v>
+      </c>
     </row>
-    <row r="114" spans="1:52">
+    <row r="114" spans="1:55">
       <c r="A114" s="2">
         <v>43995</v>
       </c>
       <c r="B114" s="3">
         <v>111</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="U114" s="15"/>
-      <c r="Y114" s="15"/>
-      <c r="AD114" s="15"/>
-      <c r="AH114" s="15"/>
-      <c r="AM114" s="15"/>
-      <c r="AQ114" s="15"/>
-      <c r="AV114" s="15"/>
-      <c r="AZ114" s="15"/>
+      <c r="C114" s="15">
+        <v>9875</v>
+      </c>
+      <c r="D114" s="10">
+        <f t="shared" si="1020"/>
+        <v>6308.666606614549</v>
+      </c>
+      <c r="E114" s="11">
+        <f t="shared" si="1021"/>
+        <v>2.5554092583752208</v>
+      </c>
+      <c r="F114" s="11">
+        <f t="shared" si="1022"/>
+        <v>6.2607526830199278</v>
+      </c>
+      <c r="G114" s="15">
+        <v>1518</v>
+      </c>
+      <c r="H114" s="10">
+        <f t="shared" si="1023"/>
+        <v>969.77781355350737</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="357"/>
+        <v>1.2777046291877241</v>
+      </c>
+      <c r="J114" s="11">
+        <f t="shared" si="1024"/>
+        <v>1.6610160179440754</v>
+      </c>
+      <c r="L114" s="15">
+        <v>31029</v>
+      </c>
+      <c r="M114" s="10">
+        <f t="shared" si="1025"/>
+        <v>7064.044697743394</v>
+      </c>
+      <c r="N114" s="11">
+        <f t="shared" si="1026"/>
+        <v>9.1063775148968489</v>
+      </c>
+      <c r="O114" s="11">
+        <f t="shared" si="1027"/>
+        <v>7.2851020119174787</v>
+      </c>
+      <c r="P114" s="15">
+        <v>4006</v>
+      </c>
+      <c r="Q114" s="10">
+        <f t="shared" si="1028"/>
+        <v>912.00370811692403</v>
+      </c>
+      <c r="R114" s="11">
+        <f t="shared" si="1029"/>
+        <v>2.2765943787242122</v>
+      </c>
+      <c r="S114" s="11">
+        <f t="shared" si="1030"/>
+        <v>2.3676581538731853</v>
+      </c>
+      <c r="U114" s="15">
+        <v>91414</v>
+      </c>
+      <c r="V114" s="10">
+        <f t="shared" si="1031"/>
+        <v>9124.2409524647956</v>
+      </c>
+      <c r="W114" s="11">
+        <f t="shared" si="1032"/>
+        <v>20.960581530374839</v>
+      </c>
+      <c r="X114" s="11">
+        <f t="shared" si="1033"/>
+        <v>20.46152006536504</v>
+      </c>
+      <c r="Y114" s="15">
+        <v>16428</v>
+      </c>
+      <c r="Z114" s="10">
+        <f t="shared" si="1034"/>
+        <v>1639.7163494332558</v>
+      </c>
+      <c r="AA114" s="11">
+        <f t="shared" si="1035"/>
+        <v>2.2956827390407852</v>
+      </c>
+      <c r="AB114" s="11">
+        <f t="shared" si="1036"/>
+        <v>2.5152697836448623</v>
+      </c>
+      <c r="AD114" s="15">
+        <v>19212</v>
+      </c>
+      <c r="AE114" s="10">
+        <f t="shared" si="1037"/>
+        <v>3914.8011147769071</v>
+      </c>
+      <c r="AF114" s="11">
+        <f t="shared" si="1038"/>
+        <v>2.6489909687747968</v>
+      </c>
+      <c r="AG114" s="11">
+        <f t="shared" si="1039"/>
+        <v>1.0188426802979849</v>
+      </c>
+      <c r="AH114" s="15">
+        <v>1977</v>
+      </c>
+      <c r="AI114" s="10">
+        <f t="shared" si="1040"/>
+        <v>402.85039578981599</v>
+      </c>
+      <c r="AJ114" s="11">
+        <f t="shared" si="1041"/>
+        <v>2.0376853605959013</v>
+      </c>
+      <c r="AK114" s="11">
+        <f t="shared" si="1042"/>
+        <v>0.89658155866220568</v>
+      </c>
+      <c r="AM114" s="15">
+        <v>28056</v>
+      </c>
+      <c r="AN114" s="10">
+        <f t="shared" si="1043"/>
+        <v>6306.3615894566701</v>
+      </c>
+      <c r="AO114" s="11">
+        <f t="shared" si="1044"/>
+        <v>6.2937740413744905</v>
+      </c>
+      <c r="AP114" s="11">
+        <f t="shared" si="1045"/>
+        <v>5.754307694970521</v>
+      </c>
+      <c r="AQ114" s="15">
+        <v>4199</v>
+      </c>
+      <c r="AR114" s="10">
+        <f t="shared" si="1046"/>
+        <v>943.84132856175358</v>
+      </c>
+      <c r="AS114" s="11">
+        <f t="shared" si="1047"/>
+        <v>0.67433293300439345</v>
+      </c>
+      <c r="AT114" s="11">
+        <f t="shared" si="1048"/>
+        <v>0.89911057733913824</v>
+      </c>
+      <c r="AV114" s="15">
+        <v>10172</v>
+      </c>
+      <c r="AW114" s="10">
+        <f t="shared" si="1049"/>
+        <v>2718.0150260378468</v>
+      </c>
+      <c r="AX114" s="11">
+        <f t="shared" si="1050"/>
+        <v>1.8704389679774067</v>
+      </c>
+      <c r="AY114" s="11">
+        <f t="shared" si="1051"/>
+        <v>1.4963511743818345</v>
+      </c>
+      <c r="AZ114" s="15">
+        <v>1082</v>
+      </c>
+      <c r="BA114" s="10">
+        <f t="shared" si="1052"/>
+        <v>289.1164233359172</v>
+      </c>
+      <c r="BB114" s="11">
+        <f t="shared" si="1053"/>
+        <v>0.53441113370774929</v>
+      </c>
+      <c r="BC114" s="11">
+        <f t="shared" si="1054"/>
+        <v>0.42752890696623352</v>
+      </c>
     </row>
-    <row r="115" spans="1:52">
+    <row r="115" spans="1:55">
       <c r="A115" s="2">
         <v>43996</v>
       </c>
       <c r="B115" s="3">
         <v>112</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="U115" s="15"/>
-      <c r="Y115" s="15"/>
-      <c r="AD115" s="15"/>
-      <c r="AH115" s="15"/>
-      <c r="AM115" s="15"/>
-      <c r="AQ115" s="15"/>
-      <c r="AV115" s="15"/>
-      <c r="AZ115" s="15"/>
+      <c r="C115" s="15">
+        <v>9879</v>
+      </c>
+      <c r="D115" s="10">
+        <f t="shared" si="1020"/>
+        <v>6311.2220158729242</v>
+      </c>
+      <c r="E115" s="11">
+        <f t="shared" si="1021"/>
+        <v>2.5554092583752208</v>
+      </c>
+      <c r="F115" s="11">
+        <f t="shared" si="1022"/>
+        <v>5.7496708313448837</v>
+      </c>
+      <c r="G115" s="15">
+        <v>1521</v>
+      </c>
+      <c r="H115" s="10">
+        <f t="shared" si="1023"/>
+        <v>971.69437049728901</v>
+      </c>
+      <c r="I115" s="11">
+        <f t="shared" si="357"/>
+        <v>1.916556943781643</v>
+      </c>
+      <c r="J115" s="11">
+        <f t="shared" si="1024"/>
+        <v>1.5332455550253143</v>
+      </c>
+      <c r="L115" s="15">
+        <v>31059</v>
+      </c>
+      <c r="M115" s="10">
+        <f t="shared" si="1025"/>
+        <v>7070.8744808795664</v>
+      </c>
+      <c r="N115" s="11">
+        <f t="shared" si="1026"/>
+        <v>6.8297831361724093</v>
+      </c>
+      <c r="O115" s="11">
+        <f t="shared" si="1027"/>
+        <v>7.6948890000878238</v>
+      </c>
+      <c r="P115" s="15">
+        <v>4012</v>
+      </c>
+      <c r="Q115" s="10">
+        <f t="shared" si="1028"/>
+        <v>913.36966474415851</v>
+      </c>
+      <c r="R115" s="11">
+        <f t="shared" si="1029"/>
+        <v>1.3659566272344819</v>
+      </c>
+      <c r="S115" s="11">
+        <f t="shared" si="1030"/>
+        <v>2.3221262662986875</v>
+      </c>
+      <c r="U115" s="15">
+        <v>91658</v>
+      </c>
+      <c r="V115" s="10">
+        <f t="shared" si="1031"/>
+        <v>9148.59515195723</v>
+      </c>
+      <c r="W115" s="11">
+        <f t="shared" si="1032"/>
+        <v>24.354199492434418</v>
+      </c>
+      <c r="X115" s="11">
+        <f t="shared" si="1033"/>
+        <v>21.499567912583736</v>
+      </c>
+      <c r="Y115" s="15">
+        <v>16449</v>
+      </c>
+      <c r="Z115" s="10">
+        <f t="shared" si="1034"/>
+        <v>1641.8124075862934</v>
+      </c>
+      <c r="AA115" s="11">
+        <f t="shared" si="1035"/>
+        <v>2.0960581530375748</v>
+      </c>
+      <c r="AB115" s="11">
+        <f t="shared" si="1036"/>
+        <v>2.6350445352470162</v>
+      </c>
+      <c r="AD115" s="15">
+        <v>19219</v>
+      </c>
+      <c r="AE115" s="10">
+        <f t="shared" si="1037"/>
+        <v>3916.2274945293238</v>
+      </c>
+      <c r="AF115" s="11">
+        <f t="shared" si="1038"/>
+        <v>1.4263797524167785</v>
+      </c>
+      <c r="AG115" s="11">
+        <f t="shared" si="1039"/>
+        <v>1.1411038019336956</v>
+      </c>
+      <c r="AH115" s="15">
+        <v>1978</v>
+      </c>
+      <c r="AI115" s="10">
+        <f t="shared" si="1040"/>
+        <v>403.0541643258756</v>
+      </c>
+      <c r="AJ115" s="11">
+        <f t="shared" si="1041"/>
+        <v>0.20376853605961287</v>
+      </c>
+      <c r="AK115" s="11">
+        <f t="shared" si="1042"/>
+        <v>0.69281302260261557</v>
+      </c>
+      <c r="AM115" s="15">
+        <v>28073</v>
+      </c>
+      <c r="AN115" s="10">
+        <f t="shared" si="1043"/>
+        <v>6310.1828094103612</v>
+      </c>
+      <c r="AO115" s="11">
+        <f t="shared" si="1044"/>
+        <v>3.8212199536910703</v>
+      </c>
+      <c r="AP115" s="11">
+        <f t="shared" si="1045"/>
+        <v>5.7093521661034172</v>
+      </c>
+      <c r="AQ115" s="15">
+        <v>4204</v>
+      </c>
+      <c r="AR115" s="10">
+        <f t="shared" si="1046"/>
+        <v>944.96521678342742</v>
+      </c>
+      <c r="AS115" s="11">
+        <f t="shared" si="1047"/>
+        <v>1.1238882216738375</v>
+      </c>
+      <c r="AT115" s="11">
+        <f t="shared" si="1048"/>
+        <v>0.85415504847217105</v>
+      </c>
+      <c r="AV115" s="15">
+        <v>10180</v>
+      </c>
+      <c r="AW115" s="10">
+        <f t="shared" si="1049"/>
+        <v>2720.1526705726778</v>
+      </c>
+      <c r="AX115" s="11">
+        <f t="shared" si="1050"/>
+        <v>2.1376445348309971</v>
+      </c>
+      <c r="AY115" s="11">
+        <f t="shared" si="1051"/>
+        <v>1.8704389679773157</v>
+      </c>
+      <c r="AZ115" s="15">
+        <v>1085</v>
+      </c>
+      <c r="BA115" s="10">
+        <f t="shared" si="1052"/>
+        <v>289.91804003647894</v>
+      </c>
+      <c r="BB115" s="11">
+        <f t="shared" si="1053"/>
+        <v>0.80161670056173762</v>
+      </c>
+      <c r="BC115" s="11">
+        <f t="shared" si="1054"/>
+        <v>0.4275289069662449</v>
+      </c>
     </row>
-    <row r="116" spans="1:52">
+    <row r="116" spans="1:55">
       <c r="A116" s="2">
         <v>43997</v>
       </c>
@@ -36154,7 +37716,7 @@
       <c r="AV116" s="15"/>
       <c r="AZ116" s="15"/>
     </row>
-    <row r="117" spans="1:52">
+    <row r="117" spans="1:55">
       <c r="A117" s="2">
         <v>43998</v>
       </c>
@@ -36174,7 +37736,7 @@
       <c r="AV117" s="15"/>
       <c r="AZ117" s="15"/>
     </row>
-    <row r="118" spans="1:52">
+    <row r="118" spans="1:55">
       <c r="A118" s="2">
         <v>43999</v>
       </c>
@@ -36194,7 +37756,7 @@
       <c r="AV118" s="15"/>
       <c r="AZ118" s="15"/>
     </row>
-    <row r="119" spans="1:52">
+    <row r="119" spans="1:55">
       <c r="A119" s="2">
         <v>44000</v>
       </c>
@@ -36214,7 +37776,7 @@
       <c r="AV119" s="15"/>
       <c r="AZ119" s="15"/>
     </row>
-    <row r="120" spans="1:52">
+    <row r="120" spans="1:55">
       <c r="A120" s="2">
         <v>44001</v>
       </c>
@@ -36234,7 +37796,7 @@
       <c r="AV120" s="15"/>
       <c r="AZ120" s="15"/>
     </row>
-    <row r="121" spans="1:52">
+    <row r="121" spans="1:55">
       <c r="A121" s="2">
         <v>44002</v>
       </c>
@@ -36254,7 +37816,7 @@
       <c r="AV121" s="15"/>
       <c r="AZ121" s="15"/>
     </row>
-    <row r="122" spans="1:52">
+    <row r="122" spans="1:55">
       <c r="A122" s="2">
         <v>44003</v>
       </c>
@@ -36274,7 +37836,7 @@
       <c r="AV122" s="15"/>
       <c r="AZ122" s="15"/>
     </row>
-    <row r="123" spans="1:52">
+    <row r="123" spans="1:55">
       <c r="A123" s="2">
         <v>44004</v>
       </c>
@@ -36294,7 +37856,7 @@
       <c r="AV123" s="15"/>
       <c r="AZ123" s="15"/>
     </row>
-    <row r="124" spans="1:52">
+    <row r="124" spans="1:55">
       <c r="A124" s="2">
         <v>44005</v>
       </c>
@@ -36314,7 +37876,7 @@
       <c r="AV124" s="15"/>
       <c r="AZ124" s="15"/>
     </row>
-    <row r="125" spans="1:52">
+    <row r="125" spans="1:55">
       <c r="A125" s="2">
         <v>44006</v>
       </c>
@@ -36334,7 +37896,7 @@
       <c r="AV125" s="15"/>
       <c r="AZ125" s="15"/>
     </row>
-    <row r="126" spans="1:52">
+    <row r="126" spans="1:55">
       <c r="A126" s="2">
         <v>44007</v>
       </c>
@@ -36354,7 +37916,7 @@
       <c r="AV126" s="15"/>
       <c r="AZ126" s="15"/>
     </row>
-    <row r="127" spans="1:52">
+    <row r="127" spans="1:55">
       <c r="A127" s="2">
         <v>44008</v>
       </c>
@@ -36374,7 +37936,7 @@
       <c r="AV127" s="15"/>
       <c r="AZ127" s="15"/>
     </row>
-    <row r="128" spans="1:52">
+    <row r="128" spans="1:55">
       <c r="A128" s="2">
         <v>44009</v>
       </c>
@@ -36629,12 +38191,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2882F16-54E8-4285-9EE7-C95A64708133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/covid_bilog.xlsx
+++ b/covid_bilog.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52F65B5-40E3-4573-BD94-582D26D2D09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati ITA" sheetId="1" r:id="rId1"/>
     <sheet name="Dati REG" sheetId="2" r:id="rId2"/>
     <sheet name="Grafici" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -318,7 +324,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -362,7 +368,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -371,6 +376,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -723,6 +748,9 @@
                 <c:pt idx="106">
                   <c:v>6311.2220158729242</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>6316.3328343896756</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1053,11 +1081,14 @@
                 <c:pt idx="106">
                   <c:v>5.7496708313448837</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2164252763195691</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -1408,6 +1439,9 @@
                 <c:pt idx="106">
                   <c:v>7070.8744808795664</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>7071.3297997553118</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1738,11 +1772,14 @@
                 <c:pt idx="106">
                   <c:v>7.6948890000878238</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.6021236983004199</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -2093,6 +2130,9 @@
                 <c:pt idx="106">
                   <c:v>9148.59515195723</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>9174.4465358446905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2423,11 +2463,14 @@
                 <c:pt idx="106">
                   <c:v>21.499567912583736</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>24.693561288640559</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -2778,6 +2821,9 @@
                 <c:pt idx="106">
                   <c:v>3916.2274945293238</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>3916.4312630653835</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3108,11 +3154,14 @@
                 <c:pt idx="106">
                   <c:v>1.1411038019336956</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0595963875098278</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -3465,6 +3514,9 @@
                 <c:pt idx="106">
                   <c:v>6310.1828094103612</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>6312.6553634980437</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3795,11 +3847,14 @@
                 <c:pt idx="106">
                   <c:v>5.7093521661034172</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.1249302908330723</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -4150,6 +4205,9 @@
                 <c:pt idx="106">
                   <c:v>2720.1526705726778</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>2722.2903151075088</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4480,11 +4538,14 @@
                 <c:pt idx="106">
                   <c:v>1.8704389679773157</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1376445348311792</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -4835,6 +4896,9 @@
                 <c:pt idx="106">
                   <c:v>3905.8355147630964</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>3911.4140773045178</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5165,11 +5229,14 @@
                 <c:pt idx="106">
                   <c:v>4.5321694493322866</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.7137203012720423</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-2C57-4003-8CEA-D545F664CA0F}"/>
             </c:ext>
@@ -5249,7 +5316,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5258,6 +5324,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5364,7 +5450,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5373,6 +5458,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5425,7 +5530,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5457,14 +5561,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5500,7 +5604,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -5544,7 +5648,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5553,6 +5656,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5905,6 +6028,9 @@
                 <c:pt idx="106">
                   <c:v>971.69437049728901</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>974.24977975566458</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6235,11 +6361,14 @@
                 <c:pt idx="106">
                   <c:v>1.5332455550253143</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.5332455550253143</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -6590,6 +6719,9 @@
                 <c:pt idx="106">
                   <c:v>913.36966474415851</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>913.36966474415851</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6920,11 +7052,14 @@
                 <c:pt idx="106">
                   <c:v>2.3221262662986875</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.6391479526814237</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -7275,6 +7410,9 @@
                 <c:pt idx="106">
                   <c:v>1641.8124075862934</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>1642.6109059303076</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7605,11 +7743,14 @@
                 <c:pt idx="106">
                   <c:v>2.6350445352470162</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1559455288384926</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -7960,6 +8101,9 @@
                 <c:pt idx="106">
                   <c:v>403.0541643258756</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>403.0541643258756</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8290,11 +8434,14 @@
                 <c:pt idx="106">
                   <c:v>0.69281302260261557</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.69281302260261557</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -8645,6 +8792,9 @@
                 <c:pt idx="106">
                   <c:v>944.96521678342742</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>945.63954971643182</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8975,11 +9125,14 @@
                 <c:pt idx="106">
                   <c:v>0.85415504847217105</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.67433293300434793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -9330,6 +9483,9 @@
                 <c:pt idx="106">
                   <c:v>289.91804003647894</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>290.71965673704062</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9660,11 +9816,14 @@
                 <c:pt idx="106">
                   <c:v>0.4275289069662449</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.53441113370779481</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -10015,6 +10174,9 @@
                 <c:pt idx="106">
                   <c:v>566.85127362461412</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>567.28039382010809</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10345,11 +10507,14 @@
                 <c:pt idx="106">
                   <c:v>0.99687922337827783</c:v>
                 </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.84833761724576107</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-BE2E-433D-A0EB-EAEB651FFEC9}"/>
             </c:ext>
@@ -10430,7 +10595,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10439,6 +10603,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10545,7 +10729,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10554,6 +10737,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -10606,7 +10809,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10638,14 +10840,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11812,7 +12014,7 @@
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{531FB3D2-D000-403D-896A-A7C592D950CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531FB3D2-D000-403D-896A-A7C592D950CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11850,7 +12052,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D866BD6-D42F-494C-8B31-16EC73F9000D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D866BD6-D42F-494C-8B31-16EC73F9000D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12162,29 +12364,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -12199,7 +12401,7 @@
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:16" ht="27" thickBot="1">
+    <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -16467,8 +16669,36 @@
       <c r="B116" s="3">
         <v>113</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="G116" s="15"/>
+      <c r="C116" s="15">
+        <v>237290</v>
+      </c>
+      <c r="D116" s="14">
+        <f t="shared" ref="D116" si="182">C115/$P$4</f>
+        <v>3911.4140773045178</v>
+      </c>
+      <c r="E116" s="11">
+        <f t="shared" ref="E116" si="183">D116-D115</f>
+        <v>5.5785625414214337</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" ref="F116" si="184">SUM(E112:E116)/5</f>
+        <v>4.7137203012720423</v>
+      </c>
+      <c r="G116" s="15">
+        <v>34371</v>
+      </c>
+      <c r="H116" s="13">
+        <f t="shared" ref="H116" si="185">G116/$P$4</f>
+        <v>567.28039382010809</v>
+      </c>
+      <c r="I116" s="11">
+        <f t="shared" ref="I116" si="186">H116-H115</f>
+        <v>0.42912019549396518</v>
+      </c>
+      <c r="J116" s="11">
+        <f t="shared" ref="J116" si="187">SUM(I112:I116)/5</f>
+        <v>0.84833761724576107</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2">
@@ -16609,31 +16839,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" customWidth="1"/>
-    <col min="40" max="40" width="10.28515625" customWidth="1"/>
-    <col min="49" max="49" width="10.85546875" customWidth="1"/>
-    <col min="69" max="69" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.109375" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" customWidth="1"/>
+    <col min="49" max="49" width="10.88671875" customWidth="1"/>
+    <col min="69" max="69" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70">
@@ -16698,7 +16928,7 @@
       <c r="BB1" s="25"/>
       <c r="BC1" s="26"/>
     </row>
-    <row r="2" spans="1:70" ht="27" thickBot="1">
+    <row r="2" spans="1:70" ht="27.6" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -30018,7 +30248,7 @@
         <v>787.06605157965816</v>
       </c>
       <c r="I75" s="11">
-        <f t="shared" ref="I75:I115" si="357">$H75-$H74</f>
+        <f t="shared" ref="I75:I116" si="357">$H75-$H74</f>
         <v>7.0273754605326531</v>
       </c>
       <c r="J75" s="11">
@@ -35714,7 +35944,7 @@
         <v>16201</v>
       </c>
       <c r="Z105" s="10">
-        <f t="shared" ref="Z105:Z109" si="999">Y105/$BR$6</f>
+        <f t="shared" ref="Z105:Z108" si="999">Y105/$BR$6</f>
         <v>1617.0589589218516</v>
       </c>
       <c r="AA105" s="11">
@@ -35759,7 +35989,7 @@
         <v>27860</v>
       </c>
       <c r="AN105" s="10">
-        <f t="shared" ref="AN105:AN109" si="1008">AM105/$BR$8</f>
+        <f t="shared" ref="AN105:AN108" si="1008">AM105/$BR$8</f>
         <v>6262.3051711670523</v>
       </c>
       <c r="AO105" s="11">
@@ -36594,7 +36824,7 @@
         <v>1509</v>
       </c>
       <c r="H110" s="10">
-        <f t="shared" ref="H110:H115" si="1023">G110/$BR$4</f>
+        <f t="shared" ref="H110:H116" si="1023">G110/$BR$4</f>
         <v>964.02814272216244</v>
       </c>
       <c r="I110" s="11">
@@ -36624,7 +36854,7 @@
         <v>3961</v>
       </c>
       <c r="Q110" s="10">
-        <f t="shared" ref="Q110:Q115" si="1028">P110/$BR$5</f>
+        <f t="shared" ref="Q110:Q116" si="1028">P110/$BR$5</f>
         <v>901.75903341266508</v>
       </c>
       <c r="R110" s="11">
@@ -36654,7 +36884,7 @@
         <v>16317</v>
       </c>
       <c r="Z110" s="10">
-        <f t="shared" ref="Z110:Z115" si="1034">Y110/$BR$6</f>
+        <f t="shared" ref="Z110:Z116" si="1034">Y110/$BR$6</f>
         <v>1628.6371849100583</v>
       </c>
       <c r="AA110" s="11">
@@ -36714,7 +36944,7 @@
         <v>4185</v>
       </c>
       <c r="AR110" s="10">
-        <f t="shared" ref="AR110:AR115" si="1046">AQ110/$BR$8</f>
+        <f t="shared" ref="AR110:AR116" si="1046">AQ110/$BR$8</f>
         <v>940.69444154106657</v>
       </c>
       <c r="AS110" s="11">
@@ -36744,7 +36974,7 @@
         <v>1077</v>
       </c>
       <c r="BA110" s="10">
-        <f t="shared" ref="BA110:BA115" si="1052">AZ110/$BR$9</f>
+        <f t="shared" ref="BA110:BA116" si="1052">AZ110/$BR$9</f>
         <v>287.78039550164772</v>
       </c>
       <c r="BB110" s="11">
@@ -37703,18 +37933,186 @@
       <c r="B116" s="3">
         <v>113</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="P116" s="15"/>
-      <c r="U116" s="15"/>
-      <c r="Y116" s="15"/>
-      <c r="AD116" s="15"/>
-      <c r="AH116" s="15"/>
-      <c r="AM116" s="15"/>
-      <c r="AQ116" s="15"/>
-      <c r="AV116" s="15"/>
-      <c r="AZ116" s="15"/>
+      <c r="C116" s="15">
+        <v>9887</v>
+      </c>
+      <c r="D116" s="10">
+        <f t="shared" ref="D116" si="1055">C116/$BR$4</f>
+        <v>6316.3328343896756</v>
+      </c>
+      <c r="E116" s="11">
+        <f t="shared" ref="E116" si="1056">D116-D115</f>
+        <v>5.1108185167513511</v>
+      </c>
+      <c r="F116" s="11">
+        <f t="shared" ref="F116" si="1057">SUM(E112:E116)/5</f>
+        <v>4.2164252763195691</v>
+      </c>
+      <c r="G116" s="15">
+        <v>1525</v>
+      </c>
+      <c r="H116" s="10">
+        <f t="shared" si="1023"/>
+        <v>974.24977975566458</v>
+      </c>
+      <c r="I116" s="11">
+        <f t="shared" si="357"/>
+        <v>2.5554092583755619</v>
+      </c>
+      <c r="J116" s="11">
+        <f t="shared" ref="J116" si="1058">SUM(I112:I116)/5</f>
+        <v>1.5332455550253143</v>
+      </c>
+      <c r="L116" s="15">
+        <v>31061</v>
+      </c>
+      <c r="M116" s="10">
+        <f t="shared" ref="M116" si="1059">L116/$BR$5</f>
+        <v>7071.3297997553118</v>
+      </c>
+      <c r="N116" s="11">
+        <f t="shared" ref="N116" si="1060">M116-M115</f>
+        <v>0.45531887574543362</v>
+      </c>
+      <c r="O116" s="11">
+        <f t="shared" ref="O116" si="1061">SUM(N112:N116)/5</f>
+        <v>6.6021236983004199</v>
+      </c>
+      <c r="P116" s="15">
+        <v>4012</v>
+      </c>
+      <c r="Q116" s="10">
+        <f t="shared" si="1028"/>
+        <v>913.36966474415851</v>
+      </c>
+      <c r="R116" s="11">
+        <f t="shared" ref="R116" si="1062">Q116-Q115</f>
+        <v>0</v>
+      </c>
+      <c r="S116" s="11">
+        <f t="shared" ref="S116" si="1063">SUM(R112:R116)/5</f>
+        <v>1.6391479526814237</v>
+      </c>
+      <c r="U116" s="15">
+        <v>91917</v>
+      </c>
+      <c r="V116" s="10">
+        <f t="shared" ref="V116" si="1064">U116/$BR$6</f>
+        <v>9174.4465358446905</v>
+      </c>
+      <c r="W116" s="11">
+        <f t="shared" ref="W116" si="1065">V116-V115</f>
+        <v>25.851383887460543</v>
+      </c>
+      <c r="X116" s="11">
+        <f t="shared" ref="X116" si="1066">SUM(W112:W116)/5</f>
+        <v>24.693561288640559</v>
+      </c>
+      <c r="Y116" s="15">
+        <v>16457</v>
+      </c>
+      <c r="Z116" s="10">
+        <f t="shared" si="1034"/>
+        <v>1642.6109059303076</v>
+      </c>
+      <c r="AA116" s="11">
+        <f t="shared" ref="AA116" si="1067">Z116-Z115</f>
+        <v>0.79849834401420594</v>
+      </c>
+      <c r="AB116" s="11">
+        <f t="shared" ref="AB116" si="1068">SUM(AA112:AA116)/5</f>
+        <v>2.1559455288384926</v>
+      </c>
+      <c r="AD116" s="15">
+        <v>19220</v>
+      </c>
+      <c r="AE116" s="10">
+        <f t="shared" ref="AE116" si="1069">AD116/$BR$7</f>
+        <v>3916.4312630653835</v>
+      </c>
+      <c r="AF116" s="11">
+        <f t="shared" ref="AF116" si="1070">AE116-AE115</f>
+        <v>0.20376853605966971</v>
+      </c>
+      <c r="AG116" s="11">
+        <f t="shared" ref="AG116" si="1071">SUM(AF112:AF116)/5</f>
+        <v>1.0595963875098278</v>
+      </c>
+      <c r="AH116" s="15">
+        <v>1978</v>
+      </c>
+      <c r="AI116" s="10">
+        <f t="shared" ref="AI116" si="1072">AH116/$BR$7</f>
+        <v>403.0541643258756</v>
+      </c>
+      <c r="AJ116" s="11">
+        <f t="shared" ref="AJ116" si="1073">AI116-AI115</f>
+        <v>0</v>
+      </c>
+      <c r="AK116" s="11">
+        <f t="shared" ref="AK116" si="1074">SUM(AJ112:AJ116)/5</f>
+        <v>0.69281302260261557</v>
+      </c>
+      <c r="AM116" s="15">
+        <v>28084</v>
+      </c>
+      <c r="AN116" s="10">
+        <f t="shared" ref="AN116" si="1075">AM116/$BR$8</f>
+        <v>6312.6553634980437</v>
+      </c>
+      <c r="AO116" s="11">
+        <f t="shared" ref="AO116" si="1076">AN116-AN115</f>
+        <v>2.4725540876825107</v>
+      </c>
+      <c r="AP116" s="11">
+        <f t="shared" ref="AP116" si="1077">SUM(AO112:AO116)/5</f>
+        <v>5.1249302908330723</v>
+      </c>
+      <c r="AQ116" s="15">
+        <v>4207</v>
+      </c>
+      <c r="AR116" s="10">
+        <f t="shared" si="1046"/>
+        <v>945.63954971643182</v>
+      </c>
+      <c r="AS116" s="11">
+        <f t="shared" ref="AS116" si="1078">AR116-AR115</f>
+        <v>0.67433293300439345</v>
+      </c>
+      <c r="AT116" s="11">
+        <f t="shared" ref="AT116" si="1079">SUM(AS112:AS116)/5</f>
+        <v>0.67433293300434793</v>
+      </c>
+      <c r="AV116" s="15">
+        <v>10188</v>
+      </c>
+      <c r="AW116" s="10">
+        <f t="shared" ref="AW116" si="1080">AV116/$BR$9</f>
+        <v>2722.2903151075088</v>
+      </c>
+      <c r="AX116" s="11">
+        <f t="shared" ref="AX116" si="1081">AW116-AW115</f>
+        <v>2.1376445348309971</v>
+      </c>
+      <c r="AY116" s="11">
+        <f t="shared" ref="AY116" si="1082">SUM(AX112:AX116)/5</f>
+        <v>2.1376445348311792</v>
+      </c>
+      <c r="AZ116" s="15">
+        <v>1088</v>
+      </c>
+      <c r="BA116" s="10">
+        <f t="shared" si="1052"/>
+        <v>290.71965673704062</v>
+      </c>
+      <c r="BB116" s="11">
+        <f t="shared" ref="BB116" si="1083">BA116-BA115</f>
+        <v>0.80161670056168077</v>
+      </c>
+      <c r="BC116" s="11">
+        <f t="shared" ref="BC116" si="1084">SUM(BB112:BB116)/5</f>
+        <v>0.53441113370779481</v>
+      </c>
     </row>
     <row r="117" spans="1:55">
       <c r="A117" s="2">
@@ -38191,12 +38589,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
